--- a/data/basic_info.xlsx
+++ b/data/basic_info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\A_trading_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\trading_plan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD85E91-E850-4D21-BF89-8E9EE9A20D48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9146F293-311E-4BFF-A724-B4EA3BE13129}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28590" tabRatio="733" activeTab="1" xr2:uid="{855E00D3-25C3-4BB2-A61F-0D95BB1AF006}"/>
+    <workbookView xWindow="1305" yWindow="13470" windowWidth="13860" windowHeight="10065" tabRatio="733" activeTab="1" xr2:uid="{855E00D3-25C3-4BB2-A61F-0D95BB1AF006}"/>
   </bookViews>
   <sheets>
     <sheet name="acct_info" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2054" uniqueCount="1023">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2054" uniqueCount="1024">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3550,10 +3550,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>zx_zs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PrdCode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3891,130 +3887,146 @@
     <t>(917_c_xc_6116.txt,917_c_xc_6116.txt,)</t>
   </si>
   <si>
-    <t>(917_c_zxjt_0163.txt,917_c_zxjt_0163.txt,)</t>
+    <t>(918_c_hait_6618.xlsx,918_c_hait_6618.xlsx,)</t>
+  </si>
+  <si>
+    <t>(918_c_huat_0118.txt,918_c_huat_0118.txt,)</t>
+  </si>
+  <si>
+    <t>(918_m_haut_0118.txt,918_m_haut_0118.txt,)</t>
+  </si>
+  <si>
+    <t>(920_c_huat_1372.txt,920_c_huat_1372.txt,)</t>
+  </si>
+  <si>
+    <t>(920_m_huat_1372.txt,920_m_huat_1372.txt,)</t>
+  </si>
+  <si>
+    <t>(922_c_gtja_0808.csv,922_c_gtja_0808.csv,)</t>
+  </si>
+  <si>
+    <t>(922_m_gtja_7038.csv,922_m_gtja_7038.csv,)</t>
+  </si>
+  <si>
+    <t>(928_m_zx_6258.txt,928_m_zx_6258.txt,)</t>
+  </si>
+  <si>
+    <t>(930_c_hf_1818.txt,930_c_hf_1818.txt,)</t>
+  </si>
+  <si>
+    <t>2_m_sw_9790</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcctIDByBroker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcctIDByMXZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_f_zc_0709</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>905_f_huat_2312</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>906_f_gtja_0378</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>907_f_ya_1853</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>908_f_huat_2827</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>913_f_gy_9906</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>914_f_huat_3293</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>917_f_zc_0103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>918_f_huat_2879</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>919_f_ya_9057</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>920_f_huat_2997</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>922_f_gtja_0567</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>925_f_huat_1792</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>928_f_ya_9053</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>930_f_xy_0810</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>918_m_huat_0118</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(zxjt_alphabee/917/&lt;YYYYMMDD&gt;资金.txt,zxjt_alphabee/917/&lt;YYYYMMDD&gt;持仓.txt,)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>(917_c_hait_5912.xlsx,917_c_hait_5912.xlsx,)</t>
-  </si>
-  <si>
-    <t>(917_m_zxjt_3156.txt,917_m_zxjt_3156.txt,)</t>
-  </si>
-  <si>
-    <t>(918_c_hait_6618.xlsx,918_c_hait_6618.xlsx,)</t>
-  </si>
-  <si>
-    <t>(918_c_huat_0118.txt,918_c_huat_0118.txt,)</t>
-  </si>
-  <si>
-    <t>(918_m_haut_0118.txt,918_m_haut_0118.txt,)</t>
-  </si>
-  <si>
-    <t>(919_c_sw_2666.csv,919_c_sw_2666.csv,)</t>
-  </si>
-  <si>
-    <t>(919_m_sw_3523.csv,919_m_sw_3523.csv,)</t>
-  </si>
-  <si>
-    <t>(920_c_huat_1372.txt,920_c_huat_1372.txt,)</t>
-  </si>
-  <si>
-    <t>(920_m_huat_1372.txt,920_m_huat_1372.txt,)</t>
-  </si>
-  <si>
-    <t>(922_c_gtja_0808.csv,922_c_gtja_0808.csv,)</t>
-  </si>
-  <si>
-    <t>(922_c_zx_0322.xls,922_c_zx_0322.xls,)</t>
-  </si>
-  <si>
-    <t>(922_m_gtja_7038.csv,922_m_gtja_7038.csv,)</t>
-  </si>
-  <si>
-    <t>(925_c_hait_1601.xlsx,925_c_hait_1601.xlsx,)</t>
-  </si>
-  <si>
-    <t>(928_c_ms_3746.xls,928_c_ms_3746.xls,)</t>
-  </si>
-  <si>
-    <t>(928_m_zx_6258.txt,928_m_zx_6258.txt,)</t>
-  </si>
-  <si>
-    <t>(930_c_hf_1818.txt,930_c_hf_1818.txt,)</t>
-  </si>
-  <si>
-    <t>2_m_sw_9790</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AcctIDByBroker</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AcctIDByMXZ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_f_zc_0709</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>905_f_huat_2312</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>906_f_gtja_0378</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>907_f_ya_1853</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>908_f_huat_2827</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>913_f_gy_9906</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>914_f_huat_3293</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>917_f_zc_0103</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>918_f_huat_2879</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>919_f_ya_9057</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>920_f_huat_2997</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>922_f_gtja_0567</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>925_f_huat_1792</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>928_f_ya_9053</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>930_f_xy_0810</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>918_m_huat_0118</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(zxjt_alphabee/917/&lt;YYYYMMDD&gt;两融资金.txt,zxjt_alphabee/917/&lt;YYYYMMDD&gt;两融持仓.txt,)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(swhy_alphabee/919m/&lt;YYYYMMDD&gt;资金.txt,swhy_alphabee/919m/&lt;YYYYMMDD&gt;持仓.txt,)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(swhy_alphabee/919c/&lt;YYYYMMDD&gt;资金.txt,swhy_alphabee/919c/&lt;YYYYMMDD&gt;持仓.txt,)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zx_tdx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(922_c_zx_0322.txt,922_c_zx_0322.txt,)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(928_c_ms_3746.txt,928_c_ms_3746.txt,)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hait_hx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(925_c_hait_1601.txt,925_c_hait_1601.txt,)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7592,10 +7604,10 @@
   <dimension ref="A1:K133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="H50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E52" sqref="E52"/>
+      <selection pane="bottomRight" activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7615,37 +7627,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>900</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1006</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>908</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>901</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>902</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>903</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>904</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>975</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>905</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>906</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -7656,7 +7668,7 @@
         <v>619</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1004</v>
+        <v>995</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>620</v>
@@ -7685,7 +7697,7 @@
         <v>717</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1007</v>
+        <v>998</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>718</v>
@@ -8286,7 +8298,7 @@
         <v>261</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>606</v>
@@ -8301,45 +8313,45 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="J26">
         <v>0</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>916</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>917</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>944</v>
-      </c>
-      <c r="E27" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>918</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>919</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>920</v>
       </c>
       <c r="H27" s="3">
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="J27">
         <v>0</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -8350,7 +8362,7 @@
         <v>745</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1008</v>
+        <v>999</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>718</v>
@@ -8382,7 +8394,7 @@
         <v>265</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>606</v>
@@ -8397,7 +8409,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -8414,7 +8426,7 @@
         <v>892</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>893</v>
@@ -8429,7 +8441,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -8446,7 +8458,7 @@
         <v>748</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>1009</v>
+        <v>1000</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>718</v>
@@ -8478,7 +8490,7 @@
         <v>282</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>606</v>
@@ -8493,45 +8505,45 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="J32">
         <v>0</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>930</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>949</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>948</v>
-      </c>
-      <c r="E33" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>931</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="G33" s="1" t="s">
         <v>932</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>933</v>
-      </c>
       <c r="H33" s="3">
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="J33">
         <v>1</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
@@ -8542,7 +8554,7 @@
         <v>751</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>1010</v>
+        <v>1001</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>718</v>
@@ -8574,7 +8586,7 @@
         <v>291</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>606</v>
@@ -8589,13 +8601,13 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="J35">
         <v>0</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>922</v>
+        <v>897</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
@@ -8606,7 +8618,7 @@
         <v>753</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>1011</v>
+        <v>1002</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>718</v>
@@ -8638,7 +8650,7 @@
         <v>306</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>606</v>
@@ -8653,45 +8665,45 @@
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="J37">
         <v>0</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>934</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>935</v>
-      </c>
       <c r="C38" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="E38" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>931</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="G38" s="1" t="s">
         <v>932</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>933</v>
-      </c>
       <c r="H38" s="3">
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="J38">
         <v>0</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
@@ -8702,7 +8714,7 @@
         <v>755</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>1012</v>
+        <v>1003</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>718</v>
@@ -8734,7 +8746,7 @@
         <v>313</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>606</v>
@@ -8749,13 +8761,13 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="J40">
         <v>0</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
@@ -8766,7 +8778,7 @@
         <v>758</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>1013</v>
+        <v>1004</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>718</v>
@@ -8798,7 +8810,7 @@
         <v>323</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>606</v>
@@ -8813,13 +8825,13 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="J42">
         <v>0</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="43" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -8830,7 +8842,7 @@
         <v>496</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
@@ -8846,7 +8858,7 @@
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>987</v>
+        <v>1014</v>
       </c>
       <c r="J43" s="6">
         <v>0</v>
@@ -8863,7 +8875,7 @@
         <v>324</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>606</v>
@@ -8878,7 +8890,7 @@
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>988</v>
+        <v>1015</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -8895,7 +8907,7 @@
         <v>593</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
@@ -8911,7 +8923,7 @@
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>989</v>
+        <v>1016</v>
       </c>
       <c r="J45" s="6">
         <v>1</v>
@@ -8928,7 +8940,7 @@
         <v>760</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1014</v>
+        <v>1005</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>718</v>
@@ -8960,7 +8972,7 @@
         <v>344</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>606</v>
@@ -8975,7 +8987,7 @@
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -8992,7 +9004,7 @@
         <v>342</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>606</v>
@@ -9007,45 +9019,45 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="J48">
         <v>0</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1022</v>
+        <v>1013</v>
       </c>
       <c r="E49" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="F49" s="1" t="s">
         <v>931</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="G49" s="1" t="s">
         <v>932</v>
       </c>
-      <c r="G49" s="1" t="s">
-        <v>933</v>
-      </c>
       <c r="H49" s="3">
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="J49">
         <v>1</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
@@ -9056,7 +9068,7 @@
         <v>762</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1015</v>
+        <v>1006</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>718</v>
@@ -9088,7 +9100,7 @@
         <v>353</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4" t="s">
@@ -9104,46 +9116,46 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>993</v>
+        <v>1018</v>
       </c>
       <c r="J51" s="6">
         <v>0</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="52" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
+        <v>923</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>924</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>925</v>
-      </c>
       <c r="C52" s="4" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="H52" s="5">
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>994</v>
+        <v>1017</v>
       </c>
       <c r="J52" s="6">
         <v>1</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
@@ -9154,7 +9166,7 @@
         <v>764</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>1016</v>
+        <v>1007</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>718</v>
@@ -9186,7 +9198,7 @@
         <v>372</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>606</v>
@@ -9201,45 +9213,45 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="J54">
         <v>0</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>927</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>928</v>
-      </c>
       <c r="C55" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E55" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>918</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="G55" s="1" t="s">
         <v>919</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>920</v>
       </c>
       <c r="H55" s="3">
         <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="J55">
         <v>0</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
@@ -9250,7 +9262,7 @@
         <v>766</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>1017</v>
+        <v>1008</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>718</v>
@@ -9282,7 +9294,7 @@
         <v>594</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>606</v>
@@ -9297,7 +9309,7 @@
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -9314,7 +9326,7 @@
         <v>381</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>606</v>
@@ -9329,13 +9341,13 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>998</v>
+        <v>1020</v>
       </c>
       <c r="J58">
         <v>0</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>899</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
@@ -9346,7 +9358,7 @@
         <v>380</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>607</v>
@@ -9361,7 +9373,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>999</v>
+        <v>992</v>
       </c>
       <c r="J59">
         <v>1</v>
@@ -9378,7 +9390,7 @@
         <v>768</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1018</v>
+        <v>1009</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>718</v>
@@ -9410,7 +9422,7 @@
         <v>385</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>606</v>
@@ -9425,13 +9437,13 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>1000</v>
+        <v>1023</v>
       </c>
       <c r="J61">
         <v>0</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>897</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
@@ -9442,7 +9454,7 @@
         <v>770</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1019</v>
+        <v>1010</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>718</v>
@@ -9474,7 +9486,7 @@
         <v>393</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>606</v>
@@ -9489,30 +9501,30 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>1001</v>
+        <v>1021</v>
       </c>
       <c r="J63">
         <v>0</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>938</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="C64" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="F64" s="1" t="s">
         <v>939</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>971</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>931</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>940</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>615</v>
@@ -9521,13 +9533,13 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>1002</v>
+        <v>993</v>
       </c>
       <c r="J64">
         <v>1</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
@@ -9538,7 +9550,7 @@
         <v>772</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1020</v>
+        <v>1011</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>718</v>
@@ -9564,54 +9576,54 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="E66" s="1" t="s">
         <v>909</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>972</v>
-      </c>
-      <c r="E66" s="1" t="s">
+      <c r="F66" s="1" t="s">
         <v>910</v>
       </c>
-      <c r="F66" s="1" t="s">
+      <c r="G66" s="1" t="s">
         <v>911</v>
       </c>
-      <c r="G66" s="1" t="s">
-        <v>912</v>
-      </c>
       <c r="H66" s="3">
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>1003</v>
+        <v>994</v>
       </c>
       <c r="J66">
         <v>0</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E67" s="1" t="s">
         <v>913</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>1021</v>
-      </c>
-      <c r="E67" s="1" t="s">
+      <c r="F67" s="1" t="s">
         <v>914</v>
       </c>
-      <c r="F67" s="1" t="s">
-        <v>915</v>
-      </c>
       <c r="G67" s="1" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="H67" s="3">
         <v>1</v>
@@ -12881,7 +12893,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B13" t="s">
         <v>237</v>
@@ -12889,10 +12901,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>972</v>
+      </c>
+      <c r="B14" t="s">
         <v>973</v>
-      </c>
-      <c r="B14" t="s">
-        <v>974</v>
       </c>
     </row>
   </sheetData>

--- a/data/basic_info.xlsx
+++ b/data/basic_info.xlsx
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\trading_plan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9146F293-311E-4BFF-A724-B4EA3BE13129}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60349161-A11C-4A5D-AFB1-886B0B4E0666}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1305" yWindow="13470" windowWidth="13860" windowHeight="10065" tabRatio="733" activeTab="1" xr2:uid="{855E00D3-25C3-4BB2-A61F-0D95BB1AF006}"/>
+    <workbookView xWindow="1230" yWindow="11985" windowWidth="13860" windowHeight="10065" tabRatio="733" activeTab="1" xr2:uid="{855E00D3-25C3-4BB2-A61F-0D95BB1AF006}"/>
   </bookViews>
   <sheets>
     <sheet name="acct_info" sheetId="1" r:id="rId1"/>
-    <sheet name="myacctsinfo" sheetId="8" r:id="rId2"/>
+    <sheet name="acctinfo" sheetId="8" r:id="rId2"/>
     <sheet name="myprdsinfo" sheetId="9" r:id="rId3"/>
     <sheet name="prd_info" sheetId="2" r:id="rId4"/>
     <sheet name="broker_info" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">acct_info!$B$1:$B$125</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">myacctsinfo!$A$1:$A$133</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">acctinfo!$A$1:$A$133</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2054" uniqueCount="1024">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2054" uniqueCount="1026">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4027,6 +4027,14 @@
   </si>
   <si>
     <t>(925_c_hait_1601.txt,925_c_hait_1601.txt,)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7604,10 +7612,10 @@
   <dimension ref="A1:K133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I61" sqref="I61"/>
+      <selection pane="bottomRight" activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8376,8 +8384,8 @@
       <c r="H28" s="3">
         <v>1</v>
       </c>
-      <c r="I28" t="s">
-        <v>804</v>
+      <c r="I28" s="1" t="s">
+        <v>1025</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -8473,7 +8481,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>804</v>
+        <v>1024</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -8569,7 +8577,7 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>804</v>
+        <v>1024</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -8633,7 +8641,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>804</v>
+        <v>1024</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -8729,7 +8737,7 @@
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>804</v>
+        <v>1024</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -8793,7 +8801,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>804</v>
+        <v>1024</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -8955,7 +8963,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>804</v>
+        <v>1024</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -9083,7 +9091,7 @@
         <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>804</v>
+        <v>1024</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -9181,7 +9189,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>804</v>
+        <v>1024</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -9277,7 +9285,7 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>804</v>
+        <v>1024</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -9405,7 +9413,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>804</v>
+        <v>1024</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -9469,7 +9477,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>804</v>
+        <v>1024</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -9565,7 +9573,7 @@
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>804</v>
+        <v>1024</v>
       </c>
       <c r="J65">
         <v>0</v>
@@ -9629,7 +9637,7 @@
         <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>804</v>
+        <v>1024</v>
       </c>
       <c r="J67">
         <v>0</v>

--- a/data/basic_info.xlsx
+++ b/data/basic_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\trading_plan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60349161-A11C-4A5D-AFB1-886B0B4E0666}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D902CD-BED9-4A09-AE49-3E5436BDC9C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1230" yWindow="11985" windowWidth="13860" windowHeight="10065" tabRatio="733" activeTab="1" xr2:uid="{855E00D3-25C3-4BB2-A61F-0D95BB1AF006}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28590" tabRatio="733" activeTab="1" xr2:uid="{855E00D3-25C3-4BB2-A61F-0D95BB1AF006}"/>
   </bookViews>
   <sheets>
     <sheet name="acct_info" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2054" uniqueCount="1026">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2054" uniqueCount="1025">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3642,10 +3642,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sw_alphabee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>919</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3893,9 +3889,6 @@
     <t>(918_c_huat_0118.txt,918_c_huat_0118.txt,)</t>
   </si>
   <si>
-    <t>(918_m_haut_0118.txt,918_m_haut_0118.txt,)</t>
-  </si>
-  <si>
     <t>(920_c_huat_1372.txt,920_c_huat_1372.txt,)</t>
   </si>
   <si>
@@ -3908,9 +3901,6 @@
     <t>(922_m_gtja_7038.csv,922_m_gtja_7038.csv,)</t>
   </si>
   <si>
-    <t>(928_m_zx_6258.txt,928_m_zx_6258.txt,)</t>
-  </si>
-  <si>
     <t>(930_c_hf_1818.txt,930_c_hf_1818.txt,)</t>
   </si>
   <si>
@@ -4022,19 +4012,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hait_hx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(925_c_hait_1601.txt,925_c_hait_1601.txt,)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>N/A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>N/A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(918_m_huat_0118.txt,918_m_huat_0118.txt,)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swhy_alphabee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(925_c_hait_1601.xlsx,925_c_hait_1601.xlsx,)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7612,10 +7610,10 @@
   <dimension ref="A1:K133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I29" sqref="I29"/>
+      <selection pane="bottomRight" activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7638,10 +7636,10 @@
         <v>899</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>907</v>
@@ -7659,7 +7657,7 @@
         <v>903</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>904</v>
@@ -7676,7 +7674,7 @@
         <v>619</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>620</v>
@@ -7705,7 +7703,7 @@
         <v>717</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>718</v>
@@ -8306,7 +8304,7 @@
         <v>261</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>606</v>
@@ -8321,7 +8319,7 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -8338,7 +8336,7 @@
         <v>916</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>917</v>
@@ -8353,7 +8351,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -8370,7 +8368,7 @@
         <v>745</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>718</v>
@@ -8385,7 +8383,7 @@
         <v>1</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -8402,7 +8400,7 @@
         <v>265</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>606</v>
@@ -8417,7 +8415,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -8434,7 +8432,7 @@
         <v>892</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>893</v>
@@ -8449,7 +8447,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -8466,7 +8464,7 @@
         <v>748</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>718</v>
@@ -8481,7 +8479,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -8498,7 +8496,7 @@
         <v>282</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>606</v>
@@ -8513,7 +8511,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -8524,34 +8522,34 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>929</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>948</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>947</v>
-      </c>
-      <c r="E33" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>930</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="G33" s="1" t="s">
         <v>931</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>932</v>
-      </c>
       <c r="H33" s="3">
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="J33">
         <v>1</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
@@ -8562,7 +8560,7 @@
         <v>751</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>718</v>
@@ -8577,7 +8575,7 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -8594,7 +8592,7 @@
         <v>291</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>606</v>
@@ -8609,7 +8607,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -8626,7 +8624,7 @@
         <v>753</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>718</v>
@@ -8641,7 +8639,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -8658,7 +8656,7 @@
         <v>306</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>606</v>
@@ -8673,7 +8671,7 @@
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -8684,28 +8682,28 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>933</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>934</v>
-      </c>
       <c r="C38" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="E38" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>930</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="G38" s="1" t="s">
         <v>931</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>932</v>
-      </c>
       <c r="H38" s="3">
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -8722,7 +8720,7 @@
         <v>755</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>718</v>
@@ -8737,7 +8735,7 @@
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -8754,7 +8752,7 @@
         <v>313</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>606</v>
@@ -8769,7 +8767,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -8786,7 +8784,7 @@
         <v>758</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>718</v>
@@ -8801,7 +8799,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -8818,7 +8816,7 @@
         <v>323</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>606</v>
@@ -8833,7 +8831,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -8850,7 +8848,7 @@
         <v>496</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
@@ -8866,7 +8864,7 @@
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="J43" s="6">
         <v>0</v>
@@ -8883,7 +8881,7 @@
         <v>324</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>606</v>
@@ -8898,7 +8896,7 @@
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -8915,7 +8913,7 @@
         <v>593</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
@@ -8931,7 +8929,7 @@
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="J45" s="6">
         <v>1</v>
@@ -8948,7 +8946,7 @@
         <v>760</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>718</v>
@@ -8963,7 +8961,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -8980,7 +8978,7 @@
         <v>344</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>606</v>
@@ -8995,7 +8993,7 @@
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -9012,7 +9010,7 @@
         <v>342</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>606</v>
@@ -9027,7 +9025,7 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -9038,28 +9036,28 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="E49" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="F49" s="1" t="s">
         <v>930</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="G49" s="1" t="s">
         <v>931</v>
       </c>
-      <c r="G49" s="1" t="s">
-        <v>932</v>
-      </c>
       <c r="H49" s="3">
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>988</v>
+        <v>1022</v>
       </c>
       <c r="J49">
         <v>1</v>
@@ -9076,7 +9074,7 @@
         <v>762</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>718</v>
@@ -9091,7 +9089,7 @@
         <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -9108,7 +9106,7 @@
         <v>353</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4" t="s">
@@ -9124,31 +9122,31 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="J51" s="6">
         <v>0</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>922</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="52" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
+        <v>922</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>923</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>924</v>
-      </c>
       <c r="C52" s="4" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4" t="s">
         <v>917</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>911</v>
@@ -9157,13 +9155,13 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="J52" s="6">
         <v>1</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>922</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
@@ -9174,7 +9172,7 @@
         <v>764</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>718</v>
@@ -9189,7 +9187,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -9206,7 +9204,7 @@
         <v>372</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>606</v>
@@ -9221,7 +9219,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -9232,13 +9230,13 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>927</v>
-      </c>
       <c r="C55" s="1" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>917</v>
@@ -9253,13 +9251,13 @@
         <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="J55">
         <v>0</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
@@ -9270,7 +9268,7 @@
         <v>766</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>718</v>
@@ -9285,7 +9283,7 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -9302,7 +9300,7 @@
         <v>594</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>606</v>
@@ -9317,7 +9315,7 @@
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -9334,7 +9332,7 @@
         <v>381</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>606</v>
@@ -9349,13 +9347,13 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="J58">
         <v>0</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
@@ -9366,7 +9364,7 @@
         <v>380</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>607</v>
@@ -9381,7 +9379,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="J59">
         <v>1</v>
@@ -9398,7 +9396,7 @@
         <v>768</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>718</v>
@@ -9413,7 +9411,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -9430,7 +9428,7 @@
         <v>385</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>606</v>
@@ -9445,13 +9443,13 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="J61">
         <v>0</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>1022</v>
+        <v>897</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
@@ -9462,7 +9460,7 @@
         <v>770</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>718</v>
@@ -9477,7 +9475,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -9494,7 +9492,7 @@
         <v>393</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>606</v>
@@ -9509,30 +9507,30 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="J63">
         <v>0</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>937</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="C64" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="F64" s="1" t="s">
         <v>938</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>970</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>930</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>939</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>615</v>
@@ -9540,14 +9538,14 @@
       <c r="H64" s="3">
         <v>1</v>
       </c>
-      <c r="I64" t="s">
-        <v>993</v>
+      <c r="I64" s="1" t="s">
+        <v>1021</v>
       </c>
       <c r="J64">
         <v>1</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
@@ -9558,7 +9556,7 @@
         <v>772</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>718</v>
@@ -9573,7 +9571,7 @@
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="J65">
         <v>0</v>
@@ -9590,7 +9588,7 @@
         <v>908</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>909</v>
@@ -9605,13 +9603,13 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="J66">
         <v>0</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
@@ -9622,7 +9620,7 @@
         <v>912</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>913</v>
@@ -9637,7 +9635,7 @@
         <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="J67">
         <v>0</v>
@@ -12901,7 +12899,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B13" t="s">
         <v>237</v>
@@ -12909,10 +12907,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>971</v>
+      </c>
+      <c r="B14" t="s">
         <v>972</v>
-      </c>
-      <c r="B14" t="s">
-        <v>973</v>
       </c>
     </row>
   </sheetData>

--- a/data/basic_info.xlsx
+++ b/data/basic_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\trading_plan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D902CD-BED9-4A09-AE49-3E5436BDC9C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3375D67-253F-4ABE-A3FA-07A5ED5C0B46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28590" tabRatio="733" activeTab="1" xr2:uid="{855E00D3-25C3-4BB2-A61F-0D95BB1AF006}"/>
+    <workbookView xWindow="1500" yWindow="8835" windowWidth="13860" windowHeight="10065" tabRatio="733" activeTab="1" xr2:uid="{855E00D3-25C3-4BB2-A61F-0D95BB1AF006}"/>
   </bookViews>
   <sheets>
     <sheet name="acct_info" sheetId="1" r:id="rId1"/>
@@ -7610,10 +7610,10 @@
   <dimension ref="A1:K133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I61" sqref="I61"/>
+      <selection pane="bottomRight" activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8508,7 +8508,7 @@
         <v>615</v>
       </c>
       <c r="H32" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="s">
         <v>978</v>
@@ -8540,7 +8540,7 @@
         <v>931</v>
       </c>
       <c r="H33" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="s">
         <v>979</v>
@@ -8572,7 +8572,7 @@
         <v>720</v>
       </c>
       <c r="H34" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="s">
         <v>1019</v>

--- a/data/basic_info.xlsx
+++ b/data/basic_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\trading_plan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3375D67-253F-4ABE-A3FA-07A5ED5C0B46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4CC26A-202F-4FCE-A3FE-7119BC1AC5E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="8835" windowWidth="13860" windowHeight="10065" tabRatio="733" activeTab="1" xr2:uid="{855E00D3-25C3-4BB2-A61F-0D95BB1AF006}"/>
+    <workbookView xWindow="375" yWindow="9630" windowWidth="13860" windowHeight="10065" tabRatio="733" activeTab="1" xr2:uid="{855E00D3-25C3-4BB2-A61F-0D95BB1AF006}"/>
   </bookViews>
   <sheets>
     <sheet name="acct_info" sheetId="1" r:id="rId1"/>
@@ -3856,12 +3856,6 @@
     <t>(905_m_huat_5729.txt,905_m_huat_5729.txt,)</t>
   </si>
   <si>
-    <t>(906_c_gtja_1979.csv,906_c_gtja_1979.csv,)</t>
-  </si>
-  <si>
-    <t>(906_m_gtja_6560.csv,906_m_gtja_6560.csv,)</t>
-  </si>
-  <si>
     <t>(907_c_huat_5588.txt,907_c_huat_5588.txt,)</t>
   </si>
   <si>
@@ -3895,12 +3889,6 @@
     <t>(920_m_huat_1372.txt,920_m_huat_1372.txt,)</t>
   </si>
   <si>
-    <t>(922_c_gtja_0808.csv,922_c_gtja_0808.csv,)</t>
-  </si>
-  <si>
-    <t>(922_m_gtja_7038.csv,922_m_gtja_7038.csv,)</t>
-  </si>
-  <si>
     <t>(930_c_hf_1818.txt,930_c_hf_1818.txt,)</t>
   </si>
   <si>
@@ -4033,6 +4021,22 @@
   </si>
   <si>
     <t>(925_c_hait_1601.xlsx,925_c_hait_1601.xlsx,)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(906_c_gtja_1979.xls,906_c_gtja_1979.xls,)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(906_m_gtja_6560.xls,906_m_gtja_6560.xls,)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(922_c_gtja_0808.xls,922_c_gtja_0808.xls,)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(922_m_gtja_7038.xls,922_m_gtja_7038.xls,)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7610,10 +7614,10 @@
   <dimension ref="A1:K133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F36" sqref="F36"/>
+      <selection pane="bottomRight" activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7636,10 +7640,10 @@
         <v>899</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>907</v>
@@ -7674,7 +7678,7 @@
         <v>619</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>620</v>
@@ -7703,7 +7707,7 @@
         <v>717</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>718</v>
@@ -8368,7 +8372,7 @@
         <v>745</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>718</v>
@@ -8383,7 +8387,7 @@
         <v>1</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -8415,7 +8419,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>976</v>
+        <v>1021</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -8447,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>977</v>
+        <v>1022</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -8464,7 +8468,7 @@
         <v>748</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>718</v>
@@ -8479,7 +8483,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -8511,7 +8515,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -8543,7 +8547,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="J33">
         <v>1</v>
@@ -8560,7 +8564,7 @@
         <v>751</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>718</v>
@@ -8575,7 +8579,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -8607,7 +8611,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -8624,7 +8628,7 @@
         <v>753</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>718</v>
@@ -8639,7 +8643,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -8671,7 +8675,7 @@
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -8703,7 +8707,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -8720,7 +8724,7 @@
         <v>755</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>718</v>
@@ -8735,7 +8739,7 @@
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -8767,7 +8771,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -8784,7 +8788,7 @@
         <v>758</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>718</v>
@@ -8799,7 +8803,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -8831,7 +8835,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -8864,7 +8868,7 @@
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="J43" s="6">
         <v>0</v>
@@ -8896,7 +8900,7 @@
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -8929,7 +8933,7 @@
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="J45" s="6">
         <v>1</v>
@@ -8946,7 +8950,7 @@
         <v>760</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>718</v>
@@ -8961,7 +8965,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -8993,7 +8997,7 @@
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -9025,7 +9029,7 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -9042,7 +9046,7 @@
         <v>959</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>929</v>
@@ -9057,7 +9061,7 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="J49">
         <v>1</v>
@@ -9074,7 +9078,7 @@
         <v>762</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>718</v>
@@ -9089,7 +9093,7 @@
         <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -9122,13 +9126,13 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="J51" s="6">
         <v>0</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="52" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -9155,13 +9159,13 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="J52" s="6">
         <v>1</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
@@ -9172,7 +9176,7 @@
         <v>764</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>718</v>
@@ -9187,7 +9191,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -9219,7 +9223,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -9251,7 +9255,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="J55">
         <v>0</v>
@@ -9268,7 +9272,7 @@
         <v>766</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>718</v>
@@ -9283,7 +9287,7 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -9315,7 +9319,7 @@
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>989</v>
+        <v>1023</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -9347,13 +9351,13 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="J58">
         <v>0</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
@@ -9379,7 +9383,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>990</v>
+        <v>1024</v>
       </c>
       <c r="J59">
         <v>1</v>
@@ -9396,7 +9400,7 @@
         <v>768</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>718</v>
@@ -9411,7 +9415,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -9443,7 +9447,7 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="J61">
         <v>0</v>
@@ -9460,7 +9464,7 @@
         <v>770</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>718</v>
@@ -9475,7 +9479,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -9507,7 +9511,7 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="J63">
         <v>0</v>
@@ -9539,7 +9543,7 @@
         <v>1</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="J64">
         <v>1</v>
@@ -9556,7 +9560,7 @@
         <v>772</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>718</v>
@@ -9571,7 +9575,7 @@
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="J65">
         <v>0</v>
@@ -9603,7 +9607,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -9620,7 +9624,7 @@
         <v>912</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>913</v>
@@ -9635,7 +9639,7 @@
         <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="J67">
         <v>0</v>

--- a/data/basic_info.xlsx
+++ b/data/basic_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\trading_plan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4CC26A-202F-4FCE-A3FE-7119BC1AC5E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0711EBD9-34B9-4550-9828-B4E1DDB24C81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="375" yWindow="9630" windowWidth="13860" windowHeight="10065" tabRatio="733" activeTab="1" xr2:uid="{855E00D3-25C3-4BB2-A61F-0D95BB1AF006}"/>
+    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28590" tabRatio="733" activeTab="1" xr2:uid="{855E00D3-25C3-4BB2-A61F-0D95BB1AF006}"/>
   </bookViews>
   <sheets>
     <sheet name="acct_info" sheetId="1" r:id="rId1"/>
@@ -7614,10 +7614,10 @@
   <dimension ref="A1:K133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I60" sqref="I60"/>
+      <selection pane="bottomRight" activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7690,7 +7690,7 @@
         <v>622</v>
       </c>
       <c r="H2" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>890</v>
@@ -7719,7 +7719,7 @@
         <v>720</v>
       </c>
       <c r="H3" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>804</v>
@@ -7745,7 +7745,7 @@
         <v>622</v>
       </c>
       <c r="H4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>626</v>
@@ -7771,7 +7771,7 @@
         <v>622</v>
       </c>
       <c r="H5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>626</v>
@@ -7797,7 +7797,7 @@
         <v>720</v>
       </c>
       <c r="H6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>804</v>
@@ -7823,7 +7823,7 @@
         <v>615</v>
       </c>
       <c r="H7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>616</v>
@@ -7849,7 +7849,7 @@
         <v>720</v>
       </c>
       <c r="H8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>804</v>
@@ -7875,7 +7875,7 @@
         <v>615</v>
       </c>
       <c r="H9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>627</v>
@@ -7901,7 +7901,7 @@
         <v>720</v>
       </c>
       <c r="H10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>804</v>
@@ -7927,7 +7927,7 @@
         <v>615</v>
       </c>
       <c r="H11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>628</v>
@@ -7953,7 +7953,7 @@
         <v>615</v>
       </c>
       <c r="H12" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>629</v>
@@ -7979,7 +7979,7 @@
         <v>720</v>
       </c>
       <c r="H13" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>804</v>
@@ -8005,7 +8005,7 @@
         <v>615</v>
       </c>
       <c r="H14" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>630</v>
@@ -8031,7 +8031,7 @@
         <v>720</v>
       </c>
       <c r="H15" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>804</v>
@@ -8057,7 +8057,7 @@
         <v>615</v>
       </c>
       <c r="H16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>626</v>
@@ -8083,7 +8083,7 @@
         <v>720</v>
       </c>
       <c r="H17" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>804</v>
@@ -8109,7 +8109,7 @@
         <v>615</v>
       </c>
       <c r="H18" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>631</v>
@@ -8135,7 +8135,7 @@
         <v>720</v>
       </c>
       <c r="H19" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>804</v>
@@ -8161,7 +8161,7 @@
         <v>615</v>
       </c>
       <c r="H20" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>637</v>
@@ -8187,7 +8187,7 @@
         <v>720</v>
       </c>
       <c r="H21" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>804</v>
@@ -8213,7 +8213,7 @@
         <v>615</v>
       </c>
       <c r="H22" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>632</v>
@@ -8239,7 +8239,7 @@
         <v>720</v>
       </c>
       <c r="H23" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>804</v>
@@ -8265,7 +8265,7 @@
         <v>615</v>
       </c>
       <c r="H24" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>626</v>
@@ -8291,7 +8291,7 @@
         <v>720</v>
       </c>
       <c r="H25" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>804</v>
@@ -9665,7 +9665,7 @@
         <v>615</v>
       </c>
       <c r="H68" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>626</v>
@@ -9691,7 +9691,7 @@
         <v>720</v>
       </c>
       <c r="H69" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>804</v>
@@ -9717,7 +9717,7 @@
         <v>720</v>
       </c>
       <c r="H70" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>804</v>
@@ -9743,7 +9743,7 @@
         <v>642</v>
       </c>
       <c r="H71" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>643</v>
@@ -9769,7 +9769,7 @@
         <v>615</v>
       </c>
       <c r="H72" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>626</v>
@@ -9795,7 +9795,7 @@
         <v>615</v>
       </c>
       <c r="H73" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" s="1" t="s">
         <v>626</v>
@@ -9821,7 +9821,7 @@
         <v>720</v>
       </c>
       <c r="H74" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" s="1" t="s">
         <v>804</v>
@@ -9847,7 +9847,7 @@
         <v>720</v>
       </c>
       <c r="H75" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" s="1" t="s">
         <v>804</v>
@@ -9873,7 +9873,7 @@
         <v>720</v>
       </c>
       <c r="H76" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" s="1" t="s">
         <v>804</v>
@@ -9899,7 +9899,7 @@
         <v>615</v>
       </c>
       <c r="H77" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" s="1" t="s">
         <v>633</v>
@@ -9925,7 +9925,7 @@
         <v>720</v>
       </c>
       <c r="H78" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" s="1" t="s">
         <v>804</v>
@@ -9951,7 +9951,7 @@
         <v>720</v>
       </c>
       <c r="H79" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" s="1" t="s">
         <v>804</v>
@@ -9977,7 +9977,7 @@
         <v>720</v>
       </c>
       <c r="H80" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" s="1" t="s">
         <v>804</v>
@@ -10003,7 +10003,7 @@
         <v>615</v>
       </c>
       <c r="H81" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" s="1" t="s">
         <v>634</v>
@@ -10029,7 +10029,7 @@
         <v>720</v>
       </c>
       <c r="H82" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" s="1" t="s">
         <v>804</v>
@@ -10055,7 +10055,7 @@
         <v>615</v>
       </c>
       <c r="H83" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" s="1" t="s">
         <v>635</v>
@@ -10081,7 +10081,7 @@
         <v>720</v>
       </c>
       <c r="H84" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" s="1" t="s">
         <v>804</v>
@@ -10107,7 +10107,7 @@
         <v>720</v>
       </c>
       <c r="H85" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" s="1" t="s">
         <v>804</v>
@@ -10133,7 +10133,7 @@
         <v>615</v>
       </c>
       <c r="H86" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" s="1" t="s">
         <v>626</v>
@@ -10159,7 +10159,7 @@
         <v>615</v>
       </c>
       <c r="H87" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" s="1" t="s">
         <v>626</v>
@@ -10185,7 +10185,7 @@
         <v>720</v>
       </c>
       <c r="H88" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" s="1" t="s">
         <v>804</v>
@@ -10211,7 +10211,7 @@
         <v>615</v>
       </c>
       <c r="H89" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" s="1" t="s">
         <v>626</v>
@@ -10237,7 +10237,7 @@
         <v>720</v>
       </c>
       <c r="H90" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" s="1" t="s">
         <v>804</v>
@@ -10263,7 +10263,7 @@
         <v>614</v>
       </c>
       <c r="H91" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" s="1" t="s">
         <v>626</v>
@@ -10289,7 +10289,7 @@
         <v>615</v>
       </c>
       <c r="H92" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" s="1" t="s">
         <v>626</v>
@@ -10315,7 +10315,7 @@
         <v>720</v>
       </c>
       <c r="H93" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" s="1" t="s">
         <v>804</v>
@@ -10341,7 +10341,7 @@
         <v>615</v>
       </c>
       <c r="H94" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" s="1" t="s">
         <v>626</v>
@@ -10367,7 +10367,7 @@
         <v>720</v>
       </c>
       <c r="H95" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" s="1" t="s">
         <v>804</v>
@@ -10393,7 +10393,7 @@
         <v>614</v>
       </c>
       <c r="H96" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" s="1" t="s">
         <v>626</v>
@@ -10419,7 +10419,7 @@
         <v>615</v>
       </c>
       <c r="H97" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" s="1" t="s">
         <v>636</v>
@@ -10428,7 +10428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>801</v>
       </c>
@@ -10445,7 +10445,7 @@
         <v>720</v>
       </c>
       <c r="H98" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" s="1" t="s">
         <v>804</v>
@@ -10471,7 +10471,7 @@
         <v>826</v>
       </c>
       <c r="H99" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" s="1" t="s">
         <v>870</v>
@@ -10497,7 +10497,7 @@
         <v>818</v>
       </c>
       <c r="H100" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" s="1" t="s">
         <v>871</v>
@@ -10523,7 +10523,7 @@
         <v>818</v>
       </c>
       <c r="H101" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" s="1" t="s">
         <v>870</v>
@@ -10549,7 +10549,7 @@
         <v>818</v>
       </c>
       <c r="H102" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" s="1" t="s">
         <v>870</v>
@@ -10575,7 +10575,7 @@
         <v>818</v>
       </c>
       <c r="H103" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" s="1" t="s">
         <v>871</v>
@@ -10601,7 +10601,7 @@
         <v>818</v>
       </c>
       <c r="H104" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" s="1" t="s">
         <v>870</v>
@@ -10627,7 +10627,7 @@
         <v>818</v>
       </c>
       <c r="H105" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" s="1" t="s">
         <v>870</v>
@@ -10653,7 +10653,7 @@
         <v>818</v>
       </c>
       <c r="H106" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" s="1" t="s">
         <v>871</v>
@@ -10679,7 +10679,7 @@
         <v>818</v>
       </c>
       <c r="H107" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" s="1" t="s">
         <v>870</v>
@@ -10705,7 +10705,7 @@
         <v>818</v>
       </c>
       <c r="H108" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" s="1" t="s">
         <v>872</v>
@@ -10731,7 +10731,7 @@
         <v>818</v>
       </c>
       <c r="H109" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" s="1" t="s">
         <v>871</v>
@@ -10757,7 +10757,7 @@
         <v>818</v>
       </c>
       <c r="H110" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" s="1" t="s">
         <v>871</v>
@@ -10783,7 +10783,7 @@
         <v>826</v>
       </c>
       <c r="H111" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" s="1" t="s">
         <v>870</v>
@@ -10809,7 +10809,7 @@
         <v>818</v>
       </c>
       <c r="H112" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" s="1" t="s">
         <v>874</v>
@@ -10835,7 +10835,7 @@
         <v>818</v>
       </c>
       <c r="H113" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" s="1" t="s">
         <v>871</v>
@@ -10861,7 +10861,7 @@
         <v>818</v>
       </c>
       <c r="H114" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" s="1" t="s">
         <v>875</v>
@@ -10887,7 +10887,7 @@
         <v>818</v>
       </c>
       <c r="H115" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" s="1" t="s">
         <v>871</v>
@@ -10913,7 +10913,7 @@
         <v>818</v>
       </c>
       <c r="H116" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" s="1" t="s">
         <v>870</v>
@@ -10939,7 +10939,7 @@
         <v>818</v>
       </c>
       <c r="H117" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" s="1" t="s">
         <v>871</v>
@@ -10965,7 +10965,7 @@
         <v>818</v>
       </c>
       <c r="H118" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" s="1" t="s">
         <v>870</v>
@@ -10991,7 +10991,7 @@
         <v>818</v>
       </c>
       <c r="H119" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" s="1" t="s">
         <v>877</v>
@@ -11017,7 +11017,7 @@
         <v>818</v>
       </c>
       <c r="H120" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" s="1" t="s">
         <v>871</v>
@@ -11043,7 +11043,7 @@
         <v>818</v>
       </c>
       <c r="H121" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" s="1" t="s">
         <v>870</v>
@@ -11069,7 +11069,7 @@
         <v>818</v>
       </c>
       <c r="H122" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" s="1" t="s">
         <v>871</v>
@@ -11095,7 +11095,7 @@
         <v>818</v>
       </c>
       <c r="H123" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" s="1" t="s">
         <v>878</v>
@@ -11121,7 +11121,7 @@
         <v>818</v>
       </c>
       <c r="H124" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" s="1" t="s">
         <v>879</v>
@@ -11147,7 +11147,7 @@
         <v>818</v>
       </c>
       <c r="H125" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" s="1" t="s">
         <v>871</v>
@@ -11173,7 +11173,7 @@
         <v>818</v>
       </c>
       <c r="H126" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" s="1" t="s">
         <v>871</v>
@@ -11225,7 +11225,7 @@
         <v>818</v>
       </c>
       <c r="H128" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" s="1" t="s">
         <v>880</v>
@@ -11251,7 +11251,7 @@
         <v>818</v>
       </c>
       <c r="H129" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" s="1" t="s">
         <v>881</v>
@@ -11277,7 +11277,7 @@
         <v>818</v>
       </c>
       <c r="H130" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" s="1" t="s">
         <v>871</v>
@@ -11303,7 +11303,7 @@
         <v>818</v>
       </c>
       <c r="H131" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" s="1" t="s">
         <v>871</v>
@@ -11329,7 +11329,7 @@
         <v>818</v>
       </c>
       <c r="H132" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" s="1" t="s">
         <v>870</v>
@@ -11355,7 +11355,7 @@
         <v>818</v>
       </c>
       <c r="H133" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" s="1" t="s">
         <v>870</v>

--- a/data/basic_info.xlsx
+++ b/data/basic_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\trading_plan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0711EBD9-34B9-4550-9828-B4E1DDB24C81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98EEB6C-09F5-401F-9A5A-3189478F7918}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28590" tabRatio="733" activeTab="1" xr2:uid="{855E00D3-25C3-4BB2-A61F-0D95BB1AF006}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">acct_info!$B$1:$B$125</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">acctinfo!$A$1:$A$133</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">acctinfo!$A$1:$A$135</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2054" uniqueCount="1025">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2069" uniqueCount="1037">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4037,6 +4037,54 @@
   </si>
   <si>
     <t>(922_m_gtja_7038.xls,922_m_gtja_7038.xls,)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>929</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20300226218</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>929_c_zx_6218</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zx_tdx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>929_o_zx_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>patch</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4064,12 +4112,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -4086,7 +4140,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4106,6 +4160,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7611,27 +7674,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E89EC7F-6807-4E54-B5E1-E4E4E9C6C1B6}">
-  <dimension ref="A1:K133"/>
+  <dimension ref="A1:K135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H46" sqref="H46"/>
+      <selection pane="bottomRight" activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.75" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
     <col min="6" max="6" width="11.25" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="41" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="41" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7640,10 +7703,10 @@
         <v>899</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>989</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>990</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>907</v>
@@ -7661,10 +7724,10 @@
         <v>903</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>973</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>904</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>905</v>
@@ -7675,10 +7738,10 @@
         <v>617</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>619</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>988</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>620</v>
@@ -7692,11 +7755,11 @@
       <c r="H2" s="3">
         <v>0</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>890</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -7704,10 +7767,10 @@
         <v>716</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>717</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>991</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>718</v>
@@ -7721,18 +7784,18 @@
       <c r="H3" s="3">
         <v>0</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>804</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>623</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -7747,18 +7810,18 @@
       <c r="H4" s="3">
         <v>0</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>626</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>624</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -7773,18 +7836,18 @@
       <c r="H5" s="3">
         <v>0</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>626</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>889</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -7799,18 +7862,18 @@
       <c r="H6" s="3">
         <v>0</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>804</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>702</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>452</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -7825,18 +7888,18 @@
       <c r="H7" s="3">
         <v>0</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>616</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>724</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -7851,18 +7914,18 @@
       <c r="H8" s="3">
         <v>0</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>804</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>457</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -7877,18 +7940,18 @@
       <c r="H9" s="3">
         <v>0</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>627</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>727</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -7903,18 +7966,18 @@
       <c r="H10" s="3">
         <v>0</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>804</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>587</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -7929,18 +7992,18 @@
       <c r="H11" s="3">
         <v>0</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>628</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>588</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -7955,18 +8018,18 @@
       <c r="H12" s="3">
         <v>0</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>629</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>729</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -7981,18 +8044,18 @@
       <c r="H13" s="3">
         <v>0</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>804</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>589</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -8007,18 +8070,18 @@
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>630</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>732</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -8033,18 +8096,18 @@
       <c r="H15" s="3">
         <v>0</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>804</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>460</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -8059,18 +8122,18 @@
       <c r="H16" s="3">
         <v>0</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>626</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>734</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -8085,18 +8148,18 @@
       <c r="H17" s="3">
         <v>0</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>804</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>590</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -8111,18 +8174,18 @@
       <c r="H18" s="3">
         <v>0</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>631</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>737</v>
       </c>
       <c r="E19" s="1" t="s">
@@ -8137,18 +8200,18 @@
       <c r="H19" s="3">
         <v>0</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>804</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>591</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -8163,18 +8226,18 @@
       <c r="H20" s="3">
         <v>0</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>637</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>739</v>
       </c>
       <c r="E21" s="1" t="s">
@@ -8189,18 +8252,18 @@
       <c r="H21" s="3">
         <v>0</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>804</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>465</v>
       </c>
       <c r="E22" s="1" t="s">
@@ -8215,18 +8278,18 @@
       <c r="H22" s="3">
         <v>0</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>632</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>741</v>
       </c>
       <c r="E23" s="1" t="s">
@@ -8241,18 +8304,18 @@
       <c r="H23" s="3">
         <v>0</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>804</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>592</v>
       </c>
       <c r="E24" s="1" t="s">
@@ -8267,18 +8330,18 @@
       <c r="H24" s="3">
         <v>0</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1" t="s">
         <v>626</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>743</v>
       </c>
       <c r="E25" s="1" t="s">
@@ -8293,11 +8356,11 @@
       <c r="H25" s="3">
         <v>0</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1" t="s">
         <v>804</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -8305,10 +8368,10 @@
         <v>207</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>941</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>606</v>
@@ -8322,11 +8385,11 @@
       <c r="H26" s="3">
         <v>1</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26" t="s">
         <v>974</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>921</v>
@@ -8337,10 +8400,10 @@
         <v>915</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>916</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>942</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>917</v>
@@ -8354,11 +8417,11 @@
       <c r="H27" s="3">
         <v>0</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27" t="s">
         <v>975</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>921</v>
@@ -8369,10 +8432,10 @@
         <v>744</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>745</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>992</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>718</v>
@@ -8386,11 +8449,11 @@
       <c r="H28" s="3">
         <v>1</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1" t="s">
         <v>1016</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>871</v>
@@ -8401,10 +8464,10 @@
         <v>208</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>943</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>606</v>
@@ -8418,11 +8481,11 @@
       <c r="H29" s="3">
         <v>1</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29" t="s">
         <v>1021</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>898</v>
@@ -8433,10 +8496,10 @@
         <v>891</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>892</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>944</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>893</v>
@@ -8450,11 +8513,11 @@
       <c r="H30" s="3">
         <v>0</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30" t="s">
         <v>1022</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>626</v>
@@ -8465,10 +8528,10 @@
         <v>747</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>748</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>993</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>718</v>
@@ -8482,11 +8545,11 @@
       <c r="H31" s="3">
         <v>1</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31" t="s">
         <v>1015</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>871</v>
@@ -8497,10 +8560,10 @@
         <v>209</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>945</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>606</v>
@@ -8514,11 +8577,11 @@
       <c r="H32" s="3">
         <v>0</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32" t="s">
         <v>976</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>921</v>
@@ -8529,10 +8592,10 @@
         <v>928</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>947</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>946</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>929</v>
@@ -8546,11 +8609,11 @@
       <c r="H33" s="3">
         <v>0</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33" t="s">
         <v>977</v>
-      </c>
-      <c r="J33">
-        <v>1</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>927</v>
@@ -8561,10 +8624,10 @@
         <v>750</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>751</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>994</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>718</v>
@@ -8578,11 +8641,11 @@
       <c r="H34" s="3">
         <v>0</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34" t="s">
         <v>1015</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>871</v>
@@ -8593,10 +8656,10 @@
         <v>210</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>948</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>606</v>
@@ -8610,11 +8673,11 @@
       <c r="H35" s="3">
         <v>1</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35" t="s">
         <v>978</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>897</v>
@@ -8625,10 +8688,10 @@
         <v>752</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>753</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>995</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>718</v>
@@ -8642,11 +8705,11 @@
       <c r="H36" s="3">
         <v>1</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36" t="s">
         <v>1015</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>871</v>
@@ -8657,10 +8720,10 @@
         <v>212</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>949</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>606</v>
@@ -8674,11 +8737,11 @@
       <c r="H37" s="3">
         <v>1</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37" t="s">
         <v>979</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>921</v>
@@ -8689,10 +8752,10 @@
         <v>932</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>933</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>950</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>929</v>
@@ -8706,11 +8769,11 @@
       <c r="H38" s="3">
         <v>1</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38" t="s">
         <v>980</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>921</v>
@@ -8721,10 +8784,10 @@
         <v>754</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>755</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>996</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>718</v>
@@ -8738,11 +8801,11 @@
       <c r="H39" s="3">
         <v>1</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39" t="s">
         <v>1015</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>871</v>
@@ -8753,10 +8816,10 @@
         <v>575</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>313</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>951</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>606</v>
@@ -8770,11 +8833,11 @@
       <c r="H40" s="3">
         <v>1</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40" t="s">
         <v>981</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>921</v>
@@ -8785,10 +8848,10 @@
         <v>757</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>758</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>997</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>718</v>
@@ -8802,11 +8865,11 @@
       <c r="H41" s="3">
         <v>1</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41" t="s">
         <v>1015</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>871</v>
@@ -8817,10 +8880,10 @@
         <v>495</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>323</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>952</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>606</v>
@@ -8834,11 +8897,11 @@
       <c r="H42" s="3">
         <v>1</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42" t="s">
         <v>982</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
       </c>
       <c r="K42" s="1" t="s">
         <v>920</v>
@@ -8849,10 +8912,10 @@
         <v>495</v>
       </c>
       <c r="B43" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>496</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>953</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
@@ -8867,11 +8930,11 @@
       <c r="H43" s="5">
         <v>1</v>
       </c>
-      <c r="I43" t="s">
+      <c r="I43" s="6">
+        <v>0</v>
+      </c>
+      <c r="J43" t="s">
         <v>1007</v>
-      </c>
-      <c r="J43" s="6">
-        <v>0</v>
       </c>
       <c r="K43" s="4" t="s">
         <v>896</v>
@@ -8882,10 +8945,10 @@
         <v>495</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>955</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>606</v>
@@ -8899,11 +8962,11 @@
       <c r="H44" s="3">
         <v>1</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44" t="s">
         <v>1008</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
       </c>
       <c r="K44" s="1" t="s">
         <v>897</v>
@@ -8914,10 +8977,10 @@
         <v>495</v>
       </c>
       <c r="B45" s="4" t="s">
+        <v>956</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>593</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>956</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
@@ -8932,11 +8995,11 @@
       <c r="H45" s="5">
         <v>1</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I45" s="6">
+        <v>1</v>
+      </c>
+      <c r="J45" t="s">
         <v>1009</v>
-      </c>
-      <c r="J45" s="6">
-        <v>1</v>
       </c>
       <c r="K45" s="4" t="s">
         <v>896</v>
@@ -8947,10 +9010,10 @@
         <v>759</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>760</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>998</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>718</v>
@@ -8964,11 +9027,11 @@
       <c r="H46" s="3">
         <v>1</v>
       </c>
-      <c r="I46" t="s">
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46" t="s">
         <v>1015</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
       </c>
       <c r="K46" s="1" t="s">
         <v>871</v>
@@ -8979,10 +9042,10 @@
         <v>576</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>344</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>957</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>606</v>
@@ -8996,11 +9059,11 @@
       <c r="H47" s="3">
         <v>1</v>
       </c>
-      <c r="I47" t="s">
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47" t="s">
         <v>983</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
       </c>
       <c r="K47" s="1" t="s">
         <v>897</v>
@@ -9011,10 +9074,10 @@
         <v>576</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>958</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>606</v>
@@ -9028,11 +9091,11 @@
       <c r="H48" s="3">
         <v>1</v>
       </c>
-      <c r="I48" t="s">
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48" t="s">
         <v>984</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>921</v>
@@ -9043,10 +9106,10 @@
         <v>934</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>959</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>1006</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>929</v>
@@ -9060,11 +9123,11 @@
       <c r="H49" s="3">
         <v>1</v>
       </c>
-      <c r="I49" t="s">
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49" t="s">
         <v>1018</v>
-      </c>
-      <c r="J49">
-        <v>1</v>
       </c>
       <c r="K49" s="1" t="s">
         <v>921</v>
@@ -9075,10 +9138,10 @@
         <v>761</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>762</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>999</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>718</v>
@@ -9092,11 +9155,11 @@
       <c r="H50" s="3">
         <v>1</v>
       </c>
-      <c r="I50" t="s">
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50" t="s">
         <v>1015</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
       </c>
       <c r="K50" s="1" t="s">
         <v>871</v>
@@ -9107,10 +9170,10 @@
         <v>577</v>
       </c>
       <c r="B51" s="4" t="s">
+        <v>960</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>353</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>960</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4" t="s">
@@ -9125,11 +9188,11 @@
       <c r="H51" s="5">
         <v>1</v>
       </c>
-      <c r="I51" t="s">
+      <c r="I51" s="6">
+        <v>0</v>
+      </c>
+      <c r="J51" t="s">
         <v>1011</v>
-      </c>
-      <c r="J51" s="6">
-        <v>0</v>
       </c>
       <c r="K51" s="4" t="s">
         <v>1019</v>
@@ -9140,10 +9203,10 @@
         <v>922</v>
       </c>
       <c r="B52" s="4" t="s">
+        <v>961</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>923</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>961</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4" t="s">
@@ -9158,11 +9221,11 @@
       <c r="H52" s="5">
         <v>1</v>
       </c>
-      <c r="I52" t="s">
+      <c r="I52" s="6">
+        <v>1</v>
+      </c>
+      <c r="J52" t="s">
         <v>1010</v>
-      </c>
-      <c r="J52" s="6">
-        <v>1</v>
       </c>
       <c r="K52" s="4" t="s">
         <v>1019</v>
@@ -9173,10 +9236,10 @@
         <v>763</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>764</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>1000</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>718</v>
@@ -9190,11 +9253,11 @@
       <c r="H53" s="3">
         <v>1</v>
       </c>
-      <c r="I53" t="s">
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53" t="s">
         <v>1015</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
       </c>
       <c r="K53" s="1" t="s">
         <v>871</v>
@@ -9205,10 +9268,10 @@
         <v>548</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>372</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>962</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>606</v>
@@ -9222,11 +9285,11 @@
       <c r="H54" s="3">
         <v>1</v>
       </c>
-      <c r="I54" t="s">
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54" t="s">
         <v>985</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
       </c>
       <c r="K54" s="1" t="s">
         <v>921</v>
@@ -9237,10 +9300,10 @@
         <v>925</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>926</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>963</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>917</v>
@@ -9254,11 +9317,11 @@
       <c r="H55" s="3">
         <v>0</v>
       </c>
-      <c r="I55" t="s">
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55" t="s">
         <v>986</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
       </c>
       <c r="K55" s="1" t="s">
         <v>927</v>
@@ -9269,10 +9332,10 @@
         <v>765</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>766</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>1001</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>718</v>
@@ -9286,11 +9349,11 @@
       <c r="H56" s="3">
         <v>1</v>
       </c>
-      <c r="I56" t="s">
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56" t="s">
         <v>1015</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
       </c>
       <c r="K56" s="1" t="s">
         <v>871</v>
@@ -9301,10 +9364,10 @@
         <v>578</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>594</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>964</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>606</v>
@@ -9318,11 +9381,11 @@
       <c r="H57" s="3">
         <v>1</v>
       </c>
-      <c r="I57" t="s">
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57" t="s">
         <v>1023</v>
-      </c>
-      <c r="J57">
-        <v>0</v>
       </c>
       <c r="K57" s="1" t="s">
         <v>898</v>
@@ -9333,10 +9396,10 @@
         <v>578</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>381</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>965</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>606</v>
@@ -9350,11 +9413,11 @@
       <c r="H58" s="3">
         <v>1</v>
       </c>
-      <c r="I58" t="s">
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58" t="s">
         <v>1013</v>
-      </c>
-      <c r="J58">
-        <v>0</v>
       </c>
       <c r="K58" s="1" t="s">
         <v>1012</v>
@@ -9365,10 +9428,10 @@
         <v>578</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>966</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>607</v>
@@ -9382,11 +9445,11 @@
       <c r="H59" s="3">
         <v>1</v>
       </c>
-      <c r="I59" t="s">
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59" t="s">
         <v>1024</v>
-      </c>
-      <c r="J59">
-        <v>1</v>
       </c>
       <c r="K59" s="1" t="s">
         <v>898</v>
@@ -9397,10 +9460,10 @@
         <v>767</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>768</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>1002</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>718</v>
@@ -9414,11 +9477,11 @@
       <c r="H60" s="3">
         <v>1</v>
       </c>
-      <c r="I60" t="s">
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60" t="s">
         <v>1015</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
       </c>
       <c r="K60" s="1" t="s">
         <v>871</v>
@@ -9429,10 +9492,10 @@
         <v>222</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>967</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>606</v>
@@ -9444,13 +9507,13 @@
         <v>615</v>
       </c>
       <c r="H61" s="3">
-        <v>1</v>
-      </c>
-      <c r="I61" t="s">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61" t="s">
         <v>1020</v>
-      </c>
-      <c r="J61">
-        <v>0</v>
       </c>
       <c r="K61" s="1" t="s">
         <v>897</v>
@@ -9461,10 +9524,10 @@
         <v>769</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>770</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>1003</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>718</v>
@@ -9476,13 +9539,13 @@
         <v>720</v>
       </c>
       <c r="H62" s="3">
-        <v>1</v>
-      </c>
-      <c r="I62" t="s">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62" t="s">
         <v>1015</v>
-      </c>
-      <c r="J62">
-        <v>0</v>
       </c>
       <c r="K62" s="1" t="s">
         <v>871</v>
@@ -9493,10 +9556,10 @@
         <v>224</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>393</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>968</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>606</v>
@@ -9508,13 +9571,13 @@
         <v>615</v>
       </c>
       <c r="H63" s="3">
-        <v>1</v>
-      </c>
-      <c r="I63" t="s">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63" t="s">
         <v>1014</v>
-      </c>
-      <c r="J63">
-        <v>0</v>
       </c>
       <c r="K63" s="1" t="s">
         <v>940</v>
@@ -9525,10 +9588,10 @@
         <v>936</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>937</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>969</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>929</v>
@@ -9540,13 +9603,13 @@
         <v>615</v>
       </c>
       <c r="H64" s="3">
-        <v>1</v>
-      </c>
-      <c r="I64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64" s="1" t="s">
         <v>1017</v>
-      </c>
-      <c r="J64">
-        <v>1</v>
       </c>
       <c r="K64" s="1" t="s">
         <v>939</v>
@@ -9557,10 +9620,10 @@
         <v>771</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>772</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>1004</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>718</v>
@@ -9572,302 +9635,313 @@
         <v>720</v>
       </c>
       <c r="H65" s="3">
-        <v>1</v>
-      </c>
-      <c r="I65" t="s">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65" t="s">
         <v>1015</v>
-      </c>
-      <c r="J65">
-        <v>0</v>
       </c>
       <c r="K65" s="1" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>906</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>908</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>970</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>909</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>910</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>911</v>
-      </c>
-      <c r="H66" s="3">
+    <row r="66" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="7" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>1028</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H66" s="8">
+        <v>0</v>
+      </c>
+      <c r="I66" s="9">
+        <v>0</v>
+      </c>
+      <c r="K66" s="7" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="7" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>1028</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H67" s="8">
+        <v>0</v>
+      </c>
+      <c r="I67" s="9">
         <v>1</v>
       </c>
-      <c r="I66" t="s">
-        <v>987</v>
-      </c>
-      <c r="J66">
-        <v>0</v>
-      </c>
-      <c r="K66" s="1" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>906</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>912</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>1005</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>913</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>914</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>911</v>
-      </c>
-      <c r="H67" s="3">
-        <v>1</v>
-      </c>
-      <c r="I67" t="s">
-        <v>1015</v>
-      </c>
-      <c r="J67">
-        <v>0</v>
-      </c>
-      <c r="K67" s="1" t="s">
-        <v>871</v>
+      <c r="J67" s="7" t="s">
+        <v>1035</v>
+      </c>
+      <c r="K67" s="7" t="s">
+        <v>1036</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>579</v>
+        <v>906</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>595</v>
+        <v>970</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>908</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>606</v>
+        <v>909</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>608</v>
+        <v>910</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>615</v>
+        <v>911</v>
       </c>
       <c r="H68" s="3">
-        <v>0</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="J68">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68" t="s">
+        <v>987</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>935</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>774</v>
+        <v>906</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>775</v>
+        <v>1005</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>912</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>718</v>
+        <v>913</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>730</v>
+        <v>914</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>720</v>
+        <v>911</v>
       </c>
       <c r="H69" s="3">
-        <v>0</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="J69">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69" t="s">
+        <v>1015</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>871</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>774</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>776</v>
+        <v>579</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>595</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>718</v>
+        <v>606</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>777</v>
+        <v>608</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>720</v>
+        <v>615</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
       </c>
-      <c r="I70" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="J70">
-        <v>0</v>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>640</v>
+        <v>774</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>775</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>641</v>
+        <v>718</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>639</v>
+        <v>730</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>642</v>
+        <v>720</v>
       </c>
       <c r="H71" s="3">
         <v>0</v>
       </c>
-      <c r="I71" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="J71">
-        <v>0</v>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>804</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>596</v>
+        <v>774</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>776</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>606</v>
+        <v>718</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>330</v>
+        <v>777</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>615</v>
+        <v>720</v>
       </c>
       <c r="H72" s="3">
         <v>0</v>
       </c>
-      <c r="I72" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="J72">
-        <v>0</v>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>804</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>597</v>
+        <v>638</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>640</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>607</v>
+        <v>641</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>330</v>
+        <v>639</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>615</v>
+        <v>642</v>
       </c>
       <c r="H73" s="3">
         <v>0</v>
       </c>
-      <c r="I73" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="J73">
-        <v>0</v>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>778</v>
+        <v>580</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>596</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>718</v>
+        <v>606</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>725</v>
+        <v>330</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>720</v>
+        <v>615</v>
       </c>
       <c r="H74" s="3">
         <v>0</v>
       </c>
-      <c r="I74" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="J74">
-        <v>0</v>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>779</v>
+        <v>580</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>597</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>718</v>
+        <v>607</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>722</v>
+        <v>330</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>720</v>
+        <v>615</v>
       </c>
       <c r="H75" s="3">
         <v>0</v>
       </c>
-      <c r="I75" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="J75">
-        <v>0</v>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>780</v>
+      <c r="C76" s="1" t="s">
+        <v>778</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>718</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>781</v>
+        <v>725</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>720</v>
@@ -9875,51 +9949,51 @@
       <c r="H76" s="3">
         <v>0</v>
       </c>
-      <c r="I76" s="1" t="s">
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76" s="1" t="s">
         <v>804</v>
-      </c>
-      <c r="J76">
-        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>195</v>
+        <v>773</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>779</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>606</v>
+        <v>718</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>405</v>
+        <v>722</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>615</v>
+        <v>720</v>
       </c>
       <c r="H77" s="3">
         <v>0</v>
       </c>
-      <c r="I77" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="J77">
-        <v>0</v>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>804</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>782</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>783</v>
+        <v>773</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>780</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>718</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>746</v>
+        <v>781</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>720</v>
@@ -9927,51 +10001,51 @@
       <c r="H78" s="3">
         <v>0</v>
       </c>
-      <c r="I78" s="1" t="s">
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78" s="1" t="s">
         <v>804</v>
-      </c>
-      <c r="J78">
-        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>782</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>784</v>
+        <v>148</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>718</v>
+        <v>606</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>786</v>
+        <v>405</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>720</v>
+        <v>615</v>
       </c>
       <c r="H79" s="3">
         <v>0</v>
       </c>
-      <c r="I79" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="J79">
-        <v>0</v>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>782</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>785</v>
+      <c r="C80" s="1" t="s">
+        <v>783</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>718</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>719</v>
+        <v>746</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>720</v>
@@ -9979,51 +10053,51 @@
       <c r="H80" s="3">
         <v>0</v>
       </c>
-      <c r="I80" s="1" t="s">
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80" s="1" t="s">
         <v>804</v>
-      </c>
-      <c r="J80">
-        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>598</v>
+        <v>782</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>784</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>606</v>
+        <v>718</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>239</v>
+        <v>786</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>615</v>
+        <v>720</v>
       </c>
       <c r="H81" s="3">
         <v>0</v>
       </c>
-      <c r="I81" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="J81">
-        <v>0</v>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>804</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>787</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>788</v>
+        <v>782</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>785</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>718</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>746</v>
+        <v>719</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>720</v>
@@ -10031,19 +10105,19 @@
       <c r="H82" s="3">
         <v>0</v>
       </c>
-      <c r="I82" s="1" t="s">
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82" s="1" t="s">
         <v>804</v>
-      </c>
-      <c r="J82">
-        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>599</v>
+        <v>581</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>598</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>606</v>
@@ -10057,25 +10131,25 @@
       <c r="H83" s="3">
         <v>0</v>
       </c>
-      <c r="I83" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="J83">
-        <v>0</v>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>789</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>790</v>
+        <v>787</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>788</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>718</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>730</v>
+        <v>746</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>720</v>
@@ -10083,129 +10157,129 @@
       <c r="H84" s="3">
         <v>0</v>
       </c>
-      <c r="I84" s="1" t="s">
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84" s="1" t="s">
         <v>804</v>
-      </c>
-      <c r="J84">
-        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>789</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>791</v>
+        <v>582</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>599</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>718</v>
+        <v>606</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>792</v>
+        <v>239</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>720</v>
+        <v>615</v>
       </c>
       <c r="H85" s="3">
         <v>0</v>
       </c>
-      <c r="I85" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="J85">
-        <v>0</v>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>200</v>
+        <v>789</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>790</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>606</v>
+        <v>718</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>237</v>
+        <v>730</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>615</v>
+        <v>720</v>
       </c>
       <c r="H86" s="3">
         <v>0</v>
       </c>
-      <c r="I86" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="J86">
-        <v>0</v>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>804</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>600</v>
+        <v>789</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>791</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>606</v>
+        <v>718</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>609</v>
+        <v>792</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>615</v>
+        <v>720</v>
       </c>
       <c r="H87" s="3">
         <v>0</v>
       </c>
-      <c r="I87" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="J87">
-        <v>0</v>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>804</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>793</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>794</v>
+        <v>179</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>200</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>718</v>
+        <v>606</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>730</v>
+        <v>237</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>720</v>
+        <v>615</v>
       </c>
       <c r="H88" s="3">
         <v>0</v>
       </c>
-      <c r="I88" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="J88">
-        <v>0</v>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>610</v>
+        <v>179</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>600</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>606</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>615</v>
@@ -10213,25 +10287,25 @@
       <c r="H89" s="3">
         <v>0</v>
       </c>
-      <c r="I89" s="1" t="s">
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89" s="1" t="s">
         <v>626</v>
-      </c>
-      <c r="J89">
-        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>795</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>798</v>
+        <v>793</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>794</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>718</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>756</v>
+        <v>730</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>720</v>
@@ -10239,103 +10313,103 @@
       <c r="H90" s="3">
         <v>0</v>
       </c>
-      <c r="I90" s="1" t="s">
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90" s="1" t="s">
         <v>804</v>
-      </c>
-      <c r="J90">
-        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>601</v>
+        <v>583</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>610</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>606</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="1" t="s">
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91" s="1" t="s">
         <v>626</v>
-      </c>
-      <c r="J91">
-        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>602</v>
+        <v>795</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>798</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>607</v>
+        <v>718</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>612</v>
+        <v>756</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>615</v>
+        <v>720</v>
       </c>
       <c r="H92" s="3">
         <v>0</v>
       </c>
-      <c r="I92" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="J92">
-        <v>0</v>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>804</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>797</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>796</v>
+        <v>584</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>601</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>718</v>
+        <v>606</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>756</v>
+        <v>612</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>720</v>
+        <v>614</v>
       </c>
       <c r="H93" s="3">
         <v>0</v>
       </c>
-      <c r="I93" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="J93">
-        <v>0</v>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>603</v>
+        <v>584</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>602</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>615</v>
@@ -10343,25 +10417,25 @@
       <c r="H94" s="3">
         <v>0</v>
       </c>
-      <c r="I94" s="1" t="s">
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94" s="1" t="s">
         <v>626</v>
-      </c>
-      <c r="J94">
-        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>800</v>
+        <v>797</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>796</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>718</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>792</v>
+        <v>756</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>720</v>
@@ -10369,181 +10443,181 @@
       <c r="H95" s="3">
         <v>0</v>
       </c>
-      <c r="I95" s="1" t="s">
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95" s="1" t="s">
         <v>804</v>
-      </c>
-      <c r="J95">
-        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>604</v>
+        <v>585</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>603</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>606</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>330</v>
+        <v>613</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
-      <c r="I96" s="1" t="s">
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96" s="1" t="s">
         <v>626</v>
-      </c>
-      <c r="J96">
-        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="H97" s="3">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="E97" s="1" t="s">
+      <c r="C98" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="E98" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="F97" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="H97" s="3">
-        <v>0</v>
-      </c>
-      <c r="I97" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="J97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
-        <v>801</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>802</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>718</v>
-      </c>
       <c r="F98" s="1" t="s">
-        <v>803</v>
+        <v>330</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>720</v>
+        <v>614</v>
       </c>
       <c r="H98" s="3">
         <v>0</v>
       </c>
-      <c r="I98" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="J98">
-        <v>0</v>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>805</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>819</v>
+        <v>586</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>605</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>817</v>
+        <v>606</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>820</v>
+        <v>238</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>826</v>
+        <v>615</v>
       </c>
       <c r="H99" s="3">
         <v>0</v>
       </c>
-      <c r="I99" s="1" t="s">
-        <v>870</v>
-      </c>
-      <c r="J99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>805</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>822</v>
+        <v>801</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>802</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>823</v>
+        <v>718</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>820</v>
+        <v>803</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>818</v>
+        <v>720</v>
       </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
-      <c r="I100" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="J100">
-        <v>0</v>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>804</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="B101" s="1" t="s">
-        <v>824</v>
+      <c r="C101" s="1" t="s">
+        <v>819</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>825</v>
+        <v>817</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>820</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>818</v>
+        <v>826</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
-      <c r="I101" s="1" t="s">
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101" s="1" t="s">
         <v>870</v>
-      </c>
-      <c r="J101">
-        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>806</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>821</v>
+        <v>805</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>822</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>817</v>
+        <v>823</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>818</v>
@@ -10551,25 +10625,25 @@
       <c r="H102" s="3">
         <v>0</v>
       </c>
-      <c r="I102" s="1" t="s">
-        <v>870</v>
-      </c>
-      <c r="J102">
-        <v>0</v>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>871</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>806</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>827</v>
+        <v>805</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>824</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>829</v>
+        <v>820</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>818</v>
@@ -10577,25 +10651,25 @@
       <c r="H103" s="3">
         <v>0</v>
       </c>
-      <c r="I103" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="J103">
-        <v>0</v>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>807</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>830</v>
+        <v>806</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>821</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>817</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>818</v>
@@ -10603,25 +10677,25 @@
       <c r="H104" s="3">
         <v>0</v>
       </c>
-      <c r="I104" s="1" t="s">
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104" s="1" t="s">
         <v>870</v>
-      </c>
-      <c r="J104">
-        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>807</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>831</v>
+        <v>806</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>827</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>817</v>
+        <v>823</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>818</v>
@@ -10629,25 +10703,25 @@
       <c r="H105" s="3">
         <v>0</v>
       </c>
-      <c r="I105" s="1" t="s">
-        <v>870</v>
-      </c>
-      <c r="J105">
-        <v>0</v>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>871</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="B106" s="1" t="s">
-        <v>834</v>
+      <c r="C106" s="1" t="s">
+        <v>830</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>818</v>
@@ -10655,25 +10729,25 @@
       <c r="H106" s="3">
         <v>0</v>
       </c>
-      <c r="I106" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="J106">
-        <v>0</v>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>808</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>836</v>
+        <v>807</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>831</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>817</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>818</v>
@@ -10681,25 +10755,25 @@
       <c r="H107" s="3">
         <v>0</v>
       </c>
-      <c r="I107" s="1" t="s">
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107" s="1" t="s">
         <v>870</v>
-      </c>
-      <c r="J107">
-        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>808</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>837</v>
+        <v>807</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>834</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>817</v>
+        <v>823</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>405</v>
+        <v>835</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>818</v>
@@ -10707,25 +10781,25 @@
       <c r="H108" s="3">
         <v>0</v>
       </c>
-      <c r="I108" s="1" t="s">
-        <v>872</v>
-      </c>
-      <c r="J108">
-        <v>0</v>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>871</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>808</v>
       </c>
-      <c r="B109" s="1" t="s">
-        <v>838</v>
+      <c r="C109" s="1" t="s">
+        <v>836</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>818</v>
@@ -10733,25 +10807,25 @@
       <c r="H109" s="3">
         <v>0</v>
       </c>
-      <c r="I109" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="J109">
-        <v>0</v>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>808</v>
       </c>
-      <c r="B110" s="1" t="s">
-        <v>839</v>
+      <c r="C110" s="1" t="s">
+        <v>837</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>842</v>
+        <v>405</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>818</v>
@@ -10759,51 +10833,51 @@
       <c r="H110" s="3">
         <v>0</v>
       </c>
-      <c r="I110" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="J110">
-        <v>0</v>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>872</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>809</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>843</v>
+        <v>808</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>838</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>817</v>
+        <v>823</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>820</v>
+        <v>841</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
       <c r="H111" s="3">
         <v>0</v>
       </c>
-      <c r="I111" s="1" t="s">
-        <v>870</v>
-      </c>
-      <c r="J111">
-        <v>0</v>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>871</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>809</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>873</v>
+        <v>808</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>839</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>820</v>
+        <v>842</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>818</v>
@@ -10811,48 +10885,48 @@
       <c r="H112" s="3">
         <v>0</v>
       </c>
-      <c r="I112" s="1" t="s">
-        <v>874</v>
-      </c>
-      <c r="J112">
-        <v>1</v>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>871</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>809</v>
       </c>
-      <c r="B113" s="1" t="s">
-        <v>844</v>
+      <c r="C113" s="1" t="s">
+        <v>843</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>845</v>
+        <v>820</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>818</v>
+        <v>826</v>
       </c>
       <c r="H113" s="3">
         <v>0</v>
       </c>
-      <c r="I113" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="J113">
-        <v>0</v>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>810</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>846</v>
+        <v>809</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>873</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>817</v>
+        <v>825</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>820</v>
@@ -10863,25 +10937,25 @@
       <c r="H114" s="3">
         <v>0</v>
       </c>
-      <c r="I114" s="1" t="s">
-        <v>875</v>
-      </c>
-      <c r="J114">
-        <v>0</v>
+      <c r="I114">
+        <v>1</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>810</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>847</v>
+        <v>809</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>844</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>823</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>818</v>
@@ -10889,19 +10963,19 @@
       <c r="H115" s="3">
         <v>0</v>
       </c>
-      <c r="I115" s="1" t="s">
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115" s="1" t="s">
         <v>871</v>
-      </c>
-      <c r="J115">
-        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>811</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>849</v>
+        <v>810</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>846</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>817</v>
@@ -10915,19 +10989,19 @@
       <c r="H116" s="3">
         <v>0</v>
       </c>
-      <c r="I116" s="1" t="s">
-        <v>870</v>
-      </c>
-      <c r="J116">
-        <v>0</v>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>875</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>811</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>850</v>
+        <v>810</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>847</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>823</v>
@@ -10941,25 +11015,25 @@
       <c r="H117" s="3">
         <v>0</v>
       </c>
-      <c r="I117" s="1" t="s">
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117" s="1" t="s">
         <v>871</v>
-      </c>
-      <c r="J117">
-        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>851</v>
+        <v>811</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>849</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>817</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>852</v>
+        <v>820</v>
       </c>
       <c r="G118" s="1" t="s">
         <v>818</v>
@@ -10967,25 +11041,25 @@
       <c r="H118" s="3">
         <v>0</v>
       </c>
-      <c r="I118" s="1" t="s">
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118" s="1" t="s">
         <v>870</v>
-      </c>
-      <c r="J118">
-        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>853</v>
+        <v>811</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>850</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="G119" s="1" t="s">
         <v>818</v>
@@ -10993,25 +11067,25 @@
       <c r="H119" s="3">
         <v>0</v>
       </c>
-      <c r="I119" s="1" t="s">
-        <v>877</v>
-      </c>
-      <c r="J119">
-        <v>0</v>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>871</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>812</v>
       </c>
-      <c r="B120" s="1" t="s">
-        <v>876</v>
+      <c r="C120" s="1" t="s">
+        <v>851</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>820</v>
+        <v>852</v>
       </c>
       <c r="G120" s="1" t="s">
         <v>818</v>
@@ -11019,25 +11093,25 @@
       <c r="H120" s="3">
         <v>0</v>
       </c>
-      <c r="I120" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="J120">
-        <v>0</v>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>813</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>854</v>
+        <v>812</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>853</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>817</v>
+        <v>825</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>818</v>
@@ -11045,25 +11119,25 @@
       <c r="H121" s="3">
         <v>0</v>
       </c>
-      <c r="I121" s="1" t="s">
-        <v>870</v>
-      </c>
-      <c r="J121">
-        <v>0</v>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121" s="1" t="s">
+        <v>877</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>813</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>856</v>
+        <v>812</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>876</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>823</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>857</v>
+        <v>820</v>
       </c>
       <c r="G122" s="1" t="s">
         <v>818</v>
@@ -11071,25 +11145,25 @@
       <c r="H122" s="3">
         <v>0</v>
       </c>
-      <c r="I122" s="1" t="s">
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122" s="1" t="s">
         <v>871</v>
-      </c>
-      <c r="J122">
-        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>814</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>858</v>
+        <v>813</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>854</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>817</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>841</v>
+        <v>855</v>
       </c>
       <c r="G123" s="1" t="s">
         <v>818</v>
@@ -11097,25 +11171,25 @@
       <c r="H123" s="3">
         <v>0</v>
       </c>
-      <c r="I123" s="1" t="s">
-        <v>878</v>
-      </c>
-      <c r="J123">
-        <v>0</v>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>814</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>859</v>
+        <v>813</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>856</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>841</v>
+        <v>857</v>
       </c>
       <c r="G124" s="1" t="s">
         <v>818</v>
@@ -11123,22 +11197,22 @@
       <c r="H124" s="3">
         <v>0</v>
       </c>
-      <c r="I124" s="1" t="s">
-        <v>879</v>
-      </c>
-      <c r="J124">
-        <v>0</v>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124" s="1" t="s">
+        <v>871</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>814</v>
       </c>
-      <c r="B125" s="1" t="s">
-        <v>860</v>
+      <c r="C125" s="1" t="s">
+        <v>858</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>841</v>
@@ -11149,25 +11223,25 @@
       <c r="H125" s="3">
         <v>0</v>
       </c>
-      <c r="I125" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="J125">
-        <v>0</v>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125" s="1" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>814</v>
       </c>
-      <c r="B126" s="1" t="s">
-        <v>861</v>
+      <c r="C126" s="1" t="s">
+        <v>859</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>863</v>
+        <v>841</v>
       </c>
       <c r="G126" s="1" t="s">
         <v>818</v>
@@ -11175,25 +11249,25 @@
       <c r="H126" s="3">
         <v>0</v>
       </c>
-      <c r="I126" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="J126">
-        <v>0</v>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126" s="1" t="s">
+        <v>879</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>814</v>
       </c>
-      <c r="B127" s="1" t="s">
-        <v>862</v>
+      <c r="C127" s="1" t="s">
+        <v>860</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>823</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>820</v>
+        <v>841</v>
       </c>
       <c r="G127" s="1" t="s">
         <v>818</v>
@@ -11201,25 +11275,25 @@
       <c r="H127" s="3">
         <v>0</v>
       </c>
-      <c r="I127" s="1" t="s">
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127" s="1" t="s">
         <v>871</v>
-      </c>
-      <c r="J127">
-        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>815</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>864</v>
+        <v>814</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>861</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>817</v>
+        <v>823</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>820</v>
+        <v>863</v>
       </c>
       <c r="G128" s="1" t="s">
         <v>818</v>
@@ -11227,22 +11301,22 @@
       <c r="H128" s="3">
         <v>0</v>
       </c>
-      <c r="I128" s="1" t="s">
-        <v>880</v>
-      </c>
-      <c r="J128">
-        <v>0</v>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128" s="1" t="s">
+        <v>871</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>815</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>866</v>
+        <v>814</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>862</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>820</v>
@@ -11253,25 +11327,25 @@
       <c r="H129" s="3">
         <v>0</v>
       </c>
-      <c r="I129" s="1" t="s">
-        <v>881</v>
-      </c>
-      <c r="J129">
-        <v>0</v>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129" s="1" t="s">
+        <v>871</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>815</v>
       </c>
-      <c r="B130" s="1" t="s">
-        <v>888</v>
+      <c r="C130" s="1" t="s">
+        <v>864</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>848</v>
+        <v>820</v>
       </c>
       <c r="G130" s="1" t="s">
         <v>818</v>
@@ -11279,22 +11353,22 @@
       <c r="H130" s="3">
         <v>0</v>
       </c>
-      <c r="I130" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="J130">
-        <v>0</v>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130" s="1" t="s">
+        <v>880</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>815</v>
       </c>
-      <c r="B131" s="1" t="s">
-        <v>865</v>
+      <c r="C131" s="1" t="s">
+        <v>866</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>820</v>
@@ -11305,25 +11379,25 @@
       <c r="H131" s="3">
         <v>0</v>
       </c>
-      <c r="I131" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="J131">
-        <v>0</v>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131" s="1" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>816</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>867</v>
+        <v>815</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>888</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>817</v>
+        <v>823</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>869</v>
+        <v>848</v>
       </c>
       <c r="G132" s="1" t="s">
         <v>818</v>
@@ -11331,25 +11405,25 @@
       <c r="H132" s="3">
         <v>0</v>
       </c>
-      <c r="I132" s="1" t="s">
-        <v>870</v>
-      </c>
-      <c r="J132">
-        <v>0</v>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132" s="1" t="s">
+        <v>871</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>816</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>868</v>
+        <v>815</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>865</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>823</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>848</v>
+        <v>820</v>
       </c>
       <c r="G133" s="1" t="s">
         <v>818</v>
@@ -11357,15 +11431,67 @@
       <c r="H133" s="3">
         <v>0</v>
       </c>
-      <c r="I133" s="1" t="s">
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133" s="1" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="H134" s="3">
+        <v>0</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="J133">
-        <v>0</v>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="H135" s="3">
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135" s="1" t="s">
+        <v>870</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A133" xr:uid="{7D3AD226-787D-4D47-A593-251257ACE64C}"/>
+  <autoFilter ref="A1:A135" xr:uid="{7D3AD226-787D-4D47-A593-251257ACE64C}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/data/basic_info.xlsx
+++ b/data/basic_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\trading_plan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98EEB6C-09F5-401F-9A5A-3189478F7918}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE44465-649A-4185-8D58-CFB1383894D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28590" tabRatio="733" activeTab="1" xr2:uid="{855E00D3-25C3-4BB2-A61F-0D95BB1AF006}"/>
+    <workbookView xWindow="-18015" yWindow="6480" windowWidth="15720" windowHeight="13005" tabRatio="733" activeTab="1" xr2:uid="{855E00D3-25C3-4BB2-A61F-0D95BB1AF006}"/>
   </bookViews>
   <sheets>
     <sheet name="acct_info" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2069" uniqueCount="1037">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2070" uniqueCount="1038">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4085,6 +4085,10 @@
   </si>
   <si>
     <t>patch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(929_c_zx_6218.txt,929_c_zx_6218.txt,)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7677,10 +7681,10 @@
   <dimension ref="A1:K135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K30" sqref="K30"/>
+      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7756,7 +7760,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>890</v>
@@ -8459,7 +8463,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>208</v>
       </c>
@@ -8764,10 +8768,10 @@
         <v>930</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>931</v>
+        <v>919</v>
       </c>
       <c r="H38" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -9672,6 +9676,9 @@
       </c>
       <c r="I66" s="9">
         <v>0</v>
+      </c>
+      <c r="J66" s="9" t="s">
+        <v>1037</v>
       </c>
       <c r="K66" s="7" t="s">
         <v>1031</v>

--- a/data/basic_info.xlsx
+++ b/data/basic_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\trading_plan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE44465-649A-4185-8D58-CFB1383894D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EFF9505-B874-442E-8EA6-0645AB12053C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18015" yWindow="6480" windowWidth="15720" windowHeight="13005" tabRatio="733" activeTab="1" xr2:uid="{855E00D3-25C3-4BB2-A61F-0D95BB1AF006}"/>
+    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28590" tabRatio="733" activeTab="1" xr2:uid="{855E00D3-25C3-4BB2-A61F-0D95BB1AF006}"/>
   </bookViews>
   <sheets>
     <sheet name="acct_info" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">acct_info!$B$1:$B$125</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">acctinfo!$A$1:$A$135</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">acctinfo!$A$1:$A$139</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2070" uniqueCount="1038">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2101" uniqueCount="1061">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3582,10 +3582,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AcctIDSource</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>023300001818</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4068,14 +4064,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>929_o_zx_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>o</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4089,6 +4077,110 @@
   </si>
   <si>
     <t>(929_c_zx_6218.txt,929_c_zx_6218.txt,)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>921</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>921_c_sw_9497</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2413049497</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>318005878</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>921_m_sw_5383</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3900155383</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>921</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>921_c_zhes_5878</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhes_hx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(921_c_zhes_5878.txt,921_c_zhes_5878.txt,)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>921_f_sw_0778</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9080000778</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swhy_alphabee_dbf2csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(921_m_sw_5383.csv,921_m_sw_5383.csv,)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQSWAP5779DEF20200529-20200615</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>929_o_zx_9DEF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7678,13 +7770,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E89EC7F-6807-4E54-B5E1-E4E4E9C6C1B6}">
-  <dimension ref="A1:K135"/>
+  <dimension ref="A1:J139"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomRight" activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7692,721 +7784,720 @@
     <col min="1" max="1" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="41" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>899</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>907</v>
+        <v>900</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>901</v>
-      </c>
-      <c r="G1" s="1" t="s">
         <v>902</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>903</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>904</v>
+      </c>
       <c r="I1" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>973</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>617</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>619</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>620</v>
+      </c>
       <c r="E2" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="G2" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="H2" s="3">
-        <v>0</v>
-      </c>
-      <c r="I2">
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>1</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>716</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>717</v>
       </c>
+      <c r="D3" s="1" t="s">
+        <v>718</v>
+      </c>
       <c r="E3" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="G3" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
-      <c r="I3">
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>618</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>623</v>
       </c>
+      <c r="D4" s="1" t="s">
+        <v>620</v>
+      </c>
       <c r="E4" s="1" t="s">
         <v>620</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="G4" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4">
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>618</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>624</v>
       </c>
+      <c r="D5" s="1" t="s">
+        <v>625</v>
+      </c>
       <c r="E5" s="1" t="s">
-        <v>625</v>
+        <v>607</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="G5" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
-      <c r="I5">
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>721</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>889</v>
       </c>
+      <c r="D6" s="1" t="s">
+        <v>718</v>
+      </c>
       <c r="E6" s="1" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="G6" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6">
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>702</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>452</v>
       </c>
+      <c r="D7" s="1" t="s">
+        <v>606</v>
+      </c>
       <c r="E7" s="1" t="s">
-        <v>606</v>
+        <v>455</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="G7" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7">
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>723</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>724</v>
       </c>
+      <c r="D8" s="1" t="s">
+        <v>718</v>
+      </c>
       <c r="E8" s="1" t="s">
-        <v>718</v>
+        <v>725</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>725</v>
-      </c>
-      <c r="G8" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8">
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>456</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>457</v>
       </c>
+      <c r="D9" s="1" t="s">
+        <v>606</v>
+      </c>
       <c r="E9" s="1" t="s">
-        <v>606</v>
+        <v>455</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="G9" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9">
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>726</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>727</v>
       </c>
+      <c r="D10" s="1" t="s">
+        <v>718</v>
+      </c>
       <c r="E10" s="1" t="s">
-        <v>718</v>
+        <v>725</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>725</v>
-      </c>
-      <c r="G10" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10">
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>570</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>587</v>
       </c>
+      <c r="D11" s="1" t="s">
+        <v>606</v>
+      </c>
       <c r="E11" s="1" t="s">
-        <v>606</v>
+        <v>239</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="G11" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="H11" s="3">
-        <v>0</v>
-      </c>
-      <c r="I11">
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>570</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>588</v>
       </c>
+      <c r="D12" s="1" t="s">
+        <v>607</v>
+      </c>
       <c r="E12" s="1" t="s">
-        <v>607</v>
+        <v>239</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="G12" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12">
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>728</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>729</v>
       </c>
+      <c r="D13" s="1" t="s">
+        <v>718</v>
+      </c>
       <c r="E13" s="1" t="s">
-        <v>718</v>
+        <v>730</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="G13" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="H13" s="3">
-        <v>0</v>
-      </c>
-      <c r="I13">
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>571</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>589</v>
       </c>
+      <c r="D14" s="1" t="s">
+        <v>606</v>
+      </c>
       <c r="E14" s="1" t="s">
-        <v>606</v>
+        <v>455</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="G14" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14">
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>731</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>732</v>
       </c>
+      <c r="D15" s="1" t="s">
+        <v>718</v>
+      </c>
       <c r="E15" s="1" t="s">
-        <v>718</v>
+        <v>725</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>725</v>
-      </c>
-      <c r="G15" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15">
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>459</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>460</v>
       </c>
+      <c r="D16" s="1" t="s">
+        <v>606</v>
+      </c>
       <c r="E16" s="1" t="s">
-        <v>606</v>
+        <v>330</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="G16" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="H16" s="3">
-        <v>0</v>
-      </c>
-      <c r="I16">
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16">
         <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>733</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>734</v>
       </c>
+      <c r="D17" s="1" t="s">
+        <v>718</v>
+      </c>
       <c r="E17" s="1" t="s">
-        <v>718</v>
+        <v>735</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G17" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17">
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17">
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>572</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>590</v>
       </c>
+      <c r="D18" s="1" t="s">
+        <v>606</v>
+      </c>
       <c r="E18" s="1" t="s">
-        <v>606</v>
+        <v>455</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="G18" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18">
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18">
         <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>736</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>737</v>
       </c>
+      <c r="D19" s="1" t="s">
+        <v>718</v>
+      </c>
       <c r="E19" s="1" t="s">
-        <v>718</v>
+        <v>725</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>725</v>
-      </c>
-      <c r="G19" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="H19" s="3">
-        <v>0</v>
-      </c>
-      <c r="I19">
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
+      <c r="H19">
         <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>573</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>591</v>
       </c>
+      <c r="D20" s="1" t="s">
+        <v>606</v>
+      </c>
       <c r="E20" s="1" t="s">
-        <v>606</v>
+        <v>455</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="G20" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20">
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20">
         <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>738</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>739</v>
       </c>
+      <c r="D21" s="1" t="s">
+        <v>718</v>
+      </c>
       <c r="E21" s="1" t="s">
-        <v>718</v>
+        <v>725</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>725</v>
-      </c>
-      <c r="G21" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21">
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21">
         <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>464</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>465</v>
       </c>
+      <c r="D22" s="1" t="s">
+        <v>606</v>
+      </c>
       <c r="E22" s="1" t="s">
-        <v>606</v>
+        <v>455</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="G22" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22">
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22">
         <v>0</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>740</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>741</v>
       </c>
+      <c r="D23" s="1" t="s">
+        <v>718</v>
+      </c>
       <c r="E23" s="1" t="s">
-        <v>718</v>
+        <v>725</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>725</v>
-      </c>
-      <c r="G23" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23">
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23">
         <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>574</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>592</v>
       </c>
+      <c r="D24" s="1" t="s">
+        <v>606</v>
+      </c>
       <c r="E24" s="1" t="s">
-        <v>606</v>
+        <v>330</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="G24" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24">
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24">
         <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>742</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>743</v>
       </c>
+      <c r="D25" s="1" t="s">
+        <v>718</v>
+      </c>
       <c r="E25" s="1" t="s">
-        <v>718</v>
+        <v>735</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G25" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="H25" s="3">
-        <v>0</v>
-      </c>
-      <c r="I25">
+      <c r="G25" s="3">
+        <v>0</v>
+      </c>
+      <c r="H25">
         <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>207</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>261</v>
       </c>
+      <c r="D26" s="1" t="s">
+        <v>606</v>
+      </c>
       <c r="E26" s="1" t="s">
-        <v>606</v>
+        <v>239</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="G26" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="H26" s="3">
+      <c r="G26" s="3">
         <v>1</v>
       </c>
-      <c r="I26">
-        <v>0</v>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>920</v>
       </c>
       <c r="J26" t="s">
-        <v>974</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>915</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>942</v>
-      </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>916</v>
       </c>
       <c r="E27" s="1" t="s">
@@ -8415,191 +8506,191 @@
       <c r="F27" s="1" t="s">
         <v>918</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>919</v>
-      </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>920</v>
       </c>
       <c r="J27" t="s">
-        <v>975</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>744</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>745</v>
       </c>
+      <c r="D28" s="1" t="s">
+        <v>718</v>
+      </c>
       <c r="E28" s="1" t="s">
-        <v>718</v>
+        <v>746</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="G28" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="H28" s="3">
+      <c r="G28" s="3">
         <v>1</v>
       </c>
-      <c r="I28">
-        <v>0</v>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>871</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>1016</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>208</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>265</v>
       </c>
+      <c r="D29" s="1" t="s">
+        <v>606</v>
+      </c>
       <c r="E29" s="1" t="s">
-        <v>606</v>
+        <v>400</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="G29" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="H29" s="3">
+      <c r="G29" s="3">
         <v>1</v>
       </c>
-      <c r="I29">
-        <v>0</v>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>898</v>
       </c>
       <c r="J29" t="s">
-        <v>1021</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>891</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>892</v>
       </c>
+      <c r="D30" s="1" t="s">
+        <v>893</v>
+      </c>
       <c r="E30" s="1" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>894</v>
-      </c>
-      <c r="G30" s="1" t="s">
         <v>895</v>
       </c>
-      <c r="H30" s="3">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
+      <c r="G30" s="3">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>626</v>
       </c>
       <c r="J30" t="s">
-        <v>1022</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>747</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>748</v>
       </c>
+      <c r="D31" s="1" t="s">
+        <v>718</v>
+      </c>
       <c r="E31" s="1" t="s">
-        <v>718</v>
+        <v>749</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>749</v>
-      </c>
-      <c r="G31" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="H31" s="3">
+      <c r="G31" s="3">
         <v>1</v>
       </c>
-      <c r="I31">
-        <v>0</v>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>871</v>
       </c>
       <c r="J31" t="s">
-        <v>1015</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>209</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>282</v>
       </c>
+      <c r="D32" s="1" t="s">
+        <v>606</v>
+      </c>
       <c r="E32" s="1" t="s">
-        <v>606</v>
+        <v>239</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="G32" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>920</v>
       </c>
       <c r="J32" t="s">
-        <v>976</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>928</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>946</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>947</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>929</v>
@@ -8607,513 +8698,511 @@
       <c r="F33" s="1" t="s">
         <v>930</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>931</v>
-      </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>926</v>
       </c>
       <c r="J33" t="s">
-        <v>977</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>750</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>751</v>
       </c>
+      <c r="D34" s="1" t="s">
+        <v>718</v>
+      </c>
       <c r="E34" s="1" t="s">
-        <v>718</v>
+        <v>730</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="G34" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="H34" s="3">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
+      <c r="G34" s="3">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>871</v>
       </c>
       <c r="J34" t="s">
-        <v>1015</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>210</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>291</v>
       </c>
+      <c r="D35" s="1" t="s">
+        <v>606</v>
+      </c>
       <c r="E35" s="1" t="s">
-        <v>606</v>
+        <v>238</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="G35" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="H35" s="3">
+      <c r="G35" s="3">
         <v>1</v>
       </c>
-      <c r="I35">
-        <v>0</v>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>897</v>
       </c>
       <c r="J35" t="s">
-        <v>978</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>752</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>753</v>
       </c>
+      <c r="D36" s="1" t="s">
+        <v>718</v>
+      </c>
       <c r="E36" s="1" t="s">
-        <v>718</v>
+        <v>746</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="G36" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="H36" s="3">
+      <c r="G36" s="3">
         <v>1</v>
       </c>
-      <c r="I36">
-        <v>0</v>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>871</v>
       </c>
       <c r="J36" t="s">
-        <v>1015</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>212</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>306</v>
       </c>
+      <c r="D37" s="1" t="s">
+        <v>606</v>
+      </c>
       <c r="E37" s="1" t="s">
-        <v>606</v>
+        <v>239</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="G37" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="H37" s="3">
+      <c r="G37" s="3">
         <v>1</v>
       </c>
-      <c r="I37">
-        <v>0</v>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>920</v>
       </c>
       <c r="J37" t="s">
-        <v>979</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>932</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>950</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>933</v>
+      <c r="D38" s="1" t="s">
+        <v>928</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>929</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>930</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>919</v>
-      </c>
-      <c r="H38" s="3">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
+        <v>918</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>920</v>
       </c>
       <c r="J38" t="s">
-        <v>980</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>754</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>755</v>
       </c>
+      <c r="D39" s="1" t="s">
+        <v>718</v>
+      </c>
       <c r="E39" s="1" t="s">
-        <v>718</v>
+        <v>756</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="G39" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="H39" s="3">
+      <c r="G39" s="3">
         <v>1</v>
       </c>
-      <c r="I39">
-        <v>0</v>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>871</v>
       </c>
       <c r="J39" t="s">
-        <v>1015</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>575</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>313</v>
       </c>
+      <c r="D40" s="1" t="s">
+        <v>606</v>
+      </c>
       <c r="E40" s="1" t="s">
-        <v>606</v>
+        <v>239</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="G40" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="H40" s="3">
+      <c r="G40" s="3">
         <v>1</v>
       </c>
-      <c r="I40">
-        <v>0</v>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>920</v>
       </c>
       <c r="J40" t="s">
-        <v>981</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>757</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>758</v>
       </c>
+      <c r="D41" s="1" t="s">
+        <v>718</v>
+      </c>
       <c r="E41" s="1" t="s">
-        <v>718</v>
+        <v>746</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="G41" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="H41" s="3">
+      <c r="G41" s="3">
         <v>1</v>
       </c>
-      <c r="I41">
-        <v>0</v>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>871</v>
       </c>
       <c r="J41" t="s">
-        <v>1015</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>495</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>323</v>
       </c>
+      <c r="D42" s="1" t="s">
+        <v>606</v>
+      </c>
       <c r="E42" s="1" t="s">
-        <v>606</v>
+        <v>328</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="G42" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="H42" s="3">
+      <c r="G42" s="3">
         <v>1</v>
       </c>
-      <c r="I42">
-        <v>0</v>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>919</v>
       </c>
       <c r="J42" t="s">
-        <v>982</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>495</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="D43" s="4"/>
+      <c r="D43" s="4" t="s">
+        <v>606</v>
+      </c>
       <c r="E43" s="4" t="s">
-        <v>606</v>
+        <v>330</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="G43" s="4" t="s">
         <v>615</v>
       </c>
-      <c r="H43" s="5">
+      <c r="G43" s="5">
         <v>1</v>
       </c>
-      <c r="I43" s="6">
-        <v>0</v>
+      <c r="H43" s="6">
+        <v>0</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>896</v>
       </c>
       <c r="J43" t="s">
-        <v>1007</v>
-      </c>
-      <c r="K43" s="4" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>495</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>324</v>
       </c>
+      <c r="D44" s="1" t="s">
+        <v>606</v>
+      </c>
       <c r="E44" s="1" t="s">
-        <v>606</v>
+        <v>238</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="G44" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="H44" s="3">
+      <c r="G44" s="3">
         <v>1</v>
       </c>
-      <c r="I44">
-        <v>0</v>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>897</v>
       </c>
       <c r="J44" t="s">
-        <v>1008</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>495</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>593</v>
       </c>
-      <c r="D45" s="4"/>
+      <c r="D45" s="4" t="s">
+        <v>607</v>
+      </c>
       <c r="E45" s="4" t="s">
-        <v>607</v>
+        <v>330</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="G45" s="4" t="s">
         <v>615</v>
       </c>
-      <c r="H45" s="5">
+      <c r="G45" s="5">
         <v>1</v>
       </c>
-      <c r="I45" s="6">
+      <c r="H45" s="6">
         <v>1</v>
       </c>
+      <c r="I45" s="4" t="s">
+        <v>896</v>
+      </c>
       <c r="J45" t="s">
-        <v>1009</v>
-      </c>
-      <c r="K45" s="4" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>759</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>760</v>
       </c>
+      <c r="D46" s="1" t="s">
+        <v>718</v>
+      </c>
       <c r="E46" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="G46" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="H46" s="3">
+      <c r="G46" s="3">
         <v>1</v>
       </c>
-      <c r="I46">
-        <v>0</v>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>871</v>
       </c>
       <c r="J46" t="s">
-        <v>1015</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>576</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>344</v>
       </c>
+      <c r="D47" s="1" t="s">
+        <v>606</v>
+      </c>
       <c r="E47" s="1" t="s">
-        <v>606</v>
+        <v>238</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="G47" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="H47" s="3">
+      <c r="G47" s="3">
         <v>1</v>
       </c>
-      <c r="I47">
-        <v>0</v>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>897</v>
       </c>
       <c r="J47" t="s">
-        <v>983</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>576</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>342</v>
       </c>
+      <c r="D48" s="1" t="s">
+        <v>606</v>
+      </c>
       <c r="E48" s="1" t="s">
-        <v>606</v>
+        <v>239</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="G48" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="H48" s="3">
+      <c r="G48" s="3">
         <v>1</v>
       </c>
-      <c r="I48">
-        <v>0</v>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>920</v>
       </c>
       <c r="J48" t="s">
-        <v>984</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>959</v>
+        <v>958</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>928</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>929</v>
@@ -9121,193 +9210,191 @@
       <c r="F49" s="1" t="s">
         <v>930</v>
       </c>
-      <c r="G49" s="1" t="s">
-        <v>931</v>
-      </c>
-      <c r="H49" s="3">
+      <c r="G49" s="3">
         <v>1</v>
       </c>
-      <c r="I49">
+      <c r="H49">
         <v>1</v>
       </c>
+      <c r="I49" s="1" t="s">
+        <v>920</v>
+      </c>
       <c r="J49" t="s">
-        <v>1018</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>761</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>762</v>
       </c>
+      <c r="D50" s="1" t="s">
+        <v>718</v>
+      </c>
       <c r="E50" s="1" t="s">
-        <v>718</v>
+        <v>746</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="G50" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="H50" s="3">
+      <c r="G50" s="3">
         <v>1</v>
       </c>
-      <c r="I50">
-        <v>0</v>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>871</v>
       </c>
       <c r="J50" t="s">
-        <v>1015</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>577</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="D51" s="4"/>
+      <c r="D51" s="4" t="s">
+        <v>606</v>
+      </c>
       <c r="E51" s="4" t="s">
-        <v>606</v>
+        <v>369</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="G51" s="4" t="s">
         <v>615</v>
       </c>
-      <c r="H51" s="5">
+      <c r="G51" s="5">
         <v>1</v>
       </c>
-      <c r="I51" s="6">
-        <v>0</v>
+      <c r="H51" s="6">
+        <v>0</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>1018</v>
       </c>
       <c r="J51" t="s">
-        <v>1011</v>
-      </c>
-      <c r="K51" s="4" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
+        <v>921</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>960</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>922</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>961</v>
-      </c>
-      <c r="C52" s="4" t="s">
+      <c r="D52" s="4" t="s">
+        <v>916</v>
+      </c>
+      <c r="E52" s="4" t="s">
         <v>923</v>
       </c>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4" t="s">
-        <v>917</v>
-      </c>
       <c r="F52" s="4" t="s">
-        <v>924</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>911</v>
-      </c>
-      <c r="H52" s="5">
+        <v>910</v>
+      </c>
+      <c r="G52" s="5">
         <v>1</v>
       </c>
-      <c r="I52" s="6">
+      <c r="H52" s="6">
         <v>1</v>
       </c>
+      <c r="I52" s="4" t="s">
+        <v>1018</v>
+      </c>
       <c r="J52" t="s">
-        <v>1010</v>
-      </c>
-      <c r="K52" s="4" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>763</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>764</v>
       </c>
+      <c r="D53" s="1" t="s">
+        <v>718</v>
+      </c>
       <c r="E53" s="1" t="s">
-        <v>718</v>
+        <v>730</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="G53" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="H53" s="3">
+      <c r="G53" s="3">
         <v>1</v>
       </c>
-      <c r="I53">
-        <v>0</v>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>871</v>
       </c>
       <c r="J53" t="s">
-        <v>1015</v>
-      </c>
-      <c r="K53" s="1" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>548</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>372</v>
       </c>
+      <c r="D54" s="1" t="s">
+        <v>606</v>
+      </c>
       <c r="E54" s="1" t="s">
-        <v>606</v>
+        <v>239</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="G54" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="H54" s="3">
+      <c r="G54" s="3">
         <v>1</v>
       </c>
-      <c r="I54">
-        <v>0</v>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>920</v>
       </c>
       <c r="J54" t="s">
-        <v>985</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>925</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>963</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>926</v>
+      <c r="D55" s="1" t="s">
+        <v>916</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>917</v>
@@ -9315,752 +9402,771 @@
       <c r="F55" s="1" t="s">
         <v>918</v>
       </c>
-      <c r="G55" s="1" t="s">
-        <v>919</v>
-      </c>
-      <c r="H55" s="3">
-        <v>0</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
+      <c r="G55" s="3">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>926</v>
       </c>
       <c r="J55" t="s">
-        <v>986</v>
-      </c>
-      <c r="K55" s="1" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>765</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>766</v>
       </c>
+      <c r="D56" s="1" t="s">
+        <v>718</v>
+      </c>
       <c r="E56" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="G56" s="3">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="J56" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G57" s="3">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="G58" s="3">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="4" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>1039</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>1040</v>
+      </c>
+      <c r="G59" s="5">
+        <v>1</v>
+      </c>
+      <c r="H59" s="6">
+        <v>0</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>1057</v>
+      </c>
+      <c r="J59" s="4" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="G60" s="3">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="G61" s="3">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="J61" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="G62" s="3">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="J62" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="G63" s="3">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="J63" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="E64" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="G64" s="3">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="J64" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="G65" s="3">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="J65" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="E66" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="F66" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="H56" s="3">
+      <c r="G66" s="3">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="J66" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="G67" s="3">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="J67" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="G68" s="3">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="G69" s="3">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="J69" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="4" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>1028</v>
+      </c>
+      <c r="G70" s="5">
         <v>1</v>
       </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56" t="s">
-        <v>1015</v>
-      </c>
-      <c r="K56" s="1" t="s">
+      <c r="H70" s="6">
+        <v>0</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>1030</v>
+      </c>
+      <c r="J70" s="6" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="7" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>1028</v>
+      </c>
+      <c r="G71" s="8">
+        <v>1</v>
+      </c>
+      <c r="H71" s="9">
+        <v>1</v>
+      </c>
+      <c r="I71" s="7" t="s">
+        <v>1033</v>
+      </c>
+      <c r="J71" s="7" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="G72" s="3">
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="J72" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="G73" s="3">
+        <v>1</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73" s="1" t="s">
         <v>871</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>964</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="E57" s="1" t="s">
+      <c r="J73" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="D74" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="F57" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="H57" s="3">
-        <v>1</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57" t="s">
-        <v>1023</v>
-      </c>
-      <c r="K57" s="1" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>965</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="H58" s="3">
-        <v>1</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-      <c r="J58" t="s">
-        <v>1013</v>
-      </c>
-      <c r="K58" s="1" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>966</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="G59" s="1" t="s">
+      <c r="E74" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="F74" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="H59" s="3">
-        <v>1</v>
-      </c>
-      <c r="I59">
-        <v>1</v>
-      </c>
-      <c r="J59" t="s">
-        <v>1024</v>
-      </c>
-      <c r="K59" s="1" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>749</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="H60" s="3">
-        <v>1</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="J60" t="s">
-        <v>1015</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>967</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-      <c r="J61" t="s">
-        <v>1020</v>
-      </c>
-      <c r="K61" s="1" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>769</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-      <c r="J62" t="s">
-        <v>1015</v>
-      </c>
-      <c r="K62" s="1" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>968</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="H63" s="3">
-        <v>0</v>
-      </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-      <c r="J63" t="s">
-        <v>1014</v>
-      </c>
-      <c r="K63" s="1" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>936</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>969</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>937</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>929</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>938</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="H64" s="3">
-        <v>0</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>1017</v>
-      </c>
-      <c r="K64" s="1" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="H65" s="3">
-        <v>0</v>
-      </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
-      <c r="J65" t="s">
-        <v>1015</v>
-      </c>
-      <c r="K65" s="1" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="7" t="s">
-        <v>1025</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>1030</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>1026</v>
-      </c>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7" t="s">
-        <v>1027</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>1028</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>1029</v>
-      </c>
-      <c r="H66" s="8">
-        <v>0</v>
-      </c>
-      <c r="I66" s="9">
-        <v>0</v>
-      </c>
-      <c r="J66" s="9" t="s">
-        <v>1037</v>
-      </c>
-      <c r="K66" s="7" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="7" t="s">
-        <v>1025</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>1033</v>
-      </c>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7" t="s">
-        <v>1034</v>
-      </c>
-      <c r="F67" s="7" t="s">
-        <v>1028</v>
-      </c>
-      <c r="G67" s="7" t="s">
-        <v>1029</v>
-      </c>
-      <c r="H67" s="8">
-        <v>0</v>
-      </c>
-      <c r="I67" s="9">
-        <v>1</v>
-      </c>
-      <c r="J67" s="7" t="s">
-        <v>1035</v>
-      </c>
-      <c r="K67" s="7" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>906</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>970</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>908</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>909</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>910</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>911</v>
-      </c>
-      <c r="H68" s="3">
-        <v>1</v>
-      </c>
-      <c r="I68">
-        <v>0</v>
-      </c>
-      <c r="J68" t="s">
-        <v>987</v>
-      </c>
-      <c r="K68" s="1" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
-        <v>906</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>912</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>913</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>914</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>911</v>
-      </c>
-      <c r="H69" s="3">
-        <v>1</v>
-      </c>
-      <c r="I69">
-        <v>0</v>
-      </c>
-      <c r="J69" t="s">
-        <v>1015</v>
-      </c>
-      <c r="K69" s="1" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="H70" s="3">
-        <v>0</v>
-      </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
-        <v>774</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="H71" s="3">
-        <v>0</v>
-      </c>
-      <c r="I71">
-        <v>0</v>
-      </c>
-      <c r="J71" s="1" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
-        <v>774</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="H72" s="3">
-        <v>0</v>
-      </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
-      <c r="J72" s="1" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="H73" s="3">
-        <v>0</v>
-      </c>
-      <c r="I73">
-        <v>0</v>
-      </c>
-      <c r="J73" s="1" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="H74" s="3">
-        <v>0</v>
-      </c>
-      <c r="I74">
+      <c r="G74" s="3">
+        <v>0</v>
+      </c>
+      <c r="H74">
         <v>0</v>
       </c>
       <c r="J74" s="1" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>580</v>
+        <v>774</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>597</v>
+        <v>775</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>718</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>607</v>
+        <v>730</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="H75" s="3">
-        <v>0</v>
-      </c>
-      <c r="I75">
+        <v>720</v>
+      </c>
+      <c r="G75" s="3">
+        <v>0</v>
+      </c>
+      <c r="H75">
         <v>0</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>778</v>
+        <v>776</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>718</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>718</v>
+        <v>777</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>725</v>
-      </c>
-      <c r="G76" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="H76" s="3">
-        <v>0</v>
-      </c>
-      <c r="I76">
+      <c r="G76" s="3">
+        <v>0</v>
+      </c>
+      <c r="H76">
         <v>0</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="G77" s="3">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="G78" s="3">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="G79" s="3">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>779</v>
-      </c>
-      <c r="E77" s="1" t="s">
+      <c r="C80" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="D80" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="F77" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="G77" s="1" t="s">
+      <c r="E80" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="F80" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="H77" s="3">
-        <v>0</v>
-      </c>
-      <c r="I77">
-        <v>0</v>
-      </c>
-      <c r="J77" s="1" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="H78" s="3">
-        <v>0</v>
-      </c>
-      <c r="I78">
-        <v>0</v>
-      </c>
-      <c r="J78" s="1" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="H79" s="3">
-        <v>0</v>
-      </c>
-      <c r="I79">
-        <v>0</v>
-      </c>
-      <c r="J79" s="1" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
-        <v>782</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>783</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="H80" s="3">
-        <v>0</v>
-      </c>
-      <c r="I80">
+      <c r="G80" s="3">
+        <v>0</v>
+      </c>
+      <c r="H80">
         <v>0</v>
       </c>
       <c r="J80" s="1" t="s">
@@ -10069,24 +10175,24 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>782</v>
+        <v>773</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>784</v>
+        <v>779</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>718</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="G81" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
-      <c r="I81">
+      <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81">
         <v>0</v>
       </c>
       <c r="J81" s="1" t="s">
@@ -10095,24 +10201,24 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>782</v>
+        <v>773</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>785</v>
+        <v>780</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>718</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>718</v>
+        <v>781</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="G82" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="H82" s="3">
-        <v>0</v>
-      </c>
-      <c r="I82">
+      <c r="G82" s="3">
+        <v>0</v>
+      </c>
+      <c r="H82">
         <v>0</v>
       </c>
       <c r="J82" s="1" t="s">
@@ -10121,50 +10227,50 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>581</v>
+        <v>148</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>598</v>
+        <v>195</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>606</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>606</v>
+        <v>405</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="G83" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83">
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83">
         <v>0</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>788</v>
+        <v>783</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>718</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>718</v>
+        <v>746</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="G84" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="H84" s="3">
-        <v>0</v>
-      </c>
-      <c r="I84">
+      <c r="G84" s="3">
+        <v>0</v>
+      </c>
+      <c r="H84">
         <v>0</v>
       </c>
       <c r="J84" s="1" t="s">
@@ -10173,50 +10279,50 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>582</v>
+        <v>782</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>599</v>
+        <v>784</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>718</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>606</v>
+        <v>786</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="H85" s="3">
-        <v>0</v>
-      </c>
-      <c r="I85">
+        <v>720</v>
+      </c>
+      <c r="G85" s="3">
+        <v>0</v>
+      </c>
+      <c r="H85">
         <v>0</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>635</v>
+        <v>804</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>790</v>
+        <v>785</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>718</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="G86" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="H86" s="3">
-        <v>0</v>
-      </c>
-      <c r="I86">
+      <c r="G86" s="3">
+        <v>0</v>
+      </c>
+      <c r="H86">
         <v>0</v>
       </c>
       <c r="J86" s="1" t="s">
@@ -10225,102 +10331,102 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>789</v>
+        <v>581</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>791</v>
+        <v>598</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>606</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>718</v>
+        <v>239</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="H87" s="3">
-        <v>0</v>
-      </c>
-      <c r="I87">
+        <v>615</v>
+      </c>
+      <c r="G87" s="3">
+        <v>0</v>
+      </c>
+      <c r="H87">
         <v>0</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>804</v>
+        <v>634</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>179</v>
+        <v>787</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>200</v>
+        <v>788</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>718</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>606</v>
+        <v>746</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="H88" s="3">
-        <v>0</v>
-      </c>
-      <c r="I88">
+        <v>720</v>
+      </c>
+      <c r="G88" s="3">
+        <v>0</v>
+      </c>
+      <c r="H88">
         <v>0</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>626</v>
+        <v>804</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>179</v>
+        <v>582</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>606</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>606</v>
+        <v>239</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="G89" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89">
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89">
         <v>0</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>794</v>
+        <v>790</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>718</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>718</v>
+        <v>730</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="G90" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="H90" s="3">
-        <v>0</v>
-      </c>
-      <c r="I90">
+      <c r="G90" s="3">
+        <v>0</v>
+      </c>
+      <c r="H90">
         <v>0</v>
       </c>
       <c r="J90" s="1" t="s">
@@ -10329,76 +10435,76 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>583</v>
+        <v>789</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>610</v>
+        <v>791</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>718</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>606</v>
+        <v>792</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91">
+        <v>720</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91">
         <v>0</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>626</v>
+        <v>804</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>795</v>
+        <v>179</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>798</v>
+        <v>200</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>606</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>718</v>
+        <v>237</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="H92" s="3">
-        <v>0</v>
-      </c>
-      <c r="I92">
+        <v>615</v>
+      </c>
+      <c r="G92" s="3">
+        <v>0</v>
+      </c>
+      <c r="H92">
         <v>0</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>804</v>
+        <v>626</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>584</v>
+        <v>179</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>606</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="H93" s="3">
-        <v>0</v>
-      </c>
-      <c r="I93">
+        <v>615</v>
+      </c>
+      <c r="G93" s="3">
+        <v>0</v>
+      </c>
+      <c r="H93">
         <v>0</v>
       </c>
       <c r="J93" s="1" t="s">
@@ -10407,128 +10513,128 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>584</v>
+        <v>793</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>602</v>
+        <v>794</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>718</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>607</v>
+        <v>730</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94">
+        <v>720</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94">
         <v>0</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>626</v>
+        <v>804</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>797</v>
+        <v>583</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>796</v>
+        <v>610</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>606</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>718</v>
+        <v>611</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="H95" s="3">
-        <v>0</v>
-      </c>
-      <c r="I95">
+        <v>615</v>
+      </c>
+      <c r="G95" s="3">
+        <v>0</v>
+      </c>
+      <c r="H95">
         <v>0</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>804</v>
+        <v>626</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>585</v>
+        <v>795</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>603</v>
+        <v>798</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>718</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>606</v>
+        <v>756</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
-      <c r="I96">
+        <v>720</v>
+      </c>
+      <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96">
         <v>0</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>626</v>
+        <v>804</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>799</v>
+        <v>584</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>800</v>
+        <v>601</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>606</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>718</v>
+        <v>612</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="H97" s="3">
-        <v>0</v>
-      </c>
-      <c r="I97">
+        <v>614</v>
+      </c>
+      <c r="G97" s="3">
+        <v>0</v>
+      </c>
+      <c r="H97">
         <v>0</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>804</v>
+        <v>626</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>607</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="H98" s="3">
-        <v>0</v>
-      </c>
-      <c r="I98">
+        <v>615</v>
+      </c>
+      <c r="G98" s="3">
+        <v>0</v>
+      </c>
+      <c r="H98">
         <v>0</v>
       </c>
       <c r="J98" s="1" t="s">
@@ -10537,232 +10643,232 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>586</v>
+        <v>797</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>605</v>
+        <v>796</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>718</v>
       </c>
       <c r="E99" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="G99" s="3">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="D100" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="F99" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="G99" s="1" t="s">
+      <c r="E100" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="F100" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="H99" s="3">
-        <v>0</v>
-      </c>
-      <c r="I99">
-        <v>0</v>
-      </c>
-      <c r="J99" s="1" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
-        <v>801</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>802</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>803</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100">
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100">
         <v>0</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>804</v>
+        <v>626</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>819</v>
+        <v>800</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>718</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>817</v>
+        <v>792</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>820</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>826</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101">
+        <v>720</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101">
         <v>0</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>870</v>
+        <v>804</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>805</v>
+        <v>586</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>822</v>
+        <v>604</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>606</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>823</v>
+        <v>330</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>820</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102">
+        <v>614</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102">
         <v>0</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>871</v>
+        <v>626</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>805</v>
+        <v>586</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>824</v>
+        <v>605</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>606</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>825</v>
+        <v>238</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>820</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="H103" s="3">
-        <v>0</v>
-      </c>
-      <c r="I103">
+        <v>615</v>
+      </c>
+      <c r="G103" s="3">
+        <v>0</v>
+      </c>
+      <c r="H103">
         <v>0</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>821</v>
+        <v>802</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>718</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>817</v>
+        <v>803</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>828</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="H104" s="3">
-        <v>0</v>
-      </c>
-      <c r="I104">
+        <v>720</v>
+      </c>
+      <c r="G104" s="3">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>870</v>
+        <v>804</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>827</v>
+        <v>819</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>817</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>829</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="H105" s="3">
-        <v>0</v>
-      </c>
-      <c r="I105">
+        <v>826</v>
+      </c>
+      <c r="G105" s="3">
+        <v>0</v>
+      </c>
+      <c r="H105">
         <v>0</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>830</v>
+        <v>822</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>823</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="G106" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="H106" s="3">
-        <v>0</v>
-      </c>
-      <c r="I106">
+      <c r="G106" s="3">
+        <v>0</v>
+      </c>
+      <c r="H106">
         <v>0</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>831</v>
+        <v>824</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>825</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>833</v>
-      </c>
-      <c r="G107" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="H107" s="3">
-        <v>0</v>
-      </c>
-      <c r="I107">
+      <c r="G107" s="3">
+        <v>0</v>
+      </c>
+      <c r="H107">
         <v>0</v>
       </c>
       <c r="J107" s="1" t="s">
@@ -10771,128 +10877,128 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>834</v>
+        <v>821</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>817</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>823</v>
+        <v>828</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>835</v>
-      </c>
-      <c r="G108" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="H108" s="3">
-        <v>0</v>
-      </c>
-      <c r="I108">
+      <c r="G108" s="3">
+        <v>0</v>
+      </c>
+      <c r="H108">
         <v>0</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>836</v>
+        <v>827</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>823</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>817</v>
+        <v>829</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>840</v>
-      </c>
-      <c r="G109" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="H109" s="3">
-        <v>0</v>
-      </c>
-      <c r="I109">
+      <c r="G109" s="3">
+        <v>0</v>
+      </c>
+      <c r="H109">
         <v>0</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>837</v>
+        <v>830</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>817</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>817</v>
+        <v>832</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="G110" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="H110" s="3">
-        <v>0</v>
-      </c>
-      <c r="I110">
+      <c r="G110" s="3">
+        <v>0</v>
+      </c>
+      <c r="H110">
         <v>0</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>838</v>
+        <v>831</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>817</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>823</v>
+        <v>833</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>841</v>
-      </c>
-      <c r="G111" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="H111" s="3">
-        <v>0</v>
-      </c>
-      <c r="I111">
+      <c r="G111" s="3">
+        <v>0</v>
+      </c>
+      <c r="H111">
         <v>0</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>839</v>
+        <v>834</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>823</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>823</v>
+        <v>835</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>842</v>
-      </c>
-      <c r="G112" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="H112" s="3">
-        <v>0</v>
-      </c>
-      <c r="I112">
+      <c r="G112" s="3">
+        <v>0</v>
+      </c>
+      <c r="H112">
         <v>0</v>
       </c>
       <c r="J112" s="1" t="s">
@@ -10901,24 +11007,24 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>843</v>
+        <v>836</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>817</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>817</v>
+        <v>840</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>820</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>826</v>
-      </c>
-      <c r="H113" s="3">
-        <v>0</v>
-      </c>
-      <c r="I113">
+        <v>818</v>
+      </c>
+      <c r="G113" s="3">
+        <v>0</v>
+      </c>
+      <c r="H113">
         <v>0</v>
       </c>
       <c r="J113" s="1" t="s">
@@ -10927,50 +11033,50 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>873</v>
+        <v>837</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>817</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>825</v>
+        <v>405</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>820</v>
-      </c>
-      <c r="G114" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="H114" s="3">
-        <v>0</v>
-      </c>
-      <c r="I114">
-        <v>1</v>
+      <c r="G114" s="3">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>844</v>
+        <v>838</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>823</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>823</v>
+        <v>841</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>845</v>
-      </c>
-      <c r="G115" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="H115" s="3">
-        <v>0</v>
-      </c>
-      <c r="I115">
+      <c r="G115" s="3">
+        <v>0</v>
+      </c>
+      <c r="H115">
         <v>0</v>
       </c>
       <c r="J115" s="1" t="s">
@@ -10979,102 +11085,102 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>846</v>
+        <v>839</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>823</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>817</v>
+        <v>842</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>820</v>
-      </c>
-      <c r="G116" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="H116" s="3">
-        <v>0</v>
-      </c>
-      <c r="I116">
+      <c r="G116" s="3">
+        <v>0</v>
+      </c>
+      <c r="H116">
         <v>0</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>847</v>
+        <v>843</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>817</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>848</v>
-      </c>
-      <c r="G117" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="H117" s="3">
-        <v>0</v>
-      </c>
-      <c r="I117">
+        <v>826</v>
+      </c>
+      <c r="G117" s="3">
+        <v>0</v>
+      </c>
+      <c r="H117">
         <v>0</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>849</v>
+        <v>873</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>825</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>820</v>
-      </c>
-      <c r="G118" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="H118" s="3">
-        <v>0</v>
-      </c>
-      <c r="I118">
-        <v>0</v>
+      <c r="G118" s="3">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>1</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>850</v>
+        <v>844</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>823</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>823</v>
+        <v>845</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>848</v>
-      </c>
-      <c r="G119" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="H119" s="3">
-        <v>0</v>
-      </c>
-      <c r="I119">
+      <c r="G119" s="3">
+        <v>0</v>
+      </c>
+      <c r="H119">
         <v>0</v>
       </c>
       <c r="J119" s="1" t="s">
@@ -11083,232 +11189,232 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>851</v>
+        <v>846</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>817</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>852</v>
-      </c>
-      <c r="G120" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="H120" s="3">
-        <v>0</v>
-      </c>
-      <c r="I120">
+      <c r="G120" s="3">
+        <v>0</v>
+      </c>
+      <c r="H120">
         <v>0</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>870</v>
+        <v>875</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>823</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>825</v>
+        <v>848</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>852</v>
-      </c>
-      <c r="G121" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="H121" s="3">
-        <v>0</v>
-      </c>
-      <c r="I121">
+      <c r="G121" s="3">
+        <v>0</v>
+      </c>
+      <c r="H121">
         <v>0</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>876</v>
+        <v>849</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>817</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>820</v>
-      </c>
-      <c r="G122" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="H122" s="3">
-        <v>0</v>
-      </c>
-      <c r="I122">
+      <c r="G122" s="3">
+        <v>0</v>
+      </c>
+      <c r="H122">
         <v>0</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>854</v>
+        <v>850</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>823</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>817</v>
+        <v>848</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>855</v>
-      </c>
-      <c r="G123" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="H123" s="3">
-        <v>0</v>
-      </c>
-      <c r="I123">
+      <c r="G123" s="3">
+        <v>0</v>
+      </c>
+      <c r="H123">
         <v>0</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>856</v>
+        <v>851</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>817</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>823</v>
+        <v>852</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>857</v>
-      </c>
-      <c r="G124" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="H124" s="3">
-        <v>0</v>
-      </c>
-      <c r="I124">
+      <c r="G124" s="3">
+        <v>0</v>
+      </c>
+      <c r="H124">
         <v>0</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>858</v>
+        <v>853</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>825</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>817</v>
+        <v>852</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>841</v>
-      </c>
-      <c r="G125" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="H125" s="3">
-        <v>0</v>
-      </c>
-      <c r="I125">
+      <c r="G125" s="3">
+        <v>0</v>
+      </c>
+      <c r="H125">
         <v>0</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>859</v>
+        <v>876</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>823</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>841</v>
-      </c>
-      <c r="G126" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="H126" s="3">
-        <v>0</v>
-      </c>
-      <c r="I126">
+      <c r="G126" s="3">
+        <v>0</v>
+      </c>
+      <c r="H126">
         <v>0</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>879</v>
+        <v>871</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>860</v>
+        <v>854</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>817</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>823</v>
+        <v>855</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>841</v>
-      </c>
-      <c r="G127" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="H127" s="3">
-        <v>0</v>
-      </c>
-      <c r="I127">
+      <c r="G127" s="3">
+        <v>0</v>
+      </c>
+      <c r="H127">
         <v>0</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>861</v>
+        <v>856</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>823</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>823</v>
+        <v>857</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>863</v>
-      </c>
-      <c r="G128" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="H128" s="3">
-        <v>0</v>
-      </c>
-      <c r="I128">
+      <c r="G128" s="3">
+        <v>0</v>
+      </c>
+      <c r="H128">
         <v>0</v>
       </c>
       <c r="J128" s="1" t="s">
@@ -11320,99 +11426,99 @@
         <v>814</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>862</v>
+        <v>858</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>817</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>823</v>
+        <v>841</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>820</v>
-      </c>
-      <c r="G129" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="H129" s="3">
-        <v>0</v>
-      </c>
-      <c r="I129">
+      <c r="G129" s="3">
+        <v>0</v>
+      </c>
+      <c r="H129">
         <v>0</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>871</v>
+        <v>878</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>864</v>
+        <v>859</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>825</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>817</v>
+        <v>841</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>820</v>
-      </c>
-      <c r="G130" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="H130" s="3">
-        <v>0</v>
-      </c>
-      <c r="I130">
+      <c r="G130" s="3">
+        <v>0</v>
+      </c>
+      <c r="H130">
         <v>0</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>866</v>
+        <v>860</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>823</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>825</v>
+        <v>841</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>820</v>
-      </c>
-      <c r="G131" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="H131" s="3">
-        <v>0</v>
-      </c>
-      <c r="I131">
+      <c r="G131" s="3">
+        <v>0</v>
+      </c>
+      <c r="H131">
         <v>0</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>888</v>
+        <v>861</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>823</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>823</v>
+        <v>863</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>848</v>
-      </c>
-      <c r="G132" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="H132" s="3">
-        <v>0</v>
-      </c>
-      <c r="I132">
+      <c r="G132" s="3">
+        <v>0</v>
+      </c>
+      <c r="H132">
         <v>0</v>
       </c>
       <c r="J132" s="1" t="s">
@@ -11421,24 +11527,24 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>865</v>
+        <v>862</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>823</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>820</v>
-      </c>
-      <c r="G133" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="H133" s="3">
-        <v>0</v>
-      </c>
-      <c r="I133">
+      <c r="G133" s="3">
+        <v>0</v>
+      </c>
+      <c r="H133">
         <v>0</v>
       </c>
       <c r="J133" s="1" t="s">
@@ -11447,58 +11553,162 @@
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>867</v>
+        <v>864</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>817</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>869</v>
-      </c>
-      <c r="G134" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="H134" s="3">
-        <v>0</v>
-      </c>
-      <c r="I134">
+      <c r="G134" s="3">
+        <v>0</v>
+      </c>
+      <c r="H134">
         <v>0</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>870</v>
+        <v>880</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="G135" s="3">
+        <v>0</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="J135" s="1" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="G136" s="3">
+        <v>0</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="J136" s="1" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A137" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="G137" s="3">
+        <v>0</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="J137" s="1" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
         <v>816</v>
       </c>
-      <c r="C135" s="1" t="s">
+      <c r="C138" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="G138" s="3">
+        <v>0</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="J138" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A139" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="C139" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="E135" s="1" t="s">
+      <c r="D139" s="1" t="s">
         <v>823</v>
       </c>
-      <c r="F135" s="1" t="s">
+      <c r="E139" s="1" t="s">
         <v>848</v>
       </c>
-      <c r="G135" s="1" t="s">
+      <c r="F139" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="H135" s="3">
-        <v>0</v>
-      </c>
-      <c r="I135">
-        <v>0</v>
-      </c>
-      <c r="J135" s="1" t="s">
+      <c r="G139" s="3">
+        <v>0</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="J139" s="1" t="s">
         <v>870</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A135" xr:uid="{7D3AD226-787D-4D47-A593-251257ACE64C}"/>
+  <autoFilter ref="A1:A139" xr:uid="{7D3AD226-787D-4D47-A593-251257ACE64C}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12929,7 +13139,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13036,7 +13246,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B13" t="s">
         <v>237</v>
@@ -13044,10 +13254,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>970</v>
+      </c>
+      <c r="B14" t="s">
         <v>971</v>
-      </c>
-      <c r="B14" t="s">
-        <v>972</v>
       </c>
     </row>
   </sheetData>

--- a/data/basic_info.xlsx
+++ b/data/basic_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\trading_plan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BF6308-9D1B-41BB-9256-B2BB3EB8C773}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73EBE089-1022-434D-AC46-5E5853907226}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12915" yWindow="6780" windowWidth="14205" windowHeight="17250" tabRatio="733" activeTab="1" xr2:uid="{855E00D3-25C3-4BB2-A61F-0D95BB1AF006}"/>
+    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28590" tabRatio="733" activeTab="1" xr2:uid="{855E00D3-25C3-4BB2-A61F-0D95BB1AF006}"/>
   </bookViews>
   <sheets>
     <sheet name="acct_info" sheetId="1" r:id="rId1"/>
@@ -4409,10 +4409,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(1203_m_zhaos_2641.txt,1203_m_zhaos_2641.txt,)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>huat_tdx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4458,6 +4454,10 @@
   </si>
   <si>
     <t>(711_c_yh_7999.txt,711_c_yh_7999.txt,)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1203_m_zhaos_2641.txt,1203_m_zhaos_2641.txt,1203_m_zhaos_2641_secdebt.txt,)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8042,10 +8042,10 @@
   <dimension ref="A1:J137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomRight" activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8315,7 +8315,7 @@
         <v>1049</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -8475,7 +8475,7 @@
         <v>1055</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -8603,7 +8603,7 @@
         <v>872</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -8827,7 +8827,7 @@
         <v>1049</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -8891,7 +8891,7 @@
         <v>872</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -9499,7 +9499,7 @@
         <v>872</v>
       </c>
       <c r="J45" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
@@ -9563,7 +9563,7 @@
         <v>872</v>
       </c>
       <c r="J47" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
@@ -10569,7 +10569,7 @@
         <v>872</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
@@ -10601,7 +10601,7 @@
         <v>1061</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
@@ -10729,7 +10729,7 @@
         <v>1067</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>1117</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
@@ -10854,7 +10854,7 @@
         <v>0</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="J88" s="1" t="s">
         <v>1112</v>
@@ -11211,7 +11211,7 @@
         <v>872</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
@@ -11243,7 +11243,7 @@
         <v>873</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">

--- a/data/basic_info.xlsx
+++ b/data/basic_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\trading_plan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC63572-3EFE-4495-9166-43DCCCC0A5C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C172C876-A8AA-4D52-8C70-D42FB6EF9BD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14685" yWindow="3420" windowWidth="14205" windowHeight="17250" tabRatio="733" activeTab="3" xr2:uid="{855E00D3-25C3-4BB2-A61F-0D95BB1AF006}"/>
+    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28590" tabRatio="733" activeTab="3" xr2:uid="{855E00D3-25C3-4BB2-A61F-0D95BB1AF006}"/>
   </bookViews>
   <sheets>
     <sheet name="acct_info" sheetId="1" r:id="rId1"/>
@@ -4433,10 +4433,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Strategy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{'MN':1}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4480,6 +4476,10 @@
   </si>
   <si>
     <t>{'EI':0.3,'MN':0.7}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StrategiesAllocation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -12539,8 +12539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E5BCC1-FCE5-4A72-87FB-8DCCEFEE3C6B}">
   <dimension ref="A1:C120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12558,7 +12558,7 @@
         <v>1122</v>
       </c>
       <c r="C1" t="s">
-        <v>1123</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -12569,7 +12569,7 @@
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -12884,7 +12884,7 @@
         <v>61</v>
       </c>
       <c r="C41" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -12895,7 +12895,7 @@
         <v>62</v>
       </c>
       <c r="C42" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -12914,7 +12914,7 @@
         <v>64</v>
       </c>
       <c r="C44" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -12925,7 +12925,7 @@
         <v>65</v>
       </c>
       <c r="C45" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -12936,7 +12936,7 @@
         <v>66</v>
       </c>
       <c r="C46" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -12947,7 +12947,7 @@
         <v>67</v>
       </c>
       <c r="C47" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -12958,7 +12958,7 @@
         <v>68</v>
       </c>
       <c r="C48" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -12977,18 +12977,18 @@
         <v>70</v>
       </c>
       <c r="C50" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B51" t="s">
         <v>1126</v>
       </c>
-      <c r="B51" t="s">
-        <v>1127</v>
-      </c>
       <c r="C51" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -12999,7 +12999,7 @@
         <v>71</v>
       </c>
       <c r="C52" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -13130,7 +13130,7 @@
         <v>87</v>
       </c>
       <c r="C68" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -13141,7 +13141,7 @@
         <v>88</v>
       </c>
       <c r="C69" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -13160,7 +13160,7 @@
         <v>90</v>
       </c>
       <c r="C71" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -13171,7 +13171,7 @@
         <v>91</v>
       </c>
       <c r="C72" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -13206,7 +13206,7 @@
         <v>95</v>
       </c>
       <c r="C76" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -13217,7 +13217,7 @@
         <v>96</v>
       </c>
       <c r="C77" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -13228,7 +13228,7 @@
         <v>97</v>
       </c>
       <c r="C78" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -13255,7 +13255,7 @@
         <v>100</v>
       </c>
       <c r="C81" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -13266,7 +13266,7 @@
         <v>101</v>
       </c>
       <c r="C82" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
@@ -13277,7 +13277,7 @@
         <v>102</v>
       </c>
       <c r="C83" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
@@ -13288,7 +13288,7 @@
         <v>103</v>
       </c>
       <c r="C84" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
@@ -13299,7 +13299,7 @@
         <v>104</v>
       </c>
       <c r="C85" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
@@ -13310,7 +13310,7 @@
         <v>105</v>
       </c>
       <c r="C86" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
@@ -13342,21 +13342,21 @@
         <v>987</v>
       </c>
       <c r="B90" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="C90" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B91" t="s">
         <v>1132</v>
       </c>
-      <c r="B91" t="s">
-        <v>1133</v>
-      </c>
       <c r="C91" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
@@ -13484,7 +13484,7 @@
         <v>123</v>
       </c>
       <c r="C107" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
@@ -13495,7 +13495,7 @@
         <v>124</v>
       </c>
       <c r="C108" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
@@ -13506,7 +13506,7 @@
         <v>125</v>
       </c>
       <c r="C109" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
@@ -13517,7 +13517,7 @@
         <v>126</v>
       </c>
       <c r="C110" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
@@ -13528,7 +13528,7 @@
         <v>127</v>
       </c>
       <c r="C111" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
@@ -13539,7 +13539,7 @@
         <v>128</v>
       </c>
       <c r="C112" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
@@ -13566,7 +13566,7 @@
         <v>131</v>
       </c>
       <c r="C115" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
@@ -13577,7 +13577,7 @@
         <v>132</v>
       </c>
       <c r="C116" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">

--- a/data/basic_info.xlsx
+++ b/data/basic_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\trading_plan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5C3219-892E-4342-9253-C6DE59030A71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6CB7EB-3A14-4DC9-BBF7-20EF8FC077BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28590" tabRatio="733" activeTab="3" xr2:uid="{855E00D3-25C3-4BB2-A61F-0D95BB1AF006}"/>
+    <workbookView xWindow="-15285" yWindow="5145" windowWidth="13890" windowHeight="17250" tabRatio="733" activeTab="1" xr2:uid="{855E00D3-25C3-4BB2-A61F-0D95BB1AF006}"/>
   </bookViews>
   <sheets>
     <sheet name="acct_info" sheetId="1" r:id="rId1"/>
@@ -7777,11 +7777,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E89EC7F-6807-4E54-B5E1-E4E4E9C6C1B6}">
   <dimension ref="A1:J138"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A59" sqref="A59:XFD59"/>
+      <selection pane="bottomRight" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12285,8 +12285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E5BCC1-FCE5-4A72-87FB-8DCCEFEE3C6B}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/data/basic_info.xlsx
+++ b/data/basic_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\trading_plan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6CB7EB-3A14-4DC9-BBF7-20EF8FC077BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E24763D-C710-4ACB-B71D-326864C5EB40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15285" yWindow="5145" windowWidth="13890" windowHeight="17250" tabRatio="733" activeTab="1" xr2:uid="{855E00D3-25C3-4BB2-A61F-0D95BB1AF006}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28590" tabRatio="733" activeTab="1" xr2:uid="{855E00D3-25C3-4BB2-A61F-0D95BB1AF006}"/>
   </bookViews>
   <sheets>
     <sheet name="acct_info" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">acct_info!$B$1:$B$125</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">acctinfo!$A$1:$A$138</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">acctinfo!$A$1:$A$140</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2090" uniqueCount="1054">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2106" uniqueCount="1067">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3052,63 +3052,1096 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>zxjt_alphabee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hait_ehtc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtja_fy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrdCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcctType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BrokerAlias</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcctStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RptMark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PatchMark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataSourceType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>930</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>023300001818</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120810</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>905</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>905mhuat_666800005729</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xc_tdx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huat_hx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>919</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3900163523</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>920</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>920mhuat_666800011372</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huat_hx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>907</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>913</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>913mhuat_666800005047</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>918</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hf_tdx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>928</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20300226258</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zx_hx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ms_tdx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>905_c_huat_5729</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>905_m_huat_5729</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>906_c_gtja_1979</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>906_m_gtja_6560</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>907_c_huat_5588</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>907_m_huat_5588</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>907mhuat_666810045588</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>908_c_hait_8888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>913_c_huat_5047</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>913_m_huat_5047</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>914_c_huat_8788</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>917_c_xc_6116</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>917_c_zxjt_0163</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>917_c_hait_5912</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>917_m_zxjt_3156</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>918_c_hait_6618</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>918_c_huat_0118</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>918mhuat_666800010118</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>919_c_sw_2666</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>919_m_sw_3523</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>920_c_huat_1372</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>920_m_huat_1372</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>922_c_gtja_0808</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>922_c_zx_0322</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>922_m_gtja_7038</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>925_c_hait_1601</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>928_c_ms_3746</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>928_m_zx_6258</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>930_c_hf_1818</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华福</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataFilePath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(905_m_huat_5729.txt,905_m_huat_5729.txt,)</t>
+  </si>
+  <si>
+    <t>(907_c_huat_5588.txt,907_c_huat_5588.txt,)</t>
+  </si>
+  <si>
+    <t>(907_m_huat_5588.txt,907_m_huat_5588.txt,)</t>
+  </si>
+  <si>
+    <t>(908_c_hait_8888.xlsx,908_c_hait_8888.xlsx,)</t>
+  </si>
+  <si>
+    <t>(913_c_huat_5047.txt,913_c_huat_5047.txt,)</t>
+  </si>
+  <si>
+    <t>(913_m_huat_5047.txt,913_m_huat_5047.txt,)</t>
+  </si>
+  <si>
+    <t>(914_c_huat_8788.txt,914_c_huat_8788.txt,)</t>
+  </si>
+  <si>
+    <t>(917_c_xc_6116.txt,917_c_xc_6116.txt,)</t>
+  </si>
+  <si>
+    <t>(918_c_hait_6618.xlsx,918_c_hait_6618.xlsx,)</t>
+  </si>
+  <si>
+    <t>(918_c_huat_0118.txt,918_c_huat_0118.txt,)</t>
+  </si>
+  <si>
+    <t>(920_c_huat_1372.txt,920_c_huat_1372.txt,)</t>
+  </si>
+  <si>
+    <t>(920_m_huat_1372.txt,920_m_huat_1372.txt,)</t>
+  </si>
+  <si>
+    <t>(930_c_hf_1818.txt,930_c_hf_1818.txt,)</t>
+  </si>
+  <si>
+    <t>AcctIDByBroker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcctIDByMXZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_f_zc_0709</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>905_f_huat_2312</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>906_f_gtja_0378</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>907_f_ya_1853</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>908_f_huat_2827</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>913_f_gy_9906</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>914_f_huat_3293</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>917_f_zc_0103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>918_f_huat_2879</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>919_f_ya_9057</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>920_f_huat_2997</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>922_f_gtja_0567</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>925_f_huat_1792</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>928_f_ya_9053</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>930_f_xy_0810</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>918_m_huat_0118</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(917_c_hait_5912.xlsx,917_c_hait_5912.xlsx,)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(swhy_alphabee/919m/&lt;YYYYMMDD&gt;资金.txt,swhy_alphabee/919m/&lt;YYYYMMDD&gt;持仓.txt,)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(swhy_alphabee/919c/&lt;YYYYMMDD&gt;资金.txt,swhy_alphabee/919c/&lt;YYYYMMDD&gt;持仓.txt,)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zx_tdx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(922_c_zx_0322.txt,922_c_zx_0322.txt,)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(928_c_ms_3746.txt,928_c_ms_3746.txt,)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(918_m_huat_0118.txt,918_m_huat_0118.txt,)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swhy_alphabee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(925_c_hait_1601.xlsx,925_c_hait_1601.xlsx,)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(906_c_gtja_1979.xls,906_c_gtja_1979.xls,)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(906_m_gtja_6560.xls,906_m_gtja_6560.xls,)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(922_c_gtja_0808.xls,922_c_gtja_0808.xls,)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(922_m_gtja_7038.xls,922_m_gtja_7038.xls,)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>929</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20300226218</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>929_c_zx_6218</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zx_tdx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>patch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(929_c_zx_6218.txt,929_c_zx_6218.txt,)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>921</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>921_c_sw_9497</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2413049497</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>318005878</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>L</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>921_m_sw_5383</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3900155383</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>921</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>921_c_zhes_5878</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhes_hx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(921_c_zhes_5878.txt,921_c_zhes_5878.txt,)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>921_f_sw_0778</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9080000778</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swhy_alphabee_dbf2csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(921_m_sw_5383.csv,921_m_sw_5383.csv,)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQSWAP5779DEF20200529-20200615</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>929_o_zx_9DEF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_c_sw_9790</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019029790</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_m_sw_3455</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2_m_sw_3455.csv,2_m_sw_3455.csv,)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2_c_sw_9790.csv,2_c_sw_9790.csv,)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10_c_wk_0388</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10_m_wk_0388</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10_f_xb_3670</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wk_hx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(905_c_huat_5729.txt,905_c_huat_5729.txt,)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(10_c_wk_0388.txt,10_c_wk_0388.txt,)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>702_c_yh_7708</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yh_hx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>702</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7022_c_yh_2659</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>704_c_huat_0091</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7022_f_yh_0021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>704_m_huat_0091</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huat_hx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trader_api</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>704_f_huat_0402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1202_c_zxjt_9999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1202_m_zxjt_5566</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1202_f_xb_3032</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>zxjt_alphabee</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hait_ehtc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gtja_fy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PrdCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AcctType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BrokerAlias</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AcctStatus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RptMark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PatchMark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DataSourceType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>1203</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhaos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1203_c_zhaos_8182</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1203_f_huat_5169</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhaos_tdx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>707</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>99172313</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zxjt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1205_c_huat_8583</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1205_f_huat_2706</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1206_c_huat_0065</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1206_f_ya_1665</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1207_c_zx_2962</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1207_c_db_3756</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1207_f_ya_1008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1210_c_tf_1688</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1210_f_tf_0911</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1211_c_zxjt_5509</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1211_c_hait_6611</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1211_f_zygj_5391</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>705_f_yh_1888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>707_f_nh_5968</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7072_f_yh_0789</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>708_f_yh_0024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>711_f_yh_2108</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>715_f_nh_5971</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>705_c_yh_4811</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>707_c_zxjt_9491</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>707_m_zxjt_2313</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7072_c_yh_6508</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>708_c_yh_3585</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>711_c_yh_7999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>715_c_zxjt_5092</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yh_hx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zx_tdx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>db_hx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1207_c_db_3756.txt,1207_c_db_3756.txt,)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tf_hx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(705_c_yh_4811.txt,705_c_yh_4811.txt,)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>702_f_yh_0019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(7022_c_yh_2659.txt,7022_c_yh_2659.txt,)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(7072_c_yh_6508.txt,7072_c_yh_6508.txt,)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(708_c_yh_3585.txt,708_c_yh_3585.txt,)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1203_c_zhaos_8182.txt,1203_c_zhaos_8182.txt,)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1207_c_zx_2962.txt,1207_c_zx_2962.txt,)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1202_f_hy_2555</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1206_c_huat_0065.txt,1206_c_huat_0065.txt,)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1210_c_tf_1688.txt,1210_c_tf_1688.txt,)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(10_m_wk_0388.txt,10_m_wk_0388.txt,)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9970082641</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1203_m_zhaos_2641</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huat_tdx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1211_c_hait_6611.xlsx,1211_c_hait_6611.xlsx,)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(702_c_yh_7708.txt,702_c_yh_7708.txt,)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(704_m_huat_0091.txt,704_m_huat_0091.txt,)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(zxjt_alphabee/707/&lt;YYYYMMDD&gt;/&lt;YYYYMMDD&gt;资金.txt,zxjt_alphabee/707/&lt;YYYYMMDD&gt;/&lt;YYYYMMDD&gt;持仓.txt,)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(zxjt_alphabee/715/&lt;YYYYMMDD&gt;/&lt;YYYYMMDD&gt;资金.txt,zxjt_alphabee/715/&lt;YYYYMMDD&gt;/&lt;YYYYMMDD&gt;持仓.txt,)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(zxjt_alphabee/917/&lt;YYYYMMDD&gt;/&lt;YYYYMMDD&gt;资金.txt,zxjt_alphabee/917/&lt;YYYYMMDD&gt;/&lt;YYYYMMDD&gt;持仓.txt,)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(zxjt_alphabee/917/&lt;YYYYMMDD&gt;/&lt;YYYYMMDD&gt;两融资金.txt,zxjt_alphabee/917/&lt;YYYYMMDD&gt;/&lt;YYYYMMDD&gt;两融持仓.txt,)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(zxjt_alphabee/1211/&lt;YYYYMMDD&gt;/&lt;YYYYMMDD&gt;资金.txt,zxjt_alphabee/1211/&lt;YYYYMMDD&gt;/&lt;YYYYMMDD&gt;持仓.txt,)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(zxjt_alphabee/1202/&lt;YYYYMMDD&gt;/&lt;YYYYMMDD&gt;资金.txt,zxjt_alphabee/1202/&lt;YYYYMMDD&gt;/&lt;YYYYMMDD&gt;持仓.txt,)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(zxjt_alphabee/1202/&lt;YYYYMMDD&gt;/&lt;YYYYMMDD&gt;两融资金.txt,zxjt_alphabee/1202/&lt;YYYYMMDD&gt;/&lt;YYYYMMDD&gt;两融持仓.txt,)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(711_c_yh_7999.txt,711_c_yh_7999.txt,)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1203_m_zhaos_2641.txt,1203_m_zhaos_2641.txt,1203_m_zhaos_2641_secdebt.txt,)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrdName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'MN':1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'EI':1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7121</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸣石傲华12号1期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>量化29号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"MN":1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'EI':1}</t>
+  </si>
+  <si>
+    <t>{'MN':1}</t>
   </si>
   <si>
     <t>930</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>023300001818</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hf</t>
+    <t>量化30号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'MN':1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'EI':0.3,'MN':0.7}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StrategiesAllocation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>929</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>929_f_zx_0168</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>830200168</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3116,7 +4149,91 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>120810</t>
+    <t>N/A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NetAssetAllocation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'security':{'huat': 90000000}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'security':{'gtja':0.6494, 'zx':0.3506}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'future':{'xb':0.27, 'hy':0.73}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'security':{'db':0.881, 'zx':0.119}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'security':{'hait':0.772, 'zxjt':0.228}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TargetCompositePercentage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'security':{'zhes':0.5803, 'sw':0.4197}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"security":{'hait':0.1622, 'xc':0.1622,  'zxjt':0.6756}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TargetItems</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>913</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>patch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>913_o_huat_20200629</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SWAP_huat_20200629</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_f_xy_0807</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120807</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3128,1072 +4245,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>905</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>905mhuat_666800005729</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>huat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xc_tdx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>huat_hx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>919</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3900163523</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>920</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>920mhuat_666800011372</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>huat_hx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>907</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>huat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>913</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>913mhuat_666800005047</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>918</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hf_tdx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>928</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20300226258</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zx_hx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ms_tdx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>905_c_huat_5729</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>905_m_huat_5729</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>906_c_gtja_1979</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>906_m_gtja_6560</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>907_c_huat_5588</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>907_m_huat_5588</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>907mhuat_666810045588</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>908_c_hait_8888</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>913_c_huat_5047</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>913_m_huat_5047</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>914_c_huat_8788</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>917_c_xc_6116</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>917_c_zxjt_0163</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>917_c_hait_5912</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>917_m_zxjt_3156</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>918_c_hait_6618</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>918_c_huat_0118</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>918mhuat_666800010118</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>919_c_sw_2666</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>919_m_sw_3523</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>920_c_huat_1372</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>920_m_huat_1372</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>922_c_gtja_0808</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>922_c_zx_0322</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>922_m_gtja_7038</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>925_c_hait_1601</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>928_c_ms_3746</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>928_m_zx_6258</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>930_c_hf_1818</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华福</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DataFilePath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(905_m_huat_5729.txt,905_m_huat_5729.txt,)</t>
-  </si>
-  <si>
-    <t>(907_c_huat_5588.txt,907_c_huat_5588.txt,)</t>
-  </si>
-  <si>
-    <t>(907_m_huat_5588.txt,907_m_huat_5588.txt,)</t>
-  </si>
-  <si>
-    <t>(908_c_hait_8888.xlsx,908_c_hait_8888.xlsx,)</t>
-  </si>
-  <si>
-    <t>(913_c_huat_5047.txt,913_c_huat_5047.txt,)</t>
-  </si>
-  <si>
-    <t>(913_m_huat_5047.txt,913_m_huat_5047.txt,)</t>
-  </si>
-  <si>
-    <t>(914_c_huat_8788.txt,914_c_huat_8788.txt,)</t>
-  </si>
-  <si>
-    <t>(917_c_xc_6116.txt,917_c_xc_6116.txt,)</t>
-  </si>
-  <si>
-    <t>(918_c_hait_6618.xlsx,918_c_hait_6618.xlsx,)</t>
-  </si>
-  <si>
-    <t>(918_c_huat_0118.txt,918_c_huat_0118.txt,)</t>
-  </si>
-  <si>
-    <t>(920_c_huat_1372.txt,920_c_huat_1372.txt,)</t>
-  </si>
-  <si>
-    <t>(920_m_huat_1372.txt,920_m_huat_1372.txt,)</t>
-  </si>
-  <si>
-    <t>(930_c_hf_1818.txt,930_c_hf_1818.txt,)</t>
-  </si>
-  <si>
-    <t>AcctIDByBroker</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AcctIDByMXZ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_f_zc_0709</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>905_f_huat_2312</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>906_f_gtja_0378</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>907_f_ya_1853</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>908_f_huat_2827</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>913_f_gy_9906</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>914_f_huat_3293</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>917_f_zc_0103</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>918_f_huat_2879</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>919_f_ya_9057</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>920_f_huat_2997</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>922_f_gtja_0567</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>925_f_huat_1792</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>928_f_ya_9053</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>930_f_xy_0810</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>918_m_huat_0118</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(917_c_hait_5912.xlsx,917_c_hait_5912.xlsx,)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(swhy_alphabee/919m/&lt;YYYYMMDD&gt;资金.txt,swhy_alphabee/919m/&lt;YYYYMMDD&gt;持仓.txt,)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(swhy_alphabee/919c/&lt;YYYYMMDD&gt;资金.txt,swhy_alphabee/919c/&lt;YYYYMMDD&gt;持仓.txt,)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zx_tdx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(922_c_zx_0322.txt,922_c_zx_0322.txt,)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(928_c_ms_3746.txt,928_c_ms_3746.txt,)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N/A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N/A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(918_m_huat_0118.txt,918_m_huat_0118.txt,)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>swhy_alphabee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(925_c_hait_1601.xlsx,925_c_hait_1601.xlsx,)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(906_c_gtja_1979.xls,906_c_gtja_1979.xls,)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(906_m_gtja_6560.xls,906_m_gtja_6560.xls,)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(922_c_gtja_0808.xls,922_c_gtja_0808.xls,)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(922_m_gtja_7038.xls,922_m_gtja_7038.xls,)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>929</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20300226218</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>929_c_zx_6218</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zx_tdx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>o</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N/A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>patch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(929_c_zx_6218.txt,929_c_zx_6218.txt,)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>921</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>921_c_sw_9497</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2413049497</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>318005878</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zhes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>921_m_sw_5383</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3900155383</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>921</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>921_c_zhes_5878</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zhes_hx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(921_c_zhes_5878.txt,921_c_zhes_5878.txt,)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>921_f_sw_0778</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9080000778</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N/A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>swhy_alphabee_dbf2csv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(921_m_sw_5383.csv,921_m_sw_5383.csv,)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EQSWAP5779DEF20200529-20200615</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>929_o_zx_9DEF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_c_sw_9790</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019029790</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N/A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_m_sw_3455</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(2_m_sw_3455.csv,2_m_sw_3455.csv,)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(2_c_sw_9790.csv,2_c_sw_9790.csv,)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10_c_wk_0388</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10_m_wk_0388</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10_f_xb_3670</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wk_hx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(905_c_huat_5729.txt,905_c_huat_5729.txt,)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(10_c_wk_0388.txt,10_c_wk_0388.txt,)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>702_c_yh_7708</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yh_hx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>702</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7022_c_yh_2659</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>704_c_huat_0091</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7022_f_yh_0021</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>704_m_huat_0091</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>huat_hx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>trader_api</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>704_f_huat_0402</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1202_c_zxjt_9999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1202_m_zxjt_5566</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1202_f_xb_3032</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zxjt_alphabee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1203</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zhaos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1203_c_zhaos_8182</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1203_f_huat_5169</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zhaos_tdx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>707</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>99172313</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zxjt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1205_c_huat_8583</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1205_f_huat_2706</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1206_c_huat_0065</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1206_f_ya_1665</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1207_c_zx_2962</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1207_c_db_3756</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1207_f_ya_1008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1210_c_tf_1688</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1210_f_tf_0911</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1211_c_zxjt_5509</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1211_c_hait_6611</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1211_f_zygj_5391</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>705_f_yh_1888</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>707_f_nh_5968</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7072_f_yh_0789</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>708_f_yh_0024</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>711_f_yh_2108</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>715_f_nh_5971</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>705_c_yh_4811</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>707_c_zxjt_9491</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>707_m_zxjt_2313</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7072_c_yh_6508</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>708_c_yh_3585</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>711_c_yh_7999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>715_c_zxjt_5092</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yh_hx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zx_tdx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>db_hx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1207_c_db_3756.txt,1207_c_db_3756.txt,)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tf_hx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(705_c_yh_4811.txt,705_c_yh_4811.txt,)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>702_f_yh_0019</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(7022_c_yh_2659.txt,7022_c_yh_2659.txt,)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(7072_c_yh_6508.txt,7072_c_yh_6508.txt,)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(708_c_yh_3585.txt,708_c_yh_3585.txt,)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1203_c_zhaos_8182.txt,1203_c_zhaos_8182.txt,)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1207_c_zx_2962.txt,1207_c_zx_2962.txt,)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N/A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1202_f_hy_2555</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1206_c_huat_0065.txt,1206_c_huat_0065.txt,)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1210_c_tf_1688.txt,1210_c_tf_1688.txt,)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(10_m_wk_0388.txt,10_m_wk_0388.txt,)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9970082641</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1203_m_zhaos_2641</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>huat_tdx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1211_c_hait_6611.xlsx,1211_c_hait_6611.xlsx,)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(702_c_yh_7708.txt,702_c_yh_7708.txt,)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(704_m_huat_0091.txt,704_m_huat_0091.txt,)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(zxjt_alphabee/707/&lt;YYYYMMDD&gt;/&lt;YYYYMMDD&gt;资金.txt,zxjt_alphabee/707/&lt;YYYYMMDD&gt;/&lt;YYYYMMDD&gt;持仓.txt,)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(zxjt_alphabee/715/&lt;YYYYMMDD&gt;/&lt;YYYYMMDD&gt;资金.txt,zxjt_alphabee/715/&lt;YYYYMMDD&gt;/&lt;YYYYMMDD&gt;持仓.txt,)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(zxjt_alphabee/917/&lt;YYYYMMDD&gt;/&lt;YYYYMMDD&gt;资金.txt,zxjt_alphabee/917/&lt;YYYYMMDD&gt;/&lt;YYYYMMDD&gt;持仓.txt,)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(zxjt_alphabee/917/&lt;YYYYMMDD&gt;/&lt;YYYYMMDD&gt;两融资金.txt,zxjt_alphabee/917/&lt;YYYYMMDD&gt;/&lt;YYYYMMDD&gt;两融持仓.txt,)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(zxjt_alphabee/1211/&lt;YYYYMMDD&gt;/&lt;YYYYMMDD&gt;资金.txt,zxjt_alphabee/1211/&lt;YYYYMMDD&gt;/&lt;YYYYMMDD&gt;持仓.txt,)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(zxjt_alphabee/1202/&lt;YYYYMMDD&gt;/&lt;YYYYMMDD&gt;资金.txt,zxjt_alphabee/1202/&lt;YYYYMMDD&gt;/&lt;YYYYMMDD&gt;持仓.txt,)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(zxjt_alphabee/1202/&lt;YYYYMMDD&gt;/&lt;YYYYMMDD&gt;两融资金.txt,zxjt_alphabee/1202/&lt;YYYYMMDD&gt;/&lt;YYYYMMDD&gt;两融持仓.txt,)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(711_c_yh_7999.txt,711_c_yh_7999.txt,)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1203_m_zhaos_2641.txt,1203_m_zhaos_2641.txt,1203_m_zhaos_2641_secdebt.txt,)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PrdName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'MN':1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'EI':1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7121</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鸣石傲华12号1期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>量化29号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"MN":1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'EI':1}</t>
-  </si>
-  <si>
-    <t>{'MN':1}</t>
-  </si>
-  <si>
-    <t>930</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>量化30号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'MN':1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'EI':0.3,'MN':0.7}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StrategiesAllocation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>929</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>929_f_zx_0168</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>830200168</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N/A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NetAssetAllocation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'security':{'huat': 90000000}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'security':{'gtja':0.6494, 'zx':0.3506}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'future':{'xb':0.27, 'hy':0.73}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'security':{'db':0.881, 'zx':0.119}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'security':{'hait':0.772, 'zxjt':0.228}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TargetCompositePercentage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'security':{'zhes':0.5803, 'sw':0.4197}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"security":{'hait':0.1622, 'xc':0.1622,  'zxjt':0.6756}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TargetItems</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7775,13 +7827,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E89EC7F-6807-4E54-B5E1-E4E4E9C6C1B6}">
-  <dimension ref="A1:J138"/>
+  <dimension ref="A1:K140"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H29" sqref="H29"/>
+      <selection pane="bottomRight" activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7798,56 +7850,57 @@
     <col min="10" max="10" width="41" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>856</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>855</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>769</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>771</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="7" t="s">
         <v>772</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>774</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+        <v>840</v>
+      </c>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>925</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>927</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>928</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>929</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>930</v>
       </c>
       <c r="G2" s="3">
         <v>1</v>
@@ -7856,18 +7909,18 @@
         <v>0</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>535</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>537</v>
@@ -7888,18 +7941,18 @@
         <v>1</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>597</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>598</v>
@@ -7923,27 +7976,27 @@
         <v>747</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>536</v>
+        <v>1060</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>935</v>
+        <v>1061</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>541</v>
+        <v>1063</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>538</v>
+        <v>1064</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>152</v>
+        <v>1065</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>540</v>
+        <v>1066</v>
       </c>
       <c r="G5" s="3">
         <v>1</v>
@@ -7952,24 +8005,24 @@
         <v>0</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>938</v>
+        <v>747</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>536</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>152</v>
@@ -7984,30 +8037,30 @@
         <v>0</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>602</v>
+        <v>536</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>759</v>
+        <v>542</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>599</v>
+        <v>543</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>603</v>
+        <v>152</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>601</v>
+        <v>540</v>
       </c>
       <c r="G7" s="3">
         <v>1</v>
@@ -8016,30 +8069,30 @@
         <v>0</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>747</v>
+        <v>937</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>943</v>
+        <v>602</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>371</v>
+        <v>759</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>525</v>
+        <v>599</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>374</v>
+        <v>603</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>534</v>
+        <v>601</v>
       </c>
       <c r="G8" s="3">
         <v>1</v>
@@ -8048,30 +8101,30 @@
         <v>0</v>
       </c>
       <c r="I8" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>942</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>604</v>
-      </c>
       <c r="B9" s="1" t="s">
-        <v>997</v>
+        <v>940</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>605</v>
+        <v>371</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>599</v>
+        <v>525</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>606</v>
+        <v>374</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>601</v>
+        <v>534</v>
       </c>
       <c r="G9" s="3">
         <v>1</v>
@@ -8080,30 +8133,30 @@
         <v>0</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>747</v>
+        <v>941</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>375</v>
+        <v>604</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>944</v>
+        <v>996</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>376</v>
+        <v>605</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>525</v>
+        <v>599</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>374</v>
+        <v>606</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>534</v>
+        <v>601</v>
       </c>
       <c r="G10" s="3">
         <v>1</v>
@@ -8112,30 +8165,30 @@
         <v>0</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>942</v>
+        <v>747</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>607</v>
+        <v>375</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>608</v>
+        <v>376</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>599</v>
+        <v>525</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>606</v>
+        <v>374</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>601</v>
+        <v>534</v>
       </c>
       <c r="G11" s="3">
         <v>1</v>
@@ -8144,126 +8197,126 @@
         <v>0</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>747</v>
+        <v>941</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>489</v>
+        <v>607</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>945</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>506</v>
+        <v>608</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>525</v>
+        <v>599</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>158</v>
+        <v>606</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>787</v>
+        <v>601</v>
       </c>
       <c r="G12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>789</v>
+        <v>747</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>489</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>158</v>
       </c>
       <c r="F13" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>534</v>
-      </c>
-      <c r="G13" s="3">
-        <v>1</v>
-      </c>
-      <c r="H13" s="7">
-        <v>1</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>948</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>950</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>601</v>
       </c>
       <c r="G14" s="3">
         <v>1</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>949</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>984</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>508</v>
+        <v>610</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>525</v>
+        <v>599</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>374</v>
+        <v>611</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>534</v>
+        <v>601</v>
       </c>
       <c r="G15" s="3">
         <v>1</v>
@@ -8272,30 +8325,30 @@
         <v>0</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>991</v>
+        <v>948</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>612</v>
+        <v>490</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>978</v>
+        <v>983</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>613</v>
+        <v>508</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>599</v>
+        <v>525</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>606</v>
+        <v>374</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>601</v>
+        <v>534</v>
       </c>
       <c r="G16" s="3">
         <v>1</v>
@@ -8304,30 +8357,30 @@
         <v>0</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>747</v>
+        <v>990</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>1003</v>
+        <v>995</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>378</v>
+        <v>612</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>985</v>
+        <v>977</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>379</v>
+        <v>613</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>525</v>
+        <v>599</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>249</v>
+        <v>606</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>534</v>
+        <v>601</v>
       </c>
       <c r="G17" s="3">
         <v>1</v>
@@ -8336,94 +8389,94 @@
         <v>0</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>765</v>
+        <v>747</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>1014</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>961</v>
+        <v>378</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>962</v>
+        <v>379</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>963</v>
+        <v>525</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>964</v>
+        <v>249</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>965</v>
+        <v>534</v>
       </c>
       <c r="G18" s="3">
         <v>1</v>
       </c>
       <c r="H18" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>897</v>
+        <v>764</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>395</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>614</v>
+        <v>960</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>615</v>
+        <v>961</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>599</v>
+        <v>962</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>616</v>
+        <v>963</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>601</v>
+        <v>964</v>
       </c>
       <c r="G19" s="3">
         <v>1</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>747</v>
+        <v>896</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>1003</v>
+        <v>395</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>491</v>
+        <v>614</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>987</v>
+        <v>978</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>509</v>
+        <v>615</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>525</v>
+        <v>599</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>374</v>
+        <v>616</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>534</v>
+        <v>601</v>
       </c>
       <c r="G20" s="3">
         <v>1</v>
@@ -8432,30 +8485,30 @@
         <v>0</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>942</v>
+        <v>747</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>617</v>
+        <v>491</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>980</v>
+        <v>986</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>618</v>
+        <v>509</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>599</v>
+        <v>525</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>606</v>
+        <v>374</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>601</v>
+        <v>534</v>
       </c>
       <c r="G21" s="3">
         <v>1</v>
@@ -8464,30 +8517,30 @@
         <v>0</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>747</v>
+        <v>941</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>492</v>
+        <v>617</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>988</v>
+        <v>979</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>510</v>
+        <v>618</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>525</v>
+        <v>599</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>374</v>
+        <v>606</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>534</v>
+        <v>601</v>
       </c>
       <c r="G22" s="3">
         <v>1</v>
@@ -8496,30 +8549,30 @@
         <v>0</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>942</v>
+        <v>747</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>619</v>
+        <v>492</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>981</v>
+        <v>987</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>620</v>
+        <v>510</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>599</v>
+        <v>525</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>606</v>
+        <v>374</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>601</v>
+        <v>534</v>
       </c>
       <c r="G23" s="3">
         <v>1</v>
@@ -8528,30 +8581,30 @@
         <v>0</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>747</v>
+        <v>941</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>383</v>
+        <v>619</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>384</v>
+        <v>620</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>525</v>
+        <v>599</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>374</v>
+        <v>606</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>534</v>
+        <v>601</v>
       </c>
       <c r="G24" s="3">
         <v>1</v>
@@ -8560,30 +8613,30 @@
         <v>0</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>942</v>
+        <v>747</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>1021</v>
+        <v>395</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>621</v>
+        <v>383</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>982</v>
+        <v>988</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>622</v>
+        <v>384</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>599</v>
+        <v>525</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>606</v>
+        <v>374</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>601</v>
+        <v>534</v>
       </c>
       <c r="G25" s="3">
         <v>1</v>
@@ -8592,30 +8645,30 @@
         <v>0</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>747</v>
+        <v>941</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>1003</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>493</v>
+        <v>621</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>990</v>
+        <v>981</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>511</v>
+        <v>622</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>525</v>
+        <v>599</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>249</v>
+        <v>606</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>534</v>
+        <v>601</v>
       </c>
       <c r="G26" s="3">
         <v>1</v>
@@ -8624,30 +8677,30 @@
         <v>0</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>765</v>
+        <v>747</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>1015</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>623</v>
+        <v>493</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>983</v>
+        <v>989</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>624</v>
+        <v>511</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>599</v>
+        <v>525</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>616</v>
+        <v>249</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>601</v>
+        <v>534</v>
       </c>
       <c r="G27" s="3">
         <v>1</v>
@@ -8656,30 +8709,30 @@
         <v>0</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>747</v>
+        <v>764</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>1003</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>126</v>
+        <v>623</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>809</v>
+        <v>982</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>180</v>
+        <v>624</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>525</v>
+        <v>599</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>158</v>
+        <v>616</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>534</v>
+        <v>601</v>
       </c>
       <c r="G28" s="3">
         <v>1</v>
@@ -8688,94 +8741,94 @@
         <v>0</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>789</v>
-      </c>
-      <c r="J28" t="s">
-        <v>939</v>
+        <v>747</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>1002</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>783</v>
+        <v>126</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>784</v>
+        <v>180</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>785</v>
+        <v>525</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>786</v>
+        <v>158</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>787</v>
+        <v>534</v>
       </c>
       <c r="G29" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="J29" t="s">
-        <v>842</v>
+        <v>938</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0</v>
+      </c>
+      <c r="H30" s="7">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="J30" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>858</v>
-      </c>
-      <c r="C30" s="1" t="s">
+      <c r="B31" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>601</v>
-      </c>
-      <c r="G30" s="3">
-        <v>1</v>
-      </c>
-      <c r="H30" s="7">
-        <v>0</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>811</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>534</v>
       </c>
       <c r="G31" s="3">
         <v>1</v>
@@ -8784,126 +8837,126 @@
         <v>0</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="J31" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+        <v>747</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>760</v>
+        <v>127</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>761</v>
+        <v>184</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>762</v>
+        <v>525</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>763</v>
+        <v>319</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>764</v>
+        <v>534</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>544</v>
+        <v>766</v>
       </c>
       <c r="J32" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>628</v>
+        <v>760</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>859</v>
+        <v>811</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>629</v>
+        <v>761</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>599</v>
+        <v>762</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>630</v>
+        <v>763</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>601</v>
+        <v>534</v>
       </c>
       <c r="G33" s="3">
         <v>1</v>
       </c>
       <c r="H33" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>747</v>
+        <v>766</v>
       </c>
       <c r="J33" t="s">
-        <v>879</v>
+        <v>884</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>128</v>
+        <v>628</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>813</v>
+        <v>858</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>201</v>
+        <v>629</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>525</v>
+        <v>599</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>158</v>
+        <v>630</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>534</v>
+        <v>601</v>
       </c>
       <c r="G34" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>789</v>
+        <v>747</v>
       </c>
       <c r="J34" t="s">
-        <v>843</v>
+        <v>878</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>796</v>
+        <v>128</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>815</v>
+        <v>201</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>797</v>
+        <v>525</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>798</v>
+        <v>158</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>799</v>
+        <v>534</v>
       </c>
       <c r="G35" s="3">
         <v>0</v>
@@ -8912,30 +8965,30 @@
         <v>0</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="J35" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>631</v>
+        <v>795</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>860</v>
+        <v>813</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>632</v>
+        <v>814</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>599</v>
+        <v>796</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>611</v>
+        <v>797</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>601</v>
+        <v>798</v>
       </c>
       <c r="G36" s="3">
         <v>0</v>
@@ -8944,62 +8997,62 @@
         <v>0</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>747</v>
+        <v>794</v>
       </c>
       <c r="J36" t="s">
-        <v>879</v>
+        <v>843</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>129</v>
+        <v>631</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>816</v>
+        <v>859</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>210</v>
+        <v>632</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>525</v>
+        <v>599</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>157</v>
+        <v>611</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>534</v>
+        <v>601</v>
       </c>
       <c r="G37" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>766</v>
+        <v>747</v>
       </c>
       <c r="J37" t="s">
-        <v>845</v>
+        <v>878</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>633</v>
+        <v>129</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>861</v>
+        <v>815</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>634</v>
+        <v>210</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>599</v>
+        <v>525</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>627</v>
+        <v>157</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>601</v>
+        <v>534</v>
       </c>
       <c r="G38" s="3">
         <v>1</v>
@@ -9008,30 +9061,30 @@
         <v>0</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>747</v>
+        <v>765</v>
       </c>
       <c r="J38" t="s">
-        <v>879</v>
+        <v>844</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>131</v>
+        <v>633</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>817</v>
+        <v>860</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>225</v>
+        <v>634</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>525</v>
+        <v>599</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>158</v>
+        <v>627</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>534</v>
+        <v>601</v>
       </c>
       <c r="G39" s="3">
         <v>1</v>
@@ -9040,94 +9093,94 @@
         <v>0</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>789</v>
+        <v>747</v>
       </c>
       <c r="J39" t="s">
-        <v>846</v>
+        <v>878</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>800</v>
+        <v>131</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>801</v>
+        <v>225</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>797</v>
+        <v>525</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>798</v>
+        <v>158</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>787</v>
+        <v>534</v>
       </c>
       <c r="G40" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="J40" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>635</v>
+        <v>799</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>862</v>
+        <v>817</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>636</v>
+        <v>800</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>599</v>
+        <v>796</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>637</v>
+        <v>797</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>601</v>
+        <v>786</v>
       </c>
       <c r="G41" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>747</v>
+        <v>788</v>
       </c>
       <c r="J41" t="s">
-        <v>879</v>
+        <v>846</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>494</v>
+        <v>635</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>819</v>
+        <v>861</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>232</v>
+        <v>636</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>525</v>
+        <v>599</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>158</v>
+        <v>637</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>534</v>
+        <v>601</v>
       </c>
       <c r="G42" s="3">
         <v>1</v>
@@ -9136,59 +9189,59 @@
         <v>0</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>789</v>
+        <v>747</v>
       </c>
       <c r="J42" t="s">
-        <v>848</v>
+        <v>878</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>638</v>
+        <v>1053</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>863</v>
+        <v>1058</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>639</v>
+        <v>1059</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>599</v>
+        <v>1054</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>627</v>
+        <v>1055</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>601</v>
+        <v>1056</v>
       </c>
       <c r="G43" s="3">
         <v>1</v>
       </c>
       <c r="H43" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="J43" t="s">
-        <v>879</v>
+        <v>1057</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>414</v>
+        <v>494</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>525</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>247</v>
+        <v>158</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>534</v>
@@ -9203,39 +9256,39 @@
         <v>788</v>
       </c>
       <c r="J44" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>821</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>525</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="G45" s="5">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="G45" s="3">
         <v>1</v>
       </c>
-      <c r="H45" s="8">
-        <v>0</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>765</v>
+      <c r="H45" s="7">
+        <v>0</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>747</v>
       </c>
       <c r="J45" t="s">
-        <v>1016</v>
+        <v>878</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
@@ -9243,16 +9296,16 @@
         <v>414</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>525</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>157</v>
+        <v>247</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>534</v>
@@ -9264,10 +9317,10 @@
         <v>0</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>766</v>
+        <v>787</v>
       </c>
       <c r="J46" t="s">
-        <v>873</v>
+        <v>848</v>
       </c>
     </row>
     <row r="47" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -9275,13 +9328,13 @@
         <v>414</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>512</v>
+        <v>415</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>249</v>
@@ -9293,33 +9346,33 @@
         <v>1</v>
       </c>
       <c r="H47" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="J47" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>640</v>
+        <v>414</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>864</v>
+        <v>822</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>641</v>
+        <v>243</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>599</v>
+        <v>525</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>600</v>
+        <v>157</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>601</v>
+        <v>534</v>
       </c>
       <c r="G48" s="3">
         <v>1</v>
@@ -9328,62 +9381,62 @@
         <v>0</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>747</v>
+        <v>765</v>
       </c>
       <c r="J48" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>825</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F49" s="1" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="F49" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G49" s="5">
         <v>1</v>
       </c>
-      <c r="H49" s="7">
-        <v>0</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>766</v>
+      <c r="H49" s="8">
+        <v>1</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>764</v>
       </c>
       <c r="J49" t="s">
-        <v>850</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>495</v>
+        <v>640</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>826</v>
+        <v>863</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>261</v>
+        <v>641</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>525</v>
+        <v>599</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>158</v>
+        <v>600</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>534</v>
+        <v>601</v>
       </c>
       <c r="G50" s="3">
         <v>1</v>
@@ -9392,62 +9445,62 @@
         <v>0</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>789</v>
+        <v>747</v>
       </c>
       <c r="J50" t="s">
-        <v>851</v>
+        <v>878</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>802</v>
+        <v>495</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>872</v>
+        <v>824</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>827</v>
+        <v>263</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>797</v>
+        <v>525</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>798</v>
+        <v>157</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>799</v>
+        <v>534</v>
       </c>
       <c r="G51" s="3">
         <v>1</v>
       </c>
       <c r="H51" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>789</v>
+        <v>765</v>
       </c>
       <c r="J51" t="s">
-        <v>881</v>
+        <v>849</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>642</v>
+        <v>495</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>865</v>
+        <v>825</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>643</v>
+        <v>261</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>599</v>
+        <v>525</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>627</v>
+        <v>158</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>601</v>
+        <v>534</v>
       </c>
       <c r="G52" s="3">
         <v>1</v>
@@ -9456,190 +9509,190 @@
         <v>0</v>
       </c>
       <c r="I52" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="J52" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="G53" s="3">
+        <v>1</v>
+      </c>
+      <c r="H53" s="7">
+        <v>1</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="J53" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="G54" s="3">
+        <v>1</v>
+      </c>
+      <c r="H54" s="7">
+        <v>0</v>
+      </c>
+      <c r="I54" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="J52" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="4" t="s">
+      <c r="J54" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B55" s="4" t="s">
+        <v>827</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="G55" s="5">
+        <v>1</v>
+      </c>
+      <c r="H55" s="8">
+        <v>0</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>881</v>
+      </c>
+      <c r="J55" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="B56" s="4" t="s">
         <v>828</v>
       </c>
-      <c r="C53" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>525</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="G53" s="5">
+      <c r="C56" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>784</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>791</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>778</v>
+      </c>
+      <c r="G56" s="5">
         <v>1</v>
       </c>
-      <c r="H53" s="8">
-        <v>0</v>
-      </c>
-      <c r="I53" s="4" t="s">
-        <v>882</v>
-      </c>
-      <c r="J53" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="4" t="s">
-        <v>790</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>829</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>791</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>785</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>792</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>779</v>
-      </c>
-      <c r="G54" s="5">
+      <c r="H56" s="8">
         <v>1</v>
       </c>
-      <c r="H54" s="8">
-        <v>1</v>
-      </c>
-      <c r="I54" s="4" t="s">
-        <v>882</v>
-      </c>
-      <c r="J54" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>866</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="G55" s="3">
-        <v>1</v>
-      </c>
-      <c r="H55" s="7">
-        <v>0</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="J55" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>830</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="G56" s="3">
-        <v>1</v>
-      </c>
-      <c r="H56" s="7">
-        <v>0</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>789</v>
+      <c r="I56" s="4" t="s">
+        <v>881</v>
       </c>
       <c r="J56" t="s">
-        <v>852</v>
+        <v>873</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>793</v>
+        <v>644</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>831</v>
+        <v>865</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>794</v>
+        <v>645</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>785</v>
+        <v>599</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>786</v>
+        <v>611</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>787</v>
+        <v>601</v>
       </c>
       <c r="G57" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" s="7">
         <v>0</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>795</v>
+        <v>747</v>
       </c>
       <c r="J57" t="s">
-        <v>853</v>
+        <v>878</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>646</v>
+        <v>467</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>867</v>
+        <v>829</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>647</v>
+        <v>291</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>599</v>
+        <v>525</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>627</v>
+        <v>158</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>601</v>
+        <v>534</v>
       </c>
       <c r="G58" s="3">
         <v>1</v>
@@ -9648,62 +9701,62 @@
         <v>0</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>747</v>
+        <v>788</v>
       </c>
       <c r="J58" t="s">
-        <v>879</v>
+        <v>851</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>899</v>
+        <v>792</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>900</v>
+        <v>830</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>901</v>
+        <v>793</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>902</v>
+        <v>784</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>903</v>
+        <v>785</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>907</v>
+        <v>786</v>
       </c>
       <c r="G59" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>897</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>920</v>
+        <v>794</v>
+      </c>
+      <c r="J59" t="s">
+        <v>852</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>899</v>
+        <v>646</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>913</v>
+        <v>866</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>905</v>
+        <v>647</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>902</v>
+        <v>599</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>906</v>
+        <v>627</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>912</v>
+        <v>601</v>
       </c>
       <c r="G60" s="3">
         <v>1</v>
@@ -9712,62 +9765,62 @@
         <v>0</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>914</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="4" t="s">
-        <v>911</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>908</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>909</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>910</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>903</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>904</v>
-      </c>
-      <c r="G61" s="5">
+        <v>747</v>
+      </c>
+      <c r="J60" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="G61" s="3">
         <v>1</v>
       </c>
-      <c r="H61" s="8">
-        <v>0</v>
-      </c>
-      <c r="I61" s="4" t="s">
-        <v>921</v>
-      </c>
-      <c r="J61" s="4" t="s">
-        <v>922</v>
+      <c r="H61" s="7">
+        <v>1</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>919</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="F62" s="1" t="s">
         <v>911</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>916</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>917</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>918</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>919</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>912</v>
       </c>
       <c r="G62" s="3">
         <v>1</v>
@@ -9776,62 +9829,62 @@
         <v>0</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>747</v>
+        <v>913</v>
       </c>
       <c r="J62" s="1" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="4" t="s">
+        <v>910</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>907</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>908</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>909</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>902</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>903</v>
+      </c>
+      <c r="G63" s="5">
+        <v>1</v>
+      </c>
+      <c r="H63" s="8">
+        <v>0</v>
+      </c>
+      <c r="I63" s="4" t="s">
         <v>920</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="G63" s="3">
-        <v>1</v>
-      </c>
-      <c r="H63" s="7">
-        <v>0</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="J63" t="s">
-        <v>886</v>
+      <c r="J63" s="4" t="s">
+        <v>921</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>497</v>
+        <v>910</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>833</v>
+        <v>915</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>300</v>
+        <v>916</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>525</v>
+        <v>917</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>156</v>
+        <v>918</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>533</v>
+        <v>911</v>
       </c>
       <c r="G64" s="3">
         <v>1</v>
@@ -9840,10 +9893,10 @@
         <v>0</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>876</v>
-      </c>
-      <c r="J64" t="s">
-        <v>877</v>
+        <v>747</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>919</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
@@ -9851,51 +9904,51 @@
         <v>497</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>299</v>
+        <v>513</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>319</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G65" s="3">
         <v>1</v>
       </c>
       <c r="H65" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J65" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>648</v>
+        <v>497</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>868</v>
+        <v>832</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>649</v>
+        <v>300</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>599</v>
+        <v>525</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>630</v>
+        <v>156</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>601</v>
+        <v>533</v>
       </c>
       <c r="G66" s="3">
         <v>1</v>
@@ -9904,65 +9957,65 @@
         <v>0</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>747</v>
+        <v>875</v>
       </c>
       <c r="J66" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>141</v>
+        <v>497</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>157</v>
+        <v>319</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>534</v>
       </c>
       <c r="G67" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>766</v>
       </c>
       <c r="J67" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>599</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>601</v>
       </c>
       <c r="G68" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68" s="7">
         <v>0</v>
@@ -9971,24 +10024,24 @@
         <v>747</v>
       </c>
       <c r="J68" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>525</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>290</v>
+        <v>157</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>534</v>
@@ -10000,30 +10053,30 @@
         <v>0</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>808</v>
+        <v>765</v>
       </c>
       <c r="J69" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>804</v>
+        <v>650</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>837</v>
+        <v>868</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>805</v>
+        <v>651</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>797</v>
+        <v>599</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>806</v>
+        <v>627</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>534</v>
+        <v>601</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -10032,271 +10085,283 @@
         <v>0</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>807</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>880</v>
+        <v>747</v>
+      </c>
+      <c r="J70" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="G71" s="3">
+        <v>0</v>
+      </c>
+      <c r="H71" s="7">
+        <v>0</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="J71" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="G72" s="3">
+        <v>0</v>
+      </c>
+      <c r="H72" s="7">
+        <v>0</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>870</v>
-      </c>
-      <c r="C71" s="1" t="s">
+      <c r="B73" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D73" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="E73" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="F71" s="1" t="s">
+      <c r="F73" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="G71" s="3">
-        <v>0</v>
-      </c>
-      <c r="H71" s="7">
-        <v>0</v>
-      </c>
-      <c r="I71" s="1" t="s">
+      <c r="G73" s="3">
+        <v>0</v>
+      </c>
+      <c r="H73" s="7">
+        <v>0</v>
+      </c>
+      <c r="I73" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="J71" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="4" t="s">
-        <v>888</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>893</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>889</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>890</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>891</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>892</v>
-      </c>
-      <c r="G72" s="5">
-        <v>1</v>
-      </c>
-      <c r="H72" s="8">
-        <v>0</v>
-      </c>
-      <c r="I72" s="4" t="s">
-        <v>894</v>
-      </c>
-      <c r="J72" s="6" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="4" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>1038</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>1039</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>1040</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>1041</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>1042</v>
-      </c>
-      <c r="G73" s="5">
-        <v>1</v>
-      </c>
-      <c r="H73" s="8">
-        <v>0</v>
-      </c>
-      <c r="I73" s="4" t="s">
-        <v>747</v>
-      </c>
-      <c r="J73" s="4" t="s">
-        <v>1043</v>
+      <c r="J73" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="74" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
+        <v>887</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>892</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>888</v>
       </c>
-      <c r="B74" s="4" t="s">
-        <v>924</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>923</v>
-      </c>
       <c r="D74" s="4" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>156</v>
+        <v>890</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="G74" s="5">
         <v>1</v>
       </c>
       <c r="H74" s="8">
+        <v>0</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>893</v>
+      </c>
+      <c r="J74" s="6" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="4" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G75" s="5">
         <v>1</v>
       </c>
-      <c r="I74" s="4" t="s">
-        <v>897</v>
-      </c>
-      <c r="J74" s="4" t="s">
+      <c r="H75" s="8">
+        <v>0</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="J75" s="4" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="4" t="s">
+        <v>887</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>923</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>922</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>894</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>891</v>
+      </c>
+      <c r="G76" s="5">
+        <v>1</v>
+      </c>
+      <c r="H76" s="8">
+        <v>1</v>
+      </c>
+      <c r="I76" s="4" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>838</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>779</v>
-      </c>
-      <c r="G75" s="3">
-        <v>1</v>
-      </c>
-      <c r="H75" s="7">
-        <v>0</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>803</v>
-      </c>
-      <c r="J75" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>782</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>779</v>
-      </c>
-      <c r="G76" s="3">
-        <v>1</v>
-      </c>
-      <c r="H76" s="7">
-        <v>0</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="J76" t="s">
-        <v>879</v>
+      <c r="J76" s="4" t="s">
+        <v>895</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>498</v>
+        <v>774</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>837</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>514</v>
+        <v>775</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>525</v>
+        <v>776</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>527</v>
+        <v>777</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>534</v>
+        <v>778</v>
       </c>
       <c r="G77" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77" s="7">
         <v>0</v>
       </c>
-      <c r="J77" s="1" t="s">
-        <v>544</v>
+      <c r="I77" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="J77" t="s">
+        <v>853</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>655</v>
+        <v>774</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>870</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>656</v>
+        <v>779</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>599</v>
+        <v>780</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>611</v>
+        <v>781</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>601</v>
+        <v>778</v>
       </c>
       <c r="G78" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78" s="7">
         <v>0</v>
       </c>
-      <c r="J78" s="1" t="s">
-        <v>680</v>
+      <c r="I78" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="J78" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>655</v>
+        <v>498</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>657</v>
+        <v>514</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>599</v>
+        <v>525</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>658</v>
+        <v>527</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>601</v>
+        <v>534</v>
       </c>
       <c r="G79" s="3">
         <v>0</v>
@@ -10305,91 +10370,79 @@
         <v>0</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>680</v>
+        <v>544</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>951</v>
+        <v>655</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>515</v>
+        <v>656</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>525</v>
+        <v>599</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>249</v>
+        <v>611</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>534</v>
+        <v>601</v>
       </c>
       <c r="G80" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80" s="7">
         <v>0</v>
       </c>
-      <c r="I80" s="1" t="s">
-        <v>765</v>
-      </c>
       <c r="J80" s="1" t="s">
-        <v>1019</v>
+        <v>680</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>952</v>
+        <v>655</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>516</v>
+        <v>657</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>526</v>
+        <v>599</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>249</v>
+        <v>658</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>534</v>
+        <v>601</v>
       </c>
       <c r="G81" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H81" s="7">
         <v>0</v>
       </c>
-      <c r="I81" s="1" t="s">
-        <v>954</v>
-      </c>
       <c r="J81" s="1" t="s">
-        <v>1020</v>
+        <v>680</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>654</v>
+        <v>499</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>659</v>
+        <v>515</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>599</v>
+        <v>525</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>603</v>
+        <v>249</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>601</v>
+        <v>534</v>
       </c>
       <c r="G82" s="3">
         <v>1</v>
@@ -10398,30 +10451,30 @@
         <v>0</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="J82" t="s">
-        <v>395</v>
+        <v>764</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>1018</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>654</v>
+        <v>499</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>1004</v>
+        <v>951</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>660</v>
+        <v>516</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>599</v>
+        <v>526</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>661</v>
+        <v>249</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>601</v>
+        <v>534</v>
       </c>
       <c r="G83" s="3">
         <v>1</v>
@@ -10430,30 +10483,30 @@
         <v>0</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="J83" t="s">
-        <v>395</v>
+        <v>953</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>1019</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>67</v>
+        <v>654</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>114</v>
+        <v>659</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>525</v>
+        <v>599</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>324</v>
+        <v>603</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>534</v>
+        <v>601</v>
       </c>
       <c r="G84" s="3">
         <v>1</v>
@@ -10462,30 +10515,30 @@
         <v>0</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>960</v>
-      </c>
-      <c r="J84" s="1" t="s">
-        <v>1001</v>
+        <v>747</v>
+      </c>
+      <c r="J84" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>955</v>
+        <v>654</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>1008</v>
+        <v>660</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>956</v>
+        <v>599</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>957</v>
+        <v>661</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>534</v>
+        <v>601</v>
       </c>
       <c r="G85" s="3">
         <v>1</v>
@@ -10494,30 +10547,30 @@
         <v>0</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>960</v>
-      </c>
-      <c r="J85" s="1" t="s">
-        <v>1022</v>
+        <v>747</v>
+      </c>
+      <c r="J85" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>662</v>
+        <v>67</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>663</v>
+        <v>114</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>599</v>
+        <v>525</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>627</v>
+        <v>324</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>601</v>
+        <v>534</v>
       </c>
       <c r="G86" s="3">
         <v>1</v>
@@ -10526,53 +10579,53 @@
         <v>0</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="J86" t="s">
-        <v>395</v>
+        <v>959</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>1000</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>500</v>
+        <v>954</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>966</v>
+        <v>1008</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>517</v>
+        <v>1007</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>525</v>
+        <v>955</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>158</v>
+        <v>956</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>787</v>
+        <v>534</v>
       </c>
       <c r="G87" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87" s="7">
         <v>0</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>789</v>
+        <v>959</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>395</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>967</v>
+        <v>958</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>599</v>
@@ -10598,13 +10651,13 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>525</v>
@@ -10613,36 +10666,36 @@
         <v>158</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>534</v>
+        <v>786</v>
       </c>
       <c r="G89" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89" s="7">
         <v>0</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>1010</v>
+        <v>788</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>1005</v>
+        <v>395</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>599</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>611</v>
+        <v>627</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>601</v>
@@ -10662,19 +10715,19 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>98</v>
+        <v>501</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>119</v>
+        <v>518</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>525</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>534</v>
@@ -10686,30 +10739,30 @@
         <v>0</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>992</v>
+        <v>1009</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>98</v>
+        <v>666</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>519</v>
+        <v>667</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>525</v>
+        <v>599</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>528</v>
+        <v>611</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>534</v>
+        <v>601</v>
       </c>
       <c r="G92" s="3">
         <v>1</v>
@@ -10718,30 +10771,30 @@
         <v>0</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>993</v>
-      </c>
-      <c r="J92" s="1" t="s">
-        <v>994</v>
+        <v>747</v>
+      </c>
+      <c r="J92" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>669</v>
+        <v>98</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>670</v>
+        <v>119</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>599</v>
+        <v>525</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>611</v>
+        <v>156</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>601</v>
+        <v>534</v>
       </c>
       <c r="G93" s="3">
         <v>1</v>
@@ -10750,79 +10803,91 @@
         <v>0</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="J93" t="s">
-        <v>395</v>
+        <v>991</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>1001</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>502</v>
+        <v>98</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>970</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>525</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>534</v>
       </c>
       <c r="G94" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94" s="7">
         <v>0</v>
       </c>
+      <c r="I94" s="1" t="s">
+        <v>992</v>
+      </c>
       <c r="J94" s="1" t="s">
-        <v>544</v>
+        <v>993</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>971</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>599</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>637</v>
+        <v>611</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>601</v>
       </c>
       <c r="G95" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95" s="7">
         <v>0</v>
       </c>
-      <c r="J95" s="1" t="s">
-        <v>680</v>
+      <c r="I95" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="J95" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>525</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -10836,19 +10901,19 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>503</v>
+        <v>671</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>521</v>
+        <v>674</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>526</v>
+        <v>599</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>531</v>
+        <v>637</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>534</v>
+        <v>601</v>
       </c>
       <c r="G97" s="3">
         <v>0</v>
@@ -10857,24 +10922,24 @@
         <v>0</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>544</v>
+        <v>680</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>673</v>
+        <v>503</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>672</v>
+        <v>520</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>599</v>
+        <v>525</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>637</v>
+        <v>531</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>601</v>
+        <v>533</v>
       </c>
       <c r="G98" s="3">
         <v>0</v>
@@ -10883,91 +10948,79 @@
         <v>0</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>680</v>
+        <v>544</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>973</v>
+        <v>503</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="G99" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" s="7">
         <v>0</v>
       </c>
-      <c r="I99" s="1" t="s">
-        <v>995</v>
-      </c>
       <c r="J99" s="1" t="s">
-        <v>1006</v>
+        <v>544</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>974</v>
+        <v>673</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>599</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>668</v>
+        <v>637</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>601</v>
       </c>
       <c r="G100" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100" s="7">
         <v>0</v>
       </c>
-      <c r="I100" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="J100" t="s">
-        <v>395</v>
+      <c r="J100" s="1" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>525</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>249</v>
+        <v>532</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G101" s="3">
         <v>1</v>
@@ -10976,30 +11029,30 @@
         <v>0</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>765</v>
+        <v>994</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>1018</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>505</v>
+        <v>675</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>524</v>
+        <v>676</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>525</v>
+        <v>599</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>157</v>
+        <v>668</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>534</v>
+        <v>601</v>
       </c>
       <c r="G102" s="3">
         <v>1</v>
@@ -11008,30 +11061,30 @@
         <v>0</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="J102" s="1" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>747</v>
+      </c>
+      <c r="J102" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>677</v>
+        <v>505</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>678</v>
+        <v>523</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>599</v>
+        <v>525</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>679</v>
+        <v>249</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>601</v>
+        <v>534</v>
       </c>
       <c r="G103" s="3">
         <v>1</v>
@@ -11040,62 +11093,74 @@
         <v>0</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="J103" t="s">
-        <v>395</v>
+        <v>764</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>1017</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>681</v>
+        <v>505</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>975</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>695</v>
+        <v>524</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>693</v>
+        <v>525</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>696</v>
+        <v>157</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>702</v>
+        <v>534</v>
       </c>
       <c r="G104" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H104" s="7">
         <v>0</v>
       </c>
+      <c r="I104" s="1" t="s">
+        <v>765</v>
+      </c>
       <c r="J104" s="1" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>681</v>
+        <v>677</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>976</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>698</v>
+        <v>678</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>699</v>
+        <v>599</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>696</v>
+        <v>679</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>694</v>
+        <v>601</v>
       </c>
       <c r="G105" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H105" s="7">
         <v>0</v>
       </c>
-      <c r="J105" s="1" t="s">
+      <c r="I105" s="1" t="s">
         <v>747</v>
+      </c>
+      <c r="J105" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
@@ -11103,16 +11168,16 @@
         <v>681</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>696</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>694</v>
+        <v>702</v>
       </c>
       <c r="G106" s="3">
         <v>0</v>
@@ -11126,16 +11191,16 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>694</v>
@@ -11147,21 +11212,21 @@
         <v>0</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>694</v>
@@ -11173,21 +11238,21 @@
         <v>0</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>693</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>694</v>
@@ -11204,16 +11269,16 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>694</v>
@@ -11225,7 +11290,7 @@
         <v>0</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
@@ -11233,13 +11298,13 @@
         <v>683</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>694</v>
@@ -11251,21 +11316,21 @@
         <v>0</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>693</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>694</v>
@@ -11282,16 +11347,16 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>324</v>
+        <v>711</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>694</v>
@@ -11303,7 +11368,7 @@
         <v>0</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
@@ -11311,13 +11376,13 @@
         <v>684</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>694</v>
@@ -11329,7 +11394,7 @@
         <v>0</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
@@ -11337,13 +11402,13 @@
         <v>684</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>718</v>
+        <v>324</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>694</v>
@@ -11355,24 +11420,24 @@
         <v>0</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>696</v>
+        <v>717</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="G116" s="3">
         <v>0</v>
@@ -11381,21 +11446,21 @@
         <v>0</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>749</v>
+        <v>715</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>696</v>
+        <v>718</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>694</v>
@@ -11404,10 +11469,10 @@
         <v>0</v>
       </c>
       <c r="H117" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
@@ -11415,16 +11480,16 @@
         <v>685</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>721</v>
+        <v>696</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>694</v>
+        <v>702</v>
       </c>
       <c r="G118" s="3">
         <v>0</v>
@@ -11433,18 +11498,18 @@
         <v>0</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>722</v>
+        <v>749</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>693</v>
+        <v>701</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>696</v>
@@ -11456,24 +11521,24 @@
         <v>0</v>
       </c>
       <c r="H119" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>699</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>694</v>
@@ -11490,10 +11555,10 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>693</v>
@@ -11511,15 +11576,15 @@
         <v>0</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>699</v>
@@ -11542,16 +11607,16 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>693</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>728</v>
+        <v>696</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>694</v>
@@ -11568,16 +11633,16 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>694</v>
@@ -11589,7 +11654,7 @@
         <v>0</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
@@ -11597,13 +11662,13 @@
         <v>688</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>752</v>
+        <v>727</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>696</v>
+        <v>728</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>694</v>
@@ -11615,21 +11680,21 @@
         <v>0</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>693</v>
+        <v>701</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>694</v>
@@ -11641,21 +11706,21 @@
         <v>0</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>746</v>
+        <v>753</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>732</v>
+        <v>752</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>699</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>733</v>
+        <v>696</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>694</v>
@@ -11672,16 +11737,16 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>693</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>717</v>
+        <v>731</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>694</v>
@@ -11693,21 +11758,21 @@
         <v>0</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>717</v>
+        <v>733</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>694</v>
@@ -11719,7 +11784,7 @@
         <v>0</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
@@ -11727,10 +11792,10 @@
         <v>690</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>717</v>
@@ -11745,7 +11810,7 @@
         <v>0</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>747</v>
+        <v>754</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.2">
@@ -11753,13 +11818,13 @@
         <v>690</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>739</v>
+        <v>717</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>694</v>
@@ -11771,7 +11836,7 @@
         <v>0</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>747</v>
+        <v>755</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.2">
@@ -11779,13 +11844,13 @@
         <v>690</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>699</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>696</v>
+        <v>717</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>694</v>
@@ -11802,16 +11867,16 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>696</v>
+        <v>739</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>694</v>
@@ -11823,18 +11888,18 @@
         <v>0</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>756</v>
+        <v>747</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>696</v>
@@ -11849,7 +11914,7 @@
         <v>0</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
@@ -11857,13 +11922,13 @@
         <v>691</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>758</v>
+        <v>740</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>724</v>
+        <v>696</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>694</v>
@@ -11875,7 +11940,7 @@
         <v>0</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>747</v>
+        <v>756</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.2">
@@ -11883,10 +11948,10 @@
         <v>691</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>696</v>
@@ -11901,21 +11966,21 @@
         <v>0</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>747</v>
+        <v>757</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>743</v>
+        <v>758</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>745</v>
+        <v>724</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>694</v>
@@ -11927,21 +11992,21 @@
         <v>0</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>699</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>724</v>
+        <v>696</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>694</v>
@@ -11953,11 +12018,63 @@
         <v>0</v>
       </c>
       <c r="J138" s="1" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A139" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="G139" s="3">
+        <v>0</v>
+      </c>
+      <c r="H139" s="7">
+        <v>0</v>
+      </c>
+      <c r="J139" s="1" t="s">
         <v>746</v>
       </c>
     </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A140" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="G140" s="3">
+        <v>0</v>
+      </c>
+      <c r="H140" s="7">
+        <v>0</v>
+      </c>
+      <c r="J140" s="1" t="s">
+        <v>746</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:A138" xr:uid="{7D3AD226-787D-4D47-A593-251257ACE64C}"/>
+  <autoFilter ref="A1:A140" xr:uid="{7D3AD226-787D-4D47-A593-251257ACE64C}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12301,22 +12418,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="E1" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="F1" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -12327,7 +12444,7 @@
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="E2">
         <v>0.77</v>
@@ -12341,7 +12458,7 @@
         <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="E3">
         <f>0.7*0.77</f>
@@ -12356,7 +12473,7 @@
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E4">
         <v>0.7</v>
@@ -12370,7 +12487,7 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E5">
         <v>0.7</v>
@@ -12384,7 +12501,7 @@
         <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E6">
         <v>0.77</v>
@@ -12398,7 +12515,7 @@
         <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E7">
         <v>0.7</v>
@@ -12412,7 +12529,7 @@
         <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E8">
         <f>0.9*0.99</f>
@@ -12427,7 +12544,7 @@
         <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E9">
         <v>0.7</v>
@@ -12441,7 +12558,7 @@
         <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E10">
         <v>0.77</v>
@@ -12455,7 +12572,7 @@
         <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E11">
         <f>0.9*0.99</f>
@@ -12464,13 +12581,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B12" t="s">
         <v>1026</v>
       </c>
-      <c r="B12" t="s">
-        <v>1027</v>
-      </c>
       <c r="C12" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E12">
         <f>0.9*0.99</f>
@@ -12485,7 +12602,7 @@
         <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="E13">
         <f>0.9*0.99</f>
@@ -12500,7 +12617,7 @@
         <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E14">
         <v>0.77</v>
@@ -12514,7 +12631,7 @@
         <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E15">
         <v>0.77</v>
@@ -12528,7 +12645,7 @@
         <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="E16">
         <v>0.77</v>
@@ -12542,7 +12659,7 @@
         <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="E17">
         <v>0.77</v>
@@ -12556,7 +12673,7 @@
         <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="E18">
         <v>0.77</v>
@@ -12570,7 +12687,7 @@
         <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="E19">
         <v>0.77</v>
@@ -12584,10 +12701,10 @@
         <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D20" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="E20">
         <v>0.77</v>
@@ -12601,10 +12718,10 @@
         <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D21" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="E21">
         <v>0.77</v>
@@ -12618,7 +12735,7 @@
         <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="E22">
         <v>0.77</v>
@@ -12632,7 +12749,7 @@
         <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="E23">
         <v>0.77</v>
@@ -12646,10 +12763,10 @@
         <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D24" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="E24">
         <v>0.77</v>
@@ -12663,10 +12780,10 @@
         <v>45</v>
       </c>
       <c r="C25" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D25" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="E25">
         <v>0.77</v>
@@ -12674,13 +12791,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B26" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C26" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="E26">
         <f>1/1.01</f>
@@ -12689,13 +12806,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B27" t="s">
         <v>1032</v>
       </c>
-      <c r="B27" t="s">
-        <v>1033</v>
-      </c>
       <c r="C27" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="E27">
         <f>0.77*0.7 + 0.9*0.3</f>
@@ -12710,7 +12827,7 @@
         <v>47</v>
       </c>
       <c r="C28" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="E28">
         <v>0.77</v>
@@ -12724,10 +12841,10 @@
         <v>48</v>
       </c>
       <c r="C29" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D29" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="E29">
         <v>0.77</v>
@@ -12741,7 +12858,7 @@
         <v>49</v>
       </c>
       <c r="C30" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="E30">
         <v>0.77</v>
@@ -12755,7 +12872,7 @@
         <v>50</v>
       </c>
       <c r="C31" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -12769,7 +12886,7 @@
         <v>51</v>
       </c>
       <c r="C32" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E32">
         <f>0.9*0.99</f>
@@ -12784,10 +12901,10 @@
         <v>52</v>
       </c>
       <c r="C33" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D33" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="E33">
         <v>0.77</v>
@@ -12801,7 +12918,7 @@
         <v>55</v>
       </c>
       <c r="C34" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -12815,10 +12932,10 @@
         <v>56</v>
       </c>
       <c r="C35" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D35" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E35">
         <f>0.7*0.77</f>
@@ -12944,7 +13061,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B13" t="s">
         <v>156</v>
@@ -12952,10 +13069,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>838</v>
+      </c>
+      <c r="B14" t="s">
         <v>839</v>
-      </c>
-      <c r="B14" t="s">
-        <v>840</v>
       </c>
     </row>
   </sheetData>

--- a/data/basic_info.xlsx
+++ b/data/basic_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\trading_plan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E24763D-C710-4ACB-B71D-326864C5EB40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F5A822-6CA5-4ED6-AF85-8F42B6CD3E7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28590" tabRatio="733" activeTab="1" xr2:uid="{855E00D3-25C3-4BB2-A61F-0D95BB1AF006}"/>
+    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28590" tabRatio="733" activeTab="1" xr2:uid="{855E00D3-25C3-4BB2-A61F-0D95BB1AF006}"/>
   </bookViews>
   <sheets>
     <sheet name="acct_info" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">acct_info!$B$1:$B$125</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">acctinfo!$A$1:$A$140</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">acctinfo!$A$1:$A$142</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2106" uniqueCount="1067">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2122" uniqueCount="1078">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4246,6 +4246,50 @@
   </si>
   <si>
     <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7121</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7121_c_yh_0495</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>203600000495</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(7121_c_yh_0495.txt,7121_c_yh_0495.txt,)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7121_f_yh_2266</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>98012266</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7827,13 +7871,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E89EC7F-6807-4E54-B5E1-E4E4E9C6C1B6}">
-  <dimension ref="A1:K140"/>
+  <dimension ref="A1:K142"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I43" sqref="I43"/>
+      <selection pane="bottomRight" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8685,22 +8729,22 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>493</v>
+        <v>1067</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>989</v>
+        <v>1068</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>511</v>
+        <v>1069</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>525</v>
+        <v>1070</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>249</v>
+        <v>1071</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>534</v>
+        <v>1072</v>
       </c>
       <c r="G27" s="3">
         <v>1</v>
@@ -8709,30 +8753,30 @@
         <v>0</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>764</v>
+        <v>941</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>1014</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>623</v>
+        <v>1067</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>982</v>
+        <v>1074</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>624</v>
+        <v>1075</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>599</v>
+        <v>1076</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>616</v>
+        <v>1071</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>601</v>
+        <v>1072</v>
       </c>
       <c r="G28" s="3">
         <v>1</v>
@@ -8744,24 +8788,24 @@
         <v>747</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>1002</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>126</v>
+        <v>493</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>808</v>
+        <v>989</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>180</v>
+        <v>511</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>525</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>158</v>
+        <v>249</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>534</v>
@@ -8773,62 +8817,62 @@
         <v>0</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="J29" t="s">
-        <v>938</v>
+        <v>764</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>1014</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>782</v>
+        <v>623</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>809</v>
+        <v>982</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>783</v>
+        <v>624</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>784</v>
+        <v>599</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>785</v>
+        <v>616</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>786</v>
+        <v>601</v>
       </c>
       <c r="G30" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="J30" t="s">
-        <v>841</v>
+        <v>747</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>1002</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>625</v>
+        <v>126</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>857</v>
+        <v>808</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>626</v>
+        <v>180</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>599</v>
+        <v>525</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>627</v>
+        <v>158</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>601</v>
+        <v>534</v>
       </c>
       <c r="G31" s="3">
         <v>1</v>
@@ -8837,94 +8881,94 @@
         <v>0</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>788</v>
+      </c>
+      <c r="J31" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>127</v>
+        <v>782</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>184</v>
+        <v>783</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>525</v>
+        <v>784</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>319</v>
+        <v>785</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>534</v>
+        <v>786</v>
       </c>
       <c r="G32" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>766</v>
+        <v>788</v>
       </c>
       <c r="J32" t="s">
-        <v>883</v>
+        <v>841</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>760</v>
+        <v>625</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>811</v>
+        <v>857</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>761</v>
+        <v>626</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>762</v>
+        <v>599</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>763</v>
+        <v>627</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>534</v>
+        <v>601</v>
       </c>
       <c r="G33" s="3">
         <v>1</v>
       </c>
       <c r="H33" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="J33" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+        <v>747</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>628</v>
+        <v>127</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>858</v>
+        <v>810</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>629</v>
+        <v>184</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>599</v>
+        <v>525</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>630</v>
+        <v>319</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>601</v>
+        <v>534</v>
       </c>
       <c r="G34" s="3">
         <v>1</v>
@@ -8933,94 +8977,94 @@
         <v>0</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>747</v>
+        <v>766</v>
       </c>
       <c r="J34" t="s">
-        <v>878</v>
+        <v>883</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>128</v>
+        <v>760</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>201</v>
+        <v>761</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>525</v>
+        <v>762</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>158</v>
+        <v>763</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>534</v>
       </c>
       <c r="G35" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>788</v>
+        <v>766</v>
       </c>
       <c r="J35" t="s">
-        <v>842</v>
+        <v>884</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>795</v>
+        <v>628</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>813</v>
+        <v>858</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>814</v>
+        <v>629</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>796</v>
+        <v>599</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>797</v>
+        <v>630</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>798</v>
+        <v>601</v>
       </c>
       <c r="G36" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>794</v>
+        <v>747</v>
       </c>
       <c r="J36" t="s">
-        <v>843</v>
+        <v>878</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>631</v>
+        <v>128</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>859</v>
+        <v>812</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>632</v>
+        <v>201</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>599</v>
+        <v>525</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>611</v>
+        <v>158</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>601</v>
+        <v>534</v>
       </c>
       <c r="G37" s="3">
         <v>0</v>
@@ -9029,65 +9073,65 @@
         <v>0</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>747</v>
+        <v>788</v>
       </c>
       <c r="J37" t="s">
-        <v>878</v>
+        <v>842</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>129</v>
+        <v>795</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>210</v>
+        <v>814</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>525</v>
+        <v>796</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>157</v>
+        <v>797</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>534</v>
+        <v>798</v>
       </c>
       <c r="G38" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>765</v>
+        <v>794</v>
       </c>
       <c r="J38" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>599</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>627</v>
+        <v>611</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>601</v>
       </c>
       <c r="G39" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -9101,19 +9145,19 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>525</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>534</v>
@@ -9125,62 +9169,62 @@
         <v>0</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>788</v>
+        <v>765</v>
       </c>
       <c r="J40" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>799</v>
+        <v>633</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>817</v>
+        <v>860</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>800</v>
+        <v>634</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>796</v>
+        <v>599</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>797</v>
+        <v>627</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>786</v>
+        <v>601</v>
       </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>788</v>
+        <v>747</v>
       </c>
       <c r="J41" t="s">
-        <v>846</v>
+        <v>878</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>635</v>
+        <v>131</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>861</v>
+        <v>816</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>636</v>
+        <v>225</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>599</v>
+        <v>525</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>637</v>
+        <v>158</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>601</v>
+        <v>534</v>
       </c>
       <c r="G42" s="3">
         <v>1</v>
@@ -9189,62 +9233,62 @@
         <v>0</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>747</v>
+        <v>788</v>
       </c>
       <c r="J42" t="s">
-        <v>878</v>
+        <v>845</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>1053</v>
+        <v>799</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>1058</v>
+        <v>817</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1059</v>
+        <v>800</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>1054</v>
+        <v>796</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>1055</v>
+        <v>797</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>1056</v>
+        <v>786</v>
       </c>
       <c r="G43" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>1057</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>395</v>
+        <v>788</v>
+      </c>
+      <c r="J43" t="s">
+        <v>846</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>494</v>
+        <v>635</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>818</v>
+        <v>861</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>232</v>
+        <v>636</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>525</v>
+        <v>599</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>158</v>
+        <v>637</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>534</v>
+        <v>601</v>
       </c>
       <c r="G44" s="3">
         <v>1</v>
@@ -9253,59 +9297,59 @@
         <v>0</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>788</v>
+        <v>747</v>
       </c>
       <c r="J44" t="s">
-        <v>847</v>
+        <v>878</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>638</v>
+        <v>1053</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>862</v>
+        <v>1058</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>639</v>
+        <v>1059</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>599</v>
+        <v>1054</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>627</v>
+        <v>1055</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>601</v>
+        <v>1056</v>
       </c>
       <c r="G45" s="3">
         <v>1</v>
       </c>
       <c r="H45" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="J45" t="s">
-        <v>878</v>
+        <v>1057</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>414</v>
+        <v>494</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>525</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>247</v>
+        <v>158</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>534</v>
@@ -9317,42 +9361,42 @@
         <v>0</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="J46" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>820</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>525</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="G47" s="5">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="G47" s="3">
         <v>1</v>
       </c>
-      <c r="H47" s="8">
-        <v>0</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>764</v>
+      <c r="H47" s="7">
+        <v>0</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>747</v>
       </c>
       <c r="J47" t="s">
-        <v>1015</v>
+        <v>878</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
@@ -9360,16 +9404,16 @@
         <v>414</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>525</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>157</v>
+        <v>247</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>534</v>
@@ -9381,10 +9425,10 @@
         <v>0</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>765</v>
+        <v>787</v>
       </c>
       <c r="J48" t="s">
-        <v>872</v>
+        <v>848</v>
       </c>
     </row>
     <row r="49" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -9392,13 +9436,13 @@
         <v>414</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>512</v>
+        <v>415</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>249</v>
@@ -9410,33 +9454,33 @@
         <v>1</v>
       </c>
       <c r="H49" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" s="4" t="s">
         <v>764</v>
       </c>
       <c r="J49" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>640</v>
+        <v>414</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>863</v>
+        <v>822</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>641</v>
+        <v>243</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>599</v>
+        <v>525</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>600</v>
+        <v>157</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>601</v>
+        <v>534</v>
       </c>
       <c r="G50" s="3">
         <v>1</v>
@@ -9445,62 +9489,62 @@
         <v>0</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>747</v>
+        <v>765</v>
       </c>
       <c r="J50" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>824</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F51" s="1" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="F51" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="G51" s="3">
+      <c r="G51" s="5">
         <v>1</v>
       </c>
-      <c r="H51" s="7">
-        <v>0</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>765</v>
+      <c r="H51" s="8">
+        <v>1</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>764</v>
       </c>
       <c r="J51" t="s">
-        <v>849</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>495</v>
+        <v>640</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>825</v>
+        <v>863</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>261</v>
+        <v>641</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>525</v>
+        <v>599</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>158</v>
+        <v>600</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>534</v>
+        <v>601</v>
       </c>
       <c r="G52" s="3">
         <v>1</v>
@@ -9509,62 +9553,62 @@
         <v>0</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>788</v>
+        <v>747</v>
       </c>
       <c r="J52" t="s">
-        <v>850</v>
+        <v>878</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>801</v>
+        <v>495</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>871</v>
+        <v>824</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>826</v>
+        <v>263</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>796</v>
+        <v>525</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>797</v>
+        <v>157</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>798</v>
+        <v>534</v>
       </c>
       <c r="G53" s="3">
         <v>1</v>
       </c>
       <c r="H53" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>788</v>
+        <v>765</v>
       </c>
       <c r="J53" t="s">
-        <v>880</v>
+        <v>849</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>642</v>
+        <v>495</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>864</v>
+        <v>825</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>643</v>
+        <v>261</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>599</v>
+        <v>525</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>627</v>
+        <v>158</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>601</v>
+        <v>534</v>
       </c>
       <c r="G54" s="3">
         <v>1</v>
@@ -9573,190 +9617,190 @@
         <v>0</v>
       </c>
       <c r="I54" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="J54" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="G55" s="3">
+        <v>1</v>
+      </c>
+      <c r="H55" s="7">
+        <v>1</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="J55" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="G56" s="3">
+        <v>1</v>
+      </c>
+      <c r="H56" s="7">
+        <v>0</v>
+      </c>
+      <c r="I56" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="J54" t="s">
+      <c r="J56" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="55" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="4" t="s">
+    <row r="57" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B57" s="4" t="s">
         <v>827</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C57" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D57" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="E55" s="4" t="s">
+      <c r="E57" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="F55" s="4" t="s">
+      <c r="F57" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="G55" s="5">
+      <c r="G57" s="5">
         <v>1</v>
       </c>
-      <c r="H55" s="8">
-        <v>0</v>
-      </c>
-      <c r="I55" s="4" t="s">
+      <c r="H57" s="8">
+        <v>0</v>
+      </c>
+      <c r="I57" s="4" t="s">
         <v>881</v>
       </c>
-      <c r="J55" t="s">
+      <c r="J57" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="56" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="4" t="s">
+    <row r="58" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
         <v>789</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B58" s="4" t="s">
         <v>828</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C58" s="4" t="s">
         <v>790</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D58" s="4" t="s">
         <v>784</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="E58" s="4" t="s">
         <v>791</v>
       </c>
-      <c r="F56" s="4" t="s">
+      <c r="F58" s="4" t="s">
         <v>778</v>
       </c>
-      <c r="G56" s="5">
+      <c r="G58" s="5">
         <v>1</v>
       </c>
-      <c r="H56" s="8">
+      <c r="H58" s="8">
         <v>1</v>
       </c>
-      <c r="I56" s="4" t="s">
+      <c r="I58" s="4" t="s">
         <v>881</v>
       </c>
-      <c r="J56" t="s">
+      <c r="J58" t="s">
         <v>873</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>865</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="G57" s="3">
-        <v>1</v>
-      </c>
-      <c r="H57" s="7">
-        <v>0</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="J57" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>829</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="G58" s="3">
-        <v>1</v>
-      </c>
-      <c r="H58" s="7">
-        <v>0</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="J58" t="s">
-        <v>851</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>792</v>
+        <v>644</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>830</v>
+        <v>865</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>793</v>
+        <v>645</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>784</v>
+        <v>599</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>785</v>
+        <v>611</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>786</v>
+        <v>601</v>
       </c>
       <c r="G59" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" s="7">
         <v>0</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>794</v>
+        <v>747</v>
       </c>
       <c r="J59" t="s">
-        <v>852</v>
+        <v>878</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>646</v>
+        <v>467</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>866</v>
+        <v>829</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>647</v>
+        <v>291</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>599</v>
+        <v>525</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>627</v>
+        <v>158</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>601</v>
+        <v>534</v>
       </c>
       <c r="G60" s="3">
         <v>1</v>
@@ -9765,62 +9809,62 @@
         <v>0</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>747</v>
+        <v>788</v>
       </c>
       <c r="J60" t="s">
-        <v>878</v>
+        <v>851</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>898</v>
+        <v>792</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>899</v>
+        <v>830</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>900</v>
+        <v>793</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>901</v>
+        <v>784</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>902</v>
+        <v>785</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>906</v>
+        <v>786</v>
       </c>
       <c r="G61" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>896</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>919</v>
+        <v>794</v>
+      </c>
+      <c r="J61" t="s">
+        <v>852</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>898</v>
+        <v>646</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>912</v>
+        <v>866</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>904</v>
+        <v>647</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>901</v>
+        <v>599</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>905</v>
+        <v>627</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>911</v>
+        <v>601</v>
       </c>
       <c r="G62" s="3">
         <v>1</v>
@@ -9829,59 +9873,59 @@
         <v>0</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>913</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="4" t="s">
-        <v>910</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>907</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>908</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>909</v>
-      </c>
-      <c r="E63" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="J62" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="E63" s="1" t="s">
         <v>902</v>
       </c>
-      <c r="F63" s="4" t="s">
-        <v>903</v>
-      </c>
-      <c r="G63" s="5">
+      <c r="F63" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="G63" s="3">
         <v>1</v>
       </c>
-      <c r="H63" s="8">
-        <v>0</v>
-      </c>
-      <c r="I63" s="4" t="s">
-        <v>920</v>
-      </c>
-      <c r="J63" s="4" t="s">
-        <v>921</v>
+      <c r="H63" s="7">
+        <v>1</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>919</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>910</v>
+        <v>898</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>916</v>
+        <v>904</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>917</v>
+        <v>901</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>918</v>
+        <v>905</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>911</v>
@@ -9893,62 +9937,62 @@
         <v>0</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>747</v>
+        <v>913</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>831</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="G65" s="3">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="4" t="s">
+        <v>910</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>907</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>908</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>909</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>902</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>903</v>
+      </c>
+      <c r="G65" s="5">
         <v>1</v>
       </c>
-      <c r="H65" s="7">
-        <v>0</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="J65" t="s">
-        <v>885</v>
+      <c r="H65" s="8">
+        <v>0</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>920</v>
+      </c>
+      <c r="J65" s="4" t="s">
+        <v>921</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>497</v>
+        <v>910</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>832</v>
+        <v>915</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>300</v>
+        <v>916</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>525</v>
+        <v>917</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>156</v>
+        <v>918</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>533</v>
+        <v>911</v>
       </c>
       <c r="G66" s="3">
         <v>1</v>
@@ -9957,10 +10001,10 @@
         <v>0</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>875</v>
-      </c>
-      <c r="J66" t="s">
-        <v>876</v>
+        <v>747</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>919</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
@@ -9968,51 +10012,51 @@
         <v>497</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>299</v>
+        <v>513</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>319</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G67" s="3">
         <v>1</v>
       </c>
       <c r="H67" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>766</v>
       </c>
       <c r="J67" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>648</v>
+        <v>497</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>867</v>
+        <v>832</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>649</v>
+        <v>300</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>599</v>
+        <v>525</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>630</v>
+        <v>156</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>601</v>
+        <v>533</v>
       </c>
       <c r="G68" s="3">
         <v>1</v>
@@ -10021,65 +10065,65 @@
         <v>0</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>747</v>
+        <v>875</v>
       </c>
       <c r="J68" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>141</v>
+        <v>497</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>157</v>
+        <v>319</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>534</v>
       </c>
       <c r="G69" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="J69" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>599</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>601</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" s="7">
         <v>0</v>
@@ -10093,19 +10137,19 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>525</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>290</v>
+        <v>157</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>534</v>
@@ -10117,30 +10161,30 @@
         <v>0</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>807</v>
+        <v>765</v>
       </c>
       <c r="J71" t="s">
-        <v>877</v>
+        <v>882</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>803</v>
+        <v>650</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>836</v>
+        <v>868</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>804</v>
+        <v>651</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>796</v>
+        <v>599</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>805</v>
+        <v>627</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>534</v>
+        <v>601</v>
       </c>
       <c r="G72" s="3">
         <v>0</v>
@@ -10149,106 +10193,106 @@
         <v>0</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>806</v>
-      </c>
-      <c r="J72" s="1" t="s">
-        <v>879</v>
+        <v>747</v>
+      </c>
+      <c r="J72" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="G73" s="3">
+        <v>0</v>
+      </c>
+      <c r="H73" s="7">
+        <v>0</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="J73" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="G74" s="3">
+        <v>0</v>
+      </c>
+      <c r="H74" s="7">
+        <v>0</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B75" s="1" t="s">
         <v>869</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C75" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D75" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="E75" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="F73" s="1" t="s">
+      <c r="F75" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="G73" s="3">
-        <v>0</v>
-      </c>
-      <c r="H73" s="7">
-        <v>0</v>
-      </c>
-      <c r="I73" s="1" t="s">
+      <c r="G75" s="3">
+        <v>0</v>
+      </c>
+      <c r="H75" s="7">
+        <v>0</v>
+      </c>
+      <c r="I75" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="J73" t="s">
+      <c r="J75" t="s">
         <v>878</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="4" t="s">
-        <v>887</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>892</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>888</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>889</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>890</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>891</v>
-      </c>
-      <c r="G74" s="5">
-        <v>1</v>
-      </c>
-      <c r="H74" s="8">
-        <v>0</v>
-      </c>
-      <c r="I74" s="4" t="s">
-        <v>893</v>
-      </c>
-      <c r="J74" s="6" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="4" t="s">
-        <v>1036</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>1037</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>1038</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>1039</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>1040</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>1041</v>
-      </c>
-      <c r="G75" s="5">
-        <v>1</v>
-      </c>
-      <c r="H75" s="8">
-        <v>0</v>
-      </c>
-      <c r="I75" s="4" t="s">
-        <v>747</v>
-      </c>
-      <c r="J75" s="4" t="s">
-        <v>1042</v>
       </c>
     </row>
     <row r="76" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -10256,16 +10300,16 @@
         <v>887</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>923</v>
+        <v>892</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>922</v>
+        <v>888</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>156</v>
+        <v>890</v>
       </c>
       <c r="F76" s="4" t="s">
         <v>891</v>
@@ -10274,146 +10318,158 @@
         <v>1</v>
       </c>
       <c r="H76" s="8">
+        <v>0</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>893</v>
+      </c>
+      <c r="J76" s="6" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="4" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G77" s="5">
         <v>1</v>
       </c>
-      <c r="I76" s="4" t="s">
+      <c r="H77" s="8">
+        <v>0</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="J77" s="4" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="4" t="s">
+        <v>887</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>923</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>922</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>894</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>891</v>
+      </c>
+      <c r="G78" s="5">
+        <v>1</v>
+      </c>
+      <c r="H78" s="8">
+        <v>1</v>
+      </c>
+      <c r="I78" s="4" t="s">
         <v>896</v>
       </c>
-      <c r="J76" s="4" t="s">
+      <c r="J78" s="4" t="s">
         <v>895</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
-        <v>774</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>837</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="G77" s="3">
-        <v>1</v>
-      </c>
-      <c r="H77" s="7">
-        <v>0</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>802</v>
-      </c>
-      <c r="J77" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
-        <v>774</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>870</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>779</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="G78" s="3">
-        <v>1</v>
-      </c>
-      <c r="H78" s="7">
-        <v>0</v>
-      </c>
-      <c r="I78" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="J78" t="s">
-        <v>878</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>498</v>
+        <v>774</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>837</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>514</v>
+        <v>775</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>525</v>
+        <v>776</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>527</v>
+        <v>777</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>534</v>
+        <v>778</v>
       </c>
       <c r="G79" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79" s="7">
         <v>0</v>
       </c>
-      <c r="J79" s="1" t="s">
-        <v>544</v>
+      <c r="I79" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="J79" t="s">
+        <v>853</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>655</v>
+        <v>774</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>870</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>656</v>
+        <v>779</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>599</v>
+        <v>780</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>611</v>
+        <v>781</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>601</v>
+        <v>778</v>
       </c>
       <c r="G80" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80" s="7">
         <v>0</v>
       </c>
-      <c r="J80" s="1" t="s">
-        <v>680</v>
+      <c r="I80" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="J80" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>655</v>
+        <v>498</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>657</v>
+        <v>514</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>599</v>
+        <v>525</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>658</v>
+        <v>527</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>601</v>
+        <v>534</v>
       </c>
       <c r="G81" s="3">
         <v>0</v>
@@ -10422,91 +10478,79 @@
         <v>0</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>680</v>
+        <v>544</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>950</v>
+        <v>655</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>515</v>
+        <v>656</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>525</v>
+        <v>599</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>249</v>
+        <v>611</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>534</v>
+        <v>601</v>
       </c>
       <c r="G82" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82" s="7">
         <v>0</v>
       </c>
-      <c r="I82" s="1" t="s">
-        <v>764</v>
-      </c>
       <c r="J82" s="1" t="s">
-        <v>1018</v>
+        <v>680</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>951</v>
+        <v>655</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>516</v>
+        <v>657</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>526</v>
+        <v>599</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>249</v>
+        <v>658</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>534</v>
+        <v>601</v>
       </c>
       <c r="G83" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83" s="7">
         <v>0</v>
       </c>
-      <c r="I83" s="1" t="s">
-        <v>953</v>
-      </c>
       <c r="J83" s="1" t="s">
-        <v>1019</v>
+        <v>680</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>654</v>
+        <v>499</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>659</v>
+        <v>515</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>599</v>
+        <v>525</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>603</v>
+        <v>249</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>601</v>
+        <v>534</v>
       </c>
       <c r="G84" s="3">
         <v>1</v>
@@ -10515,30 +10559,30 @@
         <v>0</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="J84" t="s">
-        <v>395</v>
+        <v>764</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>1018</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>654</v>
+        <v>499</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>1003</v>
+        <v>951</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>660</v>
+        <v>516</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>599</v>
+        <v>526</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>661</v>
+        <v>249</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>601</v>
+        <v>534</v>
       </c>
       <c r="G85" s="3">
         <v>1</v>
@@ -10547,30 +10591,30 @@
         <v>0</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="J85" t="s">
-        <v>395</v>
+        <v>953</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>1019</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>67</v>
+        <v>654</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>114</v>
+        <v>659</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>525</v>
+        <v>599</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>324</v>
+        <v>603</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>534</v>
+        <v>601</v>
       </c>
       <c r="G86" s="3">
         <v>1</v>
@@ -10579,30 +10623,30 @@
         <v>0</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>959</v>
-      </c>
-      <c r="J86" s="1" t="s">
-        <v>1000</v>
+        <v>747</v>
+      </c>
+      <c r="J86" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>954</v>
+        <v>654</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>1007</v>
+        <v>660</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>955</v>
+        <v>599</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>956</v>
+        <v>661</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>534</v>
+        <v>601</v>
       </c>
       <c r="G87" s="3">
         <v>1</v>
@@ -10611,30 +10655,30 @@
         <v>0</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>959</v>
-      </c>
-      <c r="J87" s="1" t="s">
-        <v>1021</v>
+        <v>747</v>
+      </c>
+      <c r="J87" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>662</v>
+        <v>67</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>663</v>
+        <v>114</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>599</v>
+        <v>525</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>627</v>
+        <v>324</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>601</v>
+        <v>534</v>
       </c>
       <c r="G88" s="3">
         <v>1</v>
@@ -10643,53 +10687,53 @@
         <v>0</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="J88" t="s">
-        <v>395</v>
+        <v>959</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>1000</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>500</v>
+        <v>954</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>965</v>
+        <v>1008</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>517</v>
+        <v>1007</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>525</v>
+        <v>955</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>158</v>
+        <v>956</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>786</v>
+        <v>534</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89" s="7">
         <v>0</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>788</v>
+        <v>959</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>395</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>966</v>
+        <v>958</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>599</v>
@@ -10715,13 +10759,13 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>525</v>
@@ -10730,36 +10774,36 @@
         <v>158</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>534</v>
+        <v>786</v>
       </c>
       <c r="G91" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H91" s="7">
         <v>0</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>1009</v>
+        <v>788</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>1004</v>
+        <v>395</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>599</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>611</v>
+        <v>627</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>601</v>
@@ -10779,19 +10823,19 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>501</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>119</v>
+        <v>518</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>525</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>534</v>
@@ -10803,30 +10847,30 @@
         <v>0</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>991</v>
+        <v>1009</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>1001</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>666</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>519</v>
+        <v>667</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>525</v>
+        <v>599</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>528</v>
+        <v>611</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>534</v>
+        <v>601</v>
       </c>
       <c r="G94" s="3">
         <v>1</v>
@@ -10835,30 +10879,30 @@
         <v>0</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>992</v>
-      </c>
-      <c r="J94" s="1" t="s">
-        <v>993</v>
+        <v>747</v>
+      </c>
+      <c r="J94" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>669</v>
+        <v>98</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>670</v>
+        <v>119</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>599</v>
+        <v>525</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>611</v>
+        <v>156</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>601</v>
+        <v>534</v>
       </c>
       <c r="G95" s="3">
         <v>1</v>
@@ -10867,79 +10911,91 @@
         <v>0</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="J95" t="s">
-        <v>395</v>
+        <v>991</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>1001</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>502</v>
+        <v>98</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>970</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>525</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>534</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96" s="7">
         <v>0</v>
       </c>
+      <c r="I96" s="1" t="s">
+        <v>992</v>
+      </c>
       <c r="J96" s="1" t="s">
-        <v>544</v>
+        <v>993</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>971</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>599</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>637</v>
+        <v>611</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>601</v>
       </c>
       <c r="G97" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97" s="7">
         <v>0</v>
       </c>
-      <c r="J97" s="1" t="s">
-        <v>680</v>
+      <c r="I97" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="J97" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>525</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="G98" s="3">
         <v>0</v>
@@ -10953,19 +11009,19 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>503</v>
+        <v>671</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>521</v>
+        <v>674</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>526</v>
+        <v>599</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>531</v>
+        <v>637</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>534</v>
+        <v>601</v>
       </c>
       <c r="G99" s="3">
         <v>0</v>
@@ -10974,24 +11030,24 @@
         <v>0</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>544</v>
+        <v>680</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>673</v>
+        <v>503</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>672</v>
+        <v>520</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>599</v>
+        <v>525</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>637</v>
+        <v>531</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>601</v>
+        <v>533</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
@@ -11000,91 +11056,79 @@
         <v>0</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>680</v>
+        <v>544</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>972</v>
+        <v>503</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="G101" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101" s="7">
         <v>0</v>
       </c>
-      <c r="I101" s="1" t="s">
-        <v>994</v>
-      </c>
       <c r="J101" s="1" t="s">
-        <v>1005</v>
+        <v>544</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>973</v>
+        <v>673</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>599</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>668</v>
+        <v>637</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>601</v>
       </c>
       <c r="G102" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H102" s="7">
         <v>0</v>
       </c>
-      <c r="I102" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="J102" t="s">
-        <v>395</v>
+      <c r="J102" s="1" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>525</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>249</v>
+        <v>532</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G103" s="3">
         <v>1</v>
@@ -11093,30 +11137,30 @@
         <v>0</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>764</v>
+        <v>994</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>1017</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>505</v>
+        <v>675</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>524</v>
+        <v>676</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>525</v>
+        <v>599</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>157</v>
+        <v>668</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>534</v>
+        <v>601</v>
       </c>
       <c r="G104" s="3">
         <v>1</v>
@@ -11125,30 +11169,30 @@
         <v>0</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="J104" s="1" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>747</v>
+      </c>
+      <c r="J104" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>677</v>
+        <v>505</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>678</v>
+        <v>523</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>599</v>
+        <v>525</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>679</v>
+        <v>249</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>601</v>
+        <v>534</v>
       </c>
       <c r="G105" s="3">
         <v>1</v>
@@ -11157,62 +11201,74 @@
         <v>0</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="J105" t="s">
-        <v>395</v>
+        <v>764</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>1017</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>681</v>
+        <v>505</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>975</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>695</v>
+        <v>524</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>693</v>
+        <v>525</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>696</v>
+        <v>157</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>702</v>
+        <v>534</v>
       </c>
       <c r="G106" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H106" s="7">
         <v>0</v>
       </c>
+      <c r="I106" s="1" t="s">
+        <v>765</v>
+      </c>
       <c r="J106" s="1" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>681</v>
+        <v>677</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>976</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>698</v>
+        <v>678</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>699</v>
+        <v>599</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>696</v>
+        <v>679</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>694</v>
+        <v>601</v>
       </c>
       <c r="G107" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H107" s="7">
         <v>0</v>
       </c>
-      <c r="J107" s="1" t="s">
+      <c r="I107" s="1" t="s">
         <v>747</v>
+      </c>
+      <c r="J107" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
@@ -11220,16 +11276,16 @@
         <v>681</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>696</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>694</v>
+        <v>702</v>
       </c>
       <c r="G108" s="3">
         <v>0</v>
@@ -11243,16 +11299,16 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>694</v>
@@ -11264,21 +11320,21 @@
         <v>0</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>694</v>
@@ -11290,21 +11346,21 @@
         <v>0</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>693</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>694</v>
@@ -11321,16 +11377,16 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>694</v>
@@ -11342,7 +11398,7 @@
         <v>0</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
@@ -11350,13 +11406,13 @@
         <v>683</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>694</v>
@@ -11368,21 +11424,21 @@
         <v>0</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>693</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>694</v>
@@ -11399,16 +11455,16 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>324</v>
+        <v>711</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>694</v>
@@ -11420,7 +11476,7 @@
         <v>0</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
@@ -11428,13 +11484,13 @@
         <v>684</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>694</v>
@@ -11446,7 +11502,7 @@
         <v>0</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
@@ -11454,13 +11510,13 @@
         <v>684</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>718</v>
+        <v>324</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>694</v>
@@ -11472,24 +11528,24 @@
         <v>0</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>696</v>
+        <v>717</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="G118" s="3">
         <v>0</v>
@@ -11498,21 +11554,21 @@
         <v>0</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>749</v>
+        <v>715</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>696</v>
+        <v>718</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>694</v>
@@ -11521,10 +11577,10 @@
         <v>0</v>
       </c>
       <c r="H119" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
@@ -11532,16 +11588,16 @@
         <v>685</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>721</v>
+        <v>696</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>694</v>
+        <v>702</v>
       </c>
       <c r="G120" s="3">
         <v>0</v>
@@ -11550,18 +11606,18 @@
         <v>0</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>722</v>
+        <v>749</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>693</v>
+        <v>701</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>696</v>
@@ -11573,24 +11629,24 @@
         <v>0</v>
       </c>
       <c r="H121" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>699</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>694</v>
@@ -11607,10 +11663,10 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>693</v>
@@ -11628,15 +11684,15 @@
         <v>0</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>699</v>
@@ -11659,16 +11715,16 @@
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>693</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>728</v>
+        <v>696</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>694</v>
@@ -11685,16 +11741,16 @@
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>694</v>
@@ -11706,7 +11762,7 @@
         <v>0</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
@@ -11714,13 +11770,13 @@
         <v>688</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>752</v>
+        <v>727</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>696</v>
+        <v>728</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>694</v>
@@ -11732,21 +11788,21 @@
         <v>0</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>693</v>
+        <v>701</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>694</v>
@@ -11758,21 +11814,21 @@
         <v>0</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>746</v>
+        <v>753</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>732</v>
+        <v>752</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>699</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>733</v>
+        <v>696</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>694</v>
@@ -11789,16 +11845,16 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>693</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>717</v>
+        <v>731</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>694</v>
@@ -11810,21 +11866,21 @@
         <v>0</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>717</v>
+        <v>733</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>694</v>
@@ -11836,7 +11892,7 @@
         <v>0</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.2">
@@ -11844,10 +11900,10 @@
         <v>690</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>717</v>
@@ -11862,7 +11918,7 @@
         <v>0</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>747</v>
+        <v>754</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
@@ -11870,13 +11926,13 @@
         <v>690</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>739</v>
+        <v>717</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>694</v>
@@ -11888,7 +11944,7 @@
         <v>0</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>747</v>
+        <v>755</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.2">
@@ -11896,13 +11952,13 @@
         <v>690</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>699</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>696</v>
+        <v>717</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>694</v>
@@ -11919,16 +11975,16 @@
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>696</v>
+        <v>739</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>694</v>
@@ -11940,18 +11996,18 @@
         <v>0</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>756</v>
+        <v>747</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>696</v>
@@ -11966,7 +12022,7 @@
         <v>0</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
@@ -11974,13 +12030,13 @@
         <v>691</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>758</v>
+        <v>740</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>724</v>
+        <v>696</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>694</v>
@@ -11992,7 +12048,7 @@
         <v>0</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>747</v>
+        <v>756</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.2">
@@ -12000,10 +12056,10 @@
         <v>691</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>696</v>
@@ -12018,21 +12074,21 @@
         <v>0</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>747</v>
+        <v>757</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>743</v>
+        <v>758</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>745</v>
+        <v>724</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>694</v>
@@ -12044,21 +12100,21 @@
         <v>0</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>699</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>724</v>
+        <v>696</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>694</v>
@@ -12070,11 +12126,63 @@
         <v>0</v>
       </c>
       <c r="J140" s="1" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A141" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="G141" s="3">
+        <v>0</v>
+      </c>
+      <c r="H141" s="7">
+        <v>0</v>
+      </c>
+      <c r="J141" s="1" t="s">
         <v>746</v>
       </c>
     </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A142" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="G142" s="3">
+        <v>0</v>
+      </c>
+      <c r="H142" s="7">
+        <v>0</v>
+      </c>
+      <c r="J142" s="1" t="s">
+        <v>746</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:A140" xr:uid="{7D3AD226-787D-4D47-A593-251257ACE64C}"/>
+  <autoFilter ref="A1:A142" xr:uid="{7D3AD226-787D-4D47-A593-251257ACE64C}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/data/basic_info.xlsx
+++ b/data/basic_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\trading_plan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F5A822-6CA5-4ED6-AF85-8F42B6CD3E7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965140B1-CA90-441E-AC81-F6F86882837D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28590" tabRatio="733" activeTab="1" xr2:uid="{855E00D3-25C3-4BB2-A61F-0D95BB1AF006}"/>
+    <workbookView xWindow="-15525" yWindow="7590" windowWidth="13830" windowHeight="15735" tabRatio="733" activeTab="1" xr2:uid="{855E00D3-25C3-4BB2-A61F-0D95BB1AF006}"/>
   </bookViews>
   <sheets>
     <sheet name="acct_info" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">acct_info!$B$1:$B$125</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">acctinfo!$A$1:$A$142</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">acctinfo!$A$1:$A$139</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2122" uniqueCount="1078">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2104" uniqueCount="1071">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2106,10 +2106,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6018001688</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>27545509</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2146,10 +2142,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>L</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2621,10 +2613,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>253109061</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>8001001947</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2669,10 +2657,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1207</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2697,14 +2681,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1210</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>99000911</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1211</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3475,14 +3451,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(swhy_alphabee/919m/&lt;YYYYMMDD&gt;资金.txt,swhy_alphabee/919m/&lt;YYYYMMDD&gt;持仓.txt,)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(swhy_alphabee/919c/&lt;YYYYMMDD&gt;资金.txt,swhy_alphabee/919c/&lt;YYYYMMDD&gt;持仓.txt,)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>zx_tdx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3507,10 +3475,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>swhy_alphabee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(925_c_hait_1601.xlsx,925_c_hait_1601.xlsx,)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3871,14 +3835,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1210_c_tf_1688</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1210_f_tf_0911</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1211_c_zxjt_5509</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3959,10 +3915,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tf_hx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(705_c_yh_4811.txt,705_c_yh_4811.txt,)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4003,10 +3955,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(1210_c_tf_1688.txt,1210_c_tf_1688.txt,)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(10_m_wk_0388.txt,10_m_wk_0388.txt,)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4290,6 +4238,29 @@
   </si>
   <si>
     <t>N/A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swhy_alphabee_dbf2csv</t>
+  </si>
+  <si>
+    <t>(919_m_sw_3523.csv,919_m_sw_3523.csv,)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(919_c_sw_2666.csv,919_c_sw_2666.csv,)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1201_ax_8533</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1201_gtax_1947</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ax_custom</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7871,13 +7842,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E89EC7F-6807-4E54-B5E1-E4E4E9C6C1B6}">
-  <dimension ref="A1:K142"/>
+  <dimension ref="A1:K139"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="H62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C31" sqref="C31"/>
+      <selection pane="bottomRight" activeCell="J82" sqref="J82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7896,55 +7867,55 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>766</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>767</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>855</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>854</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>769</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>771</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>772</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>773</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>924</v>
+        <v>915</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>925</v>
+        <v>916</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>926</v>
+        <v>917</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>927</v>
+        <v>918</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>928</v>
+        <v>919</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>929</v>
+        <v>920</v>
       </c>
       <c r="G2" s="3">
         <v>1</v>
@@ -7953,30 +7924,30 @@
         <v>0</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>920</v>
+        <v>911</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>933</v>
+        <v>924</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>931</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>538</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>540</v>
       </c>
       <c r="G3" s="3">
         <v>1</v>
@@ -7985,30 +7956,30 @@
         <v>1</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>920</v>
+        <v>911</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>932</v>
+        <v>923</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>856</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>599</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>601</v>
       </c>
       <c r="G4" s="3">
         <v>1</v>
@@ -8017,30 +7988,30 @@
         <v>0</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>930</v>
+        <v>921</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>1060</v>
+        <v>1047</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1061</v>
+        <v>1048</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1063</v>
+        <v>1050</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1064</v>
+        <v>1051</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>1065</v>
+        <v>1052</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>1066</v>
+        <v>1053</v>
       </c>
       <c r="G5" s="3">
         <v>1</v>
@@ -8049,30 +8020,30 @@
         <v>0</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>1062</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>536</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>934</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>538</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>152</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G6" s="3">
         <v>1</v>
@@ -8081,30 +8052,30 @@
         <v>0</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>937</v>
+        <v>928</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>939</v>
+        <v>930</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>935</v>
+        <v>926</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>152</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G7" s="3">
         <v>1</v>
@@ -8113,30 +8084,30 @@
         <v>0</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>937</v>
+        <v>928</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>1006</v>
+        <v>993</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>936</v>
+        <v>927</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>599</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>601</v>
       </c>
       <c r="G8" s="3">
         <v>1</v>
@@ -8145,30 +8116,30 @@
         <v>0</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>1002</v>
+        <v>990</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>942</v>
+        <v>933</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>940</v>
+        <v>931</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>371</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>374</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G9" s="3">
         <v>1</v>
@@ -8177,30 +8148,30 @@
         <v>0</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>941</v>
+        <v>932</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>1011</v>
+        <v>998</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>996</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>599</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>601</v>
       </c>
       <c r="G10" s="3">
         <v>1</v>
@@ -8209,10 +8180,10 @@
         <v>0</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>1002</v>
+        <v>990</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -8220,19 +8191,19 @@
         <v>375</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>943</v>
+        <v>934</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>376</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>374</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G11" s="3">
         <v>1</v>
@@ -8241,30 +8212,30 @@
         <v>0</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>941</v>
+        <v>932</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>997</v>
+        <v>985</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>599</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>601</v>
       </c>
       <c r="G12" s="3">
         <v>1</v>
@@ -8273,10 +8244,10 @@
         <v>0</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>1002</v>
+        <v>990</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -8284,19 +8255,19 @@
         <v>489</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>944</v>
+        <v>935</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>506</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>158</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="G13" s="3">
         <v>0</v>
@@ -8305,7 +8276,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>395</v>
@@ -8316,19 +8287,19 @@
         <v>489</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>946</v>
+        <v>937</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>507</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>158</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G14" s="3">
         <v>1</v>
@@ -8337,30 +8308,30 @@
         <v>1</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>947</v>
+        <v>938</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>1012</v>
+        <v>999</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>949</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>599</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>601</v>
       </c>
       <c r="G15" s="3">
         <v>1</v>
@@ -8369,10 +8340,10 @@
         <v>0</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>948</v>
+        <v>939</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>1002</v>
+        <v>990</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -8380,19 +8351,19 @@
         <v>490</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>983</v>
+        <v>972</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>508</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>374</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G16" s="3">
         <v>1</v>
@@ -8401,30 +8372,30 @@
         <v>0</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>990</v>
+        <v>979</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>995</v>
+        <v>983</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>977</v>
+        <v>966</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>599</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>601</v>
       </c>
       <c r="G17" s="3">
         <v>1</v>
@@ -8433,10 +8404,10 @@
         <v>0</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>1002</v>
+        <v>990</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -8444,19 +8415,19 @@
         <v>378</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>984</v>
+        <v>973</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>379</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>249</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G18" s="3">
         <v>1</v>
@@ -8465,30 +8436,30 @@
         <v>0</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>1013</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>960</v>
+        <v>951</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>985</v>
+        <v>974</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>961</v>
+        <v>952</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>962</v>
+        <v>953</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>963</v>
+        <v>954</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>964</v>
+        <v>955</v>
       </c>
       <c r="G19" s="3">
         <v>1</v>
@@ -8497,7 +8468,7 @@
         <v>1</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>896</v>
+        <v>887</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>395</v>
@@ -8505,22 +8476,22 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>978</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="D20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>599</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>601</v>
       </c>
       <c r="G20" s="3">
         <v>1</v>
@@ -8529,10 +8500,10 @@
         <v>0</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>1002</v>
+        <v>990</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -8540,19 +8511,19 @@
         <v>491</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>986</v>
+        <v>975</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>509</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>374</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G21" s="3">
         <v>1</v>
@@ -8561,30 +8532,30 @@
         <v>0</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>941</v>
+        <v>932</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>998</v>
+        <v>986</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>979</v>
+        <v>968</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>599</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>601</v>
       </c>
       <c r="G22" s="3">
         <v>1</v>
@@ -8593,10 +8564,10 @@
         <v>0</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>1002</v>
+        <v>990</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -8604,19 +8575,19 @@
         <v>492</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>987</v>
+        <v>976</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>510</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>374</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G23" s="3">
         <v>1</v>
@@ -8625,30 +8596,30 @@
         <v>0</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>941</v>
+        <v>932</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>999</v>
+        <v>987</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>980</v>
+        <v>969</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>599</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>601</v>
       </c>
       <c r="G24" s="3">
         <v>1</v>
@@ -8657,7 +8628,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>395</v>
@@ -8668,19 +8639,19 @@
         <v>383</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>988</v>
+        <v>977</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>384</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>374</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G25" s="3">
         <v>1</v>
@@ -8689,30 +8660,30 @@
         <v>0</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>941</v>
+        <v>932</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>1020</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>981</v>
+        <v>970</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>599</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>601</v>
       </c>
       <c r="G26" s="3">
         <v>1</v>
@@ -8721,30 +8692,30 @@
         <v>0</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>1002</v>
+        <v>990</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>1067</v>
+        <v>1054</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1068</v>
+        <v>1055</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>1069</v>
+        <v>1056</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>1070</v>
+        <v>1057</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>1071</v>
+        <v>1058</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>1072</v>
+        <v>1059</v>
       </c>
       <c r="G27" s="3">
         <v>1</v>
@@ -8753,30 +8724,30 @@
         <v>0</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>941</v>
+        <v>932</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>1073</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>1067</v>
+        <v>1054</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1074</v>
+        <v>1061</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1075</v>
+        <v>1062</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>1076</v>
+        <v>1063</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>1071</v>
+        <v>1058</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>1072</v>
+        <v>1059</v>
       </c>
       <c r="G28" s="3">
         <v>1</v>
@@ -8785,10 +8756,10 @@
         <v>0</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>1077</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
@@ -8796,19 +8767,19 @@
         <v>493</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>989</v>
+        <v>978</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>511</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>249</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G29" s="3">
         <v>1</v>
@@ -8817,30 +8788,30 @@
         <v>0</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>1014</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>982</v>
+        <v>971</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>599</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>601</v>
       </c>
       <c r="G30" s="3">
         <v>1</v>
@@ -8849,10 +8820,10 @@
         <v>0</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>1002</v>
+        <v>990</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -8860,19 +8831,19 @@
         <v>126</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>180</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>158</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G31" s="3">
         <v>1</v>
@@ -8881,62 +8852,62 @@
         <v>0</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="J31" t="s">
-        <v>938</v>
+        <v>929</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1" t="s">
         <v>782</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>809</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>783</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>784</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="7">
-        <v>0</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>788</v>
-      </c>
       <c r="J32" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>857</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="D33" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>599</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>601</v>
       </c>
       <c r="G33" s="3">
         <v>1</v>
@@ -8945,10 +8916,10 @@
         <v>0</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>1002</v>
+        <v>990</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8956,19 +8927,19 @@
         <v>127</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>184</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>319</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G34" s="3">
         <v>1</v>
@@ -8977,30 +8948,30 @@
         <v>0</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="J34" t="s">
-        <v>883</v>
+        <v>874</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G35" s="3">
         <v>1</v>
@@ -9009,30 +8980,30 @@
         <v>1</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="J35" t="s">
-        <v>884</v>
+        <v>875</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>858</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="D36" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>599</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>601</v>
       </c>
       <c r="G36" s="3">
         <v>1</v>
@@ -9041,10 +9012,10 @@
         <v>0</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="J36" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
@@ -9052,19 +9023,19 @@
         <v>128</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>201</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>158</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G37" s="3">
         <v>0</v>
@@ -9073,30 +9044,30 @@
         <v>0</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="J37" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="G38" s="3">
         <v>0</v>
@@ -9105,31 +9076,31 @@
         <v>0</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="J38" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D39" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>601</v>
-      </c>
       <c r="G39" s="3">
         <v>0</v>
       </c>
@@ -9137,10 +9108,10 @@
         <v>0</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="J39" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
@@ -9148,19 +9119,19 @@
         <v>129</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>210</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>157</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G40" s="3">
         <v>1</v>
@@ -9169,30 +9140,30 @@
         <v>0</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="J40" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D41" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>599</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>601</v>
       </c>
       <c r="G41" s="3">
         <v>1</v>
@@ -9201,10 +9172,10 @@
         <v>0</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="J41" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
@@ -9212,19 +9183,19 @@
         <v>131</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>225</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>158</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G42" s="3">
         <v>1</v>
@@ -9233,30 +9204,30 @@
         <v>0</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="J42" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
@@ -9265,30 +9236,30 @@
         <v>0</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="J43" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>861</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="D44" s="1" t="s">
+      <c r="F44" s="1" t="s">
         <v>599</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>601</v>
       </c>
       <c r="G44" s="3">
         <v>1</v>
@@ -9297,30 +9268,30 @@
         <v>0</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="J44" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>1053</v>
+        <v>1040</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>1058</v>
+        <v>1045</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>1059</v>
+        <v>1046</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>1054</v>
+        <v>1041</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>1055</v>
+        <v>1042</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>1056</v>
+        <v>1043</v>
       </c>
       <c r="G45" s="3">
         <v>1</v>
@@ -9329,7 +9300,7 @@
         <v>1</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>1057</v>
+        <v>1044</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>395</v>
@@ -9340,19 +9311,19 @@
         <v>494</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>232</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>158</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G46" s="3">
         <v>1</v>
@@ -9361,30 +9332,30 @@
         <v>0</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="J46" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D47" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="F47" s="1" t="s">
         <v>599</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>601</v>
       </c>
       <c r="G47" s="3">
         <v>1</v>
@@ -9393,10 +9364,10 @@
         <v>0</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="J47" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
@@ -9404,19 +9375,19 @@
         <v>414</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>242</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>247</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G48" s="3">
         <v>1</v>
@@ -9425,10 +9396,10 @@
         <v>0</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="J48" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
     </row>
     <row r="49" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -9436,19 +9407,19 @@
         <v>414</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>415</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>249</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G49" s="5">
         <v>1</v>
@@ -9457,10 +9428,10 @@
         <v>0</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="J49" t="s">
-        <v>1015</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
@@ -9468,19 +9439,19 @@
         <v>414</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>243</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>157</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G50" s="3">
         <v>1</v>
@@ -9489,10 +9460,10 @@
         <v>0</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="J50" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
     <row r="51" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -9500,19 +9471,19 @@
         <v>414</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>512</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>249</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G51" s="5">
         <v>1</v>
@@ -9521,30 +9492,30 @@
         <v>1</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="J51" t="s">
-        <v>1016</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D52" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>599</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>601</v>
       </c>
       <c r="G52" s="3">
         <v>1</v>
@@ -9553,10 +9524,10 @@
         <v>0</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="J52" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
@@ -9564,19 +9535,19 @@
         <v>495</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>263</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>157</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G53" s="3">
         <v>1</v>
@@ -9585,10 +9556,10 @@
         <v>0</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="J53" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
@@ -9596,19 +9567,19 @@
         <v>495</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>261</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>158</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G54" s="3">
         <v>1</v>
@@ -9617,30 +9588,30 @@
         <v>0</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="J54" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="G55" s="3">
         <v>1</v>
@@ -9649,30 +9620,30 @@
         <v>1</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="J55" t="s">
-        <v>880</v>
+        <v>872</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D56" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="F56" s="1" t="s">
         <v>599</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>601</v>
       </c>
       <c r="G56" s="3">
         <v>1</v>
@@ -9681,10 +9652,10 @@
         <v>0</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="J56" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
     </row>
     <row r="57" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -9692,19 +9663,19 @@
         <v>496</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>272</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>288</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G57" s="5">
         <v>1</v>
@@ -9713,30 +9684,30 @@
         <v>0</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>881</v>
-      </c>
-      <c r="J57" t="s">
-        <v>874</v>
+        <v>1065</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>1067</v>
       </c>
     </row>
     <row r="58" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="G58" s="5">
         <v>1</v>
@@ -9745,30 +9716,30 @@
         <v>1</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>881</v>
+        <v>1065</v>
       </c>
       <c r="J58" t="s">
-        <v>873</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D59" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="F59" s="1" t="s">
         <v>599</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>601</v>
       </c>
       <c r="G59" s="3">
         <v>1</v>
@@ -9777,10 +9748,10 @@
         <v>0</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="J59" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
@@ -9788,19 +9759,19 @@
         <v>467</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>291</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>158</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G60" s="3">
         <v>1</v>
@@ -9809,30 +9780,30 @@
         <v>0</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="J60" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -9841,30 +9812,30 @@
         <v>0</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="J61" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D62" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="F62" s="1" t="s">
         <v>599</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>601</v>
       </c>
       <c r="G62" s="3">
         <v>1</v>
@@ -9873,30 +9844,30 @@
         <v>0</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="J62" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>898</v>
+        <v>889</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>899</v>
+        <v>890</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>900</v>
+        <v>891</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>901</v>
+        <v>892</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>902</v>
+        <v>893</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>906</v>
+        <v>897</v>
       </c>
       <c r="G63" s="3">
         <v>1</v>
@@ -9905,30 +9876,30 @@
         <v>1</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>896</v>
+        <v>887</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>898</v>
+        <v>889</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>912</v>
+        <v>903</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>904</v>
+        <v>895</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>901</v>
+        <v>892</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>905</v>
+        <v>896</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>911</v>
+        <v>902</v>
       </c>
       <c r="G64" s="3">
         <v>1</v>
@@ -9937,30 +9908,30 @@
         <v>0</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>913</v>
+        <v>904</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>914</v>
+        <v>905</v>
       </c>
     </row>
     <row r="65" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>910</v>
+        <v>901</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>907</v>
+        <v>898</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>908</v>
+        <v>899</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>909</v>
+        <v>900</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>902</v>
+        <v>893</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>903</v>
+        <v>894</v>
       </c>
       <c r="G65" s="5">
         <v>1</v>
@@ -9969,30 +9940,30 @@
         <v>0</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>920</v>
+        <v>911</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>921</v>
+        <v>912</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>910</v>
+        <v>901</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>915</v>
+        <v>906</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>916</v>
+        <v>907</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>917</v>
+        <v>908</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>918</v>
+        <v>909</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>911</v>
+        <v>902</v>
       </c>
       <c r="G66" s="3">
         <v>1</v>
@@ -10001,10 +9972,10 @@
         <v>0</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
@@ -10012,19 +9983,19 @@
         <v>497</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>513</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>319</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="G67" s="3">
         <v>1</v>
@@ -10033,10 +10004,10 @@
         <v>0</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="J67" t="s">
-        <v>885</v>
+        <v>876</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
@@ -10044,19 +10015,19 @@
         <v>497</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>300</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>156</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="G68" s="3">
         <v>1</v>
@@ -10065,10 +10036,10 @@
         <v>0</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>875</v>
+        <v>867</v>
       </c>
       <c r="J68" t="s">
-        <v>876</v>
+        <v>868</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
@@ -10076,19 +10047,19 @@
         <v>497</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>299</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>319</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G69" s="3">
         <v>1</v>
@@ -10097,30 +10068,30 @@
         <v>1</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="J69" t="s">
-        <v>886</v>
+        <v>877</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="D70" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="F70" s="1" t="s">
         <v>599</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>601</v>
       </c>
       <c r="G70" s="3">
         <v>1</v>
@@ -10129,10 +10100,10 @@
         <v>0</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="J70" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
@@ -10140,19 +10111,19 @@
         <v>141</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>304</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>157</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G71" s="3">
         <v>0</v>
@@ -10161,31 +10132,31 @@
         <v>0</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="J71" t="s">
-        <v>882</v>
+        <v>873</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="D72" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="F72" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="E72" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>601</v>
-      </c>
       <c r="G72" s="3">
         <v>0</v>
       </c>
@@ -10193,10 +10164,10 @@
         <v>0</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="J72" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
@@ -10204,19 +10175,19 @@
         <v>143</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>312</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>290</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G73" s="3">
         <v>0</v>
@@ -10225,30 +10196,30 @@
         <v>0</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="J73" t="s">
-        <v>877</v>
+        <v>869</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G74" s="3">
         <v>0</v>
@@ -10257,31 +10228,31 @@
         <v>0</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>879</v>
+        <v>871</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D75" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="F75" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="E75" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>601</v>
-      </c>
       <c r="G75" s="3">
         <v>0</v>
       </c>
@@ -10289,30 +10260,30 @@
         <v>0</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="J75" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
     </row>
     <row r="76" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>887</v>
+        <v>878</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>892</v>
+        <v>883</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>888</v>
+        <v>879</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>889</v>
+        <v>880</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>890</v>
+        <v>881</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>891</v>
+        <v>882</v>
       </c>
       <c r="G76" s="5">
         <v>1</v>
@@ -10321,30 +10292,30 @@
         <v>0</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>893</v>
+        <v>884</v>
       </c>
       <c r="J76" s="6" t="s">
-        <v>897</v>
+        <v>888</v>
       </c>
     </row>
     <row r="77" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>1036</v>
+        <v>1023</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>1037</v>
+        <v>1024</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>1038</v>
+        <v>1025</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>1039</v>
+        <v>1026</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>1040</v>
+        <v>1027</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>1041</v>
+        <v>1028</v>
       </c>
       <c r="G77" s="5">
         <v>1</v>
@@ -10353,30 +10324,30 @@
         <v>0</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>1042</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="78" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>887</v>
+        <v>878</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>923</v>
+        <v>914</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>922</v>
+        <v>913</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>894</v>
+        <v>885</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>156</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>891</v>
+        <v>882</v>
       </c>
       <c r="G78" s="5">
         <v>1</v>
@@ -10385,30 +10356,30 @@
         <v>1</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>896</v>
+        <v>887</v>
       </c>
       <c r="J78" s="4" t="s">
-        <v>895</v>
+        <v>886</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="G79" s="3">
         <v>1</v>
@@ -10417,30 +10388,30 @@
         <v>0</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="J79" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="D80" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>870</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>779</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>780</v>
-      </c>
       <c r="E80" s="1" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="G80" s="3">
         <v>1</v>
@@ -10449,27 +10420,30 @@
         <v>0</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="J80" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>498</v>
       </c>
+      <c r="B81" s="1" t="s">
+        <v>1068</v>
+      </c>
       <c r="C81" s="1" t="s">
         <v>514</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G81" s="3">
         <v>0</v>
@@ -10477,60 +10451,75 @@
       <c r="H81" s="7">
         <v>0</v>
       </c>
+      <c r="I81" s="1" t="s">
+        <v>1070</v>
+      </c>
       <c r="J81" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>655</v>
+        <v>499</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>941</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>656</v>
+        <v>515</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>599</v>
+        <v>524</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>611</v>
+        <v>249</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>601</v>
+        <v>532</v>
       </c>
       <c r="G82" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82" s="7">
         <v>0</v>
       </c>
+      <c r="I82" s="1" t="s">
+        <v>758</v>
+      </c>
       <c r="J82" s="1" t="s">
-        <v>680</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="E83" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="D83" s="1" t="s">
+      <c r="F83" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="E83" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>601</v>
-      </c>
       <c r="G83" s="3">
         <v>0</v>
       </c>
       <c r="H83" s="7">
         <v>0</v>
       </c>
+      <c r="I83" s="1" t="s">
+        <v>741</v>
+      </c>
       <c r="J83" s="1" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
@@ -10538,10 +10527,10 @@
         <v>499</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>525</v>
@@ -10550,7 +10539,7 @@
         <v>249</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G84" s="3">
         <v>1</v>
@@ -10559,30 +10548,30 @@
         <v>0</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>764</v>
+        <v>944</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>1018</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>499</v>
+        <v>652</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>951</v>
+        <v>943</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>516</v>
+        <v>656</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>526</v>
+        <v>597</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>249</v>
+        <v>601</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>534</v>
+        <v>599</v>
       </c>
       <c r="G85" s="3">
         <v>1</v>
@@ -10591,30 +10580,30 @@
         <v>0</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>953</v>
-      </c>
-      <c r="J85" s="1" t="s">
-        <v>1019</v>
+        <v>741</v>
+      </c>
+      <c r="J85" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>952</v>
+        <v>991</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D86" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="F86" s="1" t="s">
         <v>599</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>601</v>
       </c>
       <c r="G86" s="3">
         <v>1</v>
@@ -10623,7 +10612,7 @@
         <v>0</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="J86" t="s">
         <v>395</v>
@@ -10631,22 +10620,22 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>654</v>
+        <v>67</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>1003</v>
+        <v>948</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>660</v>
+        <v>114</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>599</v>
+        <v>524</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>661</v>
+        <v>324</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>601</v>
+        <v>532</v>
       </c>
       <c r="G87" s="3">
         <v>1</v>
@@ -10655,30 +10644,30 @@
         <v>0</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="J87" t="s">
-        <v>395</v>
+        <v>950</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>988</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>67</v>
+        <v>945</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>957</v>
+        <v>995</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>114</v>
+        <v>994</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>525</v>
+        <v>946</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>324</v>
+        <v>947</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G88" s="3">
         <v>1</v>
@@ -10687,30 +10676,30 @@
         <v>0</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>1000</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>954</v>
+        <v>659</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>1008</v>
+        <v>949</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>1007</v>
+        <v>660</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>955</v>
+        <v>597</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>956</v>
+        <v>625</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>534</v>
+        <v>599</v>
       </c>
       <c r="G89" s="3">
         <v>1</v>
@@ -10719,94 +10708,94 @@
         <v>0</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>959</v>
-      </c>
-      <c r="J89" s="1" t="s">
-        <v>1021</v>
+        <v>741</v>
+      </c>
+      <c r="J89" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>662</v>
+        <v>500</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>663</v>
+        <v>517</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>599</v>
+        <v>524</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>627</v>
+        <v>158</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>601</v>
+        <v>780</v>
       </c>
       <c r="G90" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H90" s="7">
         <v>0</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="J90" t="s">
+        <v>782</v>
+      </c>
+      <c r="J90" s="1" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>500</v>
+        <v>661</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>965</v>
+        <v>957</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>517</v>
+        <v>662</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>525</v>
+        <v>597</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>158</v>
+        <v>625</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>786</v>
+        <v>599</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91" s="7">
         <v>0</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="J91" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="J91" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>664</v>
+        <v>501</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>966</v>
+        <v>958</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>665</v>
+        <v>518</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>599</v>
+        <v>524</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>627</v>
+        <v>158</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>601</v>
+        <v>532</v>
       </c>
       <c r="G92" s="3">
         <v>1</v>
@@ -10815,30 +10804,30 @@
         <v>0</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="J92" t="s">
-        <v>395</v>
+        <v>996</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>992</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>501</v>
+        <v>663</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>518</v>
+        <v>664</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>525</v>
+        <v>597</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>158</v>
+        <v>609</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>534</v>
+        <v>599</v>
       </c>
       <c r="G93" s="3">
         <v>1</v>
@@ -10847,30 +10836,30 @@
         <v>0</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>1009</v>
-      </c>
-      <c r="J93" s="1" t="s">
-        <v>1004</v>
+        <v>741</v>
+      </c>
+      <c r="J93" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>666</v>
+        <v>98</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>667</v>
+        <v>119</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>599</v>
+        <v>524</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>611</v>
+        <v>156</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>601</v>
+        <v>532</v>
       </c>
       <c r="G94" s="3">
         <v>1</v>
@@ -10879,10 +10868,10 @@
         <v>0</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="J94" t="s">
-        <v>395</v>
+        <v>980</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>989</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
@@ -10890,19 +10879,19 @@
         <v>98</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>119</v>
+        <v>519</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>156</v>
+        <v>527</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G95" s="3">
         <v>1</v>
@@ -10911,30 +10900,30 @@
         <v>0</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>991</v>
+        <v>981</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>1001</v>
+        <v>982</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>665</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>519</v>
+        <v>666</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>525</v>
+        <v>597</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>528</v>
+        <v>609</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>534</v>
+        <v>599</v>
       </c>
       <c r="G96" s="3">
         <v>1</v>
@@ -10943,59 +10932,53 @@
         <v>0</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>992</v>
-      </c>
-      <c r="J96" s="1" t="s">
-        <v>993</v>
+        <v>741</v>
+      </c>
+      <c r="J96" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>971</v>
+        <v>502</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>670</v>
+        <v>528</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>599</v>
+        <v>524</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>611</v>
+        <v>529</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>601</v>
+        <v>532</v>
       </c>
       <c r="G97" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97" s="7">
         <v>0</v>
       </c>
-      <c r="I97" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="J97" t="s">
-        <v>395</v>
+      <c r="J97" s="1" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>502</v>
+        <v>667</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>529</v>
+        <v>670</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>525</v>
+        <v>597</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>530</v>
+        <v>635</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>534</v>
+        <v>599</v>
       </c>
       <c r="G98" s="3">
         <v>0</v>
@@ -11004,24 +10987,24 @@
         <v>0</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>544</v>
+        <v>674</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>671</v>
+        <v>503</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>674</v>
+        <v>520</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>599</v>
+        <v>524</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>637</v>
+        <v>530</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>601</v>
+        <v>531</v>
       </c>
       <c r="G99" s="3">
         <v>0</v>
@@ -11030,7 +11013,7 @@
         <v>0</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>680</v>
+        <v>542</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
@@ -11038,16 +11021,16 @@
         <v>503</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>525</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
@@ -11056,24 +11039,24 @@
         <v>0</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>503</v>
+        <v>669</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>521</v>
+        <v>668</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>526</v>
+        <v>597</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>531</v>
+        <v>635</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>534</v>
+        <v>599</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
@@ -11082,53 +11065,59 @@
         <v>0</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>544</v>
+        <v>674</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>673</v>
+        <v>505</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>963</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>672</v>
+        <v>522</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>599</v>
+        <v>524</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>637</v>
+        <v>249</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>601</v>
+        <v>532</v>
       </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H102" s="7">
         <v>0</v>
       </c>
+      <c r="I102" s="1" t="s">
+        <v>758</v>
+      </c>
       <c r="J102" s="1" t="s">
-        <v>680</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>972</v>
+        <v>964</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E103" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F103" s="1" t="s">
         <v>532</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>533</v>
       </c>
       <c r="G103" s="3">
         <v>1</v>
@@ -11137,30 +11126,30 @@
         <v>0</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>994</v>
+        <v>759</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>973</v>
+        <v>965</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="D104" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="F104" s="1" t="s">
         <v>599</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>601</v>
       </c>
       <c r="G104" s="3">
         <v>1</v>
@@ -11169,7 +11158,7 @@
         <v>0</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="J104" t="s">
         <v>395</v>
@@ -11177,115 +11166,97 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>974</v>
+        <v>675</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>523</v>
+        <v>689</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>525</v>
+        <v>687</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>249</v>
+        <v>690</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>534</v>
+        <v>696</v>
       </c>
       <c r="G105" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H105" s="7">
         <v>0</v>
       </c>
-      <c r="I105" s="1" t="s">
-        <v>764</v>
-      </c>
       <c r="J105" s="1" t="s">
-        <v>1017</v>
+        <v>740</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>975</v>
+        <v>675</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>524</v>
+        <v>692</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>525</v>
+        <v>693</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>157</v>
+        <v>690</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>534</v>
+        <v>688</v>
       </c>
       <c r="G106" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H106" s="7">
         <v>0</v>
       </c>
-      <c r="I106" s="1" t="s">
-        <v>765</v>
-      </c>
       <c r="J106" s="1" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>976</v>
+        <v>675</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>678</v>
+        <v>694</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>599</v>
+        <v>695</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>679</v>
+        <v>690</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>601</v>
+        <v>688</v>
       </c>
       <c r="G107" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H107" s="7">
         <v>0</v>
       </c>
-      <c r="I107" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="J107" t="s">
-        <v>395</v>
+      <c r="J107" s="1" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>702</v>
+        <v>688</v>
       </c>
       <c r="G108" s="3">
         <v>0</v>
@@ -11294,24 +11265,24 @@
         <v>0</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D109" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="E109" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="E109" s="1" t="s">
-        <v>696</v>
-      </c>
       <c r="F109" s="1" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="G109" s="3">
         <v>0</v>
@@ -11320,24 +11291,24 @@
         <v>0</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>700</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>701</v>
+        <v>687</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="G110" s="3">
         <v>0</v>
@@ -11346,24 +11317,24 @@
         <v>0</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="G111" s="3">
         <v>0</v>
@@ -11372,24 +11343,24 @@
         <v>0</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>705</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="G112" s="3">
         <v>0</v>
@@ -11398,24 +11369,24 @@
         <v>0</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>706</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="G113" s="3">
         <v>0</v>
@@ -11424,24 +11395,24 @@
         <v>0</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>707</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>709</v>
+        <v>324</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="G114" s="3">
         <v>0</v>
@@ -11450,24 +11421,24 @@
         <v>0</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>711</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="G115" s="3">
         <v>0</v>
@@ -11476,24 +11447,24 @@
         <v>0</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>693</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="G116" s="3">
         <v>0</v>
@@ -11502,24 +11473,24 @@
         <v>0</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>713</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>324</v>
+        <v>690</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="G117" s="3">
         <v>0</v>
@@ -11528,50 +11499,50 @@
         <v>0</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>714</v>
+        <v>743</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>717</v>
+        <v>690</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="G118" s="3">
         <v>0</v>
       </c>
       <c r="H118" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="C119" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="E119" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="D119" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>718</v>
-      </c>
       <c r="F119" s="1" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="G119" s="3">
         <v>0</v>
@@ -11580,24 +11551,24 @@
         <v>0</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>702</v>
+        <v>688</v>
       </c>
       <c r="G120" s="3">
         <v>0</v>
@@ -11606,50 +11577,50 @@
         <v>0</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>749</v>
+        <v>717</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>696</v>
+        <v>718</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="G121" s="3">
         <v>0</v>
       </c>
       <c r="H121" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>699</v>
+        <v>687</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="G122" s="3">
         <v>0</v>
@@ -11658,24 +11629,24 @@
         <v>0</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>693</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>696</v>
+        <v>718</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="G123" s="3">
         <v>0</v>
@@ -11684,24 +11655,24 @@
         <v>0</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>699</v>
+        <v>687</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="G124" s="3">
         <v>0</v>
@@ -11710,24 +11681,24 @@
         <v>0</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>696</v>
+        <v>722</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="G125" s="3">
         <v>0</v>
@@ -11736,24 +11707,24 @@
         <v>0</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>726</v>
+        <v>746</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>724</v>
+        <v>690</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="G126" s="3">
         <v>0</v>
@@ -11762,25 +11733,25 @@
         <v>0</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="F127" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="C127" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>694</v>
-      </c>
       <c r="G127" s="3">
         <v>0</v>
       </c>
@@ -11788,25 +11759,25 @@
         <v>0</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="F128" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="C128" s="1" t="s">
-        <v>729</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>694</v>
-      </c>
       <c r="G128" s="3">
         <v>0</v>
       </c>
@@ -11814,25 +11785,25 @@
         <v>0</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="F129" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="C129" s="1" t="s">
-        <v>752</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>694</v>
-      </c>
       <c r="G129" s="3">
         <v>0</v>
       </c>
@@ -11840,24 +11811,24 @@
         <v>0</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>731</v>
+        <v>711</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="G130" s="3">
         <v>0</v>
@@ -11866,24 +11837,24 @@
         <v>0</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>733</v>
+        <v>711</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="G131" s="3">
         <v>0</v>
@@ -11892,24 +11863,24 @@
         <v>0</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>693</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>717</v>
+        <v>733</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="G132" s="3">
         <v>0</v>
@@ -11918,24 +11889,24 @@
         <v>0</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>754</v>
+        <v>741</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="E133" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="C133" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>717</v>
-      </c>
       <c r="F133" s="1" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="G133" s="3">
         <v>0</v>
@@ -11944,24 +11915,24 @@
         <v>0</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>755</v>
+        <v>741</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E134" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="C134" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>717</v>
-      </c>
       <c r="F134" s="1" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="G134" s="3">
         <v>0</v>
@@ -11970,24 +11941,24 @@
         <v>0</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="E135" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="C135" s="1" t="s">
-        <v>737</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>739</v>
-      </c>
       <c r="F135" s="1" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="G135" s="3">
         <v>0</v>
@@ -11996,24 +11967,24 @@
         <v>0</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>738</v>
+        <v>752</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>696</v>
+        <v>718</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="G136" s="3">
         <v>0</v>
@@ -12022,24 +11993,24 @@
         <v>0</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>693</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="G137" s="3">
         <v>0</v>
@@ -12048,24 +12019,24 @@
         <v>0</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>756</v>
+        <v>741</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>701</v>
+        <v>687</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>696</v>
+        <v>739</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="G138" s="3">
         <v>0</v>
@@ -12074,24 +12045,24 @@
         <v>0</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>757</v>
+        <v>740</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>758</v>
+        <v>738</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="G139" s="3">
         <v>0</v>
@@ -12100,89 +12071,11 @@
         <v>0</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A140" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="F140" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="G140" s="3">
-        <v>0</v>
-      </c>
-      <c r="H140" s="7">
-        <v>0</v>
-      </c>
-      <c r="J140" s="1" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A141" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>743</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="F141" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="G141" s="3">
-        <v>0</v>
-      </c>
-      <c r="H141" s="7">
-        <v>0</v>
-      </c>
-      <c r="J141" s="1" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A142" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>744</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="F142" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="G142" s="3">
-        <v>0</v>
-      </c>
-      <c r="H142" s="7">
-        <v>0</v>
-      </c>
-      <c r="J142" s="1" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A142" xr:uid="{7D3AD226-787D-4D47-A593-251257ACE64C}"/>
+  <autoFilter ref="A1:A139" xr:uid="{7D3AD226-787D-4D47-A593-251257ACE64C}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12208,7 +12101,7 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -12216,15 +12109,15 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -12232,7 +12125,7 @@
         <v>370</v>
       </c>
       <c r="B4" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -12240,7 +12133,7 @@
         <v>375</v>
       </c>
       <c r="B5" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -12248,7 +12141,7 @@
         <v>489</v>
       </c>
       <c r="B6" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -12256,7 +12149,7 @@
         <v>490</v>
       </c>
       <c r="B7" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -12264,7 +12157,7 @@
         <v>378</v>
       </c>
       <c r="B8" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -12272,7 +12165,7 @@
         <v>491</v>
       </c>
       <c r="B9" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -12280,7 +12173,7 @@
         <v>492</v>
       </c>
       <c r="B10" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -12288,7 +12181,7 @@
         <v>383</v>
       </c>
       <c r="B11" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -12296,7 +12189,7 @@
         <v>493</v>
       </c>
       <c r="B12" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -12304,7 +12197,7 @@
         <v>125</v>
       </c>
       <c r="B13" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -12312,7 +12205,7 @@
         <v>126</v>
       </c>
       <c r="B14" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -12320,7 +12213,7 @@
         <v>127</v>
       </c>
       <c r="B15" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -12344,7 +12237,7 @@
         <v>400</v>
       </c>
       <c r="B18" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -12400,7 +12293,7 @@
         <v>497</v>
       </c>
       <c r="B25" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -12408,7 +12301,7 @@
         <v>141</v>
       </c>
       <c r="B26" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -12424,7 +12317,7 @@
         <v>498</v>
       </c>
       <c r="B28" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -12432,7 +12325,7 @@
         <v>499</v>
       </c>
       <c r="B29" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -12448,7 +12341,7 @@
         <v>500</v>
       </c>
       <c r="B31" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -12456,7 +12349,7 @@
         <v>501</v>
       </c>
       <c r="B32" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -12526,33 +12419,33 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="B1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C1" t="s">
         <v>1022</v>
       </c>
-      <c r="C1" t="s">
-        <v>1035</v>
-      </c>
       <c r="D1" t="s">
-        <v>1043</v>
+        <v>1030</v>
       </c>
       <c r="E1" t="s">
-        <v>1049</v>
+        <v>1036</v>
       </c>
       <c r="F1" t="s">
-        <v>1052</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>1028</v>
+        <v>1015</v>
       </c>
       <c r="E2">
         <v>0.77</v>
@@ -12560,13 +12453,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B3" t="s">
         <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
       <c r="E3">
         <f>0.7*0.77</f>
@@ -12575,13 +12468,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>1024</v>
+        <v>1011</v>
       </c>
       <c r="E4">
         <v>0.7</v>
@@ -12589,13 +12482,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>1024</v>
+        <v>1011</v>
       </c>
       <c r="E5">
         <v>0.7</v>
@@ -12603,13 +12496,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>1023</v>
+        <v>1010</v>
       </c>
       <c r="E6">
         <v>0.77</v>
@@ -12617,13 +12510,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>1024</v>
+        <v>1011</v>
       </c>
       <c r="E7">
         <v>0.7</v>
@@ -12631,13 +12524,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B8" t="s">
         <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>1024</v>
+        <v>1011</v>
       </c>
       <c r="E8">
         <f>0.9*0.99</f>
@@ -12646,13 +12539,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B9" t="s">
         <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>1024</v>
+        <v>1011</v>
       </c>
       <c r="E9">
         <v>0.7</v>
@@ -12660,13 +12553,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>1023</v>
+        <v>1010</v>
       </c>
       <c r="E10">
         <v>0.77</v>
@@ -12674,13 +12567,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>1024</v>
+        <v>1011</v>
       </c>
       <c r="E11">
         <f>0.9*0.99</f>
@@ -12689,13 +12582,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>1025</v>
+        <v>1012</v>
       </c>
       <c r="B12" t="s">
-        <v>1026</v>
+        <v>1013</v>
       </c>
       <c r="C12" t="s">
-        <v>1024</v>
+        <v>1011</v>
       </c>
       <c r="E12">
         <f>0.9*0.99</f>
@@ -12704,13 +12597,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B13" t="s">
         <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
       <c r="E13">
         <f>0.9*0.99</f>
@@ -12719,13 +12612,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B14" t="s">
         <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>1023</v>
+        <v>1010</v>
       </c>
       <c r="E14">
         <v>0.77</v>
@@ -12733,13 +12626,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B15" t="s">
         <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>1023</v>
+        <v>1010</v>
       </c>
       <c r="E15">
         <v>0.77</v>
@@ -12747,13 +12640,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B16" t="s">
         <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
       <c r="E16">
         <v>0.77</v>
@@ -12761,13 +12654,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B17" t="s">
         <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
       <c r="E17">
         <v>0.77</v>
@@ -12775,13 +12668,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B18" t="s">
         <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
       <c r="E18">
         <v>0.77</v>
@@ -12789,13 +12682,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B19" t="s">
         <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
       <c r="E19">
         <v>0.77</v>
@@ -12803,16 +12696,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B20" t="s">
         <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
       <c r="D20" t="s">
-        <v>1051</v>
+        <v>1038</v>
       </c>
       <c r="E20">
         <v>0.77</v>
@@ -12820,16 +12713,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B21" t="s">
         <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
       <c r="D21" t="s">
-        <v>1044</v>
+        <v>1031</v>
       </c>
       <c r="E21">
         <v>0.77</v>
@@ -12837,13 +12730,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B22" t="s">
         <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
       <c r="E22">
         <v>0.77</v>
@@ -12851,13 +12744,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B23" t="s">
         <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
       <c r="E23">
         <v>0.77</v>
@@ -12865,16 +12758,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B24" t="s">
         <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
       <c r="D24" t="s">
-        <v>1050</v>
+        <v>1037</v>
       </c>
       <c r="E24">
         <v>0.77</v>
@@ -12882,16 +12775,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B25" t="s">
         <v>45</v>
       </c>
       <c r="C25" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
       <c r="D25" t="s">
-        <v>1045</v>
+        <v>1032</v>
       </c>
       <c r="E25">
         <v>0.77</v>
@@ -12899,13 +12792,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>887</v>
+        <v>878</v>
       </c>
       <c r="B26" t="s">
-        <v>1027</v>
+        <v>1014</v>
       </c>
       <c r="C26" t="s">
-        <v>1033</v>
+        <v>1020</v>
       </c>
       <c r="E26">
         <f>1/1.01</f>
@@ -12914,13 +12807,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>1031</v>
+        <v>1018</v>
       </c>
       <c r="B27" t="s">
-        <v>1032</v>
+        <v>1019</v>
       </c>
       <c r="C27" t="s">
-        <v>1034</v>
+        <v>1021</v>
       </c>
       <c r="E27">
         <f>0.77*0.7 + 0.9*0.3</f>
@@ -12929,13 +12822,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B28" t="s">
         <v>47</v>
       </c>
       <c r="C28" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
       <c r="E28">
         <v>0.77</v>
@@ -12943,16 +12836,16 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B29" t="s">
         <v>48</v>
       </c>
       <c r="C29" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
       <c r="D29" t="s">
-        <v>1046</v>
+        <v>1033</v>
       </c>
       <c r="E29">
         <v>0.77</v>
@@ -12960,13 +12853,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B30" t="s">
         <v>49</v>
       </c>
       <c r="C30" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
       <c r="E30">
         <v>0.77</v>
@@ -12974,13 +12867,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B31" t="s">
         <v>50</v>
       </c>
       <c r="C31" t="s">
-        <v>1024</v>
+        <v>1011</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -12988,13 +12881,13 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B32" t="s">
         <v>51</v>
       </c>
       <c r="C32" t="s">
-        <v>1024</v>
+        <v>1011</v>
       </c>
       <c r="E32">
         <f>0.9*0.99</f>
@@ -13003,16 +12896,16 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B33" t="s">
         <v>52</v>
       </c>
       <c r="C33" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
       <c r="D33" t="s">
-        <v>1047</v>
+        <v>1034</v>
       </c>
       <c r="E33">
         <v>0.77</v>
@@ -13020,13 +12913,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B34" t="s">
         <v>55</v>
       </c>
       <c r="C34" t="s">
-        <v>1024</v>
+        <v>1011</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -13034,16 +12927,16 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B35" t="s">
         <v>56</v>
       </c>
       <c r="C35" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
       <c r="D35" t="s">
-        <v>1048</v>
+        <v>1035</v>
       </c>
       <c r="E35">
         <f>0.7*0.77</f>
@@ -13169,7 +13062,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="B13" t="s">
         <v>156</v>
@@ -13177,10 +13070,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="B14" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
     </row>
   </sheetData>

--- a/data/basic_info.xlsx
+++ b/data/basic_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\trading_plan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965140B1-CA90-441E-AC81-F6F86882837D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E33DA4-7419-4557-A506-A25A1BA5E7F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15525" yWindow="7590" windowWidth="13830" windowHeight="15735" tabRatio="733" activeTab="1" xr2:uid="{855E00D3-25C3-4BB2-A61F-0D95BB1AF006}"/>
+    <workbookView xWindow="-4155" yWindow="6870" windowWidth="15255" windowHeight="15735" tabRatio="733" activeTab="1" xr2:uid="{855E00D3-25C3-4BB2-A61F-0D95BB1AF006}"/>
   </bookViews>
   <sheets>
     <sheet name="acct_info" sheetId="1" r:id="rId1"/>

--- a/data/basic_info.xlsx
+++ b/data/basic_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\trading_plan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E33DA4-7419-4557-A506-A25A1BA5E7F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB1D30E-9D5B-4F84-A06E-9B23FC977BC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4155" yWindow="6870" windowWidth="15255" windowHeight="15735" tabRatio="733" activeTab="1" xr2:uid="{855E00D3-25C3-4BB2-A61F-0D95BB1AF006}"/>
+    <workbookView xWindow="-645" yWindow="8205" windowWidth="15255" windowHeight="15735" tabRatio="733" activeTab="1" xr2:uid="{855E00D3-25C3-4BB2-A61F-0D95BB1AF006}"/>
   </bookViews>
   <sheets>
     <sheet name="acct_info" sheetId="1" r:id="rId1"/>
@@ -4015,10 +4015,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(1203_m_zhaos_2641.txt,1203_m_zhaos_2641.txt,1203_m_zhaos_2641_secdebt.txt,)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PrdName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4261,6 +4257,10 @@
   </si>
   <si>
     <t>ax_custom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1203_m_zhaos_2641.txt,1203_m_zhaos_2641.txt,1203_m_zhaos_2641_secliability.txt,)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7848,7 +7848,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="H62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J82" sqref="J82"/>
+      <selection pane="bottomRight" activeCell="J88" sqref="J88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7996,22 +7996,22 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>1047</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>1048</v>
-      </c>
       <c r="C5" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>1050</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>1051</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>1052</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>1053</v>
       </c>
       <c r="G5" s="3">
         <v>1</v>
@@ -8023,7 +8023,7 @@
         <v>741</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -8700,22 +8700,22 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>1054</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>1055</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>1056</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>1057</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>1058</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>1059</v>
       </c>
       <c r="G27" s="3">
         <v>1</v>
@@ -8727,27 +8727,27 @@
         <v>932</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>1061</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>1062</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>1063</v>
-      </c>
       <c r="E28" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>1058</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>1059</v>
       </c>
       <c r="G28" s="3">
         <v>1</v>
@@ -8759,7 +8759,7 @@
         <v>741</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
@@ -9276,22 +9276,22 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>1040</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>1045</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>1046</v>
-      </c>
-      <c r="D45" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>1041</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="F45" s="1" t="s">
         <v>1042</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>1043</v>
       </c>
       <c r="G45" s="3">
         <v>1</v>
@@ -9300,7 +9300,7 @@
         <v>1</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>395</v>
@@ -9684,10 +9684,10 @@
         <v>0</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="58" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -9716,10 +9716,10 @@
         <v>1</v>
       </c>
       <c r="I58" s="4" t="s">
+        <v>1064</v>
+      </c>
+      <c r="J58" t="s">
         <v>1065</v>
-      </c>
-      <c r="J58" t="s">
-        <v>1066</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
@@ -10300,22 +10300,22 @@
     </row>
     <row r="77" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B77" s="4" t="s">
         <v>1023</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="C77" s="4" t="s">
         <v>1024</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="D77" s="4" t="s">
         <v>1025</v>
       </c>
-      <c r="D77" s="4" t="s">
+      <c r="E77" s="4" t="s">
         <v>1026</v>
       </c>
-      <c r="E77" s="4" t="s">
+      <c r="F77" s="4" t="s">
         <v>1027</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>1028</v>
       </c>
       <c r="G77" s="5">
         <v>1</v>
@@ -10327,7 +10327,7 @@
         <v>741</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="78" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -10431,7 +10431,7 @@
         <v>498</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>514</v>
@@ -10452,7 +10452,7 @@
         <v>0</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="J81" s="1" t="s">
         <v>542</v>
@@ -10495,7 +10495,7 @@
         <v>653</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>654</v>
@@ -10679,7 +10679,7 @@
         <v>950</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>1008</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
@@ -12422,19 +12422,19 @@
         <v>761</v>
       </c>
       <c r="B1" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="C1" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="D1" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="E1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="F1" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -12445,7 +12445,7 @@
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E2">
         <v>0.77</v>
@@ -12459,7 +12459,7 @@
         <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E3">
         <f>0.7*0.77</f>
@@ -12474,7 +12474,7 @@
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E4">
         <v>0.7</v>
@@ -12488,7 +12488,7 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E5">
         <v>0.7</v>
@@ -12502,7 +12502,7 @@
         <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E6">
         <v>0.77</v>
@@ -12516,7 +12516,7 @@
         <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E7">
         <v>0.7</v>
@@ -12530,7 +12530,7 @@
         <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E8">
         <f>0.9*0.99</f>
@@ -12545,7 +12545,7 @@
         <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E9">
         <v>0.7</v>
@@ -12559,7 +12559,7 @@
         <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E10">
         <v>0.77</v>
@@ -12573,7 +12573,7 @@
         <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E11">
         <f>0.9*0.99</f>
@@ -12582,13 +12582,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B12" t="s">
         <v>1012</v>
       </c>
-      <c r="B12" t="s">
-        <v>1013</v>
-      </c>
       <c r="C12" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E12">
         <f>0.9*0.99</f>
@@ -12603,7 +12603,7 @@
         <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E13">
         <f>0.9*0.99</f>
@@ -12618,7 +12618,7 @@
         <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E14">
         <v>0.77</v>
@@ -12632,7 +12632,7 @@
         <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E15">
         <v>0.77</v>
@@ -12646,7 +12646,7 @@
         <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E16">
         <v>0.77</v>
@@ -12660,7 +12660,7 @@
         <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E17">
         <v>0.77</v>
@@ -12674,7 +12674,7 @@
         <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E18">
         <v>0.77</v>
@@ -12688,7 +12688,7 @@
         <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E19">
         <v>0.77</v>
@@ -12702,10 +12702,10 @@
         <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D20" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="E20">
         <v>0.77</v>
@@ -12719,10 +12719,10 @@
         <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D21" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="E21">
         <v>0.77</v>
@@ -12736,7 +12736,7 @@
         <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E22">
         <v>0.77</v>
@@ -12750,7 +12750,7 @@
         <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E23">
         <v>0.77</v>
@@ -12764,10 +12764,10 @@
         <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D24" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="E24">
         <v>0.77</v>
@@ -12781,10 +12781,10 @@
         <v>45</v>
       </c>
       <c r="C25" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D25" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="E25">
         <v>0.77</v>
@@ -12795,10 +12795,10 @@
         <v>878</v>
       </c>
       <c r="B26" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C26" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E26">
         <f>1/1.01</f>
@@ -12807,13 +12807,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B27" t="s">
         <v>1018</v>
       </c>
-      <c r="B27" t="s">
-        <v>1019</v>
-      </c>
       <c r="C27" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E27">
         <f>0.77*0.7 + 0.9*0.3</f>
@@ -12828,7 +12828,7 @@
         <v>47</v>
       </c>
       <c r="C28" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E28">
         <v>0.77</v>
@@ -12842,10 +12842,10 @@
         <v>48</v>
       </c>
       <c r="C29" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D29" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="E29">
         <v>0.77</v>
@@ -12859,7 +12859,7 @@
         <v>49</v>
       </c>
       <c r="C30" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E30">
         <v>0.77</v>
@@ -12873,7 +12873,7 @@
         <v>50</v>
       </c>
       <c r="C31" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -12887,7 +12887,7 @@
         <v>51</v>
       </c>
       <c r="C32" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E32">
         <f>0.9*0.99</f>
@@ -12902,10 +12902,10 @@
         <v>52</v>
       </c>
       <c r="C33" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D33" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="E33">
         <v>0.77</v>
@@ -12919,7 +12919,7 @@
         <v>55</v>
       </c>
       <c r="C34" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -12933,10 +12933,10 @@
         <v>56</v>
       </c>
       <c r="C35" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D35" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="E35">
         <f>0.7*0.77</f>

--- a/data/basic_info.xlsx
+++ b/data/basic_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\trading_plan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB1D30E-9D5B-4F84-A06E-9B23FC977BC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED50C64-CDA8-4583-A4AC-34794415228B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-645" yWindow="8205" windowWidth="15255" windowHeight="15735" tabRatio="733" activeTab="1" xr2:uid="{855E00D3-25C3-4BB2-A61F-0D95BB1AF006}"/>
+    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28590" tabRatio="733" activeTab="3" xr2:uid="{855E00D3-25C3-4BB2-A61F-0D95BB1AF006}"/>
   </bookViews>
   <sheets>
     <sheet name="acct_info" sheetId="1" r:id="rId1"/>
@@ -7844,8 +7844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E89EC7F-6807-4E54-B5E1-E4E4E9C6C1B6}">
   <dimension ref="A1:K139"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H62" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="H32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="J88" sqref="J88"/>
@@ -12403,8 +12403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E5BCC1-FCE5-4A72-87FB-8DCCEFEE3C6B}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12462,8 +12462,7 @@
         <v>1016</v>
       </c>
       <c r="E3">
-        <f>0.7*0.77</f>
-        <v>0.53899999999999992</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -12939,8 +12938,7 @@
         <v>1034</v>
       </c>
       <c r="E35">
-        <f>0.7*0.77</f>
-        <v>0.53899999999999992</v>
+        <v>0.77</v>
       </c>
     </row>
   </sheetData>

--- a/data/basic_info.xlsx
+++ b/data/basic_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\trading_plan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F24FCD-4958-47F2-9297-CAD309F46AC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0689D882-E4D6-48DF-A320-2FBCEECA375F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28590" tabRatio="733" activeTab="1" xr2:uid="{855E00D3-25C3-4BB2-A61F-0D95BB1AF006}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">acct_info!$B$1:$B$125</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">acctinfo!$D$1:$D$176</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">acctinfo!$D$1:$D$178</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2461" uniqueCount="1234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2478" uniqueCount="1245">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4900,6 +4900,50 @@
   </si>
   <si>
     <t>hait_6611</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>922</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>922_f_ya_9073</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>253109073</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ya</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>908</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>908_f_ya_9072</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>253109072</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpecialAcountMark</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8485,13 +8529,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E89EC7F-6807-4E54-B5E1-E4E4E9C6C1B6}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:L176"/>
+  <dimension ref="A1:M178"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C71" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I154" sqref="I154"/>
+      <selection pane="bottomRight" activeCell="I81" sqref="I81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8504,12 +8548,13 @@
     <col min="6" max="6" width="10.125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="41" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="41" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>747</v>
       </c>
@@ -8535,34 +8580,37 @@
         <v>752</v>
       </c>
       <c r="I1" s="7" t="s">
+        <v>1244</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>1221</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>898</v>
+        <v>529</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>899</v>
+        <v>908</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>900</v>
+        <v>534</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>901</v>
+        <v>531</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>902</v>
+        <v>152</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>903</v>
+        <v>533</v>
       </c>
       <c r="G2" s="3">
         <v>1</v>
@@ -8570,28 +8618,31 @@
       <c r="H2" s="7">
         <v>0</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>894</v>
+      <c r="I2" s="7">
+        <v>0</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>911</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>905</v>
+        <v>909</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>532</v>
+        <v>152</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>533</v>
@@ -8600,321 +8651,324 @@
         <v>1</v>
       </c>
       <c r="H3" s="7">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>894</v>
+        <v>0</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+        <v>911</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>833</v>
+        <v>1169</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>1202</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>591</v>
+        <v>1181</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>592</v>
+        <v>1052</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>593</v>
+        <v>1079</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>594</v>
+        <v>1054</v>
       </c>
       <c r="G4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L4" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1022</v>
+        <v>1170</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>1203</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1024</v>
+        <v>1182</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1025</v>
+        <v>1052</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>1026</v>
+        <v>1065</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>1027</v>
+        <v>1054</v>
       </c>
       <c r="G5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L5" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>908</v>
+        <v>1171</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>1204</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>534</v>
+        <v>1183</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>531</v>
+        <v>1052</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>152</v>
+        <v>1065</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>533</v>
+        <v>1054</v>
       </c>
       <c r="G6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>911</v>
-      </c>
       <c r="K6" s="1" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>727</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>909</v>
+        <v>1172</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>1205</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>535</v>
+        <v>1184</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>536</v>
+        <v>1052</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>152</v>
+        <v>1058</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>533</v>
+        <v>1054</v>
       </c>
       <c r="G7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>911</v>
-      </c>
       <c r="K7" s="1" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+        <v>727</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>910</v>
+        <v>1173</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>1206</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>739</v>
+        <v>1185</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>592</v>
+        <v>1052</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>596</v>
+        <v>1194</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>594</v>
+        <v>1054</v>
       </c>
       <c r="G8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L8" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>916</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>914</v>
+        <v>1174</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>1207</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>371</v>
+        <v>1186</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>522</v>
+        <v>1052</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>374</v>
+        <v>1083</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>527</v>
+        <v>1054</v>
       </c>
       <c r="G9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>915</v>
-      </c>
       <c r="K9" s="1" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+        <v>727</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>967</v>
+        <v>1175</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>1208</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>598</v>
+        <v>1187</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>592</v>
+        <v>1052</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>599</v>
+        <v>1119</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>594</v>
+        <v>1054</v>
       </c>
       <c r="G10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L10" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>917</v>
+        <v>1176</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>1209</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>376</v>
+        <v>1188</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>522</v>
+        <v>1052</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>374</v>
+        <v>1053</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>527</v>
+        <v>1054</v>
       </c>
       <c r="G11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>915</v>
-      </c>
       <c r="K11" s="1" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+        <v>727</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>919</v>
+        <v>1177</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>1210</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>601</v>
+        <v>1189</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>592</v>
+        <v>1052</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>599</v>
+        <v>1065</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>594</v>
+        <v>1054</v>
       </c>
       <c r="G12" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L12" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>918</v>
+        <v>1178</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>1211</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>506</v>
+        <v>1190</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>522</v>
+        <v>1052</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>158</v>
+        <v>1058</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>766</v>
+        <v>1054</v>
       </c>
       <c r="G13" s="3">
         <v>0</v>
@@ -8922,223 +8976,223 @@
       <c r="H13" s="7">
         <v>0</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>767</v>
-      </c>
       <c r="K13" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="L13" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>920</v>
+        <v>1179</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>1212</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>507</v>
+        <v>1191</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>523</v>
+        <v>1052</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>158</v>
+        <v>1058</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>527</v>
+        <v>1054</v>
       </c>
       <c r="G14" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>921</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+        <v>727</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>923</v>
+        <v>1179</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>1213</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>603</v>
+        <v>1192</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>592</v>
+        <v>1052</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>604</v>
+        <v>1083</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>594</v>
+        <v>1054</v>
       </c>
       <c r="G15" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>922</v>
-      </c>
       <c r="K15" s="1" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>727</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>955</v>
+        <v>1180</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>1214</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>508</v>
+        <v>1193</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>522</v>
+        <v>1052</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>374</v>
+        <v>1194</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>527</v>
+        <v>1054</v>
       </c>
       <c r="G16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>962</v>
-      </c>
       <c r="K16" s="1" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+        <v>727</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>605</v>
+        <v>648</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>949</v>
+        <v>1043</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>606</v>
+        <v>649</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>592</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>599</v>
+        <v>650</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>594</v>
       </c>
       <c r="G17" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="K17" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L17" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>378</v>
+        <v>498</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>956</v>
+        <v>1042</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>379</v>
+        <v>514</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>522</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>249</v>
+        <v>524</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>527</v>
       </c>
       <c r="G18" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>744</v>
-      </c>
       <c r="K18" s="1" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>1044</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>934</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>957</v>
+        <v>1195</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>1215</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>935</v>
+        <v>1198</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>936</v>
+        <v>1052</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>937</v>
+        <v>1201</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>938</v>
+        <v>1054</v>
       </c>
       <c r="G19" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" s="7">
-        <v>1</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>870</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="L19" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>607</v>
+        <v>499</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>950</v>
+        <v>924</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>608</v>
+        <v>515</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>592</v>
+        <v>522</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>609</v>
+        <v>249</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>594</v>
+        <v>527</v>
       </c>
       <c r="G20" s="3">
         <v>1</v>
@@ -9146,28 +9200,28 @@
       <c r="H20" s="7">
         <v>0</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>727</v>
-      </c>
       <c r="K20" s="1" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>744</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>958</v>
+        <v>925</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>374</v>
+        <v>249</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>527</v>
@@ -9178,95 +9232,95 @@
       <c r="H21" s="7">
         <v>0</v>
       </c>
-      <c r="J21" s="1" t="s">
-        <v>915</v>
-      </c>
       <c r="K21" s="1" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+        <v>927</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>951</v>
+        <v>1196</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>1216</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>611</v>
+        <v>1199</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>592</v>
+        <v>1052</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>599</v>
+        <v>1079</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>594</v>
+        <v>1054</v>
       </c>
       <c r="G22" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="K22" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="K22" s="1" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L22" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>959</v>
+        <v>1197</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>1217</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>510</v>
+        <v>1200</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="F23" s="1" t="s">
+      <c r="E24" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>527</v>
-      </c>
-      <c r="G23" s="3">
-        <v>1</v>
-      </c>
-      <c r="H23" s="7">
-        <v>0</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>915</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>952</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>594</v>
       </c>
       <c r="G24" s="3">
         <v>1</v>
@@ -9274,28 +9328,28 @@
       <c r="H24" s="7">
         <v>0</v>
       </c>
-      <c r="J24" s="1" t="s">
-        <v>727</v>
-      </c>
       <c r="K24" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>933</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>383</v>
+        <v>928</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>960</v>
+        <v>978</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>384</v>
+        <v>977</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>522</v>
+        <v>929</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>374</v>
+        <v>930</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>527</v>
@@ -9306,124 +9360,124 @@
       <c r="H25" s="7">
         <v>0</v>
       </c>
-      <c r="J25" s="1" t="s">
-        <v>915</v>
-      </c>
       <c r="K25" s="1" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+        <v>933</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>614</v>
+        <v>1055</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>953</v>
+        <v>1056</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>615</v>
+        <v>1057</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>592</v>
+        <v>1052</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>599</v>
+        <v>1058</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>594</v>
+        <v>1054</v>
       </c>
       <c r="G26" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="K26" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="K26" s="1" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L26" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>1028</v>
+        <v>500</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1029</v>
+        <v>939</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>1030</v>
+        <v>517</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>1031</v>
+        <v>522</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>1032</v>
+        <v>158</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>1033</v>
+        <v>766</v>
       </c>
       <c r="G27" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
       </c>
-      <c r="J27" s="1" t="s">
-        <v>915</v>
-      </c>
       <c r="K27" s="1" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+        <v>767</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>1028</v>
+        <v>1055</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1035</v>
+        <v>1059</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1036</v>
+        <v>1060</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>1037</v>
+        <v>1052</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>1032</v>
+        <v>1061</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>1033</v>
+        <v>1054</v>
       </c>
       <c r="G28" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="K28" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="K28" s="1" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L28" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>961</v>
+        <v>941</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>522</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>249</v>
+        <v>158</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>527</v>
@@ -9434,60 +9488,60 @@
       <c r="H29" s="7">
         <v>0</v>
       </c>
-      <c r="J29" s="1" t="s">
-        <v>744</v>
-      </c>
       <c r="K29" s="1" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+        <v>979</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>616</v>
+        <v>1049</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>954</v>
+        <v>1050</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>617</v>
+        <v>1051</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>592</v>
+        <v>1052</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>609</v>
+        <v>1053</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>594</v>
+        <v>1054</v>
       </c>
       <c r="G30" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="K30" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="K30" s="1" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L30" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>787</v>
+        <v>943</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>180</v>
+        <v>119</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>522</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>527</v>
@@ -9498,92 +9552,98 @@
       <c r="H31" s="7">
         <v>0</v>
       </c>
-      <c r="J31" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="K31" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J31" s="7" t="s">
+        <v>1231</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>762</v>
+        <v>98</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>788</v>
+        <v>944</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>763</v>
+        <v>519</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>764</v>
+        <v>522</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>765</v>
+        <v>525</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>766</v>
+        <v>527</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
       </c>
-      <c r="J32" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="K32" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J32" s="7" t="s">
+        <v>1230</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>618</v>
+        <v>1062</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>834</v>
+        <v>1063</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>619</v>
+        <v>1064</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>592</v>
+        <v>1052</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>620</v>
+        <v>1065</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>594</v>
+        <v>1054</v>
       </c>
       <c r="G33" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
       </c>
-      <c r="J33" s="1" t="s">
+      <c r="K33" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="K33" s="1" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L33" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>127</v>
+        <v>505</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>789</v>
+        <v>946</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>184</v>
+        <v>520</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>522</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>319</v>
+        <v>249</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>527</v>
@@ -9594,28 +9654,31 @@
       <c r="H34" s="7">
         <v>0</v>
       </c>
-      <c r="J34" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="K34" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J34" s="7" t="s">
+        <v>1232</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>740</v>
+        <v>505</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>790</v>
+        <v>947</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>741</v>
+        <v>521</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>742</v>
+        <v>522</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>743</v>
+        <v>157</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>527</v>
@@ -9624,65 +9687,68 @@
         <v>1</v>
       </c>
       <c r="H35" s="7">
-        <v>1</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="K35" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>1233</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>621</v>
+        <v>1066</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>835</v>
+        <v>1067</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>622</v>
+        <v>1068</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>592</v>
+        <v>1052</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>623</v>
+        <v>1058</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>594</v>
+        <v>1054</v>
       </c>
       <c r="G36" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
       </c>
-      <c r="J36" s="1" t="s">
+      <c r="K36" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="K36" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L36" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>128</v>
+        <v>1069</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>791</v>
+        <v>1070</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>201</v>
+        <v>1071</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>522</v>
+        <v>1052</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>158</v>
+        <v>1058</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>527</v>
+        <v>1054</v>
       </c>
       <c r="G37" s="3">
         <v>0</v>
@@ -9690,31 +9756,31 @@
       <c r="H37" s="7">
         <v>0</v>
       </c>
-      <c r="J37" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="K37" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K37" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="L37" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>774</v>
+        <v>1072</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>792</v>
+        <v>1073</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>793</v>
+        <v>1074</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>775</v>
+        <v>1052</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>776</v>
+        <v>1075</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>777</v>
+        <v>1054</v>
       </c>
       <c r="G38" s="3">
         <v>0</v>
@@ -9722,31 +9788,31 @@
       <c r="H38" s="7">
         <v>0</v>
       </c>
-      <c r="J38" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="K38" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K38" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="L38" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>624</v>
+        <v>1076</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>836</v>
+        <v>1077</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>625</v>
+        <v>1078</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>592</v>
+        <v>1052</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>604</v>
+        <v>1079</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>594</v>
+        <v>1054</v>
       </c>
       <c r="G39" s="3">
         <v>0</v>
@@ -9754,31 +9820,31 @@
       <c r="H39" s="7">
         <v>0</v>
       </c>
-      <c r="J39" s="1" t="s">
+      <c r="K39" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="K39" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L39" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>129</v>
+        <v>898</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>794</v>
+        <v>899</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>210</v>
+        <v>900</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>522</v>
+        <v>901</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>157</v>
+        <v>902</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>527</v>
+        <v>903</v>
       </c>
       <c r="G40" s="3">
         <v>1</v>
@@ -9786,95 +9852,101 @@
       <c r="H40" s="7">
         <v>0</v>
       </c>
-      <c r="J40" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="K40" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I40" s="7">
+        <v>0</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>626</v>
+        <v>528</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>837</v>
+        <v>905</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>627</v>
+        <v>530</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>592</v>
+        <v>531</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>620</v>
+        <v>532</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>594</v>
+        <v>533</v>
       </c>
       <c r="G41" s="3">
         <v>1</v>
       </c>
       <c r="H41" s="7">
-        <v>0</v>
-      </c>
-      <c r="J41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I41" s="7">
+        <v>0</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="7">
+        <v>0</v>
+      </c>
+      <c r="K42" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="K41" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>795</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="G42" s="3">
-        <v>1</v>
-      </c>
-      <c r="H42" s="7">
-        <v>0</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="K42" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L42" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>778</v>
+        <v>1084</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>796</v>
+        <v>1085</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>779</v>
+        <v>1086</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>775</v>
+        <v>1052</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>776</v>
+        <v>1075</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>766</v>
+        <v>1054</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
@@ -9882,563 +9954,551 @@
       <c r="H43" s="7">
         <v>0</v>
       </c>
-      <c r="J43" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="K43" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K43" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="L43" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>628</v>
+        <v>1087</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>838</v>
+        <v>1089</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>629</v>
+        <v>1088</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>592</v>
+        <v>1052</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>630</v>
+        <v>1058</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>594</v>
+        <v>1054</v>
       </c>
       <c r="G44" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
       </c>
-      <c r="J44" s="1" t="s">
+      <c r="K44" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="K44" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L44" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>1014</v>
+        <v>1090</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>1019</v>
+        <v>1091</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>1020</v>
+        <v>1092</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>1015</v>
+        <v>1052</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>1016</v>
+        <v>1058</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>1017</v>
+        <v>1054</v>
       </c>
       <c r="G45" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" s="7">
-        <v>1</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>1018</v>
+        <v>0</v>
       </c>
       <c r="K45" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="L45" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>494</v>
+        <v>1093</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>797</v>
+        <v>1094</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>232</v>
+        <v>1095</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>522</v>
+        <v>1052</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>158</v>
+        <v>1079</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>527</v>
+        <v>1054</v>
       </c>
       <c r="G46" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
       </c>
-      <c r="J46" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="K46" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K46" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>631</v>
+        <v>1096</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>839</v>
+        <v>1098</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>632</v>
+        <v>1097</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>592</v>
+        <v>1052</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>620</v>
+        <v>1083</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>594</v>
+        <v>1054</v>
       </c>
       <c r="G47" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47" s="7">
         <v>0</v>
       </c>
-      <c r="J47" s="1" t="s">
+      <c r="K47" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="K47" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>798</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>522</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>527</v>
-      </c>
-      <c r="G48" s="5">
-        <v>1</v>
-      </c>
-      <c r="H48" s="8">
-        <v>0</v>
-      </c>
-      <c r="I48" s="8" t="s">
-        <v>1222</v>
-      </c>
-      <c r="J48" s="4" t="s">
-        <v>744</v>
-      </c>
-      <c r="K48" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L47" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="7">
+        <v>0</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>414</v>
+        <v>1103</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>800</v>
+        <v>1104</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>243</v>
+        <v>1105</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>522</v>
+        <v>1052</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>157</v>
+        <v>1106</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>527</v>
+        <v>1054</v>
       </c>
       <c r="G49" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
       </c>
-      <c r="I49" s="7" t="s">
-        <v>1223</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="K49" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>801</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>523</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>527</v>
-      </c>
-      <c r="G50" s="5">
-        <v>1</v>
-      </c>
-      <c r="H50" s="8">
-        <v>1</v>
-      </c>
-      <c r="I50" s="8" t="s">
-        <v>1222</v>
-      </c>
-      <c r="J50" s="4" t="s">
-        <v>744</v>
-      </c>
-      <c r="K50" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G50" s="3">
+        <v>0</v>
+      </c>
+      <c r="H50" s="7">
+        <v>0</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>633</v>
+        <v>1110</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>840</v>
+        <v>1108</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>634</v>
+        <v>1111</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>592</v>
+        <v>1052</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>593</v>
+        <v>1058</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>594</v>
+        <v>1054</v>
       </c>
       <c r="G51" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" s="7">
         <v>0</v>
       </c>
-      <c r="J51" s="1" t="s">
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="K51" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L51" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>495</v>
+        <v>1110</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>802</v>
+        <v>1143</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>263</v>
+        <v>1144</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>522</v>
+        <v>1052</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>157</v>
+        <v>1145</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>527</v>
+        <v>1054</v>
       </c>
       <c r="G52" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" s="7">
         <v>0</v>
       </c>
-      <c r="I52" s="7" t="s">
-        <v>1227</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="K52" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K52" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>495</v>
+        <v>1112</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>803</v>
+        <v>1113</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>261</v>
+        <v>1114</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>522</v>
+        <v>1052</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>158</v>
+        <v>1115</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>527</v>
+        <v>1054</v>
       </c>
       <c r="G53" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" s="7">
         <v>0</v>
       </c>
-      <c r="I53" s="7" t="s">
-        <v>1226</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="K53" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K53" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>780</v>
+        <v>1116</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>848</v>
+        <v>1117</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>804</v>
+        <v>1118</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>775</v>
+        <v>1052</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>776</v>
+        <v>1119</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>777</v>
+        <v>1054</v>
       </c>
       <c r="G54" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" s="7">
-        <v>1</v>
-      </c>
-      <c r="I54" s="7" t="s">
-        <v>1226</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="K54" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>635</v>
+        <v>1120</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>841</v>
+        <v>1121</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>636</v>
+        <v>1122</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>592</v>
+        <v>1052</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>620</v>
+        <v>1079</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>594</v>
+        <v>1054</v>
       </c>
       <c r="G55" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55" s="7">
         <v>0</v>
       </c>
-      <c r="J55" s="1" t="s">
+      <c r="K55" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="K55" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="4" t="s">
-        <v>496</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>805</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>522</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>527</v>
-      </c>
-      <c r="G56" s="5">
-        <v>1</v>
-      </c>
-      <c r="H56" s="8">
-        <v>0</v>
-      </c>
-      <c r="I56" s="8"/>
-      <c r="J56" s="4" t="s">
-        <v>1039</v>
+      <c r="L55" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G56" s="3">
+        <v>0</v>
+      </c>
+      <c r="H56" s="7">
+        <v>0</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="4" t="s">
-        <v>768</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>806</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>769</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>764</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>770</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>758</v>
-      </c>
-      <c r="G57" s="5">
-        <v>1</v>
-      </c>
-      <c r="H57" s="8">
-        <v>1</v>
-      </c>
-      <c r="I57" s="8"/>
-      <c r="J57" s="4" t="s">
-        <v>1039</v>
-      </c>
-      <c r="K57" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+        <v>727</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="7">
+        <v>0</v>
+      </c>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>637</v>
+        <v>1129</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>842</v>
+        <v>1130</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>638</v>
+        <v>1131</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>592</v>
+        <v>1052</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>604</v>
+        <v>1132</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>594</v>
+        <v>1054</v>
       </c>
       <c r="G58" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" s="7">
         <v>0</v>
       </c>
-      <c r="J58" s="1" t="s">
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="K58" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L58" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>467</v>
+        <v>1133</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>807</v>
+        <v>1134</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>291</v>
+        <v>1135</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>522</v>
+        <v>1052</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>158</v>
+        <v>1083</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>527</v>
+        <v>1054</v>
       </c>
       <c r="G59" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" s="7">
         <v>0</v>
       </c>
-      <c r="J59" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="K59" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K59" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>771</v>
+        <v>1136</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>808</v>
+        <v>1137</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>772</v>
+        <v>1138</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>764</v>
+        <v>1052</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>765</v>
+        <v>1139</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>766</v>
+        <v>1054</v>
       </c>
       <c r="G60" s="3">
         <v>0</v>
@@ -10446,63 +10506,63 @@
       <c r="H60" s="7">
         <v>0</v>
       </c>
-      <c r="J60" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="K60" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K60" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>639</v>
+        <v>1140</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>843</v>
+        <v>1141</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>640</v>
+        <v>1142</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>592</v>
+        <v>1052</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>620</v>
+        <v>1079</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>594</v>
+        <v>1054</v>
       </c>
       <c r="G61" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61" s="7">
         <v>0</v>
       </c>
-      <c r="J61" s="1" t="s">
+      <c r="K61" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="K61" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L61" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>872</v>
+        <v>665</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>873</v>
+        <v>1146</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>874</v>
+        <v>682</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>875</v>
+        <v>683</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>876</v>
+        <v>680</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>880</v>
+        <v>678</v>
       </c>
       <c r="G62" s="3">
         <v>0</v>
@@ -10510,265 +10570,257 @@
       <c r="H62" s="7">
         <v>0</v>
       </c>
-      <c r="J62" s="1" t="s">
-        <v>870</v>
-      </c>
       <c r="K62" s="1" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>727</v>
+      </c>
+      <c r="L62" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>872</v>
+        <v>666</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>886</v>
+        <v>1147</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>878</v>
+        <v>687</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>875</v>
+        <v>683</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>879</v>
+        <v>689</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>885</v>
+        <v>678</v>
       </c>
       <c r="G63" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" s="7">
         <v>0</v>
       </c>
-      <c r="J63" s="1" t="s">
-        <v>887</v>
-      </c>
       <c r="K63" s="1" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="4" t="s">
-        <v>884</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>881</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>882</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>883</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>876</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>877</v>
-      </c>
-      <c r="G64" s="5">
-        <v>0</v>
-      </c>
-      <c r="H64" s="8">
-        <v>0</v>
-      </c>
-      <c r="I64" s="8"/>
-      <c r="J64" s="4" t="s">
-        <v>894</v>
-      </c>
-      <c r="K64" s="4" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+        <v>727</v>
+      </c>
+      <c r="L63" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="G64" s="3">
+        <v>0</v>
+      </c>
+      <c r="H64" s="7">
+        <v>0</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="L64" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>884</v>
+        <v>668</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>889</v>
+        <v>1168</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>890</v>
+        <v>698</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>891</v>
+        <v>683</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>892</v>
+        <v>700</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>885</v>
+        <v>678</v>
       </c>
       <c r="G65" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" s="7">
         <v>0</v>
       </c>
-      <c r="J65" s="1" t="s">
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="K65" s="1" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L65" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>497</v>
+        <v>1149</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>809</v>
+        <v>1150</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>513</v>
+        <v>1151</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>522</v>
+        <v>1052</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>319</v>
+        <v>1119</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>526</v>
+        <v>1054</v>
       </c>
       <c r="G66" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66" s="7">
         <v>0</v>
       </c>
-      <c r="I66" s="7" t="s">
-        <v>1228</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="K66" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K66" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="L66" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>497</v>
+        <v>669</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>810</v>
+        <v>1152</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>300</v>
+        <v>702</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>522</v>
+        <v>683</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>156</v>
+        <v>703</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>526</v>
+        <v>678</v>
       </c>
       <c r="G67" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67" s="7">
         <v>0</v>
       </c>
-      <c r="I67" s="7" t="s">
-        <v>1229</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="K67" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K67" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="L67" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>497</v>
+        <v>670</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>811</v>
+        <v>1153</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>299</v>
+        <v>705</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>523</v>
+        <v>683</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>319</v>
+        <v>706</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>527</v>
+        <v>678</v>
       </c>
       <c r="G68" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68" s="7">
-        <v>1</v>
-      </c>
-      <c r="I68" s="7" t="s">
-        <v>1228</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="K68" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="L68" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>641</v>
+        <v>671</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>844</v>
+        <v>1154</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>642</v>
+        <v>708</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>592</v>
+        <v>683</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>623</v>
+        <v>706</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>594</v>
+        <v>678</v>
       </c>
       <c r="G69" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69" s="7">
         <v>0</v>
       </c>
-      <c r="J69" s="1" t="s">
+      <c r="K69" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="K69" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L69" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>141</v>
+        <v>672</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>812</v>
+        <v>1155</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>304</v>
+        <v>732</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>522</v>
+        <v>683</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>157</v>
+        <v>680</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>527</v>
+        <v>678</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -10776,31 +10828,31 @@
       <c r="H70" s="7">
         <v>0</v>
       </c>
-      <c r="J70" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="K70" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="L70" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>643</v>
+        <v>673</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>845</v>
+        <v>1158</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>644</v>
+        <v>714</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>592</v>
+        <v>683</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>620</v>
+        <v>715</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>594</v>
+        <v>678</v>
       </c>
       <c r="G71" s="3">
         <v>0</v>
@@ -10808,258 +10860,270 @@
       <c r="H71" s="7">
         <v>0</v>
       </c>
-      <c r="J71" s="1" t="s">
+      <c r="K71" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="K71" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L71" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>143</v>
+        <v>916</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>813</v>
+        <v>914</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>312</v>
+        <v>371</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>522</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>290</v>
+        <v>374</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>527</v>
       </c>
       <c r="G72" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72" s="7">
         <v>0</v>
       </c>
-      <c r="J72" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="K72" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I72" s="7">
+        <v>0</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>782</v>
+        <v>1159</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>814</v>
+        <v>1160</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>783</v>
+        <v>1161</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>775</v>
+        <v>1052</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>784</v>
+        <v>1058</v>
       </c>
       <c r="F73" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G73" s="3">
+        <v>0</v>
+      </c>
+      <c r="H73" s="7">
+        <v>0</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="L73" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="F74" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="G73" s="3">
-        <v>0</v>
-      </c>
-      <c r="H73" s="7">
-        <v>0</v>
-      </c>
-      <c r="J73" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="K73" s="1" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>846</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>594</v>
-      </c>
       <c r="G74" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74" s="7">
         <v>0</v>
       </c>
-      <c r="J74" s="1" t="s">
+      <c r="I74" s="7">
+        <v>0</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="G75" s="3">
+        <v>0</v>
+      </c>
+      <c r="H75" s="7">
+        <v>0</v>
+      </c>
+      <c r="K75" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="K74" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="4" t="s">
-        <v>861</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>866</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>862</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>863</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>864</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>865</v>
-      </c>
-      <c r="G75" s="5">
+      <c r="L75" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="G76" s="3">
+        <v>0</v>
+      </c>
+      <c r="H76" s="7">
+        <v>0</v>
+      </c>
+      <c r="I76" s="7">
+        <v>0</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="G77" s="3">
         <v>1</v>
       </c>
-      <c r="H75" s="8">
-        <v>0</v>
-      </c>
-      <c r="I75" s="8"/>
-      <c r="J75" s="4" t="s">
-        <v>867</v>
-      </c>
-      <c r="K75" s="6" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="4" t="s">
-        <v>1005</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>1007</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>1008</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>1009</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>1010</v>
-      </c>
-      <c r="G76" s="5">
+      <c r="H77" s="7">
         <v>1</v>
       </c>
-      <c r="H76" s="8">
-        <v>0</v>
-      </c>
-      <c r="I76" s="8"/>
-      <c r="J76" s="4" t="s">
+      <c r="I77" s="7">
+        <v>0</v>
+      </c>
+      <c r="J77" s="7"/>
+      <c r="K77" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="G78" s="3">
+        <v>0</v>
+      </c>
+      <c r="H78" s="7">
+        <v>0</v>
+      </c>
+      <c r="I78" s="7"/>
+      <c r="J78" s="7"/>
+      <c r="K78" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="K76" t="s">
+      <c r="L78" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="77" spans="1:11" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="4" t="s">
-        <v>861</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>897</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>868</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>865</v>
-      </c>
-      <c r="G77" s="5">
-        <v>1</v>
-      </c>
-      <c r="H77" s="8">
-        <v>1</v>
-      </c>
-      <c r="I77" s="8"/>
-      <c r="J77" s="4" t="s">
-        <v>870</v>
-      </c>
-      <c r="K77" s="4" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>815</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>758</v>
-      </c>
-      <c r="G78" s="3">
-        <v>1</v>
-      </c>
-      <c r="H78" s="7">
-        <v>0</v>
-      </c>
-      <c r="J78" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="K78" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>754</v>
+        <v>490</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>847</v>
+        <v>955</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>759</v>
+        <v>508</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>760</v>
+        <v>522</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>761</v>
+        <v>374</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>758</v>
+        <v>527</v>
       </c>
       <c r="G79" s="3">
         <v>1</v>
@@ -11067,159 +11131,169 @@
       <c r="H79" s="7">
         <v>0</v>
       </c>
-      <c r="J79" s="1" t="s">
+      <c r="I79" s="7">
+        <v>0</v>
+      </c>
+      <c r="J79" s="7"/>
+      <c r="K79" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="G80" s="3">
+        <v>0</v>
+      </c>
+      <c r="H80" s="7">
+        <v>0</v>
+      </c>
+      <c r="K80" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="K79" t="s">
+      <c r="L80" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>1042</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="D80" s="1" t="s">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D81" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="E80" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="F80" s="1" t="s">
+      <c r="E81" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F81" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="G80" s="3">
-        <v>0</v>
-      </c>
-      <c r="H80" s="7">
-        <v>0</v>
-      </c>
-      <c r="J80" s="1" t="s">
-        <v>1044</v>
-      </c>
-      <c r="K80" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>1043</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>594</v>
-      </c>
       <c r="G81" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81" s="7">
         <v>0</v>
       </c>
-      <c r="J81" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="K81" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I81" s="7">
+        <v>0</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>499</v>
+        <v>934</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>924</v>
+        <v>957</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>515</v>
+        <v>935</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>522</v>
+        <v>936</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>249</v>
+        <v>937</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>527</v>
+        <v>938</v>
       </c>
       <c r="G82" s="3">
         <v>1</v>
       </c>
       <c r="H82" s="7">
-        <v>0</v>
-      </c>
-      <c r="J82" s="1" t="s">
-        <v>744</v>
+        <v>1</v>
+      </c>
+      <c r="I82" s="7">
+        <v>1</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>870</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>499</v>
+        <v>676</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>925</v>
+        <v>1167</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>516</v>
+        <v>724</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>523</v>
+        <v>683</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>249</v>
+        <v>706</v>
       </c>
       <c r="F83" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="7">
+        <v>0</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="L83" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="F84" s="1" t="s">
         <v>527</v>
-      </c>
-      <c r="G83" s="3">
-        <v>1</v>
-      </c>
-      <c r="H83" s="7">
-        <v>0</v>
-      </c>
-      <c r="J83" s="1" t="s">
-        <v>927</v>
-      </c>
-      <c r="K83" s="1" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A84" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>926</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>594</v>
       </c>
       <c r="G84" s="3">
         <v>1</v>
@@ -11227,66 +11301,63 @@
       <c r="H84" s="7">
         <v>0</v>
       </c>
-      <c r="I84" s="7" t="s">
-        <v>1224</v>
-      </c>
-      <c r="J84" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="K84" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I84" s="7">
+        <v>0</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>647</v>
+        <v>624</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>974</v>
+        <v>836</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>652</v>
+        <v>625</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>592</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>653</v>
+        <v>604</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>594</v>
       </c>
       <c r="G85" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85" s="7">
         <v>0</v>
       </c>
-      <c r="I85" s="7" t="s">
-        <v>1225</v>
-      </c>
-      <c r="J85" s="1" t="s">
+      <c r="K85" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="K85" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L85" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>67</v>
+        <v>492</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>931</v>
+        <v>959</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>114</v>
+        <v>510</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>522</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>324</v>
+        <v>374</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>527</v>
@@ -11297,63 +11368,66 @@
       <c r="H86" s="7">
         <v>0</v>
       </c>
-      <c r="J86" s="1" t="s">
-        <v>933</v>
+      <c r="I86" s="7">
+        <v>0</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>915</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>928</v>
+        <v>643</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>978</v>
+        <v>845</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>977</v>
+        <v>644</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>929</v>
+        <v>592</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>930</v>
+        <v>620</v>
       </c>
       <c r="F87" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="G87" s="3">
+        <v>0</v>
+      </c>
+      <c r="H87" s="7">
+        <v>0</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="L87" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="F88" s="1" t="s">
         <v>527</v>
-      </c>
-      <c r="G87" s="3">
-        <v>1</v>
-      </c>
-      <c r="H87" s="7">
-        <v>0</v>
-      </c>
-      <c r="J87" s="1" t="s">
-        <v>933</v>
-      </c>
-      <c r="K87" s="1" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>932</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>594</v>
       </c>
       <c r="G88" s="3">
         <v>1</v>
@@ -11361,63 +11435,66 @@
       <c r="H88" s="7">
         <v>0</v>
       </c>
-      <c r="J88" s="1" t="s">
+      <c r="I88" s="7">
+        <v>0</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="L88" s="1" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="7">
+        <v>0</v>
+      </c>
+      <c r="K89" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="K88" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>939</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="7">
-        <v>0</v>
-      </c>
-      <c r="J89" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="K89" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L89" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>656</v>
+        <v>1028</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>940</v>
+        <v>1029</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>657</v>
+        <v>1030</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>592</v>
+        <v>1031</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>620</v>
+        <v>1032</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>594</v>
+        <v>1033</v>
       </c>
       <c r="G90" s="3">
         <v>1</v>
@@ -11425,31 +11502,34 @@
       <c r="H90" s="7">
         <v>0</v>
       </c>
-      <c r="J90" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="K90" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I90" s="7">
+        <v>0</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>501</v>
+        <v>595</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>941</v>
+        <v>910</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>518</v>
+        <v>739</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>522</v>
+        <v>592</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>158</v>
+        <v>596</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>527</v>
+        <v>594</v>
       </c>
       <c r="G91" s="3">
         <v>1</v>
@@ -11457,31 +11537,31 @@
       <c r="H91" s="7">
         <v>0</v>
       </c>
-      <c r="J91" s="1" t="s">
-        <v>979</v>
-      </c>
       <c r="K91" s="1" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+        <v>727</v>
+      </c>
+      <c r="L91" s="1" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>658</v>
+        <v>493</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>942</v>
+        <v>961</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>659</v>
+        <v>511</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>592</v>
+        <v>522</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>604</v>
+        <v>249</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>594</v>
+        <v>527</v>
       </c>
       <c r="G92" s="3">
         <v>1</v>
@@ -11489,31 +11569,34 @@
       <c r="H92" s="7">
         <v>0</v>
       </c>
-      <c r="J92" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="K92" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I92" s="7">
+        <v>0</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>647</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>943</v>
+        <v>926</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>119</v>
+        <v>651</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>522</v>
+        <v>592</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>156</v>
+        <v>596</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>527</v>
+        <v>594</v>
       </c>
       <c r="G93" s="3">
         <v>1</v>
@@ -11521,66 +11604,57 @@
       <c r="H93" s="7">
         <v>0</v>
       </c>
-      <c r="I93" s="7" t="s">
-        <v>1231</v>
-      </c>
-      <c r="J93" s="1" t="s">
-        <v>963</v>
+      <c r="J93" s="7" t="s">
+        <v>1224</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>727</v>
+      </c>
+      <c r="L93" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>944</v>
+        <v>665</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>519</v>
+        <v>679</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>522</v>
+        <v>677</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>525</v>
+        <v>680</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>527</v>
+        <v>686</v>
       </c>
       <c r="G94" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H94" s="7">
         <v>0</v>
       </c>
-      <c r="I94" s="7" t="s">
-        <v>1230</v>
-      </c>
-      <c r="J94" s="1" t="s">
-        <v>964</v>
-      </c>
-      <c r="K94" s="1" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="1" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>660</v>
+        <v>647</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>945</v>
+        <v>974</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>592</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>604</v>
+        <v>653</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>594</v>
@@ -11591,98 +11665,83 @@
       <c r="H95" s="7">
         <v>0</v>
       </c>
-      <c r="J95" s="1" t="s">
+      <c r="J95" s="7" t="s">
+        <v>1225</v>
+      </c>
+      <c r="K95" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="K95" t="s">
+      <c r="L95" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>946</v>
+        <v>665</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>520</v>
+        <v>684</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>522</v>
+        <v>685</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>249</v>
+        <v>680</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>527</v>
+        <v>678</v>
       </c>
       <c r="G96" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H96" s="7">
         <v>0</v>
       </c>
-      <c r="I96" s="7" t="s">
-        <v>1232</v>
-      </c>
-      <c r="J96" s="1" t="s">
-        <v>744</v>
-      </c>
-      <c r="K96" s="1" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L96" s="1" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>947</v>
+        <v>666</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>521</v>
+        <v>681</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>522</v>
+        <v>677</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>157</v>
+        <v>688</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>527</v>
+        <v>678</v>
       </c>
       <c r="G97" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97" s="7">
         <v>0</v>
       </c>
-      <c r="I97" s="7" t="s">
-        <v>1233</v>
-      </c>
-      <c r="J97" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="K97" s="1" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L97" s="1" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>948</v>
+        <v>932</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>592</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>664</v>
+        <v>620</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>594</v>
@@ -11693,28 +11752,28 @@
       <c r="H98" s="7">
         <v>0</v>
       </c>
-      <c r="J98" s="1" t="s">
+      <c r="K98" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="K98" t="s">
+      <c r="L98" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>679</v>
+        <v>690</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>677</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>680</v>
+        <v>692</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="G99" s="3">
         <v>0</v>
@@ -11722,80 +11781,80 @@
       <c r="H99" s="7">
         <v>0</v>
       </c>
-      <c r="K99" s="1" t="s">
+      <c r="L99" s="1" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>1146</v>
+        <v>667</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>682</v>
+        <v>691</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>680</v>
+        <v>693</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>678</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="7">
+        <v>0</v>
+      </c>
+      <c r="L100" s="1" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="G101" s="3">
         <v>1</v>
       </c>
-      <c r="H100" s="7">
-        <v>0</v>
-      </c>
-      <c r="J100" s="1" t="s">
+      <c r="H101" s="7">
+        <v>0</v>
+      </c>
+      <c r="K101" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="K100" t="s">
+      <c r="L101" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="7">
-        <v>0</v>
-      </c>
-      <c r="K101" s="1" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>681</v>
+        <v>696</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>677</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>688</v>
+        <v>699</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>678</v>
@@ -11806,138 +11865,138 @@
       <c r="H102" s="7">
         <v>0</v>
       </c>
-      <c r="K102" s="1" t="s">
+      <c r="L102" s="1" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>1147</v>
+        <v>668</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>687</v>
+        <v>697</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>689</v>
+        <v>324</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>678</v>
       </c>
       <c r="G103" s="3">
+        <v>0</v>
+      </c>
+      <c r="H103" s="7">
+        <v>0</v>
+      </c>
+      <c r="L103" s="1" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="G104" s="3">
         <v>1</v>
       </c>
-      <c r="H103" s="7">
-        <v>0</v>
-      </c>
-      <c r="J103" s="1" t="s">
+      <c r="H104" s="7">
+        <v>0</v>
+      </c>
+      <c r="K104" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="K103" t="s">
+      <c r="L104" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="D104" s="1" t="s">
+    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="G105" s="3">
+        <v>1</v>
+      </c>
+      <c r="H105" s="7">
+        <v>0</v>
+      </c>
+      <c r="K105" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="L105" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="D106" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="E104" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="G104" s="3">
-        <v>0</v>
-      </c>
-      <c r="H104" s="7">
-        <v>0</v>
-      </c>
-      <c r="K104" s="1" t="s">
+      <c r="E106" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="G106" s="3">
+        <v>0</v>
+      </c>
+      <c r="H106" s="7">
+        <v>0</v>
+      </c>
+      <c r="L106" s="1" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="G105" s="3">
-        <v>0</v>
-      </c>
-      <c r="H105" s="7">
-        <v>0</v>
-      </c>
-      <c r="K105" s="1" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A106" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>1148</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="G106" s="3">
-        <v>1</v>
-      </c>
-      <c r="H106" s="7">
-        <v>0</v>
-      </c>
-      <c r="J106" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="K106" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>696</v>
+        <v>729</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>699</v>
+        <v>680</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>678</v>
@@ -11946,88 +12005,88 @@
         <v>0</v>
       </c>
       <c r="H107" s="7">
-        <v>0</v>
-      </c>
-      <c r="K107" s="1" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="L107" s="1" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>668</v>
+        <v>662</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>948</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>697</v>
+        <v>663</v>
       </c>
       <c r="D108" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="G108" s="3">
+        <v>1</v>
+      </c>
+      <c r="H108" s="7">
+        <v>0</v>
+      </c>
+      <c r="K108" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="L108" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="D109" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="E108" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="G108" s="3">
-        <v>0</v>
-      </c>
-      <c r="H108" s="7">
-        <v>0</v>
-      </c>
-      <c r="K108" s="1" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A109" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>1168</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>683</v>
-      </c>
       <c r="E109" s="1" t="s">
-        <v>700</v>
+        <v>680</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>678</v>
       </c>
       <c r="G109" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H109" s="7">
         <v>0</v>
       </c>
-      <c r="J109" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="K109" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L109" s="1" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>1149</v>
+        <v>590</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>1150</v>
+        <v>833</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>1151</v>
+        <v>591</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>1052</v>
+        <v>592</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>1119</v>
+        <v>593</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>1054</v>
+        <v>594</v>
       </c>
       <c r="G110" s="3">
         <v>1</v>
@@ -12035,19 +12094,19 @@
       <c r="H110" s="7">
         <v>0</v>
       </c>
-      <c r="J110" s="1" t="s">
+      <c r="K110" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="K110" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L110" s="1" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>677</v>
@@ -12056,7 +12115,7 @@
         <v>680</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="G111" s="3">
         <v>0</v>
@@ -12064,80 +12123,80 @@
       <c r="H111" s="7">
         <v>0</v>
       </c>
-      <c r="K111" s="1" t="s">
+      <c r="L111" s="1" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>669</v>
+        <v>1021</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>1022</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>729</v>
+        <v>1024</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>685</v>
+        <v>1025</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>680</v>
+        <v>1026</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>678</v>
+        <v>1027</v>
       </c>
       <c r="G112" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H112" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+        <v>727</v>
+      </c>
+      <c r="L112" s="1" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>1152</v>
+        <v>672</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>702</v>
+        <v>709</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>703</v>
+        <v>710</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>678</v>
       </c>
       <c r="G113" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H113" s="7">
         <v>0</v>
       </c>
-      <c r="J113" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="K113" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L113" s="1" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>704</v>
+        <v>711</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>680</v>
+        <v>710</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>678</v>
@@ -12148,28 +12207,28 @@
       <c r="H114" s="7">
         <v>0</v>
       </c>
-      <c r="K114" s="1" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L114" s="1" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>670</v>
+        <v>597</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>1153</v>
+        <v>967</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>705</v>
+        <v>598</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>683</v>
+        <v>592</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>706</v>
+        <v>599</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>678</v>
+        <v>594</v>
       </c>
       <c r="G115" s="3">
         <v>1</v>
@@ -12177,25 +12236,25 @@
       <c r="H115" s="7">
         <v>0</v>
       </c>
-      <c r="J115" s="1" t="s">
+      <c r="K115" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="K115" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L115" s="1" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>677</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>680</v>
+        <v>713</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>678</v>
@@ -12206,28 +12265,28 @@
       <c r="H116" s="7">
         <v>0</v>
       </c>
-      <c r="K116" s="1" t="s">
+      <c r="L116" s="1" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>671</v>
+        <v>600</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>1154</v>
+        <v>919</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>708</v>
+        <v>601</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>683</v>
+        <v>592</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>706</v>
+        <v>599</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>678</v>
+        <v>594</v>
       </c>
       <c r="G117" s="3">
         <v>1</v>
@@ -12235,51 +12294,57 @@
       <c r="H117" s="7">
         <v>0</v>
       </c>
-      <c r="J117" s="1" t="s">
+      <c r="K117" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="K117" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L117" s="1" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>672</v>
+        <v>602</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>923</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>709</v>
+        <v>603</v>
       </c>
       <c r="D118" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="G118" s="3">
+        <v>1</v>
+      </c>
+      <c r="H118" s="7">
+        <v>0</v>
+      </c>
+      <c r="K118" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="L118" s="1" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="D119" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="E118" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="G118" s="3">
-        <v>0</v>
-      </c>
-      <c r="H118" s="7">
-        <v>0</v>
-      </c>
-      <c r="K118" s="1" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>711</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>685</v>
-      </c>
       <c r="E119" s="1" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>678</v>
@@ -12290,86 +12355,86 @@
       <c r="H119" s="7">
         <v>0</v>
       </c>
-      <c r="K119" s="1" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L119" s="1" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>1155</v>
+        <v>674</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>732</v>
+        <v>717</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>680</v>
+        <v>700</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>678</v>
       </c>
       <c r="G120" s="3">
+        <v>0</v>
+      </c>
+      <c r="H120" s="7">
+        <v>0</v>
+      </c>
+      <c r="L120" s="1" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="G121" s="3">
         <v>1</v>
       </c>
-      <c r="H120" s="7">
-        <v>0</v>
-      </c>
-      <c r="J120" s="1" t="s">
+      <c r="H121" s="7">
+        <v>0</v>
+      </c>
+      <c r="K121" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="K120" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="G121" s="3">
-        <v>0</v>
-      </c>
-      <c r="H121" s="7">
-        <v>0</v>
-      </c>
-      <c r="K121" s="1" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L121" s="1" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>673</v>
+        <v>607</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>1158</v>
+        <v>950</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>714</v>
+        <v>608</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>683</v>
+        <v>592</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>715</v>
+        <v>609</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>678</v>
+        <v>594</v>
       </c>
       <c r="G122" s="3">
         <v>1</v>
@@ -12377,25 +12442,25 @@
       <c r="H122" s="7">
         <v>0</v>
       </c>
-      <c r="J122" s="1" t="s">
+      <c r="K122" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="K122" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L122" s="1" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>677</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>700</v>
+        <v>680</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>678</v>
@@ -12406,22 +12471,22 @@
       <c r="H123" s="7">
         <v>0</v>
       </c>
-      <c r="K123" s="1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L123" s="1" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>685</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>700</v>
+        <v>680</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>678</v>
@@ -12432,28 +12497,28 @@
       <c r="H124" s="7">
         <v>0</v>
       </c>
-      <c r="K124" s="1" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L124" s="1" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>1159</v>
+        <v>610</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>1160</v>
+        <v>951</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>1161</v>
+        <v>611</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>1052</v>
+        <v>592</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>1058</v>
+        <v>599</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>1054</v>
+        <v>594</v>
       </c>
       <c r="G125" s="3">
         <v>1</v>
@@ -12461,63 +12526,57 @@
       <c r="H125" s="7">
         <v>0</v>
       </c>
-      <c r="J125" s="1" t="s">
+      <c r="K125" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="K125" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L125" s="1" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>1162</v>
+        <v>676</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>700</v>
+        <v>725</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>678</v>
       </c>
       <c r="G126" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H126" s="7">
         <v>0</v>
       </c>
-      <c r="J126" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="K126" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L126" s="1" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>674</v>
+        <v>612</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>1163</v>
+        <v>952</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>719</v>
+        <v>613</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>683</v>
+        <v>592</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>720</v>
+        <v>599</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>678</v>
+        <v>594</v>
       </c>
       <c r="G127" s="3">
         <v>1</v>
@@ -12525,54 +12584,66 @@
       <c r="H127" s="7">
         <v>0</v>
       </c>
-      <c r="J127" s="1" t="s">
+      <c r="K127" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="K127" t="s">
+      <c r="L127" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>675</v>
+        <v>126</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>787</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>721</v>
+        <v>180</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>677</v>
+        <v>522</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>680</v>
+        <v>158</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>678</v>
+        <v>527</v>
       </c>
       <c r="G128" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H128" s="7">
         <v>0</v>
       </c>
+      <c r="I128" s="7">
+        <v>0</v>
+      </c>
       <c r="K128" s="1" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>767</v>
+      </c>
+      <c r="L128" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>675</v>
+        <v>762</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>788</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>722</v>
+        <v>763</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>685</v>
+        <v>764</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>680</v>
+        <v>765</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>678</v>
+        <v>766</v>
       </c>
       <c r="G129" s="3">
         <v>0</v>
@@ -12580,28 +12651,34 @@
       <c r="H129" s="7">
         <v>0</v>
       </c>
+      <c r="I129" s="7">
+        <v>0</v>
+      </c>
       <c r="K129" s="1" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+        <v>767</v>
+      </c>
+      <c r="L129" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>675</v>
+        <v>614</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>1166</v>
+        <v>953</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>738</v>
+        <v>615</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>683</v>
+        <v>592</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>706</v>
+        <v>599</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>678</v>
+        <v>594</v>
       </c>
       <c r="G130" s="3">
         <v>1</v>
@@ -12609,89 +12686,101 @@
       <c r="H130" s="7">
         <v>0</v>
       </c>
-      <c r="J130" s="1" t="s">
+      <c r="K130" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="K130" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L130" s="1" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>676</v>
+        <v>127</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>789</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>723</v>
+        <v>184</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>677</v>
+        <v>522</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>725</v>
+        <v>319</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>678</v>
+        <v>527</v>
       </c>
       <c r="G131" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H131" s="7">
         <v>0</v>
       </c>
+      <c r="I131" s="7">
+        <v>0</v>
+      </c>
       <c r="K131" s="1" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+        <v>746</v>
+      </c>
+      <c r="L131" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>676</v>
+        <v>740</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>1167</v>
+        <v>790</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>724</v>
+        <v>741</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>683</v>
+        <v>742</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>706</v>
+        <v>743</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>678</v>
+        <v>527</v>
       </c>
       <c r="G132" s="3">
         <v>1</v>
       </c>
       <c r="H132" s="7">
-        <v>0</v>
-      </c>
-      <c r="J132" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="K132" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="I132" s="7">
+        <v>0</v>
+      </c>
+      <c r="K132" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="L132" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>1049</v>
+        <v>1028</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>1050</v>
+        <v>1035</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>1051</v>
+        <v>1036</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>1052</v>
+        <v>1037</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>1053</v>
+        <v>1032</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>1054</v>
+        <v>1033</v>
       </c>
       <c r="G133" s="3">
         <v>1</v>
@@ -12699,95 +12788,101 @@
       <c r="H133" s="7">
         <v>0</v>
       </c>
-      <c r="J133" s="1" t="s">
+      <c r="K133" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="K133" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L133" s="1" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>1055</v>
+        <v>128</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>1056</v>
+        <v>791</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>1057</v>
+        <v>201</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>1052</v>
+        <v>522</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>1058</v>
+        <v>158</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>1054</v>
+        <v>527</v>
       </c>
       <c r="G134" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H134" s="7">
         <v>0</v>
       </c>
-      <c r="J134" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="K134" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I134" s="7">
+        <v>0</v>
+      </c>
+      <c r="K134" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="L134" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>1055</v>
+        <v>774</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>1059</v>
+        <v>792</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>1060</v>
+        <v>793</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>1052</v>
+        <v>775</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>1061</v>
+        <v>776</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>1054</v>
+        <v>777</v>
       </c>
       <c r="G135" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H135" s="7">
         <v>0</v>
       </c>
-      <c r="J135" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="K135" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I135" s="7">
+        <v>0</v>
+      </c>
+      <c r="K135" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="L135" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>1062</v>
+        <v>616</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>1063</v>
+        <v>954</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>1064</v>
+        <v>617</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>1052</v>
+        <v>592</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>1065</v>
+        <v>609</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>1054</v>
+        <v>594</v>
       </c>
       <c r="G136" s="3">
         <v>1</v>
@@ -12795,31 +12890,31 @@
       <c r="H136" s="7">
         <v>0</v>
       </c>
-      <c r="J136" s="1" t="s">
+      <c r="K136" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="K136" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L136" s="1" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>1066</v>
+        <v>129</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>1067</v>
+        <v>794</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>1068</v>
+        <v>210</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>1052</v>
+        <v>522</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>1058</v>
+        <v>157</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>1054</v>
+        <v>527</v>
       </c>
       <c r="G137" s="3">
         <v>1</v>
@@ -12827,31 +12922,34 @@
       <c r="H137" s="7">
         <v>0</v>
       </c>
-      <c r="J137" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="K137" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I137" s="7">
+        <v>0</v>
+      </c>
+      <c r="K137" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="L137" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>1069</v>
+        <v>618</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>1070</v>
+        <v>834</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>1071</v>
+        <v>619</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>1052</v>
+        <v>592</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>1058</v>
+        <v>620</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>1054</v>
+        <v>594</v>
       </c>
       <c r="G138" s="3">
         <v>1</v>
@@ -12859,31 +12957,31 @@
       <c r="H138" s="7">
         <v>0</v>
       </c>
-      <c r="J138" s="1" t="s">
+      <c r="K138" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="K138" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L138" s="1" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>1072</v>
+        <v>621</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>1073</v>
+        <v>835</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>1074</v>
+        <v>622</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>1052</v>
+        <v>592</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>1075</v>
+        <v>623</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>1054</v>
+        <v>594</v>
       </c>
       <c r="G139" s="3">
         <v>1</v>
@@ -12891,31 +12989,31 @@
       <c r="H139" s="7">
         <v>0</v>
       </c>
-      <c r="J139" s="1" t="s">
+      <c r="K139" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="K139" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L139" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>1076</v>
+        <v>131</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>1077</v>
+        <v>795</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>1078</v>
+        <v>225</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>1052</v>
+        <v>522</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>1079</v>
+        <v>158</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>1054</v>
+        <v>527</v>
       </c>
       <c r="G140" s="3">
         <v>1</v>
@@ -12923,63 +13021,69 @@
       <c r="H140" s="7">
         <v>0</v>
       </c>
-      <c r="J140" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="K140" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I140" s="7">
+        <v>0</v>
+      </c>
+      <c r="K140" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="L140" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>1080</v>
+        <v>778</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>1081</v>
+        <v>796</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>1082</v>
+        <v>779</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>1052</v>
+        <v>775</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>1083</v>
+        <v>776</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>1054</v>
+        <v>766</v>
       </c>
       <c r="G141" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H141" s="7">
         <v>0</v>
       </c>
-      <c r="J141" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="K141" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I141" s="7">
+        <v>0</v>
+      </c>
+      <c r="K141" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="L141" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>1084</v>
+        <v>626</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>1085</v>
+        <v>837</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>1086</v>
+        <v>627</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>1052</v>
+        <v>592</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>1075</v>
+        <v>620</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>1054</v>
+        <v>594</v>
       </c>
       <c r="G142" s="3">
         <v>1</v>
@@ -12987,63 +13091,66 @@
       <c r="H142" s="7">
         <v>0</v>
       </c>
-      <c r="J142" s="1" t="s">
+      <c r="K142" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="K142" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L142" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>1087</v>
+        <v>1014</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>1089</v>
+        <v>1019</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>1088</v>
+        <v>1020</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>1052</v>
+        <v>1015</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>1058</v>
+        <v>1016</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>1054</v>
+        <v>1017</v>
       </c>
       <c r="G143" s="3">
         <v>1</v>
       </c>
       <c r="H143" s="7">
-        <v>0</v>
-      </c>
-      <c r="J143" s="1" t="s">
-        <v>727</v>
+        <v>1</v>
+      </c>
+      <c r="I143" s="7">
+        <v>0</v>
       </c>
       <c r="K143" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="L143" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>1090</v>
+        <v>494</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>1091</v>
+        <v>797</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>1092</v>
+        <v>232</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>1052</v>
+        <v>522</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>1058</v>
+        <v>158</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>1054</v>
+        <v>527</v>
       </c>
       <c r="G144" s="3">
         <v>1</v>
@@ -13051,31 +13158,34 @@
       <c r="H144" s="7">
         <v>0</v>
       </c>
-      <c r="J144" s="1" t="s">
-        <v>727</v>
+      <c r="I144" s="7">
+        <v>0</v>
       </c>
       <c r="K144" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+        <v>767</v>
+      </c>
+      <c r="L144" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>1093</v>
+        <v>1241</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>1094</v>
+        <v>1242</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>1095</v>
+        <v>1243</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>1052</v>
+        <v>1237</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>1079</v>
+        <v>1238</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>1054</v>
+        <v>1239</v>
       </c>
       <c r="G145" s="3">
         <v>1</v>
@@ -13083,63 +13193,69 @@
       <c r="H145" s="7">
         <v>0</v>
       </c>
-      <c r="J145" s="1" t="s">
+      <c r="K145" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="K145" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A146" s="1" t="s">
-        <v>1096</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>1097</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>1052</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>1083</v>
-      </c>
-      <c r="F146" s="1" t="s">
-        <v>1054</v>
-      </c>
-      <c r="G146" s="3">
+      <c r="L145" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A146" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="F146" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="G146" s="5">
         <v>1</v>
       </c>
-      <c r="H146" s="7">
-        <v>0</v>
-      </c>
-      <c r="J146" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="K146" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H146" s="8">
+        <v>0</v>
+      </c>
+      <c r="I146" s="8">
+        <v>0</v>
+      </c>
+      <c r="J146" s="8" t="s">
+        <v>1222</v>
+      </c>
+      <c r="K146" s="4" t="s">
+        <v>744</v>
+      </c>
+      <c r="L146" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>1099</v>
+        <v>414</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>1101</v>
+        <v>243</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>1052</v>
+        <v>522</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>1102</v>
+        <v>157</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>1054</v>
+        <v>527</v>
       </c>
       <c r="G147" s="3">
         <v>1</v>
@@ -13147,63 +13263,75 @@
       <c r="H147" s="7">
         <v>0</v>
       </c>
-      <c r="J147" s="1" t="s">
-        <v>727</v>
+      <c r="I147" s="7">
+        <v>0</v>
+      </c>
+      <c r="J147" s="7" t="s">
+        <v>1223</v>
       </c>
       <c r="K147" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A148" s="1" t="s">
-        <v>1103</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>1104</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>1105</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>1052</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>1106</v>
-      </c>
-      <c r="F148" s="1" t="s">
-        <v>1054</v>
-      </c>
-      <c r="G148" s="3">
+        <v>745</v>
+      </c>
+      <c r="L147" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A148" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>801</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="F148" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="G148" s="5">
         <v>1</v>
       </c>
-      <c r="H148" s="7">
-        <v>0</v>
-      </c>
-      <c r="J148" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="K148" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H148" s="8">
+        <v>1</v>
+      </c>
+      <c r="I148" s="8">
+        <v>0</v>
+      </c>
+      <c r="J148" s="8" t="s">
+        <v>1222</v>
+      </c>
+      <c r="K148" s="4" t="s">
+        <v>744</v>
+      </c>
+      <c r="L148" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>1107</v>
+        <v>628</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>1108</v>
+        <v>838</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>1109</v>
+        <v>629</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>1052</v>
+        <v>592</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>1058</v>
+        <v>630</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>1054</v>
+        <v>594</v>
       </c>
       <c r="G149" s="3">
         <v>1</v>
@@ -13211,31 +13339,31 @@
       <c r="H149" s="7">
         <v>0</v>
       </c>
-      <c r="J149" s="1" t="s">
+      <c r="K149" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="K149" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L149" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>1110</v>
+        <v>495</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>1108</v>
+        <v>802</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>1111</v>
+        <v>263</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>1052</v>
+        <v>522</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>1058</v>
+        <v>157</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>1054</v>
+        <v>527</v>
       </c>
       <c r="G150" s="3">
         <v>1</v>
@@ -13243,31 +13371,37 @@
       <c r="H150" s="7">
         <v>0</v>
       </c>
-      <c r="J150" s="1" t="s">
-        <v>727</v>
+      <c r="I150" s="7">
+        <v>0</v>
+      </c>
+      <c r="J150" s="7" t="s">
+        <v>1227</v>
       </c>
       <c r="K150" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+        <v>745</v>
+      </c>
+      <c r="L150" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>1110</v>
+        <v>495</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>1143</v>
+        <v>803</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>1144</v>
+        <v>261</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>1052</v>
+        <v>522</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>1145</v>
+        <v>158</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>1054</v>
+        <v>527</v>
       </c>
       <c r="G151" s="3">
         <v>1</v>
@@ -13275,63 +13409,75 @@
       <c r="H151" s="7">
         <v>0</v>
       </c>
-      <c r="J151" s="1" t="s">
-        <v>727</v>
+      <c r="I151" s="7">
+        <v>0</v>
+      </c>
+      <c r="J151" s="7" t="s">
+        <v>1226</v>
       </c>
       <c r="K151" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+        <v>767</v>
+      </c>
+      <c r="L151" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>1112</v>
+        <v>780</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>1113</v>
+        <v>848</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>1114</v>
+        <v>804</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>1052</v>
+        <v>775</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>1115</v>
+        <v>776</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>1054</v>
+        <v>777</v>
       </c>
       <c r="G152" s="3">
         <v>1</v>
       </c>
       <c r="H152" s="7">
-        <v>0</v>
-      </c>
-      <c r="J152" s="1" t="s">
-        <v>727</v>
+        <v>1</v>
+      </c>
+      <c r="I152" s="7">
+        <v>0</v>
+      </c>
+      <c r="J152" s="7" t="s">
+        <v>1226</v>
       </c>
       <c r="K152" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+        <v>767</v>
+      </c>
+      <c r="L152" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>1116</v>
+        <v>631</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>1117</v>
+        <v>839</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>1118</v>
+        <v>632</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>1052</v>
+        <v>592</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>1119</v>
+        <v>620</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>1054</v>
+        <v>594</v>
       </c>
       <c r="G153" s="3">
         <v>1</v>
@@ -13339,95 +13485,103 @@
       <c r="H153" s="7">
         <v>0</v>
       </c>
-      <c r="J153" s="1" t="s">
+      <c r="K153" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="K153" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A154" s="1" t="s">
-        <v>1120</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>1121</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>1122</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>1052</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>1079</v>
-      </c>
-      <c r="F154" s="1" t="s">
-        <v>1054</v>
-      </c>
-      <c r="G154" s="3">
+      <c r="L153" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A154" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>805</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="E154" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="F154" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="G154" s="5">
         <v>1</v>
       </c>
-      <c r="H154" s="7">
-        <v>0</v>
-      </c>
-      <c r="J154" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="K154" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A155" s="1" t="s">
-        <v>1123</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>1124</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>1125</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>1052</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>1058</v>
-      </c>
-      <c r="F155" s="1" t="s">
-        <v>1054</v>
-      </c>
-      <c r="G155" s="3">
+      <c r="H154" s="8">
+        <v>0</v>
+      </c>
+      <c r="I154" s="8">
+        <v>0</v>
+      </c>
+      <c r="J154" s="8"/>
+      <c r="K154" s="4" t="s">
+        <v>1039</v>
+      </c>
+      <c r="L154" s="1" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A155" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>806</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="E155" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="F155" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="G155" s="5">
         <v>1</v>
       </c>
-      <c r="H155" s="7">
-        <v>0</v>
-      </c>
-      <c r="J155" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="K155" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H155" s="8">
+        <v>1</v>
+      </c>
+      <c r="I155" s="8">
+        <v>0</v>
+      </c>
+      <c r="J155" s="8"/>
+      <c r="K155" s="4" t="s">
+        <v>1039</v>
+      </c>
+      <c r="L155" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>1126</v>
+        <v>633</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>1127</v>
+        <v>840</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>1128</v>
+        <v>634</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>1052</v>
+        <v>592</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>1079</v>
+        <v>593</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>1054</v>
+        <v>594</v>
       </c>
       <c r="G156" s="3">
         <v>1</v>
@@ -13435,31 +13589,31 @@
       <c r="H156" s="7">
         <v>0</v>
       </c>
-      <c r="J156" s="1" t="s">
+      <c r="K156" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="K156" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L156" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>1129</v>
+        <v>467</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>1130</v>
+        <v>807</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>1131</v>
+        <v>291</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>1052</v>
+        <v>522</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>1132</v>
+        <v>158</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>1054</v>
+        <v>527</v>
       </c>
       <c r="G157" s="3">
         <v>1</v>
@@ -13467,63 +13621,69 @@
       <c r="H157" s="7">
         <v>0</v>
       </c>
-      <c r="J157" s="1" t="s">
-        <v>727</v>
+      <c r="I157" s="7">
+        <v>0</v>
       </c>
       <c r="K157" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+        <v>767</v>
+      </c>
+      <c r="L157" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>1133</v>
+        <v>771</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>1134</v>
+        <v>808</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>1135</v>
+        <v>772</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>1052</v>
+        <v>764</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>1083</v>
+        <v>765</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>1054</v>
+        <v>766</v>
       </c>
       <c r="G158" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H158" s="7">
         <v>0</v>
       </c>
-      <c r="J158" s="1" t="s">
-        <v>727</v>
+      <c r="I158" s="7">
+        <v>0</v>
       </c>
       <c r="K158" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+        <v>773</v>
+      </c>
+      <c r="L158" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>1136</v>
+        <v>635</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>1137</v>
+        <v>841</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>1138</v>
+        <v>636</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>1052</v>
+        <v>592</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>1139</v>
+        <v>620</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>1054</v>
+        <v>594</v>
       </c>
       <c r="G159" s="3">
         <v>1</v>
@@ -13531,63 +13691,66 @@
       <c r="H159" s="7">
         <v>0</v>
       </c>
-      <c r="J159" s="1" t="s">
+      <c r="K159" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="K159" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L159" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>1140</v>
+        <v>872</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>1141</v>
+        <v>873</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>1142</v>
+        <v>874</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>1052</v>
+        <v>875</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>1079</v>
+        <v>876</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>1054</v>
+        <v>880</v>
       </c>
       <c r="G160" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H160" s="7">
         <v>0</v>
       </c>
-      <c r="J160" s="1" t="s">
-        <v>727</v>
+      <c r="I160" s="7">
+        <v>0</v>
       </c>
       <c r="K160" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+        <v>870</v>
+      </c>
+      <c r="L160" s="1" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>1169</v>
-      </c>
-      <c r="B161" s="9" t="s">
-        <v>1202</v>
+        <v>872</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>886</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>1181</v>
+        <v>878</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>1052</v>
+        <v>875</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>1079</v>
+        <v>879</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>1054</v>
+        <v>885</v>
       </c>
       <c r="G161" s="3">
         <v>1</v>
@@ -13595,63 +13758,70 @@
       <c r="H161" s="7">
         <v>0</v>
       </c>
-      <c r="J161" s="1" t="s">
-        <v>727</v>
+      <c r="I161" s="7">
+        <v>0</v>
       </c>
       <c r="K161" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A162" s="1" t="s">
-        <v>1170</v>
-      </c>
-      <c r="B162" s="9" t="s">
-        <v>1203</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>1182</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>1052</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>1065</v>
-      </c>
-      <c r="F162" s="1" t="s">
-        <v>1054</v>
-      </c>
-      <c r="G162" s="3">
-        <v>1</v>
-      </c>
-      <c r="H162" s="7">
-        <v>0</v>
-      </c>
-      <c r="J162" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="K162" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+        <v>887</v>
+      </c>
+      <c r="L161" s="1" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A162" s="4" t="s">
+        <v>884</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>881</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="D162" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="E162" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="F162" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="G162" s="5">
+        <v>0</v>
+      </c>
+      <c r="H162" s="8">
+        <v>0</v>
+      </c>
+      <c r="I162" s="8">
+        <v>0</v>
+      </c>
+      <c r="J162" s="8"/>
+      <c r="K162" s="4" t="s">
+        <v>894</v>
+      </c>
+      <c r="L162" s="4" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>1171</v>
-      </c>
-      <c r="B163" s="9" t="s">
-        <v>1204</v>
+        <v>637</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>842</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>1183</v>
+        <v>638</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>1052</v>
+        <v>592</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>1065</v>
+        <v>604</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>1054</v>
+        <v>594</v>
       </c>
       <c r="G163" s="3">
         <v>1</v>
@@ -13659,31 +13829,31 @@
       <c r="H163" s="7">
         <v>0</v>
       </c>
-      <c r="J163" s="1" t="s">
+      <c r="K163" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="K163" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L163" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>1172</v>
-      </c>
-      <c r="B164" s="9" t="s">
-        <v>1205</v>
+        <v>497</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>809</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>1184</v>
+        <v>513</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>1052</v>
+        <v>522</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>1058</v>
+        <v>319</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>1054</v>
+        <v>526</v>
       </c>
       <c r="G164" s="3">
         <v>1</v>
@@ -13691,31 +13861,37 @@
       <c r="H164" s="7">
         <v>0</v>
       </c>
-      <c r="J164" s="1" t="s">
-        <v>727</v>
+      <c r="I164" s="7">
+        <v>0</v>
+      </c>
+      <c r="J164" s="7" t="s">
+        <v>1228</v>
       </c>
       <c r="K164" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+        <v>746</v>
+      </c>
+      <c r="L164" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>1173</v>
-      </c>
-      <c r="B165" s="9" t="s">
-        <v>1206</v>
+        <v>497</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>810</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>1185</v>
+        <v>300</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>1052</v>
+        <v>522</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>1194</v>
+        <v>156</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>1054</v>
+        <v>526</v>
       </c>
       <c r="G165" s="3">
         <v>1</v>
@@ -13723,63 +13899,75 @@
       <c r="H165" s="7">
         <v>0</v>
       </c>
-      <c r="J165" s="1" t="s">
-        <v>727</v>
+      <c r="I165" s="7">
+        <v>0</v>
+      </c>
+      <c r="J165" s="7" t="s">
+        <v>1229</v>
       </c>
       <c r="K165" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+        <v>850</v>
+      </c>
+      <c r="L165" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>1174</v>
-      </c>
-      <c r="B166" s="9" t="s">
-        <v>1207</v>
+        <v>497</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>811</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>1186</v>
+        <v>299</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>1052</v>
+        <v>523</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>1083</v>
+        <v>319</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>1054</v>
+        <v>527</v>
       </c>
       <c r="G166" s="3">
         <v>1</v>
       </c>
       <c r="H166" s="7">
-        <v>0</v>
-      </c>
-      <c r="J166" s="1" t="s">
-        <v>727</v>
+        <v>1</v>
+      </c>
+      <c r="I166" s="7">
+        <v>0</v>
+      </c>
+      <c r="J166" s="7" t="s">
+        <v>1228</v>
       </c>
       <c r="K166" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+        <v>746</v>
+      </c>
+      <c r="L166" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>1175</v>
-      </c>
-      <c r="B167" s="9" t="s">
-        <v>1208</v>
+        <v>639</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>843</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>1187</v>
+        <v>640</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>1052</v>
+        <v>592</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>1119</v>
+        <v>620</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>1054</v>
+        <v>594</v>
       </c>
       <c r="G167" s="3">
         <v>1</v>
@@ -13787,31 +13975,31 @@
       <c r="H167" s="7">
         <v>0</v>
       </c>
-      <c r="J167" s="1" t="s">
+      <c r="K167" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="K167" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L167" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>1176</v>
-      </c>
-      <c r="B168" s="9" t="s">
-        <v>1209</v>
+        <v>884</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>889</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>1188</v>
+        <v>890</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>1052</v>
+        <v>891</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>1053</v>
+        <v>892</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>1054</v>
+        <v>885</v>
       </c>
       <c r="G168" s="3">
         <v>1</v>
@@ -13819,63 +14007,63 @@
       <c r="H168" s="7">
         <v>0</v>
       </c>
-      <c r="J168" s="1" t="s">
+      <c r="K168" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="K168" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L168" s="1" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>1177</v>
-      </c>
-      <c r="B169" s="9" t="s">
-        <v>1210</v>
+        <v>141</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>812</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>1189</v>
+        <v>304</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>1052</v>
+        <v>522</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>1065</v>
+        <v>157</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>1054</v>
+        <v>527</v>
       </c>
       <c r="G169" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H169" s="7">
         <v>0</v>
       </c>
-      <c r="J169" s="1" t="s">
-        <v>727</v>
-      </c>
       <c r="K169" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+        <v>745</v>
+      </c>
+      <c r="L169" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>1178</v>
-      </c>
-      <c r="B170" s="9" t="s">
-        <v>1211</v>
+        <v>641</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>844</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>1190</v>
+        <v>642</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>1052</v>
+        <v>592</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>1058</v>
+        <v>623</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>1054</v>
+        <v>594</v>
       </c>
       <c r="G170" s="3">
         <v>1</v>
@@ -13883,95 +14071,95 @@
       <c r="H170" s="7">
         <v>0</v>
       </c>
-      <c r="J170" s="1" t="s">
+      <c r="K170" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="K170" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L170" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>1179</v>
-      </c>
-      <c r="B171" s="9" t="s">
-        <v>1212</v>
+        <v>143</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>813</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>1191</v>
+        <v>312</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>1052</v>
+        <v>522</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>1058</v>
+        <v>290</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>1054</v>
+        <v>527</v>
       </c>
       <c r="G171" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H171" s="7">
         <v>0</v>
       </c>
-      <c r="J171" s="1" t="s">
-        <v>727</v>
-      </c>
       <c r="K171" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
+        <v>786</v>
+      </c>
+      <c r="L171" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>1179</v>
-      </c>
-      <c r="B172" s="9" t="s">
-        <v>1213</v>
+        <v>782</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>814</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>1192</v>
+        <v>783</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>1052</v>
+        <v>775</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>1083</v>
+        <v>784</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>1054</v>
+        <v>527</v>
       </c>
       <c r="G172" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H172" s="7">
         <v>0</v>
       </c>
-      <c r="J172" s="1" t="s">
-        <v>727</v>
-      </c>
       <c r="K172" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+        <v>785</v>
+      </c>
+      <c r="L172" s="1" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>1180</v>
-      </c>
-      <c r="B173" s="9" t="s">
-        <v>1214</v>
+        <v>1234</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>1235</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>1193</v>
+        <v>1236</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>1052</v>
+        <v>1237</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>1194</v>
+        <v>1238</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>1054</v>
+        <v>1239</v>
       </c>
       <c r="G173" s="3">
         <v>1</v>
@@ -13979,117 +14167,199 @@
       <c r="H173" s="7">
         <v>0</v>
       </c>
-      <c r="J173" s="1" t="s">
+      <c r="K173" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="K173" s="1" t="s">
+      <c r="L173" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A174" s="4" t="s">
+        <v>861</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>866</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>862</v>
+      </c>
+      <c r="D174" s="4" t="s">
+        <v>863</v>
+      </c>
+      <c r="E174" s="4" t="s">
+        <v>864</v>
+      </c>
+      <c r="F174" s="4" t="s">
+        <v>865</v>
+      </c>
+      <c r="G174" s="5">
+        <v>1</v>
+      </c>
+      <c r="H174" s="8">
+        <v>0</v>
+      </c>
+      <c r="I174" s="8">
+        <v>0</v>
+      </c>
+      <c r="J174" s="8"/>
+      <c r="K174" s="4" t="s">
+        <v>867</v>
+      </c>
+      <c r="L174" s="6" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="4" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D175" s="4" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E175" s="4" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F175" s="4" t="s">
+        <v>1010</v>
+      </c>
+      <c r="G175" s="5">
+        <v>1</v>
+      </c>
+      <c r="H175" s="8">
+        <v>0</v>
+      </c>
+      <c r="I175" s="8"/>
+      <c r="J175" s="8"/>
+      <c r="K175" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="L175" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A174" s="1" t="s">
-        <v>1195</v>
-      </c>
-      <c r="B174" s="9" t="s">
-        <v>1215</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>1198</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>1052</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>1201</v>
-      </c>
-      <c r="F174" s="1" t="s">
-        <v>1054</v>
-      </c>
-      <c r="G174" s="3">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A176" s="4" t="s">
+        <v>861</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>897</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>896</v>
+      </c>
+      <c r="D176" s="4" t="s">
+        <v>868</v>
+      </c>
+      <c r="E176" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F176" s="4" t="s">
+        <v>865</v>
+      </c>
+      <c r="G176" s="5">
         <v>1</v>
       </c>
-      <c r="H174" s="7">
-        <v>0</v>
-      </c>
-      <c r="J174" s="1" t="s">
+      <c r="H176" s="8">
+        <v>1</v>
+      </c>
+      <c r="I176" s="8">
+        <v>0</v>
+      </c>
+      <c r="J176" s="8"/>
+      <c r="K176" s="4" t="s">
+        <v>870</v>
+      </c>
+      <c r="L176" s="4" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A177" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="G177" s="3">
+        <v>1</v>
+      </c>
+      <c r="H177" s="7">
+        <v>0</v>
+      </c>
+      <c r="I177" s="7">
+        <v>0</v>
+      </c>
+      <c r="K177" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="L177" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="G178" s="3">
+        <v>1</v>
+      </c>
+      <c r="H178" s="7">
+        <v>0</v>
+      </c>
+      <c r="K178" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="K174" s="1" t="s">
+      <c r="L178" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A175" s="1" t="s">
-        <v>1196</v>
-      </c>
-      <c r="B175" s="9" t="s">
-        <v>1216</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>1199</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>1052</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>1079</v>
-      </c>
-      <c r="F175" s="1" t="s">
-        <v>1054</v>
-      </c>
-      <c r="G175" s="3">
-        <v>1</v>
-      </c>
-      <c r="H175" s="7">
-        <v>0</v>
-      </c>
-      <c r="J175" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="K175" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A176" s="1" t="s">
-        <v>1197</v>
-      </c>
-      <c r="B176" s="9" t="s">
-        <v>1217</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>1200</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>1052</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>1053</v>
-      </c>
-      <c r="F176" s="1" t="s">
-        <v>1054</v>
-      </c>
-      <c r="G176" s="3">
-        <v>1</v>
-      </c>
-      <c r="H176" s="7">
-        <v>0</v>
-      </c>
-      <c r="J176" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="K176" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="D1:D176" xr:uid="{66E79596-FBA2-41A9-9C17-FC94DBC0F687}">
+  <autoFilter ref="D1:D178" xr:uid="{66E79596-FBA2-41A9-9C17-FC94DBC0F687}">
     <filterColumn colId="0">
       <filters>
-        <filter val="f"/>
+        <filter val="c"/>
+        <filter val="m"/>
+        <filter val="o"/>
       </filters>
     </filterColumn>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:L178">
+    <sortCondition ref="G1"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/data/basic_info.xlsx
+++ b/data/basic_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\trading_plan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0689D882-E4D6-48DF-A320-2FBCEECA375F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2349A511-0092-402B-9DEE-F8ADB0DD3D1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28590" tabRatio="733" activeTab="1" xr2:uid="{855E00D3-25C3-4BB2-A61F-0D95BB1AF006}"/>
+    <workbookView xWindow="-14670" yWindow="3165" windowWidth="14265" windowHeight="20955" tabRatio="733" activeTab="1" xr2:uid="{855E00D3-25C3-4BB2-A61F-0D95BB1AF006}"/>
   </bookViews>
   <sheets>
     <sheet name="acct_info" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2478" uniqueCount="1245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2478" uniqueCount="1244">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2878,10 +2878,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>666810061066</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3678,10 +3674,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>704_f_huat_0402</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1202_c_zxjt_9999</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4155,10 +4147,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1201_gtax_1947</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ax_custom</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4944,6 +4932,14 @@
   </si>
   <si>
     <t>SpecialAcountMark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>704_f_ya_0402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1201_f_gtax_1947</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8532,10 +8528,10 @@
   <dimension ref="A1:M178"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I81" sqref="I81"/>
+      <selection pane="bottomRight" activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8556,49 +8552,49 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>831</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="7" t="s">
         <v>751</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
+        <v>1241</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>1218</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="I1" s="7" t="s">
-        <v>1244</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>1221</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>753</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>529</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>534</v>
@@ -8622,18 +8618,18 @@
         <v>0</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>529</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>535</v>
@@ -8657,434 +8653,434 @@
         <v>0</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="G4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="G5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="G6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="G7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="G9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="G10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="G11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="G12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="G13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="G15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="G16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>648</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1043</v>
+        <v>1243</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>649</v>
@@ -9099,24 +9095,24 @@
         <v>594</v>
       </c>
       <c r="G17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L17" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>498</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>514</v>
@@ -9137,50 +9133,50 @@
         <v>0</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>1195</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>1215</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>1198</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>1052</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>1201</v>
-      </c>
       <c r="F19" s="1" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="G19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>499</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>515</v>
@@ -9201,18 +9197,18 @@
         <v>0</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>499</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>516</v>
@@ -9233,82 +9229,82 @@
         <v>0</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>1196</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>1216</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>1199</v>
-      </c>
       <c r="D22" s="1" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>1197</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>1217</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>1200</v>
-      </c>
       <c r="D23" s="1" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="G23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>114</v>
@@ -9329,27 +9325,27 @@
         <v>0</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>928</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>978</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>977</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>929</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>930</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>527</v>
@@ -9361,50 +9357,50 @@
         <v>0</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>1055</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>1056</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>1052</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>1058</v>
-      </c>
       <c r="F26" s="1" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="G26" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L26" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>500</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>517</v>
@@ -9416,59 +9412,59 @@
         <v>158</v>
       </c>
       <c r="F27" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="7">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1" t="s">
         <v>766</v>
-      </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="7">
-        <v>0</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>767</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="G28" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L28" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>501</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>518</v>
@@ -9489,50 +9485,50 @@
         <v>0</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>1049</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>1050</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>1051</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>1052</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>1053</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>1054</v>
-      </c>
       <c r="G30" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L30" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>119</v>
@@ -9553,21 +9549,21 @@
         <v>0</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>519</v>
@@ -9588,53 +9584,53 @@
         <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>1062</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>1052</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>1065</v>
-      </c>
       <c r="F33" s="1" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="G33" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L33" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>505</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>520</v>
@@ -9655,21 +9651,21 @@
         <v>0</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>505</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>521</v>
@@ -9690,162 +9686,162 @@
         <v>0</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="G36" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L36" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="G37" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L37" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>1072</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>1073</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>1074</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>1052</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>1075</v>
-      </c>
       <c r="F38" s="1" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="G38" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L38" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>1076</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>1077</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>1078</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>1052</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>1079</v>
-      </c>
       <c r="F39" s="1" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="G39" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L39" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>898</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>899</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>900</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>901</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="F40" s="1" t="s">
         <v>902</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>903</v>
-      </c>
       <c r="G40" s="3">
         <v>1</v>
       </c>
@@ -9856,18 +9852,18 @@
         <v>0</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>528</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>530</v>
@@ -9891,257 +9887,257 @@
         <v>0</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>1080</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>1082</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>1052</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>1083</v>
-      </c>
       <c r="F42" s="1" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="G42" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L42" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="G43" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L43" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="G44" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L44" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" s="7">
         <v>0</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L45" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="G46" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L46" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="G47" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47" s="7">
         <v>0</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L47" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>1099</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>1100</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>1101</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>1052</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>1102</v>
-      </c>
       <c r="F48" s="1" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="G48" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" s="7">
         <v>0</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L48" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="49" spans="1:12" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>1103</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>1104</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>1105</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>1052</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>1106</v>
-      </c>
       <c r="F49" s="1" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="G49" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -10149,65 +10145,65 @@
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
       <c r="K49" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L49" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="G50" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L50" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="51" spans="1:12" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>1108</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>1111</v>
-      </c>
       <c r="D51" s="1" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="G51" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51" s="7">
         <v>0</v>
@@ -10215,193 +10211,193 @@
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
       <c r="K51" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L51" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="G52" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" s="7">
         <v>0</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L52" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>1112</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>1113</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>1114</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>1052</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>1115</v>
-      </c>
       <c r="F53" s="1" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="G53" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" s="7">
         <v>0</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L53" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>1116</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>1117</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>1118</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>1052</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>1119</v>
-      </c>
       <c r="F54" s="1" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="G54" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" s="7">
         <v>0</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L54" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="G55" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" s="7">
         <v>0</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L55" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="G56" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56" s="7">
         <v>0</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L56" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="57" spans="1:12" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="G57" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" s="7">
         <v>0</v>
@@ -10409,33 +10405,33 @@
       <c r="I57" s="7"/>
       <c r="J57" s="7"/>
       <c r="K57" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L57" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="58" spans="1:12" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>1129</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>1130</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>1131</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>1052</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>1132</v>
-      </c>
       <c r="F58" s="1" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="G58" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" s="7">
         <v>0</v>
@@ -10443,114 +10439,114 @@
       <c r="I58" s="7"/>
       <c r="J58" s="7"/>
       <c r="K58" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L58" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="G59" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" s="7">
         <v>0</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L59" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>1136</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>1137</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>1138</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>1052</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>1139</v>
-      </c>
       <c r="F60" s="1" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="G60" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60" s="7">
         <v>0</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L60" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" s="7">
         <v>0</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L61" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>665</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>682</v>
@@ -10565,24 +10561,24 @@
         <v>678</v>
       </c>
       <c r="G62" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62" s="7">
         <v>0</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L62" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>666</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>687</v>
@@ -10597,24 +10593,24 @@
         <v>678</v>
       </c>
       <c r="G63" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" s="7">
         <v>0</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L63" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>667</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>694</v>
@@ -10629,24 +10625,24 @@
         <v>678</v>
       </c>
       <c r="G64" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64" s="7">
         <v>0</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L64" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="65" spans="1:12" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>668</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>698</v>
@@ -10661,7 +10657,7 @@
         <v>678</v>
       </c>
       <c r="G65" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" s="7">
         <v>0</v>
@@ -10669,50 +10665,50 @@
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
       <c r="K65" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L65" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="G66" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66" s="7">
         <v>0</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L66" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>669</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>702</v>
@@ -10727,24 +10723,24 @@
         <v>678</v>
       </c>
       <c r="G67" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67" s="7">
         <v>0</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L67" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>670</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>705</v>
@@ -10759,24 +10755,24 @@
         <v>678</v>
       </c>
       <c r="G68" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68" s="7">
         <v>0</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L68" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>671</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>708</v>
@@ -10791,27 +10787,27 @@
         <v>678</v>
       </c>
       <c r="G69" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" s="7">
         <v>0</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L69" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>672</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>683</v>
@@ -10823,24 +10819,24 @@
         <v>678</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" s="7">
         <v>0</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L70" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>673</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>714</v>
@@ -10855,24 +10851,24 @@
         <v>678</v>
       </c>
       <c r="G71" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71" s="7">
         <v>0</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L71" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>371</v>
@@ -10896,50 +10892,50 @@
         <v>0</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="G73" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" s="7">
         <v>0</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L73" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>375</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>376</v>
@@ -10963,18 +10959,18 @@
         <v>0</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>674</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>718</v>
@@ -10989,24 +10985,24 @@
         <v>678</v>
       </c>
       <c r="G75" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75" s="7">
         <v>0</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L75" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>489</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>506</v>
@@ -11018,30 +11014,30 @@
         <v>158</v>
       </c>
       <c r="F76" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="G76" s="3">
+        <v>0</v>
+      </c>
+      <c r="H76" s="7">
+        <v>0</v>
+      </c>
+      <c r="I76" s="7">
+        <v>0</v>
+      </c>
+      <c r="K76" s="1" t="s">
         <v>766</v>
-      </c>
-      <c r="G76" s="3">
-        <v>0</v>
-      </c>
-      <c r="H76" s="7">
-        <v>0</v>
-      </c>
-      <c r="I76" s="7">
-        <v>0</v>
-      </c>
-      <c r="K76" s="1" t="s">
-        <v>767</v>
       </c>
       <c r="L76" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="77" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>489</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>507</v>
@@ -11066,18 +11062,18 @@
       </c>
       <c r="J77" s="7"/>
       <c r="K77" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>674</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>719</v>
@@ -11086,13 +11082,13 @@
         <v>683</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>720</v>
+        <v>343</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>678</v>
       </c>
       <c r="G78" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78" s="7">
         <v>0</v>
@@ -11100,18 +11096,18 @@
       <c r="I78" s="7"/>
       <c r="J78" s="7"/>
       <c r="K78" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L78" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="79" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>490</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>508</v>
@@ -11136,21 +11132,21 @@
       </c>
       <c r="J79" s="7"/>
       <c r="K79" s="1" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>675</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>683</v>
@@ -11162,24 +11158,24 @@
         <v>678</v>
       </c>
       <c r="G80" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80" s="7">
         <v>0</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L80" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>378</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>379</v>
@@ -11203,31 +11199,31 @@
         <v>0</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="D82" s="1" t="s">
         <v>934</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>957</v>
-      </c>
-      <c r="C82" s="1" t="s">
+      <c r="E82" s="1" t="s">
         <v>935</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="F82" s="1" t="s">
         <v>936</v>
       </c>
-      <c r="E82" s="1" t="s">
-        <v>937</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>938</v>
-      </c>
       <c r="G82" s="3">
         <v>1</v>
       </c>
@@ -11238,21 +11234,21 @@
         <v>1</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="L82" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>676</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>683</v>
@@ -11264,24 +11260,24 @@
         <v>678</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" s="7">
         <v>0</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L83" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>491</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>509</v>
@@ -11305,18 +11301,18 @@
         <v>0</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>624</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>625</v>
@@ -11337,18 +11333,18 @@
         <v>0</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L85" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>492</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>510</v>
@@ -11372,18 +11368,18 @@
         <v>0</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>643</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>644</v>
@@ -11404,18 +11400,18 @@
         <v>0</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L87" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>383</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>384</v>
@@ -11439,18 +11435,18 @@
         <v>0</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>645</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>646</v>
@@ -11471,56 +11467,56 @@
         <v>0</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L89" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>1028</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="D90" s="1" t="s">
         <v>1029</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="E90" s="1" t="s">
         <v>1030</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="F90" s="1" t="s">
         <v>1031</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="G90" s="3">
+        <v>1</v>
+      </c>
+      <c r="H90" s="7">
+        <v>0</v>
+      </c>
+      <c r="I90" s="7">
+        <v>0</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="L90" s="1" t="s">
         <v>1032</v>
       </c>
-      <c r="F90" s="1" t="s">
-        <v>1033</v>
-      </c>
-      <c r="G90" s="3">
-        <v>1</v>
-      </c>
-      <c r="H90" s="7">
-        <v>0</v>
-      </c>
-      <c r="I90" s="7">
-        <v>0</v>
-      </c>
-      <c r="K90" s="1" t="s">
-        <v>915</v>
-      </c>
-      <c r="L90" s="1" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>595</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>592</v>
@@ -11538,18 +11534,18 @@
         <v>0</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>493</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>511</v>
@@ -11573,18 +11569,18 @@
         <v>0</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>647</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>651</v>
@@ -11605,16 +11601,16 @@
         <v>0</v>
       </c>
       <c r="J93" s="7" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L93" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>665</v>
       </c>
@@ -11637,15 +11633,15 @@
         <v>0</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>647</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>652</v>
@@ -11666,16 +11662,16 @@
         <v>0</v>
       </c>
       <c r="J95" s="7" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L95" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>665</v>
       </c>
@@ -11698,10 +11694,10 @@
         <v>0</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>666</v>
       </c>
@@ -11724,15 +11720,15 @@
         <v>0</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>654</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>655</v>
@@ -11753,13 +11749,13 @@
         <v>0</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L98" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>667</v>
       </c>
@@ -11782,10 +11778,10 @@
         <v>0</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>667</v>
       </c>
@@ -11808,15 +11804,15 @@
         <v>0</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>656</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>657</v>
@@ -11837,13 +11833,13 @@
         <v>0</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L101" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>668</v>
       </c>
@@ -11866,10 +11862,10 @@
         <v>0</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>668</v>
       </c>
@@ -11892,15 +11888,15 @@
         <v>0</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>658</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>659</v>
@@ -11921,18 +11917,18 @@
         <v>0</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L104" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>660</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>661</v>
@@ -11953,13 +11949,13 @@
         <v>0</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L105" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>669</v>
       </c>
@@ -11982,15 +11978,15 @@
         <v>0</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>669</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>685</v>
@@ -12008,15 +12004,15 @@
         <v>1</v>
       </c>
       <c r="L107" s="1" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>662</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>663</v>
@@ -12037,13 +12033,13 @@
         <v>0</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L108" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>670</v>
       </c>
@@ -12066,15 +12062,15 @@
         <v>0</v>
       </c>
       <c r="L109" s="1" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>590</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>591</v>
@@ -12095,13 +12091,13 @@
         <v>0</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L110" s="1" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>671</v>
       </c>
@@ -12124,42 +12120,42 @@
         <v>0</v>
       </c>
       <c r="L111" s="1" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="G112" s="3">
+        <v>1</v>
+      </c>
+      <c r="H112" s="7">
+        <v>0</v>
+      </c>
+      <c r="K112" s="1" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="1" t="s">
+      <c r="L112" s="1" t="s">
         <v>1021</v>
       </c>
-      <c r="B112" s="1" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>1024</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>1026</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>1027</v>
-      </c>
-      <c r="G112" s="3">
-        <v>1</v>
-      </c>
-      <c r="H112" s="7">
-        <v>0</v>
-      </c>
-      <c r="K112" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="L112" s="1" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="113" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>672</v>
       </c>
@@ -12182,10 +12178,10 @@
         <v>0</v>
       </c>
       <c r="L113" s="1" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>672</v>
       </c>
@@ -12208,15 +12204,15 @@
         <v>0</v>
       </c>
       <c r="L114" s="1" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>597</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>598</v>
@@ -12237,13 +12233,13 @@
         <v>0</v>
       </c>
       <c r="K115" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L115" s="1" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>673</v>
       </c>
@@ -12266,15 +12262,15 @@
         <v>0</v>
       </c>
       <c r="L116" s="1" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>600</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>601</v>
@@ -12295,18 +12291,18 @@
         <v>0</v>
       </c>
       <c r="K117" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L117" s="1" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>602</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>923</v>
+        <v>1242</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>603</v>
@@ -12327,13 +12323,13 @@
         <v>0</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="L118" s="1" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>674</v>
       </c>
@@ -12356,10 +12352,10 @@
         <v>0</v>
       </c>
       <c r="L119" s="1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>674</v>
       </c>
@@ -12382,15 +12378,15 @@
         <v>0</v>
       </c>
       <c r="L120" s="1" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>605</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>606</v>
@@ -12411,18 +12407,18 @@
         <v>0</v>
       </c>
       <c r="K121" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L121" s="1" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>607</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>608</v>
@@ -12443,18 +12439,18 @@
         <v>0</v>
       </c>
       <c r="K122" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L122" s="1" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>675</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>677</v>
@@ -12472,15 +12468,15 @@
         <v>0</v>
       </c>
       <c r="L123" s="1" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>675</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>685</v>
@@ -12498,15 +12494,15 @@
         <v>0</v>
       </c>
       <c r="L124" s="1" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>610</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>611</v>
@@ -12527,24 +12523,24 @@
         <v>0</v>
       </c>
       <c r="K125" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L125" s="1" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>676</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>677</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>678</v>
@@ -12556,15 +12552,15 @@
         <v>0</v>
       </c>
       <c r="L126" s="1" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>612</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>613</v>
@@ -12585,18 +12581,18 @@
         <v>0</v>
       </c>
       <c r="K127" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L127" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>180</v>
@@ -12620,53 +12616,53 @@
         <v>0</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="L128" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="C129" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="B129" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="C129" s="1" t="s">
+      <c r="D129" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="D129" s="1" t="s">
+      <c r="E129" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="E129" s="1" t="s">
+      <c r="F129" s="1" t="s">
         <v>765</v>
       </c>
-      <c r="F129" s="1" t="s">
+      <c r="G129" s="3">
+        <v>0</v>
+      </c>
+      <c r="H129" s="7">
+        <v>0</v>
+      </c>
+      <c r="I129" s="7">
+        <v>0</v>
+      </c>
+      <c r="K129" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="G129" s="3">
-        <v>0</v>
-      </c>
-      <c r="H129" s="7">
-        <v>0</v>
-      </c>
-      <c r="I129" s="7">
-        <v>0</v>
-      </c>
-      <c r="K129" s="1" t="s">
-        <v>767</v>
-      </c>
       <c r="L129" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>614</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>615</v>
@@ -12687,18 +12683,18 @@
         <v>0</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L130" s="1" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>184</v>
@@ -12722,27 +12718,27 @@
         <v>0</v>
       </c>
       <c r="K131" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="L131" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="C132" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="B132" s="1" t="s">
-        <v>790</v>
-      </c>
-      <c r="C132" s="1" t="s">
+      <c r="D132" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="D132" s="1" t="s">
+      <c r="E132" s="1" t="s">
         <v>742</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>743</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>527</v>
@@ -12757,50 +12753,50 @@
         <v>0</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="L132" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="B133" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D133" s="1" t="s">
         <v>1035</v>
       </c>
-      <c r="C133" s="1" t="s">
+      <c r="E133" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="G133" s="3">
+        <v>1</v>
+      </c>
+      <c r="H133" s="7">
+        <v>0</v>
+      </c>
+      <c r="K133" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="L133" s="1" t="s">
         <v>1036</v>
       </c>
-      <c r="D133" s="1" t="s">
-        <v>1037</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>1032</v>
-      </c>
-      <c r="F133" s="1" t="s">
-        <v>1033</v>
-      </c>
-      <c r="G133" s="3">
-        <v>1</v>
-      </c>
-      <c r="H133" s="7">
-        <v>0</v>
-      </c>
-      <c r="K133" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="L133" s="1" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="134" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>201</v>
@@ -12824,53 +12820,53 @@
         <v>0</v>
       </c>
       <c r="K134" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="L134" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="G135" s="3">
+        <v>0</v>
+      </c>
+      <c r="H135" s="7">
+        <v>0</v>
+      </c>
+      <c r="I135" s="7">
+        <v>0</v>
+      </c>
+      <c r="K135" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="L135" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A135" s="1" t="s">
-        <v>774</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>793</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="G135" s="3">
-        <v>0</v>
-      </c>
-      <c r="H135" s="7">
-        <v>0</v>
-      </c>
-      <c r="I135" s="7">
-        <v>0</v>
-      </c>
-      <c r="K135" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="L135" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>616</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>617</v>
@@ -12891,18 +12887,18 @@
         <v>0</v>
       </c>
       <c r="K136" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L136" s="1" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>210</v>
@@ -12926,18 +12922,18 @@
         <v>0</v>
       </c>
       <c r="K137" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="L137" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>618</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>619</v>
@@ -12958,18 +12954,18 @@
         <v>0</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L138" s="1" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>621</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>622</v>
@@ -12990,18 +12986,18 @@
         <v>0</v>
       </c>
       <c r="K139" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L139" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>225</v>
@@ -13025,53 +13021,53 @@
         <v>0</v>
       </c>
       <c r="K140" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="L140" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="G141" s="3">
+        <v>0</v>
+      </c>
+      <c r="H141" s="7">
+        <v>0</v>
+      </c>
+      <c r="I141" s="7">
+        <v>0</v>
+      </c>
+      <c r="K141" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="L141" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A141" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>796</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>779</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="F141" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="G141" s="3">
-        <v>0</v>
-      </c>
-      <c r="H141" s="7">
-        <v>0</v>
-      </c>
-      <c r="I141" s="7">
-        <v>0</v>
-      </c>
-      <c r="K141" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="L141" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>626</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>627</v>
@@ -13092,53 +13088,53 @@
         <v>0</v>
       </c>
       <c r="K142" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L142" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E143" s="1" t="s">
         <v>1014</v>
       </c>
-      <c r="B143" s="1" t="s">
-        <v>1019</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>1020</v>
-      </c>
-      <c r="D143" s="1" t="s">
+      <c r="F143" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="E143" s="1" t="s">
+      <c r="G143" s="3">
+        <v>1</v>
+      </c>
+      <c r="H143" s="7">
+        <v>1</v>
+      </c>
+      <c r="I143" s="7">
+        <v>0</v>
+      </c>
+      <c r="K143" s="1" t="s">
         <v>1016</v>
-      </c>
-      <c r="F143" s="1" t="s">
-        <v>1017</v>
-      </c>
-      <c r="G143" s="3">
-        <v>1</v>
-      </c>
-      <c r="H143" s="7">
-        <v>1</v>
-      </c>
-      <c r="I143" s="7">
-        <v>0</v>
-      </c>
-      <c r="K143" s="1" t="s">
-        <v>1018</v>
       </c>
       <c r="L143" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>494</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>232</v>
@@ -13162,50 +13158,50 @@
         <v>0</v>
       </c>
       <c r="K144" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="L144" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="D145" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="G145" s="3">
+        <v>1</v>
+      </c>
+      <c r="H145" s="7">
+        <v>0</v>
+      </c>
+      <c r="K145" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="L145" t="s">
         <v>1237</v>
       </c>
-      <c r="E145" s="1" t="s">
-        <v>1238</v>
-      </c>
-      <c r="F145" s="1" t="s">
-        <v>1239</v>
-      </c>
-      <c r="G145" s="3">
-        <v>1</v>
-      </c>
-      <c r="H145" s="7">
-        <v>0</v>
-      </c>
-      <c r="K145" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="L145" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="146" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
         <v>414</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C146" s="4" t="s">
         <v>415</v>
@@ -13229,21 +13225,21 @@
         <v>0</v>
       </c>
       <c r="J146" s="8" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="K146" s="4" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="L146" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>414</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>243</v>
@@ -13267,21 +13263,21 @@
         <v>0</v>
       </c>
       <c r="J147" s="7" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="K147" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="L147" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
         <v>414</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C148" s="4" t="s">
         <v>512</v>
@@ -13305,21 +13301,21 @@
         <v>0</v>
       </c>
       <c r="J148" s="8" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="K148" s="4" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="L148" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>628</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>629</v>
@@ -13340,18 +13336,18 @@
         <v>0</v>
       </c>
       <c r="K149" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L149" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>495</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>263</v>
@@ -13375,21 +13371,21 @@
         <v>0</v>
       </c>
       <c r="J150" s="7" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="K150" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="L150" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>495</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>261</v>
@@ -13413,34 +13409,34 @@
         <v>0</v>
       </c>
       <c r="J151" s="7" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="K151" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="L151" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D152" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="E152" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="E152" s="1" t="s">
+      <c r="F152" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="F152" s="1" t="s">
-        <v>777</v>
-      </c>
       <c r="G152" s="3">
         <v>1</v>
       </c>
@@ -13451,21 +13447,21 @@
         <v>0</v>
       </c>
       <c r="J152" s="7" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="K152" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="L152" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>631</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>632</v>
@@ -13486,18 +13482,18 @@
         <v>0</v>
       </c>
       <c r="K153" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L153" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
         <v>496</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C154" s="4" t="s">
         <v>272</v>
@@ -13522,30 +13518,30 @@
       </c>
       <c r="J154" s="8"/>
       <c r="K154" s="4" t="s">
+        <v>1037</v>
+      </c>
+      <c r="L154" s="1" t="s">
         <v>1039</v>
       </c>
-      <c r="L154" s="1" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="155" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>805</v>
+      </c>
+      <c r="C155" s="4" t="s">
         <v>768</v>
       </c>
-      <c r="B155" s="4" t="s">
-        <v>806</v>
-      </c>
-      <c r="C155" s="4" t="s">
+      <c r="D155" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="E155" s="4" t="s">
         <v>769</v>
       </c>
-      <c r="D155" s="4" t="s">
-        <v>764</v>
-      </c>
-      <c r="E155" s="4" t="s">
-        <v>770</v>
-      </c>
       <c r="F155" s="4" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G155" s="5">
         <v>1</v>
@@ -13558,18 +13554,18 @@
       </c>
       <c r="J155" s="8"/>
       <c r="K155" s="4" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="L155" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>633</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>634</v>
@@ -13590,18 +13586,18 @@
         <v>0</v>
       </c>
       <c r="K156" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L156" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>467</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>291</v>
@@ -13625,53 +13621,53 @@
         <v>0</v>
       </c>
       <c r="K157" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="L157" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="G158" s="3">
+        <v>0</v>
+      </c>
+      <c r="H158" s="7">
+        <v>0</v>
+      </c>
+      <c r="I158" s="7">
+        <v>0</v>
+      </c>
+      <c r="K158" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="L158" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A158" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>808</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="F158" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="G158" s="3">
-        <v>0</v>
-      </c>
-      <c r="H158" s="7">
-        <v>0</v>
-      </c>
-      <c r="I158" s="7">
-        <v>0</v>
-      </c>
-      <c r="K158" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="L158" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>635</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>636</v>
@@ -13692,100 +13688,100 @@
         <v>0</v>
       </c>
       <c r="K159" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L159" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="B160" s="1" t="s">
         <v>872</v>
       </c>
-      <c r="B160" s="1" t="s">
+      <c r="C160" s="1" t="s">
         <v>873</v>
       </c>
-      <c r="C160" s="1" t="s">
+      <c r="D160" s="1" t="s">
         <v>874</v>
       </c>
-      <c r="D160" s="1" t="s">
+      <c r="E160" s="1" t="s">
         <v>875</v>
       </c>
-      <c r="E160" s="1" t="s">
+      <c r="F160" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="G160" s="3">
+        <v>0</v>
+      </c>
+      <c r="H160" s="7">
+        <v>0</v>
+      </c>
+      <c r="I160" s="7">
+        <v>0</v>
+      </c>
+      <c r="K160" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="L160" s="1" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="G161" s="3">
+        <v>1</v>
+      </c>
+      <c r="H161" s="7">
+        <v>0</v>
+      </c>
+      <c r="I161" s="7">
+        <v>0</v>
+      </c>
+      <c r="K161" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="L161" s="1" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>880</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>881</v>
+      </c>
+      <c r="D162" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="E162" s="4" t="s">
+        <v>875</v>
+      </c>
+      <c r="F162" s="4" t="s">
         <v>876</v>
-      </c>
-      <c r="F160" s="1" t="s">
-        <v>880</v>
-      </c>
-      <c r="G160" s="3">
-        <v>0</v>
-      </c>
-      <c r="H160" s="7">
-        <v>0</v>
-      </c>
-      <c r="I160" s="7">
-        <v>0</v>
-      </c>
-      <c r="K160" s="1" t="s">
-        <v>870</v>
-      </c>
-      <c r="L160" s="1" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A161" s="1" t="s">
-        <v>872</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>886</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>878</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>875</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>879</v>
-      </c>
-      <c r="F161" s="1" t="s">
-        <v>885</v>
-      </c>
-      <c r="G161" s="3">
-        <v>1</v>
-      </c>
-      <c r="H161" s="7">
-        <v>0</v>
-      </c>
-      <c r="I161" s="7">
-        <v>0</v>
-      </c>
-      <c r="K161" s="1" t="s">
-        <v>887</v>
-      </c>
-      <c r="L161" s="1" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A162" s="4" t="s">
-        <v>884</v>
-      </c>
-      <c r="B162" s="4" t="s">
-        <v>881</v>
-      </c>
-      <c r="C162" s="4" t="s">
-        <v>882</v>
-      </c>
-      <c r="D162" s="4" t="s">
-        <v>883</v>
-      </c>
-      <c r="E162" s="4" t="s">
-        <v>876</v>
-      </c>
-      <c r="F162" s="4" t="s">
-        <v>877</v>
       </c>
       <c r="G162" s="5">
         <v>0</v>
@@ -13798,18 +13794,18 @@
       </c>
       <c r="J162" s="8"/>
       <c r="K162" s="4" t="s">
+        <v>893</v>
+      </c>
+      <c r="L162" s="4" t="s">
         <v>894</v>
       </c>
-      <c r="L162" s="4" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>637</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>638</v>
@@ -13830,18 +13826,18 @@
         <v>0</v>
       </c>
       <c r="K163" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L163" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>497</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>513</v>
@@ -13865,21 +13861,21 @@
         <v>0</v>
       </c>
       <c r="J164" s="7" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="K164" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="L164" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>497</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>300</v>
@@ -13903,21 +13899,21 @@
         <v>0</v>
       </c>
       <c r="J165" s="7" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="K165" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="L165" t="s">
         <v>850</v>
       </c>
-      <c r="L165" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="166" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>497</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>299</v>
@@ -13941,21 +13937,21 @@
         <v>0</v>
       </c>
       <c r="J166" s="7" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="K166" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="L166" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="167" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>639</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>640</v>
@@ -13976,50 +13972,50 @@
         <v>0</v>
       </c>
       <c r="K167" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L167" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="168" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="F168" s="1" t="s">
         <v>884</v>
       </c>
-      <c r="B168" s="1" t="s">
-        <v>889</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>890</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>891</v>
-      </c>
-      <c r="E168" s="1" t="s">
+      <c r="G168" s="3">
+        <v>1</v>
+      </c>
+      <c r="H168" s="7">
+        <v>0</v>
+      </c>
+      <c r="K168" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="L168" s="1" t="s">
         <v>892</v>
       </c>
-      <c r="F168" s="1" t="s">
-        <v>885</v>
-      </c>
-      <c r="G168" s="3">
-        <v>1</v>
-      </c>
-      <c r="H168" s="7">
-        <v>0</v>
-      </c>
-      <c r="K168" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="L168" s="1" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="169" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>304</v>
@@ -14040,18 +14036,18 @@
         <v>0</v>
       </c>
       <c r="K169" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="L169" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="170" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>641</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>642</v>
@@ -14072,18 +14068,18 @@
         <v>0</v>
       </c>
       <c r="K170" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L170" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>312</v>
@@ -14104,27 +14100,27 @@
         <v>0</v>
       </c>
       <c r="K171" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="L171" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="C172" s="1" t="s">
         <v>782</v>
       </c>
-      <c r="B172" s="1" t="s">
-        <v>814</v>
-      </c>
-      <c r="C172" s="1" t="s">
+      <c r="D172" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="E172" s="1" t="s">
         <v>783</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>784</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>527</v>
@@ -14136,62 +14132,62 @@
         <v>0</v>
       </c>
       <c r="K172" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="L172" s="1" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="173" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D173" s="1" t="s">
         <v>1234</v>
       </c>
-      <c r="B173" s="1" t="s">
+      <c r="E173" s="1" t="s">
         <v>1235</v>
       </c>
-      <c r="C173" s="1" t="s">
+      <c r="F173" s="1" t="s">
         <v>1236</v>
       </c>
-      <c r="D173" s="1" t="s">
+      <c r="G173" s="3">
+        <v>1</v>
+      </c>
+      <c r="H173" s="7">
+        <v>0</v>
+      </c>
+      <c r="K173" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="L173" t="s">
         <v>1237</v>
       </c>
-      <c r="E173" s="1" t="s">
-        <v>1238</v>
-      </c>
-      <c r="F173" s="1" t="s">
-        <v>1239</v>
-      </c>
-      <c r="G173" s="3">
-        <v>1</v>
-      </c>
-      <c r="H173" s="7">
-        <v>0</v>
-      </c>
-      <c r="K173" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="L173" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="174" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="4" t="s">
+        <v>860</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>865</v>
+      </c>
+      <c r="C174" s="4" t="s">
         <v>861</v>
       </c>
-      <c r="B174" s="4" t="s">
-        <v>866</v>
-      </c>
-      <c r="C174" s="4" t="s">
+      <c r="D174" s="4" t="s">
         <v>862</v>
       </c>
-      <c r="D174" s="4" t="s">
+      <c r="E174" s="4" t="s">
         <v>863</v>
       </c>
-      <c r="E174" s="4" t="s">
+      <c r="F174" s="4" t="s">
         <v>864</v>
-      </c>
-      <c r="F174" s="4" t="s">
-        <v>865</v>
       </c>
       <c r="G174" s="5">
         <v>1</v>
@@ -14204,30 +14200,30 @@
       </c>
       <c r="J174" s="8"/>
       <c r="K174" s="4" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="L174" s="6" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="175" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C175" s="4" t="s">
         <v>1005</v>
       </c>
-      <c r="B175" s="4" t="s">
+      <c r="D175" s="4" t="s">
         <v>1006</v>
       </c>
-      <c r="C175" s="4" t="s">
+      <c r="E175" s="4" t="s">
         <v>1007</v>
       </c>
-      <c r="D175" s="4" t="s">
+      <c r="F175" s="4" t="s">
         <v>1008</v>
-      </c>
-      <c r="E175" s="4" t="s">
-        <v>1009</v>
-      </c>
-      <c r="F175" s="4" t="s">
-        <v>1010</v>
       </c>
       <c r="G175" s="5">
         <v>1</v>
@@ -14238,30 +14234,30 @@
       <c r="I175" s="8"/>
       <c r="J175" s="8"/>
       <c r="K175" s="4" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L175" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E176" s="4" t="s">
         <v>156</v>
       </c>
       <c r="F176" s="4" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="G176" s="5">
         <v>1</v>
@@ -14274,65 +14270,65 @@
       </c>
       <c r="J176" s="8"/>
       <c r="K176" s="4" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="L176" s="4" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="C177" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="B177" s="1" t="s">
-        <v>815</v>
-      </c>
-      <c r="C177" s="1" t="s">
+      <c r="D177" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="D177" s="1" t="s">
+      <c r="E177" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="E177" s="1" t="s">
+      <c r="F177" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="F177" s="1" t="s">
+      <c r="G177" s="3">
+        <v>1</v>
+      </c>
+      <c r="H177" s="7">
+        <v>0</v>
+      </c>
+      <c r="I177" s="7">
+        <v>0</v>
+      </c>
+      <c r="K177" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="L177" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A178" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="C178" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="G177" s="3">
-        <v>1</v>
-      </c>
-      <c r="H177" s="7">
-        <v>0</v>
-      </c>
-      <c r="I177" s="7">
-        <v>0</v>
-      </c>
-      <c r="K177" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="L177" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="178" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>847</v>
-      </c>
-      <c r="C178" s="1" t="s">
+      <c r="D178" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="D178" s="1" t="s">
+      <c r="E178" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="E178" s="1" t="s">
-        <v>761</v>
-      </c>
       <c r="F178" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G178" s="3">
         <v>1</v>
@@ -14341,7 +14337,7 @@
         <v>0</v>
       </c>
       <c r="K178" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L178" t="s">
         <v>395</v>
@@ -14351,9 +14347,7 @@
   <autoFilter ref="D1:D178" xr:uid="{66E79596-FBA2-41A9-9C17-FC94DBC0F687}">
     <filterColumn colId="0">
       <filters>
-        <filter val="c"/>
-        <filter val="m"/>
-        <filter val="o"/>
+        <filter val="f"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -14703,22 +14697,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B1" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="C1" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="D1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F1" t="s">
         <v>1011</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1012</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1013</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -14729,7 +14723,7 @@
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="E2">
         <v>0.77</v>
@@ -14743,7 +14737,7 @@
         <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="E3">
         <v>0.77</v>
@@ -14757,7 +14751,7 @@
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="E4">
         <v>0.7</v>
@@ -14771,7 +14765,7 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="E5">
         <v>0.7</v>
@@ -14785,7 +14779,7 @@
         <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="E6">
         <v>0.77</v>
@@ -14799,7 +14793,7 @@
         <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="E7">
         <v>0.7</v>
@@ -14813,7 +14807,7 @@
         <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="E8">
         <f>0.9*0.99</f>
@@ -14828,7 +14822,7 @@
         <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="E9">
         <v>0.7</v>
@@ -14842,7 +14836,7 @@
         <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="E10">
         <v>0.77</v>
@@ -14856,7 +14850,7 @@
         <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="E11">
         <f>0.9*0.99</f>
@@ -14865,13 +14859,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="B12" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="C12" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="E12">
         <f>0.9*0.99</f>
@@ -14886,7 +14880,7 @@
         <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="E13">
         <f>0.9*0.99</f>
@@ -14901,7 +14895,7 @@
         <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="E14">
         <v>0.77</v>
@@ -14915,7 +14909,7 @@
         <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="E15">
         <v>0.77</v>
@@ -14929,7 +14923,7 @@
         <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="E16">
         <v>0.77</v>
@@ -14943,7 +14937,7 @@
         <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="E17">
         <v>0.77</v>
@@ -14957,7 +14951,7 @@
         <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="E18">
         <v>0.77</v>
@@ -14971,7 +14965,7 @@
         <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="E19">
         <v>0.77</v>
@@ -14985,10 +14979,10 @@
         <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="D20" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="E20">
         <v>0.77</v>
@@ -15002,10 +14996,10 @@
         <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="D21" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="E21">
         <v>0.77</v>
@@ -15019,7 +15013,7 @@
         <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="E22">
         <v>0.77</v>
@@ -15033,7 +15027,7 @@
         <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="E23">
         <v>0.77</v>
@@ -15047,7 +15041,7 @@
         <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="E24">
         <v>0.77</v>
@@ -15061,10 +15055,10 @@
         <v>45</v>
       </c>
       <c r="C25" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="D25" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="E25">
         <v>0.77</v>
@@ -15072,13 +15066,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B26" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="C26" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="E26">
         <f>1/1.01</f>
@@ -15087,13 +15081,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="B27" t="s">
+        <v>999</v>
+      </c>
+      <c r="C27" t="s">
         <v>1001</v>
-      </c>
-      <c r="C27" t="s">
-        <v>1003</v>
       </c>
       <c r="E27">
         <f>0.77*0.7 + 0.9*0.3</f>
@@ -15108,7 +15102,7 @@
         <v>47</v>
       </c>
       <c r="C28" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="E28">
         <v>0.77</v>
@@ -15122,10 +15116,10 @@
         <v>48</v>
       </c>
       <c r="C29" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="D29" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="E29">
         <v>0.77</v>
@@ -15139,7 +15133,7 @@
         <v>49</v>
       </c>
       <c r="C30" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="E30">
         <v>0.77</v>
@@ -15153,7 +15147,7 @@
         <v>50</v>
       </c>
       <c r="C31" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -15167,7 +15161,7 @@
         <v>51</v>
       </c>
       <c r="C32" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="E32">
         <f>0.9*0.99</f>
@@ -15182,10 +15176,10 @@
         <v>52</v>
       </c>
       <c r="C33" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="D33" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="E33">
         <v>0.77</v>
@@ -15199,7 +15193,7 @@
         <v>55</v>
       </c>
       <c r="C34" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -15213,10 +15207,10 @@
         <v>56</v>
       </c>
       <c r="C35" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="D35" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="E35">
         <v>0.77</v>
@@ -15341,7 +15335,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B13" t="s">
         <v>156</v>
@@ -15349,26 +15343,26 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>815</v>
+      </c>
+      <c r="B14" t="s">
         <v>816</v>
-      </c>
-      <c r="B14" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="B15" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="B16" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
     </row>
   </sheetData>

--- a/data/basic_info.xlsx
+++ b/data/basic_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\trading_plan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2349A511-0092-402B-9DEE-F8ADB0DD3D1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B40847-F7E4-4106-AB38-BE641A4DCCA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14670" yWindow="3165" windowWidth="14265" windowHeight="20955" tabRatio="733" activeTab="1" xr2:uid="{855E00D3-25C3-4BB2-A61F-0D95BB1AF006}"/>
+    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28590" tabRatio="733" activeTab="1" xr2:uid="{855E00D3-25C3-4BB2-A61F-0D95BB1AF006}"/>
   </bookViews>
   <sheets>
     <sheet name="acct_info" sheetId="1" r:id="rId1"/>
@@ -4931,15 +4931,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SpecialAcountMark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>704_f_ya_0402</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1201_f_gtax_1947</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpecialAccountMark</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8528,10 +8528,10 @@
   <dimension ref="A1:M178"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F38" sqref="F38"/>
+      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8576,7 +8576,7 @@
         <v>751</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>1241</v>
+        <v>1243</v>
       </c>
       <c r="J1" s="7" t="s">
         <v>1218</v>
@@ -9080,7 +9080,7 @@
         <v>648</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>649</v>
@@ -12302,7 +12302,7 @@
         <v>602</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>603</v>

--- a/data/basic_info.xlsx
+++ b/data/basic_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\trading_plan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B40847-F7E4-4106-AB38-BE641A4DCCA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9CBC62-7904-451A-BE57-C09596813DBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28590" tabRatio="733" activeTab="1" xr2:uid="{855E00D3-25C3-4BB2-A61F-0D95BB1AF006}"/>
   </bookViews>
@@ -8528,10 +8528,10 @@
   <dimension ref="A1:M178"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomRight" activeCell="I65" sqref="I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8679,7 +8679,7 @@
         <v>1051</v>
       </c>
       <c r="G4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>1051</v>
       </c>
       <c r="G5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -8743,7 +8743,7 @@
         <v>1051</v>
       </c>
       <c r="G6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -8775,7 +8775,7 @@
         <v>1051</v>
       </c>
       <c r="G7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -8807,7 +8807,7 @@
         <v>1051</v>
       </c>
       <c r="G8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -8839,7 +8839,7 @@
         <v>1051</v>
       </c>
       <c r="G9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -8871,7 +8871,7 @@
         <v>1051</v>
       </c>
       <c r="G10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -8903,7 +8903,7 @@
         <v>1051</v>
       </c>
       <c r="G11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -8935,7 +8935,7 @@
         <v>1051</v>
       </c>
       <c r="G12" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -8967,7 +8967,7 @@
         <v>1051</v>
       </c>
       <c r="G13" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -8999,7 +8999,7 @@
         <v>1051</v>
       </c>
       <c r="G14" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -9031,7 +9031,7 @@
         <v>1051</v>
       </c>
       <c r="G15" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -9063,7 +9063,7 @@
         <v>1051</v>
       </c>
       <c r="G16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -9095,7 +9095,7 @@
         <v>594</v>
       </c>
       <c r="G17" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -9159,7 +9159,7 @@
         <v>1051</v>
       </c>
       <c r="G19" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -9255,7 +9255,7 @@
         <v>1051</v>
       </c>
       <c r="G22" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -9287,7 +9287,7 @@
         <v>1051</v>
       </c>
       <c r="G23" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -9383,7 +9383,7 @@
         <v>1051</v>
       </c>
       <c r="G26" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -9447,7 +9447,7 @@
         <v>1051</v>
       </c>
       <c r="G28" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -9511,7 +9511,7 @@
         <v>1051</v>
       </c>
       <c r="G30" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -9613,7 +9613,7 @@
         <v>1051</v>
       </c>
       <c r="G33" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -9715,7 +9715,7 @@
         <v>1051</v>
       </c>
       <c r="G36" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -9747,7 +9747,7 @@
         <v>1051</v>
       </c>
       <c r="G37" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -9779,7 +9779,7 @@
         <v>1051</v>
       </c>
       <c r="G38" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -9811,7 +9811,7 @@
         <v>1051</v>
       </c>
       <c r="G39" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -9913,7 +9913,7 @@
         <v>1051</v>
       </c>
       <c r="G42" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
@@ -9945,7 +9945,7 @@
         <v>1051</v>
       </c>
       <c r="G43" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>1051</v>
       </c>
       <c r="G44" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
@@ -10009,7 +10009,7 @@
         <v>1051</v>
       </c>
       <c r="G45" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" s="7">
         <v>0</v>
@@ -10041,7 +10041,7 @@
         <v>1051</v>
       </c>
       <c r="G46" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
@@ -10073,7 +10073,7 @@
         <v>1051</v>
       </c>
       <c r="G47" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47" s="7">
         <v>0</v>
@@ -10105,7 +10105,7 @@
         <v>1051</v>
       </c>
       <c r="G48" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" s="7">
         <v>0</v>
@@ -10137,7 +10137,7 @@
         <v>1051</v>
       </c>
       <c r="G49" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -10171,7 +10171,7 @@
         <v>1051</v>
       </c>
       <c r="G50" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -10203,7 +10203,7 @@
         <v>1051</v>
       </c>
       <c r="G51" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" s="7">
         <v>0</v>
@@ -10237,7 +10237,7 @@
         <v>1051</v>
       </c>
       <c r="G52" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" s="7">
         <v>0</v>
@@ -10269,7 +10269,7 @@
         <v>1051</v>
       </c>
       <c r="G53" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" s="7">
         <v>0</v>
@@ -10301,7 +10301,7 @@
         <v>1051</v>
       </c>
       <c r="G54" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" s="7">
         <v>0</v>
@@ -10333,7 +10333,7 @@
         <v>1051</v>
       </c>
       <c r="G55" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55" s="7">
         <v>0</v>
@@ -10365,7 +10365,7 @@
         <v>1051</v>
       </c>
       <c r="G56" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56" s="7">
         <v>0</v>
@@ -10397,7 +10397,7 @@
         <v>1051</v>
       </c>
       <c r="G57" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" s="7">
         <v>0</v>
@@ -10431,7 +10431,7 @@
         <v>1051</v>
       </c>
       <c r="G58" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" s="7">
         <v>0</v>
@@ -10465,7 +10465,7 @@
         <v>1051</v>
       </c>
       <c r="G59" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" s="7">
         <v>0</v>
@@ -10497,7 +10497,7 @@
         <v>1051</v>
       </c>
       <c r="G60" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" s="7">
         <v>0</v>
@@ -10529,7 +10529,7 @@
         <v>1051</v>
       </c>
       <c r="G61" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61" s="7">
         <v>0</v>
@@ -10561,7 +10561,7 @@
         <v>678</v>
       </c>
       <c r="G62" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62" s="7">
         <v>0</v>
@@ -10593,7 +10593,7 @@
         <v>678</v>
       </c>
       <c r="G63" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" s="7">
         <v>0</v>
@@ -10625,7 +10625,7 @@
         <v>678</v>
       </c>
       <c r="G64" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" s="7">
         <v>0</v>
@@ -10657,7 +10657,7 @@
         <v>678</v>
       </c>
       <c r="G65" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" s="7">
         <v>0</v>
@@ -10691,7 +10691,7 @@
         <v>1051</v>
       </c>
       <c r="G66" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66" s="7">
         <v>0</v>
@@ -10723,7 +10723,7 @@
         <v>678</v>
       </c>
       <c r="G67" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67" s="7">
         <v>0</v>
@@ -10755,7 +10755,7 @@
         <v>678</v>
       </c>
       <c r="G68" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68" s="7">
         <v>0</v>
@@ -10787,7 +10787,7 @@
         <v>678</v>
       </c>
       <c r="G69" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69" s="7">
         <v>0</v>
@@ -10819,7 +10819,7 @@
         <v>678</v>
       </c>
       <c r="G70" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" s="7">
         <v>0</v>
@@ -10851,7 +10851,7 @@
         <v>678</v>
       </c>
       <c r="G71" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71" s="7">
         <v>0</v>
@@ -10918,7 +10918,7 @@
         <v>1051</v>
       </c>
       <c r="G73" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73" s="7">
         <v>0</v>
@@ -10985,7 +10985,7 @@
         <v>678</v>
       </c>
       <c r="G75" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75" s="7">
         <v>0</v>
@@ -11088,7 +11088,7 @@
         <v>678</v>
       </c>
       <c r="G78" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" s="7">
         <v>0</v>
@@ -11158,7 +11158,7 @@
         <v>678</v>
       </c>
       <c r="G80" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80" s="7">
         <v>0</v>
@@ -11260,7 +11260,7 @@
         <v>678</v>
       </c>
       <c r="G83" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83" s="7">
         <v>0</v>

--- a/data/basic_info.xlsx
+++ b/data/basic_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\trading_plan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9CBC62-7904-451A-BE57-C09596813DBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8846EB96-394A-40D0-BFD9-41D6C3FE8A11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28590" tabRatio="733" activeTab="1" xr2:uid="{855E00D3-25C3-4BB2-A61F-0D95BB1AF006}"/>
+    <workbookView xWindow="900" yWindow="8430" windowWidth="13980" windowHeight="13485" tabRatio="733" activeTab="3" xr2:uid="{855E00D3-25C3-4BB2-A61F-0D95BB1AF006}"/>
   </bookViews>
   <sheets>
     <sheet name="acct_info" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">acct_info!$B$1:$B$125</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">acctinfo!$D$1:$D$178</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">acctinfo!$D$1:$D$179</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2478" uniqueCount="1244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2518" uniqueCount="1286">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2287,10 +2287,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1210</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1211</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4940,6 +4936,178 @@
   </si>
   <si>
     <t>SpecialAccountMark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>308</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>308_f_zx_0056</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>306100056</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrdCodeIn4121FinalNew</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msah2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msah2-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msah4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msah5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msahh7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msah7B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msah8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msah11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msah12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msah15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msrc1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rc2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rc3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msrc5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rc6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msrc7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msrc11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>926</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>量化26号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8525,13 +8693,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E89EC7F-6807-4E54-B5E1-E4E4E9C6C1B6}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:M178"/>
+  <dimension ref="A1:M179"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I65" sqref="I65"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8552,40 +8720,40 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>831</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>830</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="7" t="s">
         <v>750</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
+        <v>1242</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>1217</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="I1" s="7" t="s">
-        <v>1243</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>1218</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>752</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="M1" s="1"/>
     </row>
@@ -8594,7 +8762,7 @@
         <v>529</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>534</v>
@@ -8618,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
@@ -8629,7 +8797,7 @@
         <v>529</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>535</v>
@@ -8653,30 +8821,30 @@
         <v>0</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="G4" s="3">
         <v>0</v>
@@ -8685,7 +8853,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>395</v>
@@ -8693,22 +8861,22 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="G5" s="3">
         <v>0</v>
@@ -8717,7 +8885,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>395</v>
@@ -8725,22 +8893,22 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="G6" s="3">
         <v>0</v>
@@ -8749,7 +8917,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>395</v>
@@ -8757,22 +8925,22 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="G7" s="3">
         <v>0</v>
@@ -8781,7 +8949,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>395</v>
@@ -8789,22 +8957,22 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -8813,7 +8981,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>395</v>
@@ -8821,22 +8989,22 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
@@ -8845,7 +9013,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>395</v>
@@ -8853,22 +9021,22 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
@@ -8877,7 +9045,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>395</v>
@@ -8885,23 +9053,23 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>1049</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>1050</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>1051</v>
-      </c>
       <c r="G11" s="3">
         <v>0</v>
       </c>
@@ -8909,7 +9077,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>395</v>
@@ -8917,22 +9085,22 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="G12" s="3">
         <v>0</v>
@@ -8941,7 +9109,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>395</v>
@@ -8949,22 +9117,22 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="G13" s="3">
         <v>0</v>
@@ -8973,7 +9141,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>395</v>
@@ -8981,22 +9149,22 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -9005,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>395</v>
@@ -9013,22 +9181,22 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="G15" s="3">
         <v>0</v>
@@ -9037,7 +9205,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>395</v>
@@ -9045,22 +9213,22 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>1190</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>1049</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>1191</v>
-      </c>
       <c r="F16" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="G16" s="3">
         <v>0</v>
@@ -9069,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>395</v>
@@ -9077,22 +9245,22 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>1242</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>650</v>
-      </c>
       <c r="F17" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G17" s="3">
         <v>0</v>
@@ -9101,7 +9269,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="L17" t="s">
         <v>395</v>
@@ -9112,7 +9280,7 @@
         <v>498</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>514</v>
@@ -9133,7 +9301,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>537</v>
@@ -9141,22 +9309,22 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="G19" s="3">
         <v>0</v>
@@ -9165,7 +9333,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>395</v>
@@ -9176,7 +9344,7 @@
         <v>499</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>515</v>
@@ -9197,10 +9365,10 @@
         <v>0</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
@@ -9208,7 +9376,7 @@
         <v>499</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>516</v>
@@ -9229,30 +9397,30 @@
         <v>0</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -9261,7 +9429,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>395</v>
@@ -9269,23 +9437,23 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>1049</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>1050</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>1051</v>
-      </c>
       <c r="G23" s="3">
         <v>0</v>
       </c>
@@ -9293,7 +9461,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>395</v>
@@ -9304,7 +9472,7 @@
         <v>67</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>114</v>
@@ -9325,27 +9493,27 @@
         <v>0</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>976</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>975</v>
-      </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>927</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>928</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>527</v>
@@ -9357,30 +9525,30 @@
         <v>0</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>1052</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>1053</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>1054</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>1049</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>1055</v>
-      </c>
       <c r="F26" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="G26" s="3">
         <v>0</v>
@@ -9389,7 +9557,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="L26" t="s">
         <v>395</v>
@@ -9400,7 +9568,7 @@
         <v>500</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>517</v>
@@ -9412,16 +9580,16 @@
         <v>158</v>
       </c>
       <c r="F27" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="7">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1" t="s">
         <v>765</v>
-      </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="7">
-        <v>0</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>766</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>395</v>
@@ -9429,22 +9597,22 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>1056</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>1057</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>1049</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>1058</v>
-      </c>
       <c r="F28" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="G28" s="3">
         <v>0</v>
@@ -9453,7 +9621,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="L28" t="s">
         <v>395</v>
@@ -9464,7 +9632,7 @@
         <v>501</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>518</v>
@@ -9485,31 +9653,31 @@
         <v>0</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>1046</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>1047</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>1049</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>1050</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>1051</v>
-      </c>
       <c r="G30" s="3">
         <v>0</v>
       </c>
@@ -9517,7 +9685,7 @@
         <v>0</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="L30" t="s">
         <v>395</v>
@@ -9528,7 +9696,7 @@
         <v>98</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>119</v>
@@ -9549,13 +9717,13 @@
         <v>0</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
@@ -9563,7 +9731,7 @@
         <v>98</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>519</v>
@@ -9584,33 +9752,33 @@
         <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="K32" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="L32" s="1" t="s">
         <v>962</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>963</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>1059</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>1060</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>1061</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>1049</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>1062</v>
-      </c>
       <c r="F33" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="G33" s="3">
         <v>0</v>
@@ -9619,7 +9787,7 @@
         <v>0</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="L33" t="s">
         <v>395</v>
@@ -9630,7 +9798,7 @@
         <v>505</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>520</v>
@@ -9651,13 +9819,13 @@
         <v>0</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
@@ -9665,7 +9833,7 @@
         <v>505</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>521</v>
@@ -9686,33 +9854,33 @@
         <v>0</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>1063</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>1064</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>1065</v>
-      </c>
       <c r="D36" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="G36" s="3">
         <v>0</v>
@@ -9721,7 +9889,7 @@
         <v>0</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="L36" t="s">
         <v>395</v>
@@ -9729,22 +9897,22 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>1066</v>
+        <v>1243</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1067</v>
+        <v>1244</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>1068</v>
+        <v>1245</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>1049</v>
+        <v>1246</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>1055</v>
+        <v>1247</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>1051</v>
+        <v>1248</v>
       </c>
       <c r="G37" s="3">
         <v>0</v>
@@ -9752,31 +9920,27 @@
       <c r="H37" s="7">
         <v>0</v>
       </c>
-      <c r="K37" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="L37" t="s">
-        <v>395</v>
-      </c>
+      <c r="K37" s="1"/>
+      <c r="L37"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>1072</v>
+        <v>1054</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="G38" s="3">
         <v>0</v>
@@ -9785,7 +9949,7 @@
         <v>0</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="L38" t="s">
         <v>395</v>
@@ -9793,22 +9957,22 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="G39" s="3">
         <v>0</v>
@@ -9817,132 +9981,132 @@
         <v>0</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="L39" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>897</v>
+        <v>1072</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>898</v>
+        <v>1073</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>899</v>
+        <v>1074</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>900</v>
+        <v>1048</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>901</v>
+        <v>1075</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>902</v>
+        <v>1050</v>
       </c>
       <c r="G40" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
       </c>
-      <c r="I40" s="7">
-        <v>0</v>
-      </c>
       <c r="K40" s="1" t="s">
-        <v>893</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>906</v>
+        <v>725</v>
+      </c>
+      <c r="L40" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>528</v>
+        <v>896</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>530</v>
+        <v>898</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>531</v>
+        <v>899</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>532</v>
+        <v>900</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>533</v>
+        <v>901</v>
       </c>
       <c r="G41" s="3">
         <v>1</v>
       </c>
       <c r="H41" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" s="7">
         <v>0</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="L41" s="1" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>1077</v>
+        <v>528</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>1078</v>
+        <v>903</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1079</v>
+        <v>530</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>1049</v>
+        <v>531</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>1080</v>
+        <v>532</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>1051</v>
+        <v>533</v>
       </c>
       <c r="G42" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" s="7">
+        <v>1</v>
+      </c>
+      <c r="I42" s="7">
         <v>0</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="L42" t="s">
-        <v>395</v>
+        <v>892</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>904</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1083</v>
+        <v>1078</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>1072</v>
+        <v>1079</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
@@ -9951,7 +10115,7 @@
         <v>0</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="L43" t="s">
         <v>395</v>
@@ -9959,22 +10123,22 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>1055</v>
+        <v>1071</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="G44" s="3">
         <v>0</v>
@@ -9983,30 +10147,30 @@
         <v>0</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="L44" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="L44" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -10015,7 +10179,7 @@
         <v>0</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="L45" s="1" t="s">
         <v>395</v>
@@ -10023,22 +10187,22 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>1076</v>
+        <v>1054</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="G46" s="3">
         <v>0</v>
@@ -10047,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="L46" s="1" t="s">
         <v>395</v>
@@ -10055,22 +10219,22 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="G47" s="3">
         <v>0</v>
@@ -10079,7 +10243,7 @@
         <v>0</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="L47" s="1" t="s">
         <v>395</v>
@@ -10087,22 +10251,22 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1098</v>
+        <v>1093</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="G48" s="3">
         <v>0</v>
@@ -10111,30 +10275,30 @@
         <v>0</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="L48" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="49" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>1100</v>
+        <v>1095</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>1101</v>
+        <v>1096</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1102</v>
+        <v>1097</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>1103</v>
+        <v>1098</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="G49" s="3">
         <v>0</v>
@@ -10142,33 +10306,31 @@
       <c r="H49" s="7">
         <v>0</v>
       </c>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
       <c r="K49" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="L49" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>1104</v>
+        <v>1099</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>1105</v>
+        <v>1100</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>1055</v>
+        <v>1102</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="G50" s="3">
         <v>0</v>
@@ -10176,31 +10338,33 @@
       <c r="H50" s="7">
         <v>0</v>
       </c>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
       <c r="K50" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="L50" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="51" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>1105</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>1108</v>
-      </c>
       <c r="D51" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="G51" s="3">
         <v>0</v>
@@ -10208,33 +10372,31 @@
       <c r="H51" s="7">
         <v>0</v>
       </c>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
       <c r="K51" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="L51" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>1107</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>1140</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>1141</v>
-      </c>
       <c r="D52" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>1142</v>
+        <v>1054</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
@@ -10242,8 +10404,10 @@
       <c r="H52" s="7">
         <v>0</v>
       </c>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
       <c r="K52" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="L52" s="1" t="s">
         <v>395</v>
@@ -10251,22 +10415,22 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1110</v>
+        <v>1139</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>1111</v>
+        <v>1140</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>1112</v>
+        <v>1141</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="G53" s="3">
         <v>0</v>
@@ -10275,7 +10439,7 @@
         <v>0</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="L53" s="1" t="s">
         <v>395</v>
@@ -10283,22 +10447,22 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>1113</v>
+        <v>1108</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>1114</v>
+        <v>1109</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>1115</v>
+        <v>1110</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>1116</v>
+        <v>1111</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="G54" s="3">
         <v>0</v>
@@ -10307,7 +10471,7 @@
         <v>0</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="L54" s="1" t="s">
         <v>395</v>
@@ -10315,22 +10479,22 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>1117</v>
+        <v>1112</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>1118</v>
+        <v>1113</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>1119</v>
+        <v>1114</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>1076</v>
+        <v>1115</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="G55" s="3">
         <v>0</v>
@@ -10339,7 +10503,7 @@
         <v>0</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="L55" s="1" t="s">
         <v>395</v>
@@ -10347,22 +10511,22 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>1055</v>
+        <v>1075</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="G56" s="3">
         <v>0</v>
@@ -10371,30 +10535,30 @@
         <v>0</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="L56" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="57" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>1076</v>
+        <v>1054</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="G57" s="3">
         <v>0</v>
@@ -10402,10 +10566,8 @@
       <c r="H57" s="7">
         <v>0</v>
       </c>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7"/>
       <c r="K57" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="L57" s="1" t="s">
         <v>395</v>
@@ -10413,22 +10575,22 @@
     </row>
     <row r="58" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>1129</v>
+        <v>1075</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -10439,30 +10601,30 @@
       <c r="I58" s="7"/>
       <c r="J58" s="7"/>
       <c r="K58" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="L58" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>1131</v>
+        <v>1126</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1132</v>
+        <v>1127</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>1080</v>
+        <v>1128</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="G59" s="3">
         <v>0</v>
@@ -10470,8 +10632,10 @@
       <c r="H59" s="7">
         <v>0</v>
       </c>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
       <c r="K59" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="L59" s="1" t="s">
         <v>395</v>
@@ -10479,22 +10643,22 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>1136</v>
+        <v>1079</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="G60" s="3">
         <v>0</v>
@@ -10503,7 +10667,7 @@
         <v>0</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="L60" s="1" t="s">
         <v>395</v>
@@ -10511,22 +10675,22 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1139</v>
+        <v>1134</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>1076</v>
+        <v>1135</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -10535,7 +10699,7 @@
         <v>0</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="L61" s="1" t="s">
         <v>395</v>
@@ -10543,22 +10707,22 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>665</v>
+        <v>1136</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>682</v>
+        <v>1138</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>683</v>
+        <v>1048</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>680</v>
+        <v>1075</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>678</v>
+        <v>1050</v>
       </c>
       <c r="G62" s="3">
         <v>0</v>
@@ -10567,30 +10731,30 @@
         <v>0</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="L62" t="s">
+        <v>725</v>
+      </c>
+      <c r="L62" s="1" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="G63" s="3">
         <v>0</v>
@@ -10599,7 +10763,7 @@
         <v>0</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="L63" t="s">
         <v>395</v>
@@ -10607,22 +10771,22 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="G64" s="3">
         <v>0</v>
@@ -10631,30 +10795,30 @@
         <v>0</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="L64" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="65" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>1165</v>
+        <v>1144</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="G65" s="3">
         <v>0</v>
@@ -10662,33 +10826,31 @@
       <c r="H65" s="7">
         <v>0</v>
       </c>
-      <c r="I65" s="7"/>
-      <c r="J65" s="7"/>
       <c r="K65" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="L65" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>1146</v>
+        <v>667</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>1147</v>
+        <v>1164</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1148</v>
+        <v>697</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>1049</v>
+        <v>682</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>1116</v>
+        <v>699</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>1051</v>
+        <v>677</v>
       </c>
       <c r="G66" s="3">
         <v>0</v>
@@ -10696,8 +10858,10 @@
       <c r="H66" s="7">
         <v>0</v>
       </c>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
       <c r="K66" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="L66" t="s">
         <v>395</v>
@@ -10705,22 +10869,22 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>669</v>
+        <v>1145</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>702</v>
+        <v>1147</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>683</v>
+        <v>1048</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>703</v>
+        <v>1115</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>678</v>
+        <v>1050</v>
       </c>
       <c r="G67" s="3">
         <v>0</v>
@@ -10729,7 +10893,7 @@
         <v>0</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="L67" t="s">
         <v>395</v>
@@ -10737,22 +10901,22 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="G68" s="3">
         <v>0</v>
@@ -10761,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="L68" t="s">
         <v>395</v>
@@ -10769,22 +10933,22 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="G69" s="3">
         <v>0</v>
@@ -10793,7 +10957,7 @@
         <v>0</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="L69" t="s">
         <v>395</v>
@@ -10801,22 +10965,22 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>731</v>
+        <v>707</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>680</v>
+        <v>705</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -10825,7 +10989,7 @@
         <v>0</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="L70" t="s">
         <v>395</v>
@@ -10833,22 +10997,22 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>714</v>
+        <v>730</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>715</v>
+        <v>679</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="G71" s="3">
         <v>0</v>
@@ -10857,675 +11021,672 @@
         <v>0</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="L71" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="G72" s="3">
+        <v>0</v>
+      </c>
+      <c r="H72" s="7">
+        <v>0</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="L72" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="G73" s="3">
+        <v>1</v>
+      </c>
+      <c r="H73" s="7">
+        <v>0</v>
+      </c>
+      <c r="I73" s="7">
+        <v>0</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="G74" s="3">
+        <v>0</v>
+      </c>
+      <c r="H74" s="7">
+        <v>0</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="L74" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>915</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="C75" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="G75" s="3">
+        <v>1</v>
+      </c>
+      <c r="H75" s="7">
+        <v>0</v>
+      </c>
+      <c r="I75" s="7">
+        <v>0</v>
+      </c>
+      <c r="K75" s="1" t="s">
         <v>913</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="G72" s="3">
-        <v>1</v>
-      </c>
-      <c r="H72" s="7">
-        <v>0</v>
-      </c>
-      <c r="I72" s="7">
-        <v>0</v>
-      </c>
-      <c r="K72" s="1" t="s">
-        <v>914</v>
-      </c>
-      <c r="L72" s="1" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
-        <v>1156</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C73" s="1" t="s">
+      <c r="L75" s="1" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>1158</v>
       </c>
-      <c r="D73" s="1" t="s">
-        <v>1049</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>1055</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>1051</v>
-      </c>
-      <c r="G73" s="3">
-        <v>0</v>
-      </c>
-      <c r="H73" s="7">
-        <v>0</v>
-      </c>
-      <c r="K73" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="L73" t="s">
+      <c r="C76" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="G76" s="3">
+        <v>0</v>
+      </c>
+      <c r="H76" s="7">
+        <v>0</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="L76" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>916</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="G74" s="3">
-        <v>1</v>
-      </c>
-      <c r="H74" s="7">
-        <v>0</v>
-      </c>
-      <c r="I74" s="7">
-        <v>0</v>
-      </c>
-      <c r="K74" s="1" t="s">
-        <v>914</v>
-      </c>
-      <c r="L74" s="1" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>1159</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="G75" s="3">
-        <v>0</v>
-      </c>
-      <c r="H75" s="7">
-        <v>0</v>
-      </c>
-      <c r="K75" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="L75" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>917</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="G76" s="3">
-        <v>0</v>
-      </c>
-      <c r="H76" s="7">
-        <v>0</v>
-      </c>
-      <c r="I76" s="7">
-        <v>0</v>
-      </c>
-      <c r="K76" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="L76" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>489</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>158</v>
       </c>
       <c r="F77" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="G77" s="3">
+        <v>0</v>
+      </c>
+      <c r="H77" s="7">
+        <v>0</v>
+      </c>
+      <c r="I77" s="7">
+        <v>0</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F78" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="G77" s="3">
+      <c r="G78" s="3">
         <v>1</v>
       </c>
-      <c r="H77" s="7">
+      <c r="H78" s="7">
         <v>1</v>
       </c>
-      <c r="I77" s="7">
-        <v>0</v>
-      </c>
-      <c r="J77" s="7"/>
-      <c r="K77" s="1" t="s">
-        <v>920</v>
-      </c>
-      <c r="L77" s="1" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>1160</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="G78" s="3">
-        <v>0</v>
-      </c>
-      <c r="H78" s="7">
-        <v>0</v>
-      </c>
-      <c r="I78" s="7"/>
+      <c r="I78" s="7">
+        <v>0</v>
+      </c>
       <c r="J78" s="7"/>
       <c r="K78" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="L78" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>919</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>490</v>
+        <v>673</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>953</v>
+        <v>1159</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>508</v>
+        <v>718</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>522</v>
+        <v>682</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>374</v>
+        <v>343</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>527</v>
+        <v>677</v>
       </c>
       <c r="G79" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79" s="7">
         <v>0</v>
       </c>
-      <c r="I79" s="7">
-        <v>0</v>
-      </c>
+      <c r="I79" s="7"/>
       <c r="J79" s="7"/>
       <c r="K79" s="1" t="s">
-        <v>960</v>
-      </c>
-      <c r="L79" s="1" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+        <v>725</v>
+      </c>
+      <c r="L79" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>675</v>
+        <v>490</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>1163</v>
+        <v>952</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>737</v>
+        <v>508</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>683</v>
+        <v>522</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>706</v>
+        <v>374</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>678</v>
+        <v>527</v>
       </c>
       <c r="G80" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80" s="7">
         <v>0</v>
       </c>
+      <c r="I80" s="7">
+        <v>0</v>
+      </c>
+      <c r="J80" s="7"/>
       <c r="K80" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="L80" t="s">
+        <v>959</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="7">
+        <v>0</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="L81" t="s">
         <v>395</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>954</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="G81" s="3">
-        <v>1</v>
-      </c>
-      <c r="H81" s="7">
-        <v>0</v>
-      </c>
-      <c r="I81" s="7">
-        <v>0</v>
-      </c>
-      <c r="K81" s="1" t="s">
-        <v>743</v>
-      </c>
-      <c r="L81" s="1" t="s">
-        <v>981</v>
       </c>
     </row>
     <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>932</v>
+        <v>378</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>933</v>
+        <v>379</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>934</v>
+        <v>522</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>935</v>
+        <v>249</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>936</v>
+        <v>527</v>
       </c>
       <c r="G82" s="3">
         <v>1</v>
       </c>
       <c r="H82" s="7">
+        <v>0</v>
+      </c>
+      <c r="I82" s="7">
+        <v>0</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="G83" s="3">
         <v>1</v>
       </c>
-      <c r="I82" s="7">
+      <c r="H83" s="7">
         <v>1</v>
       </c>
-      <c r="K82" s="1" t="s">
-        <v>869</v>
-      </c>
-      <c r="L82" s="1" t="s">
+      <c r="I83" s="7">
+        <v>1</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="L83" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>1164</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="7">
-        <v>0</v>
-      </c>
-      <c r="K83" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="L83" t="s">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="G84" s="3">
+        <v>0</v>
+      </c>
+      <c r="H84" s="7">
+        <v>0</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="L84" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="1" t="s">
+    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B85" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="G85" s="3">
+        <v>1</v>
+      </c>
+      <c r="H85" s="7">
+        <v>0</v>
+      </c>
+      <c r="I85" s="7">
+        <v>0</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="G86" s="3">
+        <v>0</v>
+      </c>
+      <c r="H86" s="7">
+        <v>0</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="L86" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>956</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="D84" s="1" t="s">
+      <c r="C87" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="D87" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="E84" s="1" t="s">
+      <c r="E87" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="F84" s="1" t="s">
+      <c r="F87" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="G84" s="3">
+      <c r="G87" s="3">
         <v>1</v>
       </c>
-      <c r="H84" s="7">
-        <v>0</v>
-      </c>
-      <c r="I84" s="7">
-        <v>0</v>
-      </c>
-      <c r="K84" s="1" t="s">
-        <v>914</v>
-      </c>
-      <c r="L84" s="1" t="s">
+      <c r="H87" s="7">
+        <v>0</v>
+      </c>
+      <c r="I87" s="7">
+        <v>0</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="L87" s="1" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>835</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="G85" s="3">
-        <v>0</v>
-      </c>
-      <c r="H85" s="7">
-        <v>0</v>
-      </c>
-      <c r="K85" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="L85" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="B86" s="1" t="s">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="G88" s="3">
+        <v>0</v>
+      </c>
+      <c r="H88" s="7">
+        <v>0</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="L88" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>957</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="D86" s="1" t="s">
+      <c r="C89" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D89" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="E86" s="1" t="s">
+      <c r="E89" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="F86" s="1" t="s">
+      <c r="F89" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="G86" s="3">
+      <c r="G89" s="3">
         <v>1</v>
       </c>
-      <c r="H86" s="7">
-        <v>0</v>
-      </c>
-      <c r="I86" s="7">
-        <v>0</v>
-      </c>
-      <c r="K86" s="1" t="s">
-        <v>914</v>
-      </c>
-      <c r="L86" s="1" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="B87" s="1" t="s">
+      <c r="H89" s="7">
+        <v>0</v>
+      </c>
+      <c r="I89" s="7">
+        <v>0</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>844</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="G87" s="3">
-        <v>0</v>
-      </c>
-      <c r="H87" s="7">
-        <v>0</v>
-      </c>
-      <c r="K87" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="L87" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>958</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="G88" s="3">
-        <v>1</v>
-      </c>
-      <c r="H88" s="7">
-        <v>0</v>
-      </c>
-      <c r="I88" s="7">
-        <v>0</v>
-      </c>
-      <c r="K88" s="1" t="s">
-        <v>914</v>
-      </c>
-      <c r="L88" s="1" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
+      <c r="C90" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>845</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="7">
-        <v>0</v>
-      </c>
-      <c r="K89" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="L89" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="1" t="s">
+      <c r="D90" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="G90" s="3">
+        <v>0</v>
+      </c>
+      <c r="H90" s="7">
+        <v>0</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="L90" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>1026</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="C91" s="1" t="s">
         <v>1027</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="D91" s="1" t="s">
         <v>1028</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="E91" s="1" t="s">
         <v>1029</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="F91" s="1" t="s">
         <v>1030</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>1031</v>
-      </c>
-      <c r="G90" s="3">
-        <v>1</v>
-      </c>
-      <c r="H90" s="7">
-        <v>0</v>
-      </c>
-      <c r="I90" s="7">
-        <v>0</v>
-      </c>
-      <c r="K90" s="1" t="s">
-        <v>914</v>
-      </c>
-      <c r="L90" s="1" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A91" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>909</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>594</v>
       </c>
       <c r="G91" s="3">
         <v>1</v>
@@ -11533,31 +11694,34 @@
       <c r="H91" s="7">
         <v>0</v>
       </c>
+      <c r="I91" s="7">
+        <v>0</v>
+      </c>
       <c r="K91" s="1" t="s">
-        <v>726</v>
+        <v>913</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>493</v>
+        <v>594</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>959</v>
+        <v>908</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>511</v>
+        <v>737</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>522</v>
+        <v>591</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>249</v>
+        <v>595</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>527</v>
+        <v>593</v>
       </c>
       <c r="G92" s="3">
         <v>1</v>
@@ -11565,34 +11729,31 @@
       <c r="H92" s="7">
         <v>0</v>
       </c>
-      <c r="I92" s="7">
-        <v>0</v>
-      </c>
       <c r="K92" s="1" t="s">
-        <v>743</v>
+        <v>725</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>647</v>
+        <v>493</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>924</v>
+        <v>958</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>651</v>
+        <v>511</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>592</v>
+        <v>522</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>596</v>
+        <v>249</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>594</v>
+        <v>527</v>
       </c>
       <c r="G93" s="3">
         <v>1</v>
@@ -11600,347 +11761,350 @@
       <c r="H93" s="7">
         <v>0</v>
       </c>
-      <c r="J93" s="7" t="s">
+      <c r="I93" s="7">
+        <v>0</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="G94" s="3">
+        <v>1</v>
+      </c>
+      <c r="H94" s="7">
+        <v>0</v>
+      </c>
+      <c r="J94" s="7" t="s">
+        <v>1220</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="L94" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="G95" s="3">
+        <v>0</v>
+      </c>
+      <c r="H95" s="7">
+        <v>0</v>
+      </c>
+      <c r="L95" s="1" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="G96" s="3">
+        <v>1</v>
+      </c>
+      <c r="H96" s="7">
+        <v>0</v>
+      </c>
+      <c r="J96" s="7" t="s">
         <v>1221</v>
       </c>
-      <c r="K93" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="L93" t="s">
+      <c r="K96" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="L96" t="s">
         <v>395</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="7">
-        <v>0</v>
-      </c>
-      <c r="L94" s="1" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>972</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="G95" s="3">
-        <v>1</v>
-      </c>
-      <c r="H95" s="7">
-        <v>0</v>
-      </c>
-      <c r="J95" s="7" t="s">
-        <v>1222</v>
-      </c>
-      <c r="K95" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="L95" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
-      <c r="H96" s="7">
-        <v>0</v>
-      </c>
-      <c r="L96" s="1" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="G97" s="3">
+        <v>0</v>
+      </c>
+      <c r="H97" s="7">
+        <v>0</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="G98" s="3">
+        <v>0</v>
+      </c>
+      <c r="H98" s="7">
+        <v>0</v>
+      </c>
+      <c r="L98" s="1" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="G99" s="3">
+        <v>1</v>
+      </c>
+      <c r="H99" s="7">
+        <v>0</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="L99" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="C97" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="D97" s="1" t="s">
+      <c r="C100" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="F100" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="E97" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="G97" s="3">
-        <v>0</v>
-      </c>
-      <c r="H97" s="7">
-        <v>0</v>
-      </c>
-      <c r="L97" s="1" t="s">
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="7">
+        <v>0</v>
+      </c>
+      <c r="L100" s="1" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="7">
+        <v>0</v>
+      </c>
+      <c r="L101" s="1" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="G102" s="3">
+        <v>1</v>
+      </c>
+      <c r="H102" s="7">
+        <v>0</v>
+      </c>
+      <c r="K102" s="1" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>930</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="G98" s="3">
-        <v>1</v>
-      </c>
-      <c r="H98" s="7">
-        <v>0</v>
-      </c>
-      <c r="K98" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="L98" t="s">
+      <c r="L102" t="s">
         <v>395</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="G99" s="3">
-        <v>0</v>
-      </c>
-      <c r="H99" s="7">
-        <v>0</v>
-      </c>
-      <c r="L99" s="1" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="7">
-        <v>0</v>
-      </c>
-      <c r="L100" s="1" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A101" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>938</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="G101" s="3">
-        <v>1</v>
-      </c>
-      <c r="H101" s="7">
-        <v>0</v>
-      </c>
-      <c r="K101" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="L101" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="7">
-        <v>0</v>
-      </c>
-      <c r="L102" s="1" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="D103" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="F103" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="E103" s="1" t="s">
+      <c r="G103" s="3">
+        <v>0</v>
+      </c>
+      <c r="H103" s="7">
+        <v>0</v>
+      </c>
+      <c r="L103" s="1" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="E104" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="F103" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="G103" s="3">
-        <v>0</v>
-      </c>
-      <c r="H103" s="7">
-        <v>0</v>
-      </c>
-      <c r="L103" s="1" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A104" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>940</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>604</v>
-      </c>
       <c r="F104" s="1" t="s">
-        <v>594</v>
+        <v>677</v>
       </c>
       <c r="G104" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H104" s="7">
         <v>0</v>
       </c>
-      <c r="K104" s="1" t="s">
+      <c r="L104" s="1" t="s">
         <v>726</v>
-      </c>
-      <c r="L104" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G105" s="3">
         <v>1</v>
@@ -11949,372 +12113,372 @@
         <v>0</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="L105" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>669</v>
+        <v>659</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>942</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>701</v>
+        <v>660</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>677</v>
+        <v>591</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>680</v>
+        <v>603</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>686</v>
+        <v>593</v>
       </c>
       <c r="G106" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H106" s="7">
         <v>0</v>
       </c>
-      <c r="L106" s="1" t="s">
+      <c r="K106" s="1" t="s">
         <v>725</v>
+      </c>
+      <c r="L106" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="G107" s="3">
+        <v>0</v>
+      </c>
+      <c r="H107" s="7">
+        <v>0</v>
+      </c>
+      <c r="L107" s="1" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="G108" s="3">
+        <v>0</v>
+      </c>
+      <c r="H108" s="7">
+        <v>1</v>
+      </c>
+      <c r="L108" s="1" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="G109" s="3">
+        <v>1</v>
+      </c>
+      <c r="H109" s="7">
+        <v>0</v>
+      </c>
+      <c r="K109" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="L109" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="C107" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="G107" s="3">
-        <v>0</v>
-      </c>
-      <c r="H107" s="7">
+      <c r="C110" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="G110" s="3">
+        <v>0</v>
+      </c>
+      <c r="H110" s="7">
+        <v>0</v>
+      </c>
+      <c r="L110" s="1" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="G111" s="3">
         <v>1</v>
       </c>
-      <c r="L107" s="1" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A108" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>946</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="G108" s="3">
+      <c r="H111" s="7">
+        <v>0</v>
+      </c>
+      <c r="K111" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="L111" s="1" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="G112" s="3">
+        <v>0</v>
+      </c>
+      <c r="H112" s="7">
+        <v>0</v>
+      </c>
+      <c r="L112" s="1" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="G113" s="3">
         <v>1</v>
       </c>
-      <c r="H108" s="7">
-        <v>0</v>
-      </c>
-      <c r="K108" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="L108" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>704</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="G109" s="3">
-        <v>0</v>
-      </c>
-      <c r="H109" s="7">
-        <v>0</v>
-      </c>
-      <c r="L109" s="1" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A110" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="G110" s="3">
-        <v>1</v>
-      </c>
-      <c r="H110" s="7">
-        <v>0</v>
-      </c>
-      <c r="K110" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="L110" s="1" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="G111" s="3">
-        <v>0</v>
-      </c>
-      <c r="H111" s="7">
-        <v>0</v>
-      </c>
-      <c r="L111" s="1" t="s">
+      <c r="H113" s="7">
+        <v>0</v>
+      </c>
+      <c r="K113" s="1" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A112" s="1" t="s">
-        <v>1019</v>
-      </c>
-      <c r="B112" s="1" t="s">
+      <c r="L113" s="1" t="s">
         <v>1020</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>1022</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>1023</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>1024</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>1025</v>
-      </c>
-      <c r="G112" s="3">
-        <v>1</v>
-      </c>
-      <c r="H112" s="7">
-        <v>0</v>
-      </c>
-      <c r="K112" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="L112" s="1" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="G113" s="3">
-        <v>0</v>
-      </c>
-      <c r="H113" s="7">
-        <v>0</v>
-      </c>
-      <c r="L113" s="1" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="G114" s="3">
+        <v>0</v>
+      </c>
+      <c r="H114" s="7">
+        <v>0</v>
+      </c>
+      <c r="L114" s="1" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="G115" s="3">
+        <v>0</v>
+      </c>
+      <c r="H115" s="7">
+        <v>0</v>
+      </c>
+      <c r="L115" s="1" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="G116" s="3">
+        <v>1</v>
+      </c>
+      <c r="H116" s="7">
+        <v>0</v>
+      </c>
+      <c r="K116" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="L116" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="C117" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="D114" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="G114" s="3">
-        <v>0</v>
-      </c>
-      <c r="H114" s="7">
-        <v>0</v>
-      </c>
-      <c r="L114" s="1" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A115" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>965</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="G115" s="3">
-        <v>1</v>
-      </c>
-      <c r="H115" s="7">
-        <v>0</v>
-      </c>
-      <c r="K115" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="L115" s="1" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="C116" s="1" t="s">
+      <c r="D117" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="E117" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="D116" s="1" t="s">
+      <c r="F117" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="E116" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="G116" s="3">
-        <v>0</v>
-      </c>
-      <c r="H116" s="7">
-        <v>0</v>
-      </c>
-      <c r="L116" s="1" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A117" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>918</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>594</v>
-      </c>
       <c r="G117" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H117" s="7">
         <v>0</v>
       </c>
-      <c r="K117" s="1" t="s">
-        <v>726</v>
-      </c>
       <c r="L117" s="1" t="s">
-        <v>971</v>
+        <v>724</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>1241</v>
+        <v>917</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G118" s="3">
         <v>1</v>
@@ -12323,53 +12487,59 @@
         <v>0</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>921</v>
+        <v>725</v>
       </c>
       <c r="L118" s="1" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>674</v>
+        <v>601</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>1240</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>716</v>
+        <v>602</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>677</v>
+        <v>591</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>700</v>
+        <v>603</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>678</v>
+        <v>593</v>
       </c>
       <c r="G119" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H119" s="7">
         <v>0</v>
       </c>
+      <c r="K119" s="1" t="s">
+        <v>920</v>
+      </c>
       <c r="L119" s="1" t="s">
-        <v>733</v>
+        <v>970</v>
       </c>
     </row>
     <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="G120" s="3">
         <v>0</v>
@@ -12378,59 +12548,53 @@
         <v>0</v>
       </c>
       <c r="L120" s="1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>947</v>
+        <v>673</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>606</v>
+        <v>716</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>592</v>
+        <v>684</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>599</v>
+        <v>699</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>594</v>
+        <v>677</v>
       </c>
       <c r="G121" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H121" s="7">
         <v>0</v>
       </c>
-      <c r="K121" s="1" t="s">
-        <v>726</v>
-      </c>
       <c r="L121" s="1" t="s">
-        <v>971</v>
+        <v>733</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G122" s="3">
         <v>1</v>
@@ -12439,172 +12603,172 @@
         <v>0</v>
       </c>
       <c r="K122" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="L122" s="1" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>675</v>
+        <v>606</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>947</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>720</v>
+        <v>607</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>677</v>
+        <v>591</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>680</v>
+        <v>608</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>678</v>
+        <v>593</v>
       </c>
       <c r="G123" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H123" s="7">
         <v>0</v>
       </c>
+      <c r="K123" s="1" t="s">
+        <v>725</v>
+      </c>
       <c r="L123" s="1" t="s">
-        <v>735</v>
+        <v>970</v>
       </c>
     </row>
     <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="G124" s="3">
+        <v>0</v>
+      </c>
+      <c r="H124" s="7">
+        <v>0</v>
+      </c>
+      <c r="L124" s="1" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="G125" s="3">
+        <v>0</v>
+      </c>
+      <c r="H125" s="7">
+        <v>0</v>
+      </c>
+      <c r="L125" s="1" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="G126" s="3">
+        <v>1</v>
+      </c>
+      <c r="H126" s="7">
+        <v>0</v>
+      </c>
+      <c r="K126" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="L126" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="C127" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="D124" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="G124" s="3">
-        <v>0</v>
-      </c>
-      <c r="H124" s="7">
-        <v>0</v>
-      </c>
-      <c r="L124" s="1" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A125" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="B125" s="1" t="s">
+      <c r="D127" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="G127" s="3">
+        <v>0</v>
+      </c>
+      <c r="H127" s="7">
+        <v>0</v>
+      </c>
+      <c r="L127" s="1" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>949</v>
       </c>
-      <c r="C125" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="G125" s="3">
-        <v>1</v>
-      </c>
-      <c r="H125" s="7">
-        <v>0</v>
-      </c>
-      <c r="K125" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="L125" s="1" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="G126" s="3">
-        <v>0</v>
-      </c>
-      <c r="H126" s="7">
-        <v>0</v>
-      </c>
-      <c r="L126" s="1" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A127" s="1" t="s">
+      <c r="C128" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="B127" s="1" t="s">
-        <v>950</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="G127" s="3">
-        <v>1</v>
-      </c>
-      <c r="H127" s="7">
-        <v>0</v>
-      </c>
-      <c r="K127" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="L127" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="D128" s="1" t="s">
-        <v>522</v>
+        <v>591</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>158</v>
+        <v>598</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>527</v>
+        <v>593</v>
       </c>
       <c r="G128" s="3">
         <v>1</v>
@@ -12612,101 +12776,101 @@
       <c r="H128" s="7">
         <v>0</v>
       </c>
-      <c r="I128" s="7">
-        <v>0</v>
-      </c>
       <c r="K128" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="L128" t="s">
-        <v>911</v>
+        <v>725</v>
+      </c>
+      <c r="L128" s="1" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="129" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="G129" s="3">
+        <v>1</v>
+      </c>
+      <c r="H129" s="7">
+        <v>0</v>
+      </c>
+      <c r="I129" s="7">
+        <v>0</v>
+      </c>
+      <c r="K129" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="L129" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="C130" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="B129" s="1" t="s">
-        <v>787</v>
-      </c>
-      <c r="C129" s="1" t="s">
+      <c r="D130" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="D129" s="1" t="s">
+      <c r="E130" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="E129" s="1" t="s">
+      <c r="F130" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="F129" s="1" t="s">
+      <c r="G130" s="3">
+        <v>0</v>
+      </c>
+      <c r="H130" s="7">
+        <v>0</v>
+      </c>
+      <c r="I130" s="7">
+        <v>0</v>
+      </c>
+      <c r="K130" s="1" t="s">
         <v>765</v>
       </c>
-      <c r="G129" s="3">
-        <v>0</v>
-      </c>
-      <c r="H129" s="7">
-        <v>0</v>
-      </c>
-      <c r="I129" s="7">
-        <v>0</v>
-      </c>
-      <c r="K129" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="L129" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A130" s="1" t="s">
+      <c r="L130" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="C131" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="B130" s="1" t="s">
-        <v>951</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="F130" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="G130" s="3">
-        <v>1</v>
-      </c>
-      <c r="H130" s="7">
-        <v>0</v>
-      </c>
-      <c r="K130" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="L130" s="1" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>184</v>
-      </c>
       <c r="D131" s="1" t="s">
-        <v>522</v>
+        <v>591</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>319</v>
+        <v>598</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>527</v>
+        <v>593</v>
       </c>
       <c r="G131" s="3">
         <v>1</v>
@@ -12714,31 +12878,28 @@
       <c r="H131" s="7">
         <v>0</v>
       </c>
-      <c r="I131" s="7">
-        <v>0</v>
-      </c>
       <c r="K131" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="L131" t="s">
-        <v>856</v>
+        <v>725</v>
+      </c>
+      <c r="L131" s="1" t="s">
+        <v>970</v>
       </c>
     </row>
     <row r="132" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>739</v>
+        <v>127</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>740</v>
+        <v>184</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>741</v>
+        <v>522</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>742</v>
+        <v>319</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>527</v>
@@ -12747,170 +12908,173 @@
         <v>1</v>
       </c>
       <c r="H132" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" s="7">
         <v>0</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="L132" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>1026</v>
+        <v>738</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>1033</v>
+        <v>788</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>1034</v>
+        <v>739</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>1035</v>
+        <v>740</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>1030</v>
+        <v>741</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>1031</v>
+        <v>527</v>
       </c>
       <c r="G133" s="3">
         <v>1</v>
       </c>
       <c r="H133" s="7">
+        <v>1</v>
+      </c>
+      <c r="I133" s="7">
         <v>0</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="L133" s="1" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>744</v>
+      </c>
+      <c r="L133" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>128</v>
+        <v>1025</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>790</v>
+        <v>1032</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>201</v>
+        <v>1033</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>522</v>
+        <v>1034</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>158</v>
+        <v>1029</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>527</v>
+        <v>1030</v>
       </c>
       <c r="G134" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H134" s="7">
         <v>0</v>
       </c>
-      <c r="I134" s="7">
-        <v>0</v>
-      </c>
       <c r="K134" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="L134" t="s">
-        <v>819</v>
+        <v>725</v>
+      </c>
+      <c r="L134" s="1" t="s">
+        <v>1035</v>
       </c>
     </row>
     <row r="135" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="G135" s="3">
+        <v>0</v>
+      </c>
+      <c r="H135" s="7">
+        <v>0</v>
+      </c>
+      <c r="I135" s="7">
+        <v>0</v>
+      </c>
+      <c r="K135" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="L135" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="D136" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="B135" s="1" t="s">
-        <v>791</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="D135" s="1" t="s">
+      <c r="E136" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="E135" s="1" t="s">
+      <c r="F136" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="F135" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="G135" s="3">
-        <v>0</v>
-      </c>
-      <c r="H135" s="7">
-        <v>0</v>
-      </c>
-      <c r="I135" s="7">
-        <v>0</v>
-      </c>
-      <c r="K135" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="L135" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A136" s="1" t="s">
+      <c r="G136" s="3">
+        <v>0</v>
+      </c>
+      <c r="H136" s="7">
+        <v>0</v>
+      </c>
+      <c r="I136" s="7">
+        <v>0</v>
+      </c>
+      <c r="K136" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="L136" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A137" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="C137" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="B136" s="1" t="s">
-        <v>952</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="F136" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="G136" s="3">
-        <v>1</v>
-      </c>
-      <c r="H136" s="7">
-        <v>0</v>
-      </c>
-      <c r="K136" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="L136" s="1" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>793</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="D137" s="1" t="s">
-        <v>522</v>
+        <v>591</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>157</v>
+        <v>608</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>527</v>
+        <v>593</v>
       </c>
       <c r="G137" s="3">
         <v>1</v>
@@ -12918,34 +13082,31 @@
       <c r="H137" s="7">
         <v>0</v>
       </c>
-      <c r="I137" s="7">
-        <v>0</v>
-      </c>
       <c r="K137" s="1" t="s">
-        <v>744</v>
-      </c>
-      <c r="L137" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
+        <v>725</v>
+      </c>
+      <c r="L137" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>618</v>
+        <v>129</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>833</v>
+        <v>792</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>619</v>
+        <v>210</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>592</v>
+        <v>522</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>620</v>
+        <v>157</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>594</v>
+        <v>527</v>
       </c>
       <c r="G138" s="3">
         <v>1</v>
@@ -12953,31 +13114,34 @@
       <c r="H138" s="7">
         <v>0</v>
       </c>
+      <c r="I138" s="7">
+        <v>0</v>
+      </c>
       <c r="K138" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="L138" s="1" t="s">
-        <v>971</v>
+        <v>743</v>
+      </c>
+      <c r="L138" t="s">
+        <v>820</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G139" s="3">
         <v>1</v>
@@ -12986,30 +13150,30 @@
         <v>0</v>
       </c>
       <c r="K139" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="L139" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>725</v>
+      </c>
+      <c r="L139" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>131</v>
+        <v>620</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>794</v>
+        <v>833</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>225</v>
+        <v>621</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>522</v>
+        <v>591</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>158</v>
+        <v>622</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>527</v>
+        <v>593</v>
       </c>
       <c r="G140" s="3">
         <v>1</v>
@@ -13017,171 +13181,168 @@
       <c r="H140" s="7">
         <v>0</v>
       </c>
-      <c r="I140" s="7">
-        <v>0</v>
-      </c>
       <c r="K140" s="1" t="s">
-        <v>766</v>
+        <v>725</v>
       </c>
       <c r="L140" t="s">
-        <v>822</v>
+        <v>851</v>
       </c>
     </row>
     <row r="141" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="G141" s="3">
+        <v>1</v>
+      </c>
+      <c r="H141" s="7">
+        <v>0</v>
+      </c>
+      <c r="I141" s="7">
+        <v>0</v>
+      </c>
+      <c r="K141" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="L141" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="C142" s="1" t="s">
         <v>777</v>
       </c>
-      <c r="B141" s="1" t="s">
-        <v>795</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="D141" s="1" t="s">
+      <c r="D142" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="E142" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="E141" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="F141" s="1" t="s">
+      <c r="F142" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="G142" s="3">
+        <v>0</v>
+      </c>
+      <c r="H142" s="7">
+        <v>0</v>
+      </c>
+      <c r="I142" s="7">
+        <v>0</v>
+      </c>
+      <c r="K142" s="1" t="s">
         <v>765</v>
       </c>
-      <c r="G141" s="3">
-        <v>0</v>
-      </c>
-      <c r="H141" s="7">
-        <v>0</v>
-      </c>
-      <c r="I141" s="7">
-        <v>0</v>
-      </c>
-      <c r="K141" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="L141" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A142" s="1" t="s">
+      <c r="L142" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="C143" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="B142" s="1" t="s">
-        <v>836</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="F142" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="G142" s="3">
-        <v>1</v>
-      </c>
-      <c r="H142" s="7">
-        <v>0</v>
-      </c>
-      <c r="K142" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="L142" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="1" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>1017</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>1018</v>
-      </c>
       <c r="D143" s="1" t="s">
-        <v>1013</v>
+        <v>591</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>1014</v>
+        <v>619</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>1015</v>
+        <v>593</v>
       </c>
       <c r="G143" s="3">
         <v>1</v>
       </c>
       <c r="H143" s="7">
-        <v>1</v>
-      </c>
-      <c r="I143" s="7">
         <v>0</v>
       </c>
       <c r="K143" s="1" t="s">
-        <v>1016</v>
-      </c>
-      <c r="L143" s="1" t="s">
-        <v>395</v>
+        <v>725</v>
+      </c>
+      <c r="L143" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="144" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>494</v>
+        <v>1011</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>796</v>
+        <v>1016</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>232</v>
+        <v>1017</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>522</v>
+        <v>1012</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>158</v>
+        <v>1013</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>527</v>
+        <v>1014</v>
       </c>
       <c r="G144" s="3">
         <v>1</v>
       </c>
       <c r="H144" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I144" s="7">
         <v>0</v>
       </c>
       <c r="K144" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="L144" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1015</v>
+      </c>
+      <c r="L144" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>1238</v>
+        <v>494</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>1239</v>
+        <v>795</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>1240</v>
+        <v>232</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>1234</v>
+        <v>522</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>1235</v>
+        <v>158</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>1236</v>
+        <v>527</v>
       </c>
       <c r="G145" s="3">
         <v>1</v>
@@ -13189,177 +13350,180 @@
       <c r="H145" s="7">
         <v>0</v>
       </c>
+      <c r="I145" s="7">
+        <v>0</v>
+      </c>
       <c r="K145" s="1" t="s">
-        <v>726</v>
+        <v>765</v>
       </c>
       <c r="L145" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A146" s="1" t="s">
         <v>1237</v>
       </c>
-    </row>
-    <row r="146" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="4" t="s">
+      <c r="B146" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="G146" s="3">
+        <v>1</v>
+      </c>
+      <c r="H146" s="7">
+        <v>0</v>
+      </c>
+      <c r="K146" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="L146" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="B146" s="4" t="s">
-        <v>797</v>
-      </c>
-      <c r="C146" s="4" t="s">
+      <c r="B147" s="4" t="s">
+        <v>796</v>
+      </c>
+      <c r="C147" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="D146" s="4" t="s">
+      <c r="D147" s="4" t="s">
         <v>522</v>
       </c>
-      <c r="E146" s="4" t="s">
+      <c r="E147" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F146" s="4" t="s">
+      <c r="F147" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="G146" s="5">
+      <c r="G147" s="5">
         <v>1</v>
       </c>
-      <c r="H146" s="8">
-        <v>0</v>
-      </c>
-      <c r="I146" s="8">
-        <v>0</v>
-      </c>
-      <c r="J146" s="8" t="s">
+      <c r="H147" s="8">
+        <v>0</v>
+      </c>
+      <c r="I147" s="8">
+        <v>0</v>
+      </c>
+      <c r="J147" s="8" t="s">
+        <v>1218</v>
+      </c>
+      <c r="K147" s="4" t="s">
+        <v>742</v>
+      </c>
+      <c r="L147" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="G148" s="3">
+        <v>1</v>
+      </c>
+      <c r="H148" s="7">
+        <v>0</v>
+      </c>
+      <c r="I148" s="7">
+        <v>0</v>
+      </c>
+      <c r="J148" s="7" t="s">
         <v>1219</v>
       </c>
-      <c r="K146" s="4" t="s">
+      <c r="K148" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="L146" t="s">
+      <c r="L148" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>799</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="F149" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="G149" s="5">
+        <v>1</v>
+      </c>
+      <c r="H149" s="8">
+        <v>1</v>
+      </c>
+      <c r="I149" s="8">
+        <v>0</v>
+      </c>
+      <c r="J149" s="8" t="s">
+        <v>1218</v>
+      </c>
+      <c r="K149" s="4" t="s">
+        <v>742</v>
+      </c>
+      <c r="L149" t="s">
         <v>983</v>
       </c>
     </row>
-    <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F147" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="G147" s="3">
-        <v>1</v>
-      </c>
-      <c r="H147" s="7">
-        <v>0</v>
-      </c>
-      <c r="I147" s="7">
-        <v>0</v>
-      </c>
-      <c r="J147" s="7" t="s">
-        <v>1220</v>
-      </c>
-      <c r="K147" s="1" t="s">
-        <v>744</v>
-      </c>
-      <c r="L147" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="B148" s="4" t="s">
-        <v>800</v>
-      </c>
-      <c r="C148" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="D148" s="4" t="s">
-        <v>523</v>
-      </c>
-      <c r="E148" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="F148" s="4" t="s">
-        <v>527</v>
-      </c>
-      <c r="G148" s="5">
-        <v>1</v>
-      </c>
-      <c r="H148" s="8">
-        <v>1</v>
-      </c>
-      <c r="I148" s="8">
-        <v>0</v>
-      </c>
-      <c r="J148" s="8" t="s">
-        <v>1219</v>
-      </c>
-      <c r="K148" s="4" t="s">
-        <v>743</v>
-      </c>
-      <c r="L148" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A149" s="1" t="s">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A150" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="C150" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="B149" s="1" t="s">
-        <v>837</v>
-      </c>
-      <c r="C149" s="1" t="s">
+      <c r="D150" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="E150" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="D149" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="F149" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="G149" s="3">
-        <v>1</v>
-      </c>
-      <c r="H149" s="7">
-        <v>0</v>
-      </c>
-      <c r="K149" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="L149" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>801</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="F150" s="1" t="s">
-        <v>527</v>
+        <v>593</v>
       </c>
       <c r="G150" s="3">
         <v>1</v>
@@ -13367,17 +13531,11 @@
       <c r="H150" s="7">
         <v>0</v>
       </c>
-      <c r="I150" s="7">
-        <v>0</v>
-      </c>
-      <c r="J150" s="7" t="s">
-        <v>1224</v>
-      </c>
       <c r="K150" s="1" t="s">
-        <v>744</v>
+        <v>725</v>
       </c>
       <c r="L150" t="s">
-        <v>825</v>
+        <v>851</v>
       </c>
     </row>
     <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
@@ -13385,16 +13543,16 @@
         <v>495</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>522</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>527</v>
@@ -13412,204 +13570,210 @@
         <v>1223</v>
       </c>
       <c r="K151" s="1" t="s">
-        <v>766</v>
+        <v>743</v>
       </c>
       <c r="L151" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>779</v>
+        <v>495</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>847</v>
+        <v>801</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>803</v>
+        <v>261</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>774</v>
+        <v>522</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>775</v>
+        <v>158</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>776</v>
+        <v>527</v>
       </c>
       <c r="G152" s="3">
         <v>1</v>
       </c>
       <c r="H152" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" s="7">
         <v>0</v>
       </c>
       <c r="J152" s="7" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="K152" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="L152" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>631</v>
+        <v>778</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>838</v>
+        <v>846</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>632</v>
+        <v>802</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>592</v>
+        <v>773</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>620</v>
+        <v>774</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>594</v>
+        <v>775</v>
       </c>
       <c r="G153" s="3">
         <v>1</v>
       </c>
       <c r="H153" s="7">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I153" s="7">
+        <v>0</v>
+      </c>
+      <c r="J153" s="7" t="s">
+        <v>1222</v>
       </c>
       <c r="K153" s="1" t="s">
-        <v>726</v>
+        <v>765</v>
       </c>
       <c r="L153" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="4" t="s">
-        <v>496</v>
-      </c>
-      <c r="B154" s="4" t="s">
-        <v>804</v>
-      </c>
-      <c r="C154" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="D154" s="4" t="s">
-        <v>522</v>
-      </c>
-      <c r="E154" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="F154" s="4" t="s">
-        <v>527</v>
-      </c>
-      <c r="G154" s="5">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A154" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="G154" s="3">
         <v>1</v>
       </c>
-      <c r="H154" s="8">
-        <v>0</v>
-      </c>
-      <c r="I154" s="8">
-        <v>0</v>
-      </c>
-      <c r="J154" s="8"/>
-      <c r="K154" s="4" t="s">
-        <v>1037</v>
-      </c>
-      <c r="L154" s="1" t="s">
-        <v>1039</v>
+      <c r="H154" s="7">
+        <v>0</v>
+      </c>
+      <c r="K154" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="L154" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="155" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
-        <v>767</v>
+        <v>496</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>768</v>
+        <v>272</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>763</v>
+        <v>522</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>769</v>
+        <v>288</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>757</v>
+        <v>527</v>
       </c>
       <c r="G155" s="5">
         <v>1</v>
       </c>
       <c r="H155" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" s="8">
         <v>0</v>
       </c>
       <c r="J155" s="8"/>
       <c r="K155" s="4" t="s">
+        <v>1036</v>
+      </c>
+      <c r="L155" s="1" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>804</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="E156" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="F156" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="G156" s="5">
+        <v>1</v>
+      </c>
+      <c r="H156" s="8">
+        <v>1</v>
+      </c>
+      <c r="I156" s="8">
+        <v>0</v>
+      </c>
+      <c r="J156" s="8"/>
+      <c r="K156" s="4" t="s">
+        <v>1036</v>
+      </c>
+      <c r="L156" t="s">
         <v>1037</v>
       </c>
-      <c r="L155" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A156" s="1" t="s">
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A157" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="C157" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="B156" s="1" t="s">
-        <v>839</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="D156" s="1" t="s">
+      <c r="D157" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="E157" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="E156" s="1" t="s">
+      <c r="F157" s="1" t="s">
         <v>593</v>
-      </c>
-      <c r="F156" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="G156" s="3">
-        <v>1</v>
-      </c>
-      <c r="H156" s="7">
-        <v>0</v>
-      </c>
-      <c r="K156" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="L156" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>806</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F157" s="1" t="s">
-        <v>527</v>
       </c>
       <c r="G157" s="3">
         <v>1</v>
@@ -13617,239 +13781,239 @@
       <c r="H157" s="7">
         <v>0</v>
       </c>
-      <c r="I157" s="7">
-        <v>0</v>
-      </c>
       <c r="K157" s="1" t="s">
-        <v>766</v>
+        <v>725</v>
       </c>
       <c r="L157" t="s">
-        <v>827</v>
+        <v>851</v>
       </c>
     </row>
     <row r="158" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="G158" s="3">
+        <v>1</v>
+      </c>
+      <c r="H158" s="7">
+        <v>0</v>
+      </c>
+      <c r="I158" s="7">
+        <v>0</v>
+      </c>
+      <c r="K158" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="L158" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="C159" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="B158" s="1" t="s">
-        <v>807</v>
-      </c>
-      <c r="C158" s="1" t="s">
+      <c r="D159" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="G159" s="3">
+        <v>0</v>
+      </c>
+      <c r="H159" s="7">
+        <v>0</v>
+      </c>
+      <c r="I159" s="7">
+        <v>0</v>
+      </c>
+      <c r="K159" s="1" t="s">
         <v>771</v>
       </c>
-      <c r="D158" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="F158" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="G158" s="3">
-        <v>0</v>
-      </c>
-      <c r="H158" s="7">
-        <v>0</v>
-      </c>
-      <c r="I158" s="7">
-        <v>0</v>
-      </c>
-      <c r="K158" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="L158" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A159" s="1" t="s">
+      <c r="L159" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A160" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="C160" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="B159" s="1" t="s">
-        <v>840</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="F159" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="G159" s="3">
+      <c r="D160" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="G160" s="3">
         <v>1</v>
       </c>
-      <c r="H159" s="7">
-        <v>0</v>
-      </c>
-      <c r="K159" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="L159" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>872</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>873</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>874</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>875</v>
-      </c>
-      <c r="F160" s="1" t="s">
-        <v>879</v>
-      </c>
-      <c r="G160" s="3">
-        <v>0</v>
-      </c>
       <c r="H160" s="7">
         <v>0</v>
       </c>
-      <c r="I160" s="7">
-        <v>0</v>
-      </c>
       <c r="K160" s="1" t="s">
-        <v>869</v>
-      </c>
-      <c r="L160" s="1" t="s">
-        <v>892</v>
+        <v>725</v>
+      </c>
+      <c r="L160" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="161" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="B161" s="1" t="s">
         <v>871</v>
       </c>
-      <c r="B161" s="1" t="s">
+      <c r="C161" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="G161" s="3">
+        <v>0</v>
+      </c>
+      <c r="H161" s="7">
+        <v>0</v>
+      </c>
+      <c r="I161" s="7">
+        <v>0</v>
+      </c>
+      <c r="K161" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="L161" s="1" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="G162" s="3">
+        <v>1</v>
+      </c>
+      <c r="H162" s="7">
+        <v>0</v>
+      </c>
+      <c r="I162" s="7">
+        <v>0</v>
+      </c>
+      <c r="K162" s="1" t="s">
         <v>885</v>
       </c>
-      <c r="C161" s="1" t="s">
-        <v>877</v>
-      </c>
-      <c r="D161" s="1" t="s">
+      <c r="L162" s="1" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>880</v>
+      </c>
+      <c r="D163" s="4" t="s">
+        <v>881</v>
+      </c>
+      <c r="E163" s="4" t="s">
         <v>874</v>
       </c>
-      <c r="E161" s="1" t="s">
-        <v>878</v>
-      </c>
-      <c r="F161" s="1" t="s">
-        <v>884</v>
-      </c>
-      <c r="G161" s="3">
-        <v>1</v>
-      </c>
-      <c r="H161" s="7">
-        <v>0</v>
-      </c>
-      <c r="I161" s="7">
-        <v>0</v>
-      </c>
-      <c r="K161" s="1" t="s">
-        <v>886</v>
-      </c>
-      <c r="L161" s="1" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="4" t="s">
-        <v>883</v>
-      </c>
-      <c r="B162" s="4" t="s">
-        <v>880</v>
-      </c>
-      <c r="C162" s="4" t="s">
-        <v>881</v>
-      </c>
-      <c r="D162" s="4" t="s">
-        <v>882</v>
-      </c>
-      <c r="E162" s="4" t="s">
+      <c r="F163" s="4" t="s">
         <v>875</v>
       </c>
-      <c r="F162" s="4" t="s">
-        <v>876</v>
-      </c>
-      <c r="G162" s="5">
-        <v>0</v>
-      </c>
-      <c r="H162" s="8">
-        <v>0</v>
-      </c>
-      <c r="I162" s="8">
-        <v>0</v>
-      </c>
-      <c r="J162" s="8"/>
-      <c r="K162" s="4" t="s">
+      <c r="G163" s="5">
+        <v>0</v>
+      </c>
+      <c r="H163" s="8">
+        <v>0</v>
+      </c>
+      <c r="I163" s="8">
+        <v>0</v>
+      </c>
+      <c r="J163" s="8"/>
+      <c r="K163" s="4" t="s">
+        <v>892</v>
+      </c>
+      <c r="L163" s="4" t="s">
         <v>893</v>
       </c>
-      <c r="L162" s="4" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A163" s="1" t="s">
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A164" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="C164" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="B163" s="1" t="s">
-        <v>841</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="F163" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="G163" s="3">
-        <v>1</v>
-      </c>
-      <c r="H163" s="7">
-        <v>0</v>
-      </c>
-      <c r="K163" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="L163" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="164" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>808</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>513</v>
-      </c>
       <c r="D164" s="1" t="s">
-        <v>522</v>
+        <v>591</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>319</v>
+        <v>603</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>526</v>
+        <v>593</v>
       </c>
       <c r="G164" s="3">
         <v>1</v>
@@ -13857,17 +14021,11 @@
       <c r="H164" s="7">
         <v>0</v>
       </c>
-      <c r="I164" s="7">
-        <v>0</v>
-      </c>
-      <c r="J164" s="7" t="s">
-        <v>1225</v>
-      </c>
       <c r="K164" s="1" t="s">
-        <v>745</v>
+        <v>725</v>
       </c>
       <c r="L164" t="s">
-        <v>858</v>
+        <v>851</v>
       </c>
     </row>
     <row r="165" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
@@ -13875,16 +14033,16 @@
         <v>497</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>300</v>
+        <v>513</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>522</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>156</v>
+        <v>319</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>526</v>
@@ -13899,13 +14057,13 @@
         <v>0</v>
       </c>
       <c r="J165" s="7" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="K165" s="1" t="s">
-        <v>849</v>
+        <v>744</v>
       </c>
       <c r="L165" t="s">
-        <v>850</v>
+        <v>857</v>
       </c>
     </row>
     <row r="166" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
@@ -13913,25 +14071,25 @@
         <v>497</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>319</v>
+        <v>156</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G166" s="3">
         <v>1</v>
       </c>
       <c r="H166" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" s="7">
         <v>0</v>
@@ -13940,62 +14098,68 @@
         <v>1225</v>
       </c>
       <c r="K166" s="1" t="s">
-        <v>745</v>
+        <v>848</v>
       </c>
       <c r="L166" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>639</v>
+        <v>497</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>842</v>
+        <v>809</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>640</v>
+        <v>299</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>592</v>
+        <v>523</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>620</v>
+        <v>319</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>594</v>
+        <v>527</v>
       </c>
       <c r="G167" s="3">
         <v>1</v>
       </c>
       <c r="H167" s="7">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I167" s="7">
+        <v>0</v>
+      </c>
+      <c r="J167" s="7" t="s">
+        <v>1224</v>
       </c>
       <c r="K167" s="1" t="s">
-        <v>726</v>
+        <v>744</v>
       </c>
       <c r="L167" t="s">
-        <v>852</v>
+        <v>858</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>883</v>
+        <v>638</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>888</v>
+        <v>841</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>889</v>
+        <v>639</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>890</v>
+        <v>591</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>891</v>
+        <v>619</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>884</v>
+        <v>593</v>
       </c>
       <c r="G168" s="3">
         <v>1</v>
@@ -14004,103 +14168,103 @@
         <v>0</v>
       </c>
       <c r="K168" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="L168" s="1" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="169" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>725</v>
+      </c>
+      <c r="L168" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="G169" s="3">
+        <v>1</v>
+      </c>
+      <c r="H169" s="7">
+        <v>0</v>
+      </c>
+      <c r="K169" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="L169" s="1" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B169" s="1" t="s">
-        <v>811</v>
-      </c>
-      <c r="C169" s="1" t="s">
+      <c r="B170" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="C170" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="D169" s="1" t="s">
+      <c r="D170" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="E169" s="1" t="s">
+      <c r="E170" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="F169" s="1" t="s">
+      <c r="F170" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="G169" s="3">
-        <v>0</v>
-      </c>
-      <c r="H169" s="7">
-        <v>0</v>
-      </c>
-      <c r="K169" s="1" t="s">
-        <v>744</v>
-      </c>
-      <c r="L169" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A170" s="1" t="s">
+      <c r="G170" s="3">
+        <v>0</v>
+      </c>
+      <c r="H170" s="7">
+        <v>0</v>
+      </c>
+      <c r="K170" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="L170" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A171" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="C171" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="B170" s="1" t="s">
-        <v>843</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="F170" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="G170" s="3">
+      <c r="D171" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="G171" s="3">
         <v>1</v>
       </c>
-      <c r="H170" s="7">
-        <v>0</v>
-      </c>
-      <c r="K170" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="L170" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="171" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="F171" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="G171" s="3">
-        <v>0</v>
-      </c>
       <c r="H171" s="7">
         <v>0</v>
       </c>
       <c r="K171" s="1" t="s">
-        <v>785</v>
+        <v>725</v>
       </c>
       <c r="L171" t="s">
         <v>851</v>
@@ -14108,19 +14272,19 @@
     </row>
     <row r="172" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>781</v>
+        <v>143</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>782</v>
+        <v>312</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>774</v>
+        <v>522</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>783</v>
+        <v>290</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>527</v>
@@ -14134,96 +14298,92 @@
       <c r="K172" s="1" t="s">
         <v>784</v>
       </c>
-      <c r="L172" s="1" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L172" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="G173" s="3">
+        <v>0</v>
+      </c>
+      <c r="H173" s="7">
+        <v>0</v>
+      </c>
+      <c r="K173" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="L173" s="1" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A174" s="1" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B174" s="1" t="s">
         <v>1231</v>
       </c>
-      <c r="B173" s="1" t="s">
+      <c r="C174" s="1" t="s">
         <v>1232</v>
       </c>
-      <c r="C173" s="1" t="s">
+      <c r="D174" s="1" t="s">
         <v>1233</v>
       </c>
-      <c r="D173" s="1" t="s">
+      <c r="E174" s="1" t="s">
         <v>1234</v>
       </c>
-      <c r="E173" s="1" t="s">
+      <c r="F174" s="1" t="s">
         <v>1235</v>
       </c>
-      <c r="F173" s="1" t="s">
+      <c r="G174" s="3">
+        <v>1</v>
+      </c>
+      <c r="H174" s="7">
+        <v>0</v>
+      </c>
+      <c r="K174" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="L174" t="s">
         <v>1236</v>
       </c>
-      <c r="G173" s="3">
-        <v>1</v>
-      </c>
-      <c r="H173" s="7">
-        <v>0</v>
-      </c>
-      <c r="K173" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="L173" t="s">
-        <v>1237</v>
-      </c>
-    </row>
-    <row r="174" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="4" t="s">
+    </row>
+    <row r="175" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="4" t="s">
+        <v>859</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>864</v>
+      </c>
+      <c r="C175" s="4" t="s">
         <v>860</v>
       </c>
-      <c r="B174" s="4" t="s">
-        <v>865</v>
-      </c>
-      <c r="C174" s="4" t="s">
+      <c r="D175" s="4" t="s">
         <v>861</v>
       </c>
-      <c r="D174" s="4" t="s">
+      <c r="E175" s="4" t="s">
         <v>862</v>
       </c>
-      <c r="E174" s="4" t="s">
+      <c r="F175" s="4" t="s">
         <v>863</v>
-      </c>
-      <c r="F174" s="4" t="s">
-        <v>864</v>
-      </c>
-      <c r="G174" s="5">
-        <v>1</v>
-      </c>
-      <c r="H174" s="8">
-        <v>0</v>
-      </c>
-      <c r="I174" s="8">
-        <v>0</v>
-      </c>
-      <c r="J174" s="8"/>
-      <c r="K174" s="4" t="s">
-        <v>866</v>
-      </c>
-      <c r="L174" s="6" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A175" s="4" t="s">
-        <v>1003</v>
-      </c>
-      <c r="B175" s="4" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C175" s="4" t="s">
-        <v>1005</v>
-      </c>
-      <c r="D175" s="4" t="s">
-        <v>1006</v>
-      </c>
-      <c r="E175" s="4" t="s">
-        <v>1007</v>
-      </c>
-      <c r="F175" s="4" t="s">
-        <v>1008</v>
       </c>
       <c r="G175" s="5">
         <v>1</v>
@@ -14231,104 +14391,105 @@
       <c r="H175" s="8">
         <v>0</v>
       </c>
-      <c r="I175" s="8"/>
+      <c r="I175" s="8">
+        <v>0</v>
+      </c>
       <c r="J175" s="8"/>
       <c r="K175" s="4" t="s">
-        <v>726</v>
-      </c>
-      <c r="L175" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="176" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>865</v>
+      </c>
+      <c r="L175" s="6" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
-        <v>860</v>
+        <v>1002</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>896</v>
+        <v>1003</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>895</v>
+        <v>1004</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>867</v>
+        <v>1005</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>156</v>
+        <v>1006</v>
       </c>
       <c r="F176" s="4" t="s">
-        <v>864</v>
+        <v>1007</v>
       </c>
       <c r="G176" s="5">
         <v>1</v>
       </c>
       <c r="H176" s="8">
-        <v>1</v>
-      </c>
-      <c r="I176" s="8">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I176" s="8"/>
       <c r="J176" s="8"/>
       <c r="K176" s="4" t="s">
-        <v>869</v>
-      </c>
-      <c r="L176" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="L176" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="4" t="s">
+        <v>859</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>895</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>894</v>
+      </c>
+      <c r="D177" s="4" t="s">
+        <v>866</v>
+      </c>
+      <c r="E177" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F177" s="4" t="s">
+        <v>863</v>
+      </c>
+      <c r="G177" s="5">
+        <v>1</v>
+      </c>
+      <c r="H177" s="8">
+        <v>1</v>
+      </c>
+      <c r="I177" s="8">
+        <v>0</v>
+      </c>
+      <c r="J177" s="8"/>
+      <c r="K177" s="4" t="s">
         <v>868</v>
       </c>
-    </row>
-    <row r="177" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="1" t="s">
+      <c r="L177" s="4" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="C178" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="B177" s="1" t="s">
-        <v>814</v>
-      </c>
-      <c r="C177" s="1" t="s">
+      <c r="D178" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="D177" s="1" t="s">
+      <c r="E178" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="E177" s="1" t="s">
+      <c r="F178" s="1" t="s">
         <v>756</v>
-      </c>
-      <c r="F177" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="G177" s="3">
-        <v>1</v>
-      </c>
-      <c r="H177" s="7">
-        <v>0</v>
-      </c>
-      <c r="I177" s="7">
-        <v>0</v>
-      </c>
-      <c r="K177" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="L177" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A178" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>846</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>758</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>759</v>
-      </c>
-      <c r="E178" s="1" t="s">
-        <v>760</v>
-      </c>
-      <c r="F178" s="1" t="s">
-        <v>757</v>
       </c>
       <c r="G178" s="3">
         <v>1</v>
@@ -14336,22 +14497,57 @@
       <c r="H178" s="7">
         <v>0</v>
       </c>
+      <c r="I178" s="7">
+        <v>0</v>
+      </c>
       <c r="K178" s="1" t="s">
-        <v>726</v>
+        <v>779</v>
       </c>
       <c r="L178" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A179" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="G179" s="3">
+        <v>1</v>
+      </c>
+      <c r="H179" s="7">
+        <v>0</v>
+      </c>
+      <c r="K179" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="L179" t="s">
         <v>395</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D178" xr:uid="{66E79596-FBA2-41A9-9C17-FC94DBC0F687}">
+  <autoFilter ref="D1:D179" xr:uid="{66E79596-FBA2-41A9-9C17-FC94DBC0F687}">
     <filterColumn colId="0">
       <filters>
         <filter val="f"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:L178">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:L179">
     <sortCondition ref="G1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -14387,7 +14583,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -14395,7 +14591,7 @@
         <v>529</v>
       </c>
       <c r="B3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -14403,7 +14599,7 @@
         <v>370</v>
       </c>
       <c r="B4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -14411,7 +14607,7 @@
         <v>375</v>
       </c>
       <c r="B5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -14419,7 +14615,7 @@
         <v>489</v>
       </c>
       <c r="B6" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -14427,7 +14623,7 @@
         <v>490</v>
       </c>
       <c r="B7" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -14435,7 +14631,7 @@
         <v>378</v>
       </c>
       <c r="B8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -14443,7 +14639,7 @@
         <v>491</v>
       </c>
       <c r="B9" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -14451,7 +14647,7 @@
         <v>492</v>
       </c>
       <c r="B10" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -14459,7 +14655,7 @@
         <v>383</v>
       </c>
       <c r="B11" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -14467,7 +14663,7 @@
         <v>493</v>
       </c>
       <c r="B12" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -14475,7 +14671,7 @@
         <v>125</v>
       </c>
       <c r="B13" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -14483,7 +14679,7 @@
         <v>126</v>
       </c>
       <c r="B14" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -14491,7 +14687,7 @@
         <v>127</v>
       </c>
       <c r="B15" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -14515,7 +14711,7 @@
         <v>400</v>
       </c>
       <c r="B18" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -14571,7 +14767,7 @@
         <v>497</v>
       </c>
       <c r="B25" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -14579,7 +14775,7 @@
         <v>141</v>
       </c>
       <c r="B26" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -14595,7 +14791,7 @@
         <v>498</v>
       </c>
       <c r="B28" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -14603,7 +14799,7 @@
         <v>499</v>
       </c>
       <c r="B29" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -14619,7 +14815,7 @@
         <v>500</v>
       </c>
       <c r="B31" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -14627,7 +14823,7 @@
         <v>501</v>
       </c>
       <c r="B32" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -14679,540 +14875,640 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E5BCC1-FCE5-4A72-87FB-8DCCEFEE3C6B}">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="25.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B1" t="s">
-        <v>989</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1002</v>
+        <v>988</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1249</v>
       </c>
       <c r="D1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F1" t="s">
         <v>1009</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>1010</v>
       </c>
-      <c r="F1" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>548</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
-        <v>995</v>
-      </c>
-      <c r="E2">
+      <c r="C2" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D2" t="s">
+        <v>994</v>
+      </c>
+      <c r="F2">
         <v>0.77</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>529</v>
       </c>
       <c r="B3" t="s">
         <v>36</v>
       </c>
-      <c r="C3" t="s">
-        <v>997</v>
-      </c>
-      <c r="E3">
+      <c r="C3" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D3" t="s">
+        <v>996</v>
+      </c>
+      <c r="F3">
         <v>0.77</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>539</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>991</v>
-      </c>
-      <c r="E4">
+      <c r="C4" s="1" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D4" t="s">
+        <v>990</v>
+      </c>
+      <c r="F4">
         <v>0.7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>540</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>991</v>
-      </c>
-      <c r="E5">
+      <c r="C5" s="1" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D5" t="s">
+        <v>990</v>
+      </c>
+      <c r="F5">
         <v>0.7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>541</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
-        <v>990</v>
-      </c>
-      <c r="E6">
+      <c r="C6" s="1" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D6" t="s">
+        <v>989</v>
+      </c>
+      <c r="F6">
         <v>0.77</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>542</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
       </c>
-      <c r="C7" t="s">
-        <v>991</v>
-      </c>
-      <c r="E7">
+      <c r="C7" s="1" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D7" t="s">
+        <v>990</v>
+      </c>
+      <c r="F7">
         <v>0.7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>543</v>
       </c>
       <c r="B8" t="s">
         <v>27</v>
       </c>
-      <c r="C8" t="s">
-        <v>991</v>
-      </c>
-      <c r="E8">
+      <c r="C8" s="1" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D8" t="s">
+        <v>990</v>
+      </c>
+      <c r="F8">
         <f>0.9*0.99</f>
         <v>0.89100000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>544</v>
       </c>
       <c r="B9" t="s">
         <v>28</v>
       </c>
-      <c r="C9" t="s">
-        <v>991</v>
-      </c>
-      <c r="E9">
+      <c r="C9" s="1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D9" t="s">
+        <v>990</v>
+      </c>
+      <c r="F9">
         <v>0.7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>545</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
       </c>
-      <c r="C10" t="s">
-        <v>990</v>
-      </c>
-      <c r="E10">
+      <c r="C10" s="1" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D10" t="s">
+        <v>989</v>
+      </c>
+      <c r="F10">
         <v>0.77</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>546</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
       </c>
-      <c r="C11" t="s">
-        <v>991</v>
-      </c>
-      <c r="E11">
+      <c r="C11" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D11" t="s">
+        <v>990</v>
+      </c>
+      <c r="F11">
         <f>0.9*0.99</f>
         <v>0.89100000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="B12" t="s">
         <v>992</v>
       </c>
-      <c r="B12" t="s">
-        <v>993</v>
-      </c>
-      <c r="C12" t="s">
-        <v>991</v>
-      </c>
-      <c r="E12">
+      <c r="C12" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D12" t="s">
+        <v>990</v>
+      </c>
+      <c r="F12">
         <f>0.9*0.99</f>
         <v>0.89100000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>547</v>
       </c>
       <c r="B13" t="s">
         <v>31</v>
       </c>
-      <c r="C13" t="s">
-        <v>996</v>
-      </c>
-      <c r="E13">
+      <c r="C13" s="1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D13" t="s">
+        <v>995</v>
+      </c>
+      <c r="F13">
         <f>0.9*0.99</f>
         <v>0.89100000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>549</v>
       </c>
       <c r="B14" t="s">
         <v>32</v>
       </c>
-      <c r="C14" t="s">
-        <v>990</v>
-      </c>
-      <c r="E14">
+      <c r="C14" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D14" t="s">
+        <v>989</v>
+      </c>
+      <c r="F14">
         <v>0.77</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>550</v>
       </c>
       <c r="B15" t="s">
         <v>33</v>
       </c>
-      <c r="C15" t="s">
-        <v>990</v>
-      </c>
-      <c r="E15">
+      <c r="C15" s="1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D15" t="s">
+        <v>989</v>
+      </c>
+      <c r="F15">
         <v>0.77</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>551</v>
       </c>
       <c r="B16" t="s">
         <v>35</v>
       </c>
-      <c r="C16" t="s">
-        <v>997</v>
-      </c>
-      <c r="E16">
+      <c r="C16" s="1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D16" t="s">
+        <v>996</v>
+      </c>
+      <c r="F16">
         <v>0.77</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>552</v>
       </c>
       <c r="B17" t="s">
         <v>37</v>
       </c>
-      <c r="C17" t="s">
-        <v>997</v>
-      </c>
-      <c r="E17">
+      <c r="C17" s="1" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D17" t="s">
+        <v>996</v>
+      </c>
+      <c r="F17">
         <v>0.77</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B18" t="s">
         <v>38</v>
       </c>
-      <c r="C18" t="s">
-        <v>997</v>
-      </c>
-      <c r="E18">
+      <c r="C18" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D18" t="s">
+        <v>996</v>
+      </c>
+      <c r="F18">
         <v>0.77</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>554</v>
       </c>
       <c r="B19" t="s">
         <v>39</v>
       </c>
-      <c r="C19" t="s">
-        <v>997</v>
-      </c>
-      <c r="E19">
+      <c r="C19" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D19" t="s">
+        <v>996</v>
+      </c>
+      <c r="F19">
         <v>0.77</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>555</v>
       </c>
       <c r="B20" t="s">
         <v>40</v>
       </c>
-      <c r="C20" t="s">
-        <v>997</v>
+      <c r="C20" s="1" t="s">
+        <v>1268</v>
       </c>
       <c r="D20" t="s">
-        <v>1217</v>
-      </c>
-      <c r="E20">
+        <v>996</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F20">
         <v>0.77</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>556</v>
       </c>
       <c r="B21" t="s">
         <v>41</v>
       </c>
-      <c r="C21" t="s">
-        <v>997</v>
+      <c r="C21" s="1" t="s">
+        <v>1269</v>
       </c>
       <c r="D21" t="s">
-        <v>1215</v>
-      </c>
-      <c r="E21">
+        <v>996</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1214</v>
+      </c>
+      <c r="F21">
         <v>0.77</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>557</v>
       </c>
       <c r="B22" t="s">
         <v>42</v>
       </c>
-      <c r="C22" t="s">
-        <v>997</v>
-      </c>
-      <c r="E22">
+      <c r="C22" s="1" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D22" t="s">
+        <v>996</v>
+      </c>
+      <c r="F22">
         <v>0.77</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>558</v>
       </c>
       <c r="B23" t="s">
         <v>43</v>
       </c>
-      <c r="C23" t="s">
-        <v>997</v>
-      </c>
-      <c r="E23">
+      <c r="C23" s="1" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D23" t="s">
+        <v>996</v>
+      </c>
+      <c r="F23">
         <v>0.77</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>559</v>
       </c>
       <c r="B24" t="s">
         <v>44</v>
       </c>
-      <c r="C24" t="s">
-        <v>997</v>
-      </c>
-      <c r="E24">
+      <c r="C24" s="1" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D24" t="s">
+        <v>996</v>
+      </c>
+      <c r="F24">
         <v>0.77</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>560</v>
       </c>
       <c r="B25" t="s">
         <v>45</v>
       </c>
-      <c r="C25" t="s">
-        <v>997</v>
+      <c r="C25" s="1" t="s">
+        <v>1273</v>
       </c>
       <c r="D25" t="s">
-        <v>1043</v>
-      </c>
-      <c r="E25">
+        <v>996</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F25">
         <v>0.77</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>860</v>
+        <v>1283</v>
       </c>
       <c r="B26" t="s">
-        <v>994</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1000</v>
-      </c>
-      <c r="E26">
+        <v>1284</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="B27" t="s">
+        <v>993</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D27" t="s">
+        <v>999</v>
+      </c>
+      <c r="F27">
         <f>1/1.01</f>
         <v>0.99009900990099009</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="B28" t="s">
         <v>998</v>
       </c>
-      <c r="B27" t="s">
-        <v>999</v>
-      </c>
-      <c r="C27" t="s">
-        <v>1001</v>
-      </c>
-      <c r="E27">
+      <c r="C28" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F28">
         <f>0.77*0.7 + 0.9*0.3</f>
         <v>0.80899999999999994</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>47</v>
       </c>
-      <c r="C28" t="s">
-        <v>997</v>
-      </c>
-      <c r="E28">
+      <c r="C29" s="1" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D29" t="s">
+        <v>996</v>
+      </c>
+      <c r="F29">
         <v>0.77</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>48</v>
       </c>
-      <c r="C29" t="s">
-        <v>997</v>
-      </c>
-      <c r="D29" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E29">
+      <c r="C30" s="1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D30" t="s">
+        <v>996</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F30">
         <v>0.77</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>49</v>
       </c>
-      <c r="C30" t="s">
-        <v>997</v>
-      </c>
-      <c r="E30">
+      <c r="C31" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D31" t="s">
+        <v>996</v>
+      </c>
+      <c r="F31">
         <v>0.77</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>50</v>
       </c>
-      <c r="C31" t="s">
-        <v>991</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+      <c r="C32" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D32" t="s">
+        <v>990</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>51</v>
       </c>
-      <c r="C32" t="s">
-        <v>991</v>
-      </c>
-      <c r="E32">
+      <c r="C33" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D33" t="s">
+        <v>990</v>
+      </c>
+      <c r="F33">
         <f>0.9*0.99</f>
         <v>0.89100000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>52</v>
       </c>
-      <c r="C33" t="s">
-        <v>997</v>
-      </c>
-      <c r="D33" t="s">
-        <v>1045</v>
-      </c>
-      <c r="E33">
+      <c r="C34" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D34" t="s">
+        <v>996</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F34">
         <v>0.77</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
         <v>567</v>
-      </c>
-      <c r="B34" t="s">
-        <v>55</v>
-      </c>
-      <c r="C34" t="s">
-        <v>991</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>568</v>
       </c>
       <c r="B35" t="s">
         <v>56</v>
       </c>
-      <c r="C35" t="s">
-        <v>997</v>
+      <c r="C35" s="1" t="s">
+        <v>1282</v>
       </c>
       <c r="D35" t="s">
-        <v>1216</v>
-      </c>
-      <c r="E35">
+        <v>996</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1215</v>
+      </c>
+      <c r="F35">
         <v>0.77</v>
       </c>
     </row>
@@ -15335,7 +15631,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B13" t="s">
         <v>156</v>
@@ -15343,26 +15639,26 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>814</v>
+      </c>
+      <c r="B14" t="s">
         <v>815</v>
-      </c>
-      <c r="B14" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B15" t="s">
         <v>1153</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1154</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B16" t="s">
         <v>1161</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1162</v>
       </c>
     </row>
   </sheetData>

--- a/data/basic_info.xlsx
+++ b/data/basic_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\trading_plan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8846EB96-394A-40D0-BFD9-41D6C3FE8A11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4E35E4-BCB1-49E1-AEBD-6E45BF679403}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="8430" windowWidth="13980" windowHeight="13485" tabRatio="733" activeTab="3" xr2:uid="{855E00D3-25C3-4BB2-A61F-0D95BB1AF006}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28590" tabRatio="733" activeTab="1" xr2:uid="{855E00D3-25C3-4BB2-A61F-0D95BB1AF006}"/>
   </bookViews>
   <sheets>
     <sheet name="acct_info" sheetId="1" r:id="rId1"/>
@@ -4603,14 +4603,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>811</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>811_f_huat_5696</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>80005696</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5108,6 +5100,14 @@
   </si>
   <si>
     <t>26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8111_f_huat_5696</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8695,11 +8695,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:M179"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomRight" activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8744,10 +8744,10 @@
         <v>750</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>751</v>
@@ -8829,13 +8829,13 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>1048</v>
@@ -8847,7 +8847,7 @@
         <v>1050</v>
       </c>
       <c r="G4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -8861,13 +8861,13 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>1048</v>
@@ -8879,7 +8879,7 @@
         <v>1050</v>
       </c>
       <c r="G5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -8893,13 +8893,13 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>1048</v>
@@ -8911,7 +8911,7 @@
         <v>1050</v>
       </c>
       <c r="G6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -8925,13 +8925,13 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>1048</v>
@@ -8943,7 +8943,7 @@
         <v>1050</v>
       </c>
       <c r="G7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -8957,25 +8957,25 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>1048</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>1050</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -8989,13 +8989,13 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>1048</v>
@@ -9007,7 +9007,7 @@
         <v>1050</v>
       </c>
       <c r="G9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -9021,13 +9021,13 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>1048</v>
@@ -9039,7 +9039,7 @@
         <v>1050</v>
       </c>
       <c r="G10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -9053,13 +9053,13 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>1048</v>
@@ -9071,7 +9071,7 @@
         <v>1050</v>
       </c>
       <c r="G11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -9085,13 +9085,13 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>1048</v>
@@ -9103,7 +9103,7 @@
         <v>1050</v>
       </c>
       <c r="G12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -9117,13 +9117,13 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>1048</v>
@@ -9135,7 +9135,7 @@
         <v>1050</v>
       </c>
       <c r="G13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -9149,13 +9149,13 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>1048</v>
@@ -9167,7 +9167,7 @@
         <v>1050</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -9181,13 +9181,13 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>1048</v>
@@ -9199,7 +9199,7 @@
         <v>1050</v>
       </c>
       <c r="G15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -9213,25 +9213,25 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>1048</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>1050</v>
       </c>
       <c r="G16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -9248,7 +9248,7 @@
         <v>647</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>648</v>
@@ -9263,7 +9263,7 @@
         <v>593</v>
       </c>
       <c r="G17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -9309,25 +9309,25 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>1048</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>1050</v>
       </c>
       <c r="G19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -9405,13 +9405,13 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>1048</v>
@@ -9423,7 +9423,7 @@
         <v>1050</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -9437,13 +9437,13 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>1048</v>
@@ -9455,7 +9455,7 @@
         <v>1050</v>
       </c>
       <c r="G23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -9551,7 +9551,7 @@
         <v>1050</v>
       </c>
       <c r="G26" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -9615,7 +9615,7 @@
         <v>1050</v>
       </c>
       <c r="G28" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -9679,7 +9679,7 @@
         <v>1050</v>
       </c>
       <c r="G30" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -9717,7 +9717,7 @@
         <v>0</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>960</v>
@@ -9752,7 +9752,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>961</v>
@@ -9781,7 +9781,7 @@
         <v>1050</v>
       </c>
       <c r="G33" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -9819,7 +9819,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>742</v>
@@ -9854,7 +9854,7 @@
         <v>0</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>743</v>
@@ -9883,7 +9883,7 @@
         <v>1050</v>
       </c>
       <c r="G36" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -9897,25 +9897,25 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>1243</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>1244</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>1245</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="F37" s="1" t="s">
         <v>1246</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>1247</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>1248</v>
-      </c>
       <c r="G37" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -9943,7 +9943,7 @@
         <v>1050</v>
       </c>
       <c r="G38" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>1050</v>
       </c>
       <c r="G39" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -10007,7 +10007,7 @@
         <v>1050</v>
       </c>
       <c r="G40" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>1050</v>
       </c>
       <c r="G43" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
@@ -10141,7 +10141,7 @@
         <v>1050</v>
       </c>
       <c r="G44" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
@@ -10173,7 +10173,7 @@
         <v>1050</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" s="7">
         <v>0</v>
@@ -10205,7 +10205,7 @@
         <v>1050</v>
       </c>
       <c r="G46" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
@@ -10237,7 +10237,7 @@
         <v>1050</v>
       </c>
       <c r="G47" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47" s="7">
         <v>0</v>
@@ -10269,7 +10269,7 @@
         <v>1050</v>
       </c>
       <c r="G48" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" s="7">
         <v>0</v>
@@ -10301,7 +10301,7 @@
         <v>1050</v>
       </c>
       <c r="G49" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -10333,7 +10333,7 @@
         <v>1050</v>
       </c>
       <c r="G50" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -10367,7 +10367,7 @@
         <v>1050</v>
       </c>
       <c r="G51" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51" s="7">
         <v>0</v>
@@ -10399,7 +10399,7 @@
         <v>1050</v>
       </c>
       <c r="G52" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" s="7">
         <v>0</v>
@@ -10433,7 +10433,7 @@
         <v>1050</v>
       </c>
       <c r="G53" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" s="7">
         <v>0</v>
@@ -10465,7 +10465,7 @@
         <v>1050</v>
       </c>
       <c r="G54" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" s="7">
         <v>0</v>
@@ -10497,7 +10497,7 @@
         <v>1050</v>
       </c>
       <c r="G55" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" s="7">
         <v>0</v>
@@ -10529,7 +10529,7 @@
         <v>1050</v>
       </c>
       <c r="G56" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56" s="7">
         <v>0</v>
@@ -10561,7 +10561,7 @@
         <v>1050</v>
       </c>
       <c r="G57" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" s="7">
         <v>0</v>
@@ -10593,7 +10593,7 @@
         <v>1050</v>
       </c>
       <c r="G58" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" s="7">
         <v>0</v>
@@ -10627,7 +10627,7 @@
         <v>1050</v>
       </c>
       <c r="G59" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" s="7">
         <v>0</v>
@@ -10661,7 +10661,7 @@
         <v>1050</v>
       </c>
       <c r="G60" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60" s="7">
         <v>0</v>
@@ -10693,7 +10693,7 @@
         <v>1050</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" s="7">
         <v>0</v>
@@ -10725,7 +10725,7 @@
         <v>1050</v>
       </c>
       <c r="G62" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62" s="7">
         <v>0</v>
@@ -10757,7 +10757,7 @@
         <v>677</v>
       </c>
       <c r="G63" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" s="7">
         <v>0</v>
@@ -10789,7 +10789,7 @@
         <v>677</v>
       </c>
       <c r="G64" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64" s="7">
         <v>0</v>
@@ -10821,7 +10821,7 @@
         <v>677</v>
       </c>
       <c r="G65" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" s="7">
         <v>0</v>
@@ -10838,7 +10838,7 @@
         <v>667</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>697</v>
@@ -10853,7 +10853,7 @@
         <v>677</v>
       </c>
       <c r="G66" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66" s="7">
         <v>0</v>
@@ -10887,7 +10887,7 @@
         <v>1050</v>
       </c>
       <c r="G67" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67" s="7">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>677</v>
       </c>
       <c r="G68" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68" s="7">
         <v>0</v>
@@ -10951,7 +10951,7 @@
         <v>677</v>
       </c>
       <c r="G69" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" s="7">
         <v>0</v>
@@ -10983,7 +10983,7 @@
         <v>677</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" s="7">
         <v>0</v>
@@ -11015,7 +11015,7 @@
         <v>677</v>
       </c>
       <c r="G71" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71" s="7">
         <v>0</v>
@@ -11047,7 +11047,7 @@
         <v>677</v>
       </c>
       <c r="G72" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72" s="7">
         <v>0</v>
@@ -11096,13 +11096,13 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>1155</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>1156</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>1157</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>1048</v>
@@ -11114,7 +11114,7 @@
         <v>1050</v>
       </c>
       <c r="G74" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74" s="7">
         <v>0</v>
@@ -11166,7 +11166,7 @@
         <v>673</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>717</v>
@@ -11181,7 +11181,7 @@
         <v>677</v>
       </c>
       <c r="G76" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76" s="7">
         <v>0</v>
@@ -11269,7 +11269,7 @@
         <v>673</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>718</v>
@@ -11284,7 +11284,7 @@
         <v>677</v>
       </c>
       <c r="G79" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79" s="7">
         <v>0</v>
@@ -11339,7 +11339,7 @@
         <v>674</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>736</v>
@@ -11354,7 +11354,7 @@
         <v>677</v>
       </c>
       <c r="G81" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81" s="7">
         <v>0</v>
@@ -11441,7 +11441,7 @@
         <v>675</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>722</v>
@@ -11456,7 +11456,7 @@
         <v>677</v>
       </c>
       <c r="G84" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84" s="7">
         <v>0</v>
@@ -11797,7 +11797,7 @@
         <v>0</v>
       </c>
       <c r="J94" s="7" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="K94" s="1" t="s">
         <v>725</v>
@@ -11858,7 +11858,7 @@
         <v>0</v>
       </c>
       <c r="J96" s="7" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="K96" s="1" t="s">
         <v>725</v>
@@ -12498,7 +12498,7 @@
         <v>601</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>602</v>
@@ -13362,22 +13362,22 @@
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C146" s="1" t="s">
         <v>1237</v>
       </c>
-      <c r="B146" s="1" t="s">
-        <v>1238</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>1239</v>
-      </c>
       <c r="D146" s="1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="F146" s="1" t="s">
         <v>1233</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>1234</v>
-      </c>
-      <c r="F146" s="1" t="s">
-        <v>1235</v>
       </c>
       <c r="G146" s="3">
         <v>1</v>
@@ -13389,7 +13389,7 @@
         <v>725</v>
       </c>
       <c r="L146" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
@@ -13421,7 +13421,7 @@
         <v>0</v>
       </c>
       <c r="J147" s="8" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="K147" s="4" t="s">
         <v>742</v>
@@ -13459,7 +13459,7 @@
         <v>0</v>
       </c>
       <c r="J148" s="7" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="K148" s="1" t="s">
         <v>743</v>
@@ -13497,7 +13497,7 @@
         <v>0</v>
       </c>
       <c r="J149" s="8" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="K149" s="4" t="s">
         <v>742</v>
@@ -13567,7 +13567,7 @@
         <v>0</v>
       </c>
       <c r="J151" s="7" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="K151" s="1" t="s">
         <v>743</v>
@@ -13605,7 +13605,7 @@
         <v>0</v>
       </c>
       <c r="J152" s="7" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="K152" s="1" t="s">
         <v>765</v>
@@ -13643,7 +13643,7 @@
         <v>0</v>
       </c>
       <c r="J153" s="7" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="K153" s="1" t="s">
         <v>765</v>
@@ -14057,7 +14057,7 @@
         <v>0</v>
       </c>
       <c r="J165" s="7" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="K165" s="1" t="s">
         <v>744</v>
@@ -14095,7 +14095,7 @@
         <v>0</v>
       </c>
       <c r="J166" s="7" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="K166" s="1" t="s">
         <v>848</v>
@@ -14133,7 +14133,7 @@
         <v>0</v>
       </c>
       <c r="J167" s="7" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="K167" s="1" t="s">
         <v>744</v>
@@ -14336,22 +14336,22 @@
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C174" s="1" t="s">
         <v>1230</v>
       </c>
-      <c r="B174" s="1" t="s">
+      <c r="D174" s="1" t="s">
         <v>1231</v>
       </c>
-      <c r="C174" s="1" t="s">
+      <c r="E174" s="1" t="s">
         <v>1232</v>
       </c>
-      <c r="D174" s="1" t="s">
+      <c r="F174" s="1" t="s">
         <v>1233</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>1234</v>
-      </c>
-      <c r="F174" s="1" t="s">
-        <v>1235</v>
       </c>
       <c r="G174" s="3">
         <v>1</v>
@@ -14363,7 +14363,7 @@
         <v>725</v>
       </c>
       <c r="L174" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="175" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
@@ -14877,8 +14877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E5BCC1-FCE5-4A72-87FB-8DCCEFEE3C6B}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14900,7 +14900,7 @@
         <v>988</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="D1" t="s">
         <v>1001</v>
@@ -14923,7 +14923,7 @@
         <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="D2" t="s">
         <v>994</v>
@@ -14940,7 +14940,7 @@
         <v>36</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="D3" t="s">
         <v>996</v>
@@ -14957,7 +14957,7 @@
         <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="D4" t="s">
         <v>990</v>
@@ -14974,7 +14974,7 @@
         <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="D5" t="s">
         <v>990</v>
@@ -14991,7 +14991,7 @@
         <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="D6" t="s">
         <v>989</v>
@@ -15008,7 +15008,7 @@
         <v>26</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="D7" t="s">
         <v>990</v>
@@ -15025,7 +15025,7 @@
         <v>27</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="D8" t="s">
         <v>990</v>
@@ -15043,7 +15043,7 @@
         <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="D9" t="s">
         <v>990</v>
@@ -15060,7 +15060,7 @@
         <v>29</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="D10" t="s">
         <v>989</v>
@@ -15077,7 +15077,7 @@
         <v>30</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="D11" t="s">
         <v>990</v>
@@ -15095,7 +15095,7 @@
         <v>992</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="D12" t="s">
         <v>990</v>
@@ -15113,7 +15113,7 @@
         <v>31</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="D13" t="s">
         <v>995</v>
@@ -15131,7 +15131,7 @@
         <v>32</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="D14" t="s">
         <v>989</v>
@@ -15148,7 +15148,7 @@
         <v>33</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="D15" t="s">
         <v>989</v>
@@ -15165,7 +15165,7 @@
         <v>35</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="D16" t="s">
         <v>996</v>
@@ -15182,7 +15182,7 @@
         <v>37</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="D17" t="s">
         <v>996</v>
@@ -15199,7 +15199,7 @@
         <v>38</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="D18" t="s">
         <v>996</v>
@@ -15216,7 +15216,7 @@
         <v>39</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="D19" t="s">
         <v>996</v>
@@ -15233,13 +15233,13 @@
         <v>40</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="D20" t="s">
         <v>996</v>
       </c>
       <c r="E20" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F20">
         <v>0.77</v>
@@ -15253,13 +15253,13 @@
         <v>41</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="D21" t="s">
         <v>996</v>
       </c>
       <c r="E21" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="F21">
         <v>0.77</v>
@@ -15273,7 +15273,7 @@
         <v>42</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="D22" t="s">
         <v>996</v>
@@ -15290,7 +15290,7 @@
         <v>43</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="D23" t="s">
         <v>996</v>
@@ -15307,7 +15307,7 @@
         <v>44</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="D24" t="s">
         <v>996</v>
@@ -15324,7 +15324,7 @@
         <v>45</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="D25" t="s">
         <v>996</v>
@@ -15338,13 +15338,13 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>1283</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1284</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>1285</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -15355,7 +15355,7 @@
         <v>993</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="D27" t="s">
         <v>999</v>
@@ -15373,7 +15373,7 @@
         <v>998</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="D28" t="s">
         <v>1000</v>
@@ -15391,7 +15391,7 @@
         <v>47</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="D29" t="s">
         <v>996</v>
@@ -15408,7 +15408,7 @@
         <v>48</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="D30" t="s">
         <v>996</v>
@@ -15428,7 +15428,7 @@
         <v>49</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="D31" t="s">
         <v>996</v>
@@ -15445,7 +15445,7 @@
         <v>50</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="D32" t="s">
         <v>990</v>
@@ -15462,7 +15462,7 @@
         <v>51</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="D33" t="s">
         <v>990</v>
@@ -15480,7 +15480,7 @@
         <v>52</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="D34" t="s">
         <v>996</v>
@@ -15500,13 +15500,13 @@
         <v>56</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="D35" t="s">
         <v>996</v>
       </c>
       <c r="E35" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="F35">
         <v>0.77</v>
@@ -15655,10 +15655,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="B16" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
     </row>
   </sheetData>

--- a/data/basic_info.xlsx
+++ b/data/basic_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\trading_plan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D91212-D276-4F9D-89EE-8043A634D7A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7874B84-E079-4525-B8F6-43A05B23FAA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28590" tabRatio="733" activeTab="4" xr2:uid="{855E00D3-25C3-4BB2-A61F-0D95BB1AF006}"/>
+    <workbookView xWindow="-13410" yWindow="5475" windowWidth="12150" windowHeight="20955" tabRatio="733" activeTab="1" xr2:uid="{855E00D3-25C3-4BB2-A61F-0D95BB1AF006}"/>
   </bookViews>
   <sheets>
     <sheet name="acct_info" sheetId="1" r:id="rId1"/>
@@ -8963,11 +8963,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:M179"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomRight" activeCell="G4" sqref="G4:G84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9115,7 +9115,7 @@
         <v>1041</v>
       </c>
       <c r="G4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -9147,7 +9147,7 @@
         <v>1041</v>
       </c>
       <c r="G5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -9179,7 +9179,7 @@
         <v>1041</v>
       </c>
       <c r="G6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -9211,7 +9211,7 @@
         <v>1041</v>
       </c>
       <c r="G7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>1041</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -9275,7 +9275,7 @@
         <v>1041</v>
       </c>
       <c r="G9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -9307,7 +9307,7 @@
         <v>1041</v>
       </c>
       <c r="G10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -9339,7 +9339,7 @@
         <v>1041</v>
       </c>
       <c r="G11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -9371,7 +9371,7 @@
         <v>1041</v>
       </c>
       <c r="G12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -9403,7 +9403,7 @@
         <v>1041</v>
       </c>
       <c r="G13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -9435,7 +9435,7 @@
         <v>1041</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -9467,7 +9467,7 @@
         <v>1041</v>
       </c>
       <c r="G15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -9499,7 +9499,7 @@
         <v>1041</v>
       </c>
       <c r="G16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -9531,7 +9531,7 @@
         <v>586</v>
       </c>
       <c r="G17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -9595,7 +9595,7 @@
         <v>1041</v>
       </c>
       <c r="G19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -9691,7 +9691,7 @@
         <v>1041</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -9723,7 +9723,7 @@
         <v>1041</v>
       </c>
       <c r="G23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -9819,7 +9819,7 @@
         <v>1041</v>
       </c>
       <c r="G26" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>1041</v>
       </c>
       <c r="G28" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -9947,7 +9947,7 @@
         <v>1041</v>
       </c>
       <c r="G30" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -10049,7 +10049,7 @@
         <v>1041</v>
       </c>
       <c r="G33" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -10151,7 +10151,7 @@
         <v>1041</v>
       </c>
       <c r="G36" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -10183,7 +10183,7 @@
         <v>1235</v>
       </c>
       <c r="G37" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>1041</v>
       </c>
       <c r="G38" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -10243,7 +10243,7 @@
         <v>1041</v>
       </c>
       <c r="G39" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -10275,7 +10275,7 @@
         <v>1041</v>
       </c>
       <c r="G40" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -10377,7 +10377,7 @@
         <v>1041</v>
       </c>
       <c r="G43" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
@@ -10409,7 +10409,7 @@
         <v>1041</v>
       </c>
       <c r="G44" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
@@ -10441,7 +10441,7 @@
         <v>1041</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" s="7">
         <v>0</v>
@@ -10473,7 +10473,7 @@
         <v>1041</v>
       </c>
       <c r="G46" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
@@ -10505,7 +10505,7 @@
         <v>1041</v>
       </c>
       <c r="G47" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47" s="7">
         <v>0</v>
@@ -10537,7 +10537,7 @@
         <v>1041</v>
       </c>
       <c r="G48" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" s="7">
         <v>0</v>
@@ -10569,7 +10569,7 @@
         <v>1041</v>
       </c>
       <c r="G49" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -10601,7 +10601,7 @@
         <v>1041</v>
       </c>
       <c r="G50" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -10635,7 +10635,7 @@
         <v>1041</v>
       </c>
       <c r="G51" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51" s="7">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>1041</v>
       </c>
       <c r="G52" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" s="7">
         <v>0</v>
@@ -10701,7 +10701,7 @@
         <v>1041</v>
       </c>
       <c r="G53" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" s="7">
         <v>0</v>
@@ -10733,7 +10733,7 @@
         <v>1041</v>
       </c>
       <c r="G54" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" s="7">
         <v>0</v>
@@ -10765,7 +10765,7 @@
         <v>1041</v>
       </c>
       <c r="G55" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" s="7">
         <v>0</v>
@@ -10797,7 +10797,7 @@
         <v>1041</v>
       </c>
       <c r="G56" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56" s="7">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>1041</v>
       </c>
       <c r="G57" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" s="7">
         <v>0</v>
@@ -10861,7 +10861,7 @@
         <v>1041</v>
       </c>
       <c r="G58" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" s="7">
         <v>0</v>
@@ -10895,7 +10895,7 @@
         <v>1041</v>
       </c>
       <c r="G59" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" s="7">
         <v>0</v>
@@ -10929,7 +10929,7 @@
         <v>1041</v>
       </c>
       <c r="G60" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60" s="7">
         <v>0</v>
@@ -10961,7 +10961,7 @@
         <v>1041</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" s="7">
         <v>0</v>
@@ -10993,7 +10993,7 @@
         <v>1041</v>
       </c>
       <c r="G62" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62" s="7">
         <v>0</v>
@@ -11025,7 +11025,7 @@
         <v>670</v>
       </c>
       <c r="G63" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" s="7">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>670</v>
       </c>
       <c r="G64" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64" s="7">
         <v>0</v>
@@ -11089,7 +11089,7 @@
         <v>670</v>
       </c>
       <c r="G65" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" s="7">
         <v>0</v>
@@ -11121,7 +11121,7 @@
         <v>670</v>
       </c>
       <c r="G66" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66" s="7">
         <v>0</v>
@@ -11155,7 +11155,7 @@
         <v>1041</v>
       </c>
       <c r="G67" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67" s="7">
         <v>0</v>
@@ -11187,7 +11187,7 @@
         <v>670</v>
       </c>
       <c r="G68" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68" s="7">
         <v>0</v>
@@ -11219,7 +11219,7 @@
         <v>670</v>
       </c>
       <c r="G69" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" s="7">
         <v>0</v>
@@ -11251,7 +11251,7 @@
         <v>670</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" s="7">
         <v>0</v>
@@ -11283,7 +11283,7 @@
         <v>670</v>
       </c>
       <c r="G71" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71" s="7">
         <v>0</v>
@@ -11315,7 +11315,7 @@
         <v>670</v>
       </c>
       <c r="G72" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72" s="7">
         <v>0</v>
@@ -11382,7 +11382,7 @@
         <v>1041</v>
       </c>
       <c r="G74" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74" s="7">
         <v>0</v>
@@ -11449,7 +11449,7 @@
         <v>670</v>
       </c>
       <c r="G76" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76" s="7">
         <v>0</v>
@@ -11552,7 +11552,7 @@
         <v>670</v>
       </c>
       <c r="G79" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79" s="7">
         <v>0</v>
@@ -11622,7 +11622,7 @@
         <v>670</v>
       </c>
       <c r="G81" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81" s="7">
         <v>0</v>
@@ -11724,7 +11724,7 @@
         <v>670</v>
       </c>
       <c r="G84" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84" s="7">
         <v>0</v>
@@ -16063,7 +16063,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB6EAEB8-B1A2-4855-859E-94F60D26EFB6}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>

--- a/data/basic_info.xlsx
+++ b/data/basic_info.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\trading_plan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EEDC1C4-CF61-4AEB-B6EF-B15B196AC5D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50626D7F-9F73-458D-A20E-FE2482BE3978}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28590" tabRatio="733" xr2:uid="{855E00D3-25C3-4BB2-A61F-0D95BB1AF006}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28590" tabRatio="733" activeTab="3" xr2:uid="{855E00D3-25C3-4BB2-A61F-0D95BB1AF006}"/>
   </bookViews>
   <sheets>
     <sheet name="acctinfo" sheetId="8" r:id="rId1"/>
     <sheet name="prdinfo" sheetId="2" r:id="rId2"/>
     <sheet name="broker_info" sheetId="4" r:id="rId3"/>
-    <sheet name="na_allocation" sheetId="10" r:id="rId4"/>
+    <sheet name="trdplan_expression" sheetId="12" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">acctinfo!$D$1:$D$179</definedName>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1786" uniqueCount="972">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1792" uniqueCount="974">
   <si>
     <t>鸣石量化投资2期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3884,6 +3884,14 @@
   </si>
   <si>
     <t>CpsTrdStartTimes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CapitalSrc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TrdPlanExpression</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4281,11 +4289,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E89EC7F-6807-4E54-B5E1-E4E4E9C6C1B6}">
   <dimension ref="A1:M179"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I22" sqref="I22"/>
+      <selection pane="bottomRight" activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10144,7 +10152,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomRight" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11669,15 +11677,44 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EF007AF-3DED-4E21-94AC-55FE2EDB7408}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32978791-2C24-483F-A8F9-7F0707D77898}">
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>972</v>
+      </c>
+      <c r="B1" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>791</v>
+      </c>
+      <c r="B2" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>790</v>
+      </c>
+      <c r="B3" t="s">
+        <v>898</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/basic_info.xlsx
+++ b/data/basic_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\trading_plan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50626D7F-9F73-458D-A20E-FE2482BE3978}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78603D34-CC8A-4143-B5E9-0213A5C04AE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28590" tabRatio="733" activeTab="3" xr2:uid="{855E00D3-25C3-4BB2-A61F-0D95BB1AF006}"/>
+    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28590" tabRatio="733" xr2:uid="{855E00D3-25C3-4BB2-A61F-0D95BB1AF006}"/>
   </bookViews>
   <sheets>
     <sheet name="acctinfo" sheetId="8" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="trdplan_expression" sheetId="12" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">acctinfo!$D$1:$D$179</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">acctinfo!$G$1:$G$179</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -4287,13 +4287,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E89EC7F-6807-4E54-B5E1-E4E4E9C6C1B6}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:M179"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L4" sqref="L4"/>
+      <selection pane="bottomRight" activeCell="I99" sqref="I99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4421,7 +4422,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>737</v>
       </c>
@@ -4453,7 +4454,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>738</v>
       </c>
@@ -4485,7 +4486,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>739</v>
       </c>
@@ -4517,7 +4518,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>740</v>
       </c>
@@ -4549,7 +4550,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>741</v>
       </c>
@@ -4581,7 +4582,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>742</v>
       </c>
@@ -4613,7 +4614,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>743</v>
       </c>
@@ -4645,7 +4646,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>744</v>
       </c>
@@ -4677,7 +4678,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>745</v>
       </c>
@@ -4709,7 +4710,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>746</v>
       </c>
@@ -4741,7 +4742,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>747</v>
       </c>
@@ -4773,7 +4774,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>747</v>
       </c>
@@ -4805,7 +4806,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>748</v>
       </c>
@@ -4837,7 +4838,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>223</v>
       </c>
@@ -4869,7 +4870,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>100</v>
       </c>
@@ -4901,7 +4902,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>763</v>
       </c>
@@ -4958,6 +4959,9 @@
       <c r="H20" s="7">
         <v>0</v>
       </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
       <c r="K20" s="1" t="s">
         <v>318</v>
       </c>
@@ -4990,6 +4994,9 @@
       <c r="H21" s="7">
         <v>0</v>
       </c>
+      <c r="I21" s="7">
+        <v>0</v>
+      </c>
       <c r="K21" s="1" t="s">
         <v>500</v>
       </c>
@@ -4997,7 +5004,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>764</v>
       </c>
@@ -5029,7 +5036,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>765</v>
       </c>
@@ -5086,6 +5093,9 @@
       <c r="H24" s="7">
         <v>0</v>
       </c>
+      <c r="I24" s="7">
+        <v>0</v>
+      </c>
       <c r="K24" s="1" t="s">
         <v>506</v>
       </c>
@@ -5118,6 +5128,9 @@
       <c r="H25" s="7">
         <v>0</v>
       </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
       <c r="K25" s="1" t="s">
         <v>506</v>
       </c>
@@ -5125,7 +5138,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>625</v>
       </c>
@@ -5182,6 +5195,9 @@
       <c r="H27" s="7">
         <v>0</v>
       </c>
+      <c r="I27" s="7">
+        <v>0</v>
+      </c>
       <c r="K27" s="1" t="s">
         <v>341</v>
       </c>
@@ -5189,7 +5205,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>625</v>
       </c>
@@ -5246,6 +5262,9 @@
       <c r="H29" s="7">
         <v>0</v>
       </c>
+      <c r="I29" s="7">
+        <v>0</v>
+      </c>
       <c r="K29" s="1" t="s">
         <v>552</v>
       </c>
@@ -5253,7 +5272,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>619</v>
       </c>
@@ -5310,6 +5329,9 @@
       <c r="H31" s="7">
         <v>0</v>
       </c>
+      <c r="I31" s="7">
+        <v>0</v>
+      </c>
       <c r="J31" s="7" t="s">
         <v>797</v>
       </c>
@@ -5345,6 +5367,9 @@
       <c r="H32" s="7">
         <v>0</v>
       </c>
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
       <c r="J32" s="7" t="s">
         <v>796</v>
       </c>
@@ -5355,7 +5380,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>632</v>
       </c>
@@ -5412,6 +5437,9 @@
       <c r="H34" s="7">
         <v>0</v>
       </c>
+      <c r="I34" s="7">
+        <v>0</v>
+      </c>
       <c r="J34" s="7" t="s">
         <v>798</v>
       </c>
@@ -5447,6 +5475,9 @@
       <c r="H35" s="7">
         <v>0</v>
       </c>
+      <c r="I35" s="7">
+        <v>0</v>
+      </c>
       <c r="J35" s="7" t="s">
         <v>799</v>
       </c>
@@ -5457,7 +5488,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>636</v>
       </c>
@@ -5489,7 +5520,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>813</v>
       </c>
@@ -5517,7 +5548,7 @@
       <c r="K37" s="1"/>
       <c r="L37"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>639</v>
       </c>
@@ -5549,7 +5580,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>642</v>
       </c>
@@ -5581,7 +5612,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>646</v>
       </c>
@@ -5659,7 +5690,7 @@
         <v>129</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>131</v>
@@ -5683,7 +5714,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>650</v>
       </c>
@@ -5715,7 +5746,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>654</v>
       </c>
@@ -5747,7 +5778,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>657</v>
       </c>
@@ -5779,7 +5810,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>660</v>
       </c>
@@ -5811,7 +5842,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>663</v>
       </c>
@@ -5843,7 +5874,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>666</v>
       </c>
@@ -5875,7 +5906,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>669</v>
       </c>
@@ -5907,7 +5938,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="50" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>673</v>
       </c>
@@ -5941,7 +5972,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>677</v>
       </c>
@@ -5973,7 +6004,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="52" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>680</v>
       </c>
@@ -6007,7 +6038,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>680</v>
       </c>
@@ -6039,7 +6070,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>682</v>
       </c>
@@ -6071,7 +6102,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>686</v>
       </c>
@@ -6103,7 +6134,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>690</v>
       </c>
@@ -6135,7 +6166,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>693</v>
       </c>
@@ -6167,7 +6198,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="58" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>696</v>
       </c>
@@ -6201,7 +6232,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="59" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>699</v>
       </c>
@@ -6235,7 +6266,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>703</v>
       </c>
@@ -6267,7 +6298,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>706</v>
       </c>
@@ -6299,7 +6330,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>710</v>
       </c>
@@ -6331,7 +6362,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>240</v>
       </c>
@@ -6363,7 +6394,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>241</v>
       </c>
@@ -6395,7 +6426,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>242</v>
       </c>
@@ -6427,7 +6458,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="66" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>243</v>
       </c>
@@ -6461,7 +6492,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>719</v>
       </c>
@@ -6493,7 +6524,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>244</v>
       </c>
@@ -6525,7 +6556,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>245</v>
       </c>
@@ -6557,7 +6588,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>246</v>
       </c>
@@ -6589,7 +6620,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>247</v>
       </c>
@@ -6621,7 +6652,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>248</v>
       </c>
@@ -6688,7 +6719,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>851</v>
       </c>
@@ -6755,7 +6786,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>249</v>
       </c>
@@ -6858,7 +6889,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="79" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>249</v>
       </c>
@@ -6928,7 +6959,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>250</v>
       </c>
@@ -7030,7 +7061,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>251</v>
       </c>
@@ -7097,7 +7128,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>199</v>
       </c>
@@ -7164,7 +7195,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>218</v>
       </c>
@@ -7231,7 +7262,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>220</v>
       </c>
@@ -7323,6 +7354,9 @@
       <c r="H92" s="7">
         <v>0</v>
       </c>
+      <c r="I92" s="7">
+        <v>0</v>
+      </c>
       <c r="K92" s="1" t="s">
         <v>301</v>
       </c>
@@ -7390,6 +7424,9 @@
       <c r="H94" s="7">
         <v>0</v>
       </c>
+      <c r="I94" s="7">
+        <v>0</v>
+      </c>
       <c r="J94" s="7" t="s">
         <v>790</v>
       </c>
@@ -7400,7 +7437,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>240</v>
       </c>
@@ -7451,6 +7488,9 @@
       <c r="H96" s="7">
         <v>0</v>
       </c>
+      <c r="I96" s="7">
+        <v>0</v>
+      </c>
       <c r="J96" s="7" t="s">
         <v>791</v>
       </c>
@@ -7461,7 +7501,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>240</v>
       </c>
@@ -7487,7 +7527,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>241</v>
       </c>
@@ -7538,6 +7578,9 @@
       <c r="H99" s="7">
         <v>0</v>
       </c>
+      <c r="I99" s="7">
+        <v>0</v>
+      </c>
       <c r="K99" s="1" t="s">
         <v>301</v>
       </c>
@@ -7545,7 +7588,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>242</v>
       </c>
@@ -7571,7 +7614,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>242</v>
       </c>
@@ -7622,6 +7665,9 @@
       <c r="H102" s="7">
         <v>0</v>
       </c>
+      <c r="I102" s="7">
+        <v>0</v>
+      </c>
       <c r="K102" s="1" t="s">
         <v>301</v>
       </c>
@@ -7629,7 +7675,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>243</v>
       </c>
@@ -7655,7 +7701,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>243</v>
       </c>
@@ -7706,6 +7752,9 @@
       <c r="H105" s="7">
         <v>0</v>
       </c>
+      <c r="I105" s="7">
+        <v>0</v>
+      </c>
       <c r="K105" s="1" t="s">
         <v>301</v>
       </c>
@@ -7738,6 +7787,9 @@
       <c r="H106" s="7">
         <v>0</v>
       </c>
+      <c r="I106" s="7">
+        <v>0</v>
+      </c>
       <c r="K106" s="1" t="s">
         <v>301</v>
       </c>
@@ -7745,7 +7797,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>244</v>
       </c>
@@ -7771,7 +7823,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>244</v>
       </c>
@@ -7822,6 +7874,9 @@
       <c r="H109" s="7">
         <v>0</v>
       </c>
+      <c r="I109" s="7">
+        <v>0</v>
+      </c>
       <c r="K109" s="1" t="s">
         <v>301</v>
       </c>
@@ -7829,7 +7884,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>245</v>
       </c>
@@ -7880,6 +7935,9 @@
       <c r="H111" s="7">
         <v>0</v>
       </c>
+      <c r="I111" s="7">
+        <v>0</v>
+      </c>
       <c r="K111" s="1" t="s">
         <v>301</v>
       </c>
@@ -7887,7 +7945,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>246</v>
       </c>
@@ -7938,6 +7996,9 @@
       <c r="H113" s="7">
         <v>0</v>
       </c>
+      <c r="I113" s="7">
+        <v>0</v>
+      </c>
       <c r="K113" s="1" t="s">
         <v>301</v>
       </c>
@@ -7945,7 +8006,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>247</v>
       </c>
@@ -7971,7 +8032,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>247</v>
       </c>
@@ -8022,6 +8083,9 @@
       <c r="H116" s="7">
         <v>0</v>
       </c>
+      <c r="I116" s="7">
+        <v>0</v>
+      </c>
       <c r="K116" s="1" t="s">
         <v>301</v>
       </c>
@@ -8029,7 +8093,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>248</v>
       </c>
@@ -8080,6 +8144,9 @@
       <c r="H118" s="7">
         <v>0</v>
       </c>
+      <c r="I118" s="7">
+        <v>0</v>
+      </c>
       <c r="K118" s="1" t="s">
         <v>301</v>
       </c>
@@ -8112,6 +8179,9 @@
       <c r="H119" s="7">
         <v>0</v>
       </c>
+      <c r="I119" s="7">
+        <v>0</v>
+      </c>
       <c r="K119" s="1" t="s">
         <v>496</v>
       </c>
@@ -8119,7 +8189,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>249</v>
       </c>
@@ -8145,7 +8215,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>249</v>
       </c>
@@ -8196,6 +8266,9 @@
       <c r="H122" s="7">
         <v>0</v>
       </c>
+      <c r="I122" s="7">
+        <v>0</v>
+      </c>
       <c r="K122" s="1" t="s">
         <v>301</v>
       </c>
@@ -8228,6 +8301,9 @@
       <c r="H123" s="7">
         <v>0</v>
       </c>
+      <c r="I123" s="7">
+        <v>0</v>
+      </c>
       <c r="K123" s="1" t="s">
         <v>301</v>
       </c>
@@ -8235,7 +8311,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>250</v>
       </c>
@@ -8261,7 +8337,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>250</v>
       </c>
@@ -8312,6 +8388,9 @@
       <c r="H126" s="7">
         <v>0</v>
       </c>
+      <c r="I126" s="7">
+        <v>0</v>
+      </c>
       <c r="K126" s="1" t="s">
         <v>301</v>
       </c>
@@ -8319,7 +8398,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>251</v>
       </c>
@@ -8370,6 +8449,9 @@
       <c r="H128" s="7">
         <v>0</v>
       </c>
+      <c r="I128" s="7">
+        <v>0</v>
+      </c>
       <c r="K128" s="1" t="s">
         <v>301</v>
       </c>
@@ -8412,7 +8494,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>336</v>
       </c>
@@ -8472,6 +8554,9 @@
       <c r="H131" s="7">
         <v>0</v>
       </c>
+      <c r="I131" s="7">
+        <v>0</v>
+      </c>
       <c r="K131" s="1" t="s">
         <v>301</v>
       </c>
@@ -8574,6 +8659,9 @@
       <c r="H134" s="7">
         <v>0</v>
       </c>
+      <c r="I134" s="7">
+        <v>0</v>
+      </c>
       <c r="K134" s="1" t="s">
         <v>301</v>
       </c>
@@ -8581,7 +8669,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>32</v>
       </c>
@@ -8616,7 +8704,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>348</v>
       </c>
@@ -8676,6 +8764,9 @@
       <c r="H137" s="7">
         <v>0</v>
       </c>
+      <c r="I137" s="7">
+        <v>0</v>
+      </c>
       <c r="K137" s="1" t="s">
         <v>301</v>
       </c>
@@ -8743,6 +8834,9 @@
       <c r="H139" s="7">
         <v>0</v>
       </c>
+      <c r="I139" s="7">
+        <v>0</v>
+      </c>
       <c r="K139" s="1" t="s">
         <v>301</v>
       </c>
@@ -8775,6 +8869,9 @@
       <c r="H140" s="7">
         <v>0</v>
       </c>
+      <c r="I140" s="7">
+        <v>0</v>
+      </c>
       <c r="K140" s="1" t="s">
         <v>301</v>
       </c>
@@ -8817,7 +8914,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>352</v>
       </c>
@@ -8877,6 +8974,9 @@
       <c r="H143" s="7">
         <v>0</v>
       </c>
+      <c r="I143" s="7">
+        <v>0</v>
+      </c>
       <c r="K143" s="1" t="s">
         <v>301</v>
       </c>
@@ -8979,6 +9079,9 @@
       <c r="H146" s="7">
         <v>0</v>
       </c>
+      <c r="I146" s="7">
+        <v>0</v>
+      </c>
       <c r="K146" s="1" t="s">
         <v>301</v>
       </c>
@@ -9024,7 +9127,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>88</v>
       </c>
@@ -9041,10 +9144,10 @@
         <v>39</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G148" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H148" s="7">
         <v>0</v>
@@ -9125,6 +9228,9 @@
       <c r="H150" s="7">
         <v>0</v>
       </c>
+      <c r="I150" s="7">
+        <v>0</v>
+      </c>
       <c r="K150" s="1" t="s">
         <v>301</v>
       </c>
@@ -9271,6 +9377,9 @@
       <c r="H154" s="7">
         <v>0</v>
       </c>
+      <c r="I154" s="7">
+        <v>0</v>
+      </c>
       <c r="K154" s="1" t="s">
         <v>301</v>
       </c>
@@ -9375,6 +9484,9 @@
       <c r="H157" s="7">
         <v>0</v>
       </c>
+      <c r="I157" s="7">
+        <v>0</v>
+      </c>
       <c r="K157" s="1" t="s">
         <v>301</v>
       </c>
@@ -9417,7 +9529,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>345</v>
       </c>
@@ -9477,6 +9589,9 @@
       <c r="H160" s="7">
         <v>0</v>
       </c>
+      <c r="I160" s="7">
+        <v>0</v>
+      </c>
       <c r="K160" s="1" t="s">
         <v>301</v>
       </c>
@@ -9484,7 +9599,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>446</v>
       </c>
@@ -9554,7 +9669,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
         <v>458</v>
       </c>
@@ -9615,6 +9730,9 @@
       <c r="H164" s="7">
         <v>0</v>
       </c>
+      <c r="I164" s="7">
+        <v>0</v>
+      </c>
       <c r="K164" s="1" t="s">
         <v>301</v>
       </c>
@@ -9761,6 +9879,9 @@
       <c r="H168" s="7">
         <v>0</v>
       </c>
+      <c r="I168" s="7">
+        <v>0</v>
+      </c>
       <c r="K168" s="1" t="s">
         <v>301</v>
       </c>
@@ -9793,6 +9914,9 @@
       <c r="H169" s="7">
         <v>0</v>
       </c>
+      <c r="I169" s="7">
+        <v>0</v>
+      </c>
       <c r="K169" s="1" t="s">
         <v>301</v>
       </c>
@@ -9800,7 +9924,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>35</v>
       </c>
@@ -9857,6 +9981,9 @@
       <c r="H171" s="7">
         <v>0</v>
       </c>
+      <c r="I171" s="7">
+        <v>0</v>
+      </c>
       <c r="K171" s="1" t="s">
         <v>301</v>
       </c>
@@ -9864,7 +9991,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>36</v>
       </c>
@@ -9896,7 +10023,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>356</v>
       </c>
@@ -9953,6 +10080,9 @@
       <c r="H174" s="7">
         <v>0</v>
       </c>
+      <c r="I174" s="7">
+        <v>0</v>
+      </c>
       <c r="K174" s="1" t="s">
         <v>301</v>
       </c>
@@ -10021,7 +10151,9 @@
       <c r="H176" s="8">
         <v>0</v>
       </c>
-      <c r="I176" s="8"/>
+      <c r="I176" s="8">
+        <v>0</v>
+      </c>
       <c r="J176" s="8"/>
       <c r="K176" s="4" t="s">
         <v>301</v>
@@ -10126,6 +10258,9 @@
       <c r="H179" s="7">
         <v>0</v>
       </c>
+      <c r="I179" s="7">
+        <v>0</v>
+      </c>
       <c r="K179" s="1" t="s">
         <v>301</v>
       </c>
@@ -10134,7 +10269,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D179" xr:uid="{0C1E1208-E85C-4C1A-B013-C5D18027EE55}"/>
+  <autoFilter ref="G1:G179" xr:uid="{6DE013EB-D417-46F6-838C-22D1D1661514}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:L179">
     <sortCondition ref="G1"/>
   </sortState>
@@ -10152,7 +10293,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F31" sqref="F31"/>
+      <selection pane="bottomRight" activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11680,7 +11821,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32978791-2C24-483F-A8F9-7F0707D77898}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>

--- a/data/basic_info.xlsx
+++ b/data/basic_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\trading_plan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48AB214A-8D58-42C1-B6C4-2F10C66AD2CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE8DE94-9EB1-46C0-91C0-D82675085A9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28590" tabRatio="733" xr2:uid="{855E00D3-25C3-4BB2-A61F-0D95BB1AF006}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28590" tabRatio="733" activeTab="1" xr2:uid="{855E00D3-25C3-4BB2-A61F-0D95BB1AF006}"/>
   </bookViews>
   <sheets>
     <sheet name="acctinfo" sheetId="8" r:id="rId1"/>
@@ -4443,11 +4443,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:O166"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="D33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F112" sqref="F112"/>
+      <selection pane="bottomRight" activeCell="E166" sqref="E166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4513,7 +4513,7 @@
       </c>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>121</v>
       </c>
@@ -4554,7 +4554,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>678</v>
       </c>
@@ -4586,7 +4586,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>679</v>
       </c>
@@ -4618,7 +4618,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>680</v>
       </c>
@@ -4650,7 +4650,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>681</v>
       </c>
@@ -4682,7 +4682,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>682</v>
       </c>
@@ -4714,7 +4714,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>683</v>
       </c>
@@ -4746,7 +4746,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>684</v>
       </c>
@@ -4778,7 +4778,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>685</v>
       </c>
@@ -4810,7 +4810,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>686</v>
       </c>
@@ -4842,7 +4842,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>687</v>
       </c>
@@ -4874,7 +4874,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>688</v>
       </c>
@@ -4906,7 +4906,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>689</v>
       </c>
@@ -4938,7 +4938,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>203</v>
       </c>
@@ -4958,7 +4958,7 @@
         <v>157</v>
       </c>
       <c r="I15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" s="7">
         <v>0</v>
@@ -4973,7 +4973,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>96</v>
       </c>
@@ -5014,7 +5014,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>703</v>
       </c>
@@ -5046,7 +5046,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>97</v>
       </c>
@@ -5087,7 +5087,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>97</v>
       </c>
@@ -5128,7 +5128,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>704</v>
       </c>
@@ -5160,7 +5160,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>705</v>
       </c>
@@ -5192,7 +5192,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>26</v>
       </c>
@@ -5233,7 +5233,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>459</v>
       </c>
@@ -5274,7 +5274,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>572</v>
       </c>
@@ -5306,7 +5306,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>98</v>
       </c>
@@ -5347,7 +5347,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>572</v>
       </c>
@@ -5379,7 +5379,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>99</v>
       </c>
@@ -5420,7 +5420,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>566</v>
       </c>
@@ -5452,7 +5452,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -5496,7 +5496,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>579</v>
       </c>
@@ -5528,7 +5528,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>100</v>
       </c>
@@ -5572,7 +5572,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>100</v>
       </c>
@@ -5616,7 +5616,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>583</v>
       </c>
@@ -5648,7 +5648,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>749</v>
       </c>
@@ -5676,7 +5676,7 @@
       <c r="M34" s="1"/>
       <c r="N34"/>
     </row>
-    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>586</v>
       </c>
@@ -5708,7 +5708,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>589</v>
       </c>
@@ -5740,7 +5740,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>593</v>
       </c>
@@ -5772,7 +5772,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>437</v>
       </c>
@@ -5807,7 +5807,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>120</v>
       </c>
@@ -5848,7 +5848,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>597</v>
       </c>
@@ -5880,7 +5880,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>601</v>
       </c>
@@ -5912,7 +5912,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>604</v>
       </c>
@@ -5944,7 +5944,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>607</v>
       </c>
@@ -5976,7 +5976,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>610</v>
       </c>
@@ -6008,7 +6008,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>613</v>
       </c>
@@ -6040,7 +6040,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>616</v>
       </c>
@@ -6072,7 +6072,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:14" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>620</v>
       </c>
@@ -6108,7 +6108,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="1:14" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>624</v>
       </c>
@@ -6144,7 +6144,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>624</v>
       </c>
@@ -6176,7 +6176,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="50" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>626</v>
       </c>
@@ -6208,7 +6208,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="51" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>630</v>
       </c>
@@ -6240,7 +6240,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="52" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>634</v>
       </c>
@@ -6272,7 +6272,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="53" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>637</v>
       </c>
@@ -6304,7 +6304,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="54" spans="1:14" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>640</v>
       </c>
@@ -6340,7 +6340,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="55" spans="1:14" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>643</v>
       </c>
@@ -6376,7 +6376,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>647</v>
       </c>
@@ -6408,7 +6408,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="57" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>650</v>
       </c>
@@ -6440,7 +6440,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="58" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>654</v>
       </c>
@@ -6472,7 +6472,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="59" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>220</v>
       </c>
@@ -6504,7 +6504,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="60" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>221</v>
       </c>
@@ -6536,7 +6536,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="61" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>222</v>
       </c>
@@ -6568,7 +6568,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="62" spans="1:14" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>223</v>
       </c>
@@ -6604,7 +6604,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="63" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>663</v>
       </c>
@@ -6636,7 +6636,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="64" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>225</v>
       </c>
@@ -6668,7 +6668,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>226</v>
       </c>
@@ -6700,7 +6700,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="66" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>227</v>
       </c>
@@ -6732,7 +6732,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>452</v>
       </c>
@@ -6773,7 +6773,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="68" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>786</v>
       </c>
@@ -6805,7 +6805,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>78</v>
       </c>
@@ -6846,7 +6846,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="70" spans="1:14" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>229</v>
       </c>
@@ -6882,7 +6882,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="71" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>88</v>
       </c>
@@ -6924,7 +6924,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="72" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>230</v>
       </c>
@@ -6956,7 +6956,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>80</v>
       </c>
@@ -6997,7 +6997,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>465</v>
       </c>
@@ -7032,7 +7032,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="75" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>231</v>
       </c>
@@ -7064,7 +7064,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>89</v>
       </c>
@@ -7105,7 +7105,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>90</v>
       </c>
@@ -7146,7 +7146,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>82</v>
       </c>
@@ -7187,7 +7187,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="79" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>200</v>
       </c>
@@ -7219,7 +7219,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>552</v>
       </c>
@@ -7260,7 +7260,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="81" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>158</v>
       </c>
@@ -7295,7 +7295,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>91</v>
       </c>
@@ -7336,7 +7336,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="83" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>202</v>
       </c>
@@ -7374,7 +7374,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>220</v>
       </c>
@@ -7400,7 +7400,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="85" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>202</v>
       </c>
@@ -7438,7 +7438,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>220</v>
       </c>
@@ -7464,7 +7464,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>221</v>
       </c>
@@ -7490,7 +7490,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="88" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>209</v>
       </c>
@@ -7525,7 +7525,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>222</v>
       </c>
@@ -7551,7 +7551,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>222</v>
       </c>
@@ -7577,7 +7577,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="91" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>211</v>
       </c>
@@ -7612,7 +7612,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>223</v>
       </c>
@@ -7638,7 +7638,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>223</v>
       </c>
@@ -7664,7 +7664,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="94" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>213</v>
       </c>
@@ -7699,7 +7699,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="95" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>215</v>
       </c>
@@ -7734,7 +7734,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>224</v>
       </c>
@@ -7760,7 +7760,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>224</v>
       </c>
@@ -7786,7 +7786,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="98" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>217</v>
       </c>
@@ -7821,7 +7821,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>225</v>
       </c>
@@ -7847,7 +7847,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="100" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>153</v>
       </c>
@@ -7882,7 +7882,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>226</v>
       </c>
@@ -7908,7 +7908,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="102" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>545</v>
       </c>
@@ -7943,7 +7943,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>227</v>
       </c>
@@ -7969,7 +7969,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>227</v>
       </c>
@@ -7995,7 +7995,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="105" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>160</v>
       </c>
@@ -8030,7 +8030,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>228</v>
       </c>
@@ -8056,7 +8056,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="107" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>163</v>
       </c>
@@ -8091,7 +8091,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>229</v>
       </c>
@@ -8117,7 +8117,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>229</v>
       </c>
@@ -8143,7 +8143,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="110" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>166</v>
       </c>
@@ -8178,7 +8178,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="111" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>168</v>
       </c>
@@ -8213,7 +8213,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>230</v>
       </c>
@@ -8239,7 +8239,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>230</v>
       </c>
@@ -8265,7 +8265,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="114" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>171</v>
       </c>
@@ -8300,7 +8300,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>231</v>
       </c>
@@ -8326,7 +8326,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="116" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>173</v>
       </c>
@@ -8361,7 +8361,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>29</v>
       </c>
@@ -8402,7 +8402,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>311</v>
       </c>
@@ -8437,7 +8437,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="119" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>175</v>
       </c>
@@ -8472,7 +8472,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>30</v>
       </c>
@@ -8507,7 +8507,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>289</v>
       </c>
@@ -8548,7 +8548,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="122" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>552</v>
       </c>
@@ -8583,7 +8583,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>31</v>
       </c>
@@ -8618,7 +8618,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>323</v>
       </c>
@@ -8653,7 +8653,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="125" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>177</v>
       </c>
@@ -8688,7 +8688,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>32</v>
       </c>
@@ -8729,7 +8729,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="127" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>179</v>
       </c>
@@ -8764,7 +8764,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="128" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>182</v>
       </c>
@@ -8799,7 +8799,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>33</v>
       </c>
@@ -8840,7 +8840,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>327</v>
       </c>
@@ -8875,7 +8875,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="131" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>185</v>
       </c>
@@ -8945,7 +8945,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>92</v>
       </c>
@@ -8986,7 +8986,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="134" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>744</v>
       </c>
@@ -9021,7 +9021,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
         <v>85</v>
       </c>
@@ -9061,7 +9061,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>85</v>
       </c>
@@ -9105,7 +9105,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
         <v>85</v>
       </c>
@@ -9149,7 +9149,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="138" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>187</v>
       </c>
@@ -9184,7 +9184,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>93</v>
       </c>
@@ -9228,7 +9228,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>93</v>
       </c>
@@ -9266,7 +9266,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>329</v>
       </c>
@@ -9310,7 +9310,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>903</v>
       </c>
@@ -9348,7 +9348,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="143" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>190</v>
       </c>
@@ -9383,7 +9383,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
         <v>94</v>
       </c>
@@ -9421,7 +9421,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
         <v>317</v>
       </c>
@@ -9463,7 +9463,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="146" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>192</v>
       </c>
@@ -9498,7 +9498,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>87</v>
       </c>
@@ -9539,7 +9539,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>320</v>
       </c>
@@ -9574,7 +9574,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="149" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>194</v>
       </c>
@@ -9609,7 +9609,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>411</v>
       </c>
@@ -9644,7 +9644,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>411</v>
       </c>
@@ -9685,7 +9685,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
         <v>423</v>
       </c>
@@ -9727,7 +9727,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="153" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>196</v>
       </c>
@@ -9762,7 +9762,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>95</v>
       </c>
@@ -9800,7 +9800,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>95</v>
       </c>
@@ -9844,7 +9844,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>95</v>
       </c>
@@ -9888,7 +9888,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="157" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>198</v>
       </c>
@@ -9923,7 +9923,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="158" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>423</v>
       </c>
@@ -9958,7 +9958,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>34</v>
       </c>
@@ -9990,7 +9990,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>331</v>
       </c>
@@ -10022,7 +10022,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="161" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>737</v>
       </c>
@@ -10057,7 +10057,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
         <v>402</v>
       </c>
@@ -10099,7 +10099,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="163" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
         <v>529</v>
       </c>
@@ -10175,7 +10175,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>303</v>
       </c>
@@ -10216,7 +10216,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="166" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>303</v>
       </c>
@@ -10255,8 +10255,7 @@
   <autoFilter ref="F1:F166" xr:uid="{BD0CEC28-4514-4F84-8710-E7853B3CF2B8}">
     <filterColumn colId="0">
       <filters>
-        <filter val="c"/>
-        <filter val="m"/>
+        <filter val="f"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -10273,11 +10272,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E5BCC1-FCE5-4A72-87FB-8DCCEFEE3C6B}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H20" sqref="H20"/>
+      <selection pane="bottomRight" activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10956,8 +10955,7 @@
         <v>527</v>
       </c>
       <c r="I25">
-        <f>0.77*0.7 + 0.9*0.3</f>
-        <v>0.80899999999999994</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">

--- a/data/basic_info.xlsx
+++ b/data/basic_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\trading_plan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F05EA36-1F3D-4E7B-8CFC-BCF66A7F8B6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D5DF470-78B0-409E-9D75-02DC8CF69699}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28590" tabRatio="733" xr2:uid="{855E00D3-25C3-4BB2-A61F-0D95BB1AF006}"/>
+    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28590" tabRatio="733" activeTab="1" xr2:uid="{855E00D3-25C3-4BB2-A61F-0D95BB1AF006}"/>
   </bookViews>
   <sheets>
     <sheet name="acctinfo" sheetId="8" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="trdplan_expression" sheetId="12" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">acctinfo!$M$1:$M$172</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">acctinfo!$M$1:$M$173</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1997" uniqueCount="1203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2005" uniqueCount="1209">
   <si>
     <t>鸣石量化投资2期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4810,6 +4810,29 @@
   </si>
   <si>
     <t>(D:/data/A_trading_data/A_result/918hao_MS/holding_sw.csv,D:/data/A_trading_data/A_result/918hao_MS/holding_sw.csv,)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9912900273</t>
+  </si>
+  <si>
+    <t>612</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msct12zx0273</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5205,13 +5228,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E89EC7F-6807-4E54-B5E1-E4E4E9C6C1B6}">
-  <dimension ref="A1:O172"/>
+  <dimension ref="A1:O173"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I2" sqref="I2:I38"/>
+      <selection pane="bottomRight" activeCell="K63" sqref="K63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5297,7 +5320,7 @@
         <v>523</v>
       </c>
       <c r="I2" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" s="7">
         <v>0</v>
@@ -5329,7 +5352,7 @@
         <v>523</v>
       </c>
       <c r="I3" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="7">
         <v>0</v>
@@ -5361,7 +5384,7 @@
         <v>523</v>
       </c>
       <c r="I4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7">
         <v>0</v>
@@ -5393,7 +5416,7 @@
         <v>523</v>
       </c>
       <c r="I5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7">
         <v>0</v>
@@ -5425,7 +5448,7 @@
         <v>523</v>
       </c>
       <c r="I6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7">
         <v>0</v>
@@ -5457,7 +5480,7 @@
         <v>523</v>
       </c>
       <c r="I7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7">
         <v>0</v>
@@ -5489,7 +5512,7 @@
         <v>523</v>
       </c>
       <c r="I8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7">
         <v>0</v>
@@ -5521,7 +5544,7 @@
         <v>523</v>
       </c>
       <c r="I9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" s="7">
         <v>0</v>
@@ -5553,7 +5576,7 @@
         <v>523</v>
       </c>
       <c r="I10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7">
         <v>0</v>
@@ -5585,7 +5608,7 @@
         <v>523</v>
       </c>
       <c r="I11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7">
         <v>0</v>
@@ -5617,7 +5640,7 @@
         <v>523</v>
       </c>
       <c r="I12" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" s="7">
         <v>0</v>
@@ -5649,7 +5672,7 @@
         <v>523</v>
       </c>
       <c r="I13" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7">
         <v>0</v>
@@ -5681,7 +5704,7 @@
         <v>523</v>
       </c>
       <c r="I14" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7">
         <v>0</v>
@@ -5713,7 +5736,7 @@
         <v>523</v>
       </c>
       <c r="I15" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" s="7">
         <v>0</v>
@@ -5745,7 +5768,7 @@
         <v>523</v>
       </c>
       <c r="I16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7">
         <v>0</v>
@@ -5777,7 +5800,7 @@
         <v>523</v>
       </c>
       <c r="I17" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7">
         <v>0</v>
@@ -5809,7 +5832,7 @@
         <v>523</v>
       </c>
       <c r="I18" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" s="7">
         <v>0</v>
@@ -5841,7 +5864,7 @@
         <v>523</v>
       </c>
       <c r="I19" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7">
         <v>0</v>
@@ -5873,7 +5896,7 @@
         <v>523</v>
       </c>
       <c r="I20" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7">
         <v>0</v>
@@ -5905,7 +5928,7 @@
         <v>523</v>
       </c>
       <c r="I21" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" s="7">
         <v>0</v>
@@ -5937,7 +5960,7 @@
         <v>706</v>
       </c>
       <c r="I22" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7">
         <v>0</v>
@@ -5969,7 +5992,7 @@
         <v>523</v>
       </c>
       <c r="I23" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" s="7">
         <v>0</v>
@@ -6001,7 +6024,7 @@
         <v>523</v>
       </c>
       <c r="I24" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" s="7">
         <v>0</v>
@@ -6033,7 +6056,7 @@
         <v>523</v>
       </c>
       <c r="I25" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" s="7">
         <v>0</v>
@@ -6065,7 +6088,7 @@
         <v>523</v>
       </c>
       <c r="I26" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7">
         <v>0</v>
@@ -6099,7 +6122,7 @@
         <v>523</v>
       </c>
       <c r="I27" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" s="7">
         <v>0</v>
@@ -6133,7 +6156,7 @@
         <v>523</v>
       </c>
       <c r="I28" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" s="7">
         <v>0</v>
@@ -6165,7 +6188,7 @@
         <v>523</v>
       </c>
       <c r="I29" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" s="7">
         <v>0</v>
@@ -6197,7 +6220,7 @@
         <v>523</v>
       </c>
       <c r="I30" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" s="7">
         <v>0</v>
@@ -6229,7 +6252,7 @@
         <v>523</v>
       </c>
       <c r="I31" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" s="7">
         <v>0</v>
@@ -6261,7 +6284,7 @@
         <v>523</v>
       </c>
       <c r="I32" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" s="7">
         <v>0</v>
@@ -6295,7 +6318,7 @@
         <v>523</v>
       </c>
       <c r="I33" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" s="7">
         <v>0</v>
@@ -6331,7 +6354,7 @@
         <v>523</v>
       </c>
       <c r="I34" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" s="7">
         <v>0</v>
@@ -6365,7 +6388,7 @@
         <v>523</v>
       </c>
       <c r="I35" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" s="7">
         <v>0</v>
@@ -6397,7 +6420,7 @@
         <v>523</v>
       </c>
       <c r="I36" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" s="7">
         <v>0</v>
@@ -6429,7 +6452,7 @@
         <v>523</v>
       </c>
       <c r="I37" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" s="7">
         <v>0</v>
@@ -6461,7 +6484,7 @@
         <v>225</v>
       </c>
       <c r="I38" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" s="7">
         <v>0</v>
@@ -7219,7 +7242,7 @@
         <v>1180</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>1175</v>
+        <v>117</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
@@ -7234,22 +7257,28 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>565</v>
+        <v>1204</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>567</v>
+        <v>1177</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>566</v>
+        <v>1203</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>1205</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>521</v>
+        <v>1206</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>552</v>
+        <v>1207</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>523</v>
+        <v>1208</v>
       </c>
       <c r="I59" s="3">
         <v>0</v>
@@ -7257,40 +7286,26 @@
       <c r="J59" s="7">
         <v>0</v>
       </c>
-      <c r="K59" s="7">
-        <v>0</v>
-      </c>
-      <c r="M59" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="N59" s="1" t="s">
-        <v>82</v>
-      </c>
+      <c r="M59" s="1"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>1181</v>
+        <v>565</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>1182</v>
+        <v>567</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1183</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>1181</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>1184</v>
+        <v>566</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>1173</v>
+        <v>521</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>1185</v>
+        <v>552</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>1175</v>
+        <v>523</v>
       </c>
       <c r="I60" s="3">
         <v>0</v>
@@ -7301,26 +7316,37 @@
       <c r="K60" s="7">
         <v>0</v>
       </c>
-      <c r="M60" s="1"/>
+      <c r="M60" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>568</v>
+        <v>1181</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>569</v>
+        <v>1182</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>570</v>
+        <v>1183</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>1184</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>521</v>
+        <v>1173</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>571</v>
+        <v>1185</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>523</v>
+        <v>1175</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -7331,37 +7357,26 @@
       <c r="K61" s="7">
         <v>0</v>
       </c>
-      <c r="M61" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="N61" s="1" t="s">
-        <v>82</v>
-      </c>
+      <c r="M61" s="1"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>1189</v>
+        <v>568</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>1190</v>
+        <v>569</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1191</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>1192</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>1193</v>
+        <v>570</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>1173</v>
+        <v>521</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>1194</v>
+        <v>571</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>1175</v>
+        <v>523</v>
       </c>
       <c r="I62" s="3">
         <v>0</v>
@@ -7372,29 +7387,34 @@
       <c r="K62" s="7">
         <v>0</v>
       </c>
-      <c r="M62" s="1"/>
+      <c r="M62" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>1189</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>1195</v>
+        <v>1190</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1196</v>
+        <v>1191</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>1189</v>
+        <v>1192</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>1173</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>1175</v>
@@ -7410,103 +7430,104 @@
       </c>
       <c r="M63" s="1"/>
     </row>
-    <row r="64" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="I64" s="3">
+        <v>0</v>
+      </c>
+      <c r="J64" s="7">
+        <v>0</v>
+      </c>
+      <c r="K64" s="7">
+        <v>0</v>
+      </c>
+      <c r="M64" s="1"/>
+    </row>
+    <row r="65" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1" t="s">
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="G64" s="1" t="s">
+      <c r="G65" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="H64" s="1" t="s">
+      <c r="H65" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="I64" s="3">
-        <v>0</v>
-      </c>
-      <c r="J64" s="7">
-        <v>0</v>
-      </c>
-      <c r="K64" s="7">
-        <v>0</v>
-      </c>
-      <c r="L64" s="7"/>
-      <c r="M64" s="1" t="s">
+      <c r="I65" s="3">
+        <v>0</v>
+      </c>
+      <c r="J65" s="7">
+        <v>0</v>
+      </c>
+      <c r="K65" s="7">
+        <v>0</v>
+      </c>
+      <c r="L65" s="7"/>
+      <c r="M65" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="N64" s="1" t="s">
+      <c r="N65" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>909</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="E66" s="1" t="s">
         <v>910</v>
       </c>
-      <c r="F65" s="1" t="s">
+      <c r="F66" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G65" s="1" t="s">
+      <c r="G66" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H65" s="1" t="s">
+      <c r="H66" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="I65" s="3">
-        <v>1</v>
-      </c>
-      <c r="J65" s="7">
-        <v>0</v>
-      </c>
-      <c r="K65" s="7">
-        <v>0</v>
-      </c>
-      <c r="M65" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="N65" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="I66" s="3">
         <v>1</v>
@@ -7518,36 +7539,30 @@
         <v>0</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>247</v>
+        <v>404</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>76</v>
+        <v>158</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>406</v>
+        <v>449</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>911</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>912</v>
+        <v>159</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>112</v>
+        <v>153</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="I67" s="3">
         <v>1</v>
@@ -7559,30 +7574,36 @@
         <v>0</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>404</v>
+        <v>247</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>161</v>
+        <v>76</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>162</v>
+        <v>77</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>912</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>153</v>
+        <v>112</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>160</v>
+        <v>75</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>155</v>
+        <v>117</v>
       </c>
       <c r="I68" s="3">
         <v>1</v>
@@ -7594,36 +7615,30 @@
         <v>0</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>247</v>
+        <v>404</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>87</v>
+        <v>161</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>441</v>
+        <v>407</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>917</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>918</v>
+        <v>162</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>112</v>
+        <v>153</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="I69" s="3">
         <v>1</v>
@@ -7635,30 +7650,36 @@
         <v>0</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>404</v>
+        <v>247</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>169</v>
+        <v>87</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>170</v>
+        <v>100</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>918</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>153</v>
+        <v>112</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>160</v>
+        <v>75</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>155</v>
+        <v>117</v>
       </c>
       <c r="I70" s="3">
         <v>1</v>
@@ -7670,36 +7691,30 @@
         <v>0</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>247</v>
+        <v>404</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>86</v>
+        <v>169</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>913</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>914</v>
+        <v>170</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>112</v>
+        <v>153</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="I71" s="3">
         <v>1</v>
@@ -7710,32 +7725,37 @@
       <c r="K71" s="7">
         <v>0</v>
       </c>
-      <c r="L71" s="7"/>
       <c r="M71" s="1" t="s">
-        <v>445</v>
+        <v>247</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>164</v>
+        <v>86</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>165</v>
+        <v>99</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>914</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>153</v>
+        <v>112</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>160</v>
+        <v>75</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>155</v>
+        <v>117</v>
       </c>
       <c r="I72" s="3">
         <v>1</v>
@@ -7746,37 +7766,32 @@
       <c r="K72" s="7">
         <v>0</v>
       </c>
+      <c r="L72" s="7"/>
       <c r="M72" s="1" t="s">
-        <v>247</v>
+        <v>445</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>164</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>915</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>916</v>
+        <v>165</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>112</v>
+        <v>153</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>53</v>
+        <v>160</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="I73" s="3">
         <v>1</v>
@@ -7788,106 +7803,106 @@
         <v>0</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>418</v>
+        <v>78</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>419</v>
+        <v>79</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>916</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>420</v>
+        <v>112</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>421</v>
+        <v>53</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>422</v>
+        <v>117</v>
       </c>
       <c r="I74" s="3">
         <v>1</v>
       </c>
       <c r="J74" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K74" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>364</v>
+        <v>255</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>82</v>
+        <v>460</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>166</v>
+        <v>418</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>167</v>
+        <v>419</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>153</v>
+        <v>420</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>168</v>
+        <v>421</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>155</v>
+        <v>422</v>
       </c>
       <c r="I75" s="3">
         <v>1</v>
       </c>
       <c r="J75" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K75" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>247</v>
+        <v>364</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>453</v>
+        <v>82</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>88</v>
+        <v>166</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>919</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>920</v>
+        <v>167</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>112</v>
+        <v>153</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>75</v>
+        <v>168</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="I76" s="3">
         <v>1</v>
@@ -7899,30 +7914,36 @@
         <v>0</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>404</v>
+        <v>247</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>171</v>
+        <v>88</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>172</v>
+        <v>101</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>920</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>153</v>
+        <v>112</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>160</v>
+        <v>75</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>155</v>
+        <v>117</v>
       </c>
       <c r="I77" s="3">
         <v>1</v>
@@ -7934,36 +7955,30 @@
         <v>0</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>247</v>
+        <v>404</v>
       </c>
       <c r="N77" s="1" t="s">
-        <v>82</v>
+        <v>452</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>171</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>921</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>922</v>
+        <v>172</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>112</v>
+        <v>153</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="I78" s="3">
         <v>1</v>
@@ -7975,30 +7990,36 @@
         <v>0</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>404</v>
+        <v>247</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>467</v>
+        <v>82</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>174</v>
+        <v>81</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>922</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>153</v>
+        <v>112</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>160</v>
+        <v>75</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>155</v>
+        <v>117</v>
       </c>
       <c r="I79" s="3">
         <v>1</v>
@@ -8010,36 +8031,30 @@
         <v>0</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>247</v>
+        <v>404</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>453</v>
+        <v>467</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>505</v>
+        <v>173</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>506</v>
+        <v>436</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>923</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>924</v>
+        <v>174</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>508</v>
+        <v>153</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>509</v>
+        <v>160</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>510</v>
+        <v>155</v>
       </c>
       <c r="I80" s="3">
         <v>1</v>
@@ -8051,10 +8066,10 @@
         <v>0</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>404</v>
+        <v>247</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>511</v>
+        <v>453</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
@@ -8062,13 +8077,19 @@
         <v>505</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>513</v>
+        <v>507</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>924</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>509</v>
@@ -8086,36 +8107,30 @@
         <v>0</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>247</v>
+        <v>404</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>89</v>
+        <v>505</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>444</v>
+        <v>512</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>925</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>926</v>
+        <v>513</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>112</v>
+        <v>514</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>53</v>
+        <v>509</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>117</v>
+        <v>510</v>
       </c>
       <c r="I82" s="3">
         <v>1</v>
@@ -8127,30 +8142,36 @@
         <v>0</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>461</v>
+        <v>515</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>175</v>
+        <v>89</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>176</v>
+        <v>102</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>926</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>153</v>
+        <v>112</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>168</v>
+        <v>53</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>155</v>
+        <v>117</v>
       </c>
       <c r="I83" s="3">
         <v>1</v>
@@ -8162,36 +8183,30 @@
         <v>0</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>961</v>
+        <v>175</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>962</v>
+        <v>437</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>963</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>961</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>964</v>
+        <v>176</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>965</v>
+        <v>153</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>966</v>
+        <v>168</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>967</v>
+        <v>155</v>
       </c>
       <c r="I84" s="3">
         <v>1</v>
@@ -8203,30 +8218,36 @@
         <v>0</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>968</v>
+        <v>247</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>969</v>
+        <v>453</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>215</v>
+        <v>961</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>613</v>
+        <v>962</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>230</v>
+        <v>963</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>964</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>228</v>
+        <v>965</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>231</v>
+        <v>966</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>225</v>
+        <v>967</v>
       </c>
       <c r="I85" s="3">
         <v>1</v>
@@ -8234,37 +8255,34 @@
       <c r="J85" s="7">
         <v>0</v>
       </c>
+      <c r="K85" s="7">
+        <v>0</v>
+      </c>
       <c r="M85" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="N85" t="s">
-        <v>82</v>
+        <v>968</v>
+      </c>
+      <c r="N85" s="1" t="s">
+        <v>969</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>970</v>
+        <v>215</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>971</v>
+        <v>613</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>972</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>973</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>974</v>
+        <v>230</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>965</v>
+        <v>228</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>975</v>
+        <v>231</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>967</v>
+        <v>225</v>
       </c>
       <c r="I86" s="3">
         <v>1</v>
@@ -8272,34 +8290,37 @@
       <c r="J86" s="7">
         <v>0</v>
       </c>
-      <c r="K86" s="7">
-        <v>0</v>
-      </c>
       <c r="M86" s="1" t="s">
-        <v>976</v>
-      </c>
-      <c r="N86" s="1" t="s">
-        <v>977</v>
+        <v>247</v>
+      </c>
+      <c r="N86" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>216</v>
+        <v>970</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>614</v>
+        <v>971</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>232</v>
+        <v>972</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>974</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>228</v>
+        <v>965</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>233</v>
+        <v>975</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>225</v>
+        <v>967</v>
       </c>
       <c r="I87" s="3">
         <v>1</v>
@@ -8307,37 +8328,34 @@
       <c r="J87" s="7">
         <v>0</v>
       </c>
+      <c r="K87" s="7">
+        <v>0</v>
+      </c>
       <c r="M87" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="N87" t="s">
-        <v>82</v>
+        <v>976</v>
+      </c>
+      <c r="N87" s="1" t="s">
+        <v>977</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>978</v>
+        <v>216</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>979</v>
+        <v>614</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>980</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>978</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>983</v>
+        <v>232</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>965</v>
+        <v>228</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>984</v>
+        <v>233</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>967</v>
+        <v>225</v>
       </c>
       <c r="I88" s="3">
         <v>1</v>
@@ -8345,34 +8363,34 @@
       <c r="J88" s="7">
         <v>0</v>
       </c>
-      <c r="K88" s="7">
-        <v>0</v>
-      </c>
-      <c r="L88" s="7" t="s">
-        <v>985</v>
-      </c>
       <c r="M88" s="1" t="s">
-        <v>986</v>
-      </c>
-      <c r="N88" s="1" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+      <c r="N88" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>978</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>982</v>
+        <v>980</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>983</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>965</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>967</v>
@@ -8387,13 +8405,13 @@
         <v>0</v>
       </c>
       <c r="L89" s="7" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="N89" t="s">
-        <v>991</v>
+        <v>986</v>
+      </c>
+      <c r="N89" s="1" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="90" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8401,19 +8419,13 @@
         <v>978</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>992</v>
+        <v>981</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>993</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>988</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>994</v>
+        <v>982</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>995</v>
+        <v>965</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>989</v>
@@ -8425,7 +8437,7 @@
         <v>1</v>
       </c>
       <c r="J90" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K90" s="7">
         <v>0</v>
@@ -8437,65 +8449,73 @@
         <v>417</v>
       </c>
       <c r="N90" t="s">
-        <v>1199</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>217</v>
+        <v>978</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>629</v>
+        <v>992</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
+        <v>993</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>994</v>
+      </c>
       <c r="F91" s="1" t="s">
-        <v>153</v>
+        <v>995</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>235</v>
+        <v>989</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>225</v>
+        <v>967</v>
       </c>
       <c r="I91" s="3">
         <v>1</v>
       </c>
       <c r="J91" s="7">
-        <v>0</v>
-      </c>
-      <c r="K91" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="K91" s="7">
+        <v>0</v>
+      </c>
       <c r="L91" s="7" t="s">
-        <v>1057</v>
+        <v>990</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>247</v>
+        <v>417</v>
       </c>
       <c r="N91" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>615</v>
+        <v>217</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>616</v>
+        <v>629</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>617</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
       <c r="F92" s="1" t="s">
-        <v>521</v>
+        <v>153</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>585</v>
+        <v>235</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>523</v>
+        <v>225</v>
       </c>
       <c r="I92" s="3">
         <v>1</v>
@@ -8503,8 +8523,9 @@
       <c r="J92" s="7">
         <v>0</v>
       </c>
+      <c r="K92" s="7"/>
       <c r="L92" s="7" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="M92" s="1" t="s">
         <v>247</v>
@@ -8515,28 +8536,22 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>218</v>
+        <v>615</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>1059</v>
+        <v>616</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>1053</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>1060</v>
+        <v>617</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>224</v>
+        <v>521</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>226</v>
+        <v>585</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>225</v>
+        <v>523</v>
       </c>
       <c r="I93" s="3">
         <v>1</v>
@@ -8544,14 +8559,14 @@
       <c r="J93" s="7">
         <v>0</v>
       </c>
-      <c r="K93" s="7">
-        <v>0</v>
+      <c r="L93" s="7" t="s">
+        <v>1058</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="N93" s="1" t="s">
-        <v>1087</v>
+        <v>247</v>
+      </c>
+      <c r="N93" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
@@ -8559,16 +8574,22 @@
         <v>218</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>618</v>
+        <v>1059</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>1060</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>225</v>
@@ -8579,28 +8600,31 @@
       <c r="J94" s="7">
         <v>0</v>
       </c>
+      <c r="K94" s="7">
+        <v>0</v>
+      </c>
       <c r="M94" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="N94" t="s">
-        <v>82</v>
+        <v>457</v>
+      </c>
+      <c r="N94" s="1" t="s">
+        <v>1087</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>1069</v>
+        <v>618</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>225</v>
@@ -8611,14 +8635,11 @@
       <c r="J95" s="7">
         <v>0</v>
       </c>
-      <c r="K95" s="7">
-        <v>0</v>
-      </c>
       <c r="M95" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="N95" s="1" t="s">
-        <v>1088</v>
+        <v>247</v>
+      </c>
+      <c r="N95" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
@@ -8626,16 +8647,16 @@
         <v>219</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>619</v>
+        <v>1069</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>225</v>
@@ -8650,30 +8671,30 @@
         <v>0</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="N96" t="s">
-        <v>82</v>
+        <v>457</v>
+      </c>
+      <c r="N96" s="1" t="s">
+        <v>1088</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>996</v>
+        <v>219</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>997</v>
+        <v>619</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>998</v>
+        <v>240</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>1004</v>
+        <v>228</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>1005</v>
+        <v>238</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>1006</v>
+        <v>225</v>
       </c>
       <c r="I97" s="3">
         <v>1</v>
@@ -8685,10 +8706,10 @@
         <v>0</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="N97" s="1" t="s">
-        <v>1007</v>
+        <v>247</v>
+      </c>
+      <c r="N97" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
@@ -8696,92 +8717,95 @@
         <v>996</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>1000</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>996</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>995</v>
+        <v>1004</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>967</v>
+        <v>1006</v>
       </c>
       <c r="I98" s="3">
         <v>1</v>
       </c>
       <c r="J98" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K98" s="7">
         <v>0</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>1003</v>
+        <v>387</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>1089</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>220</v>
+        <v>996</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>620</v>
+        <v>999</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>248</v>
+        <v>1000</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>1001</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>228</v>
+        <v>995</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>226</v>
+        <v>1002</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>225</v>
+        <v>967</v>
       </c>
       <c r="I99" s="3">
         <v>1</v>
       </c>
       <c r="J99" s="7">
+        <v>1</v>
+      </c>
+      <c r="K99" s="7">
         <v>0</v>
       </c>
       <c r="M99" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="N99" t="s">
-        <v>82</v>
+        <v>1003</v>
+      </c>
+      <c r="N99" s="1" t="s">
+        <v>1089</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>1008</v>
+        <v>220</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>1009</v>
+        <v>620</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>1010</v>
+        <v>248</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>1004</v>
+        <v>228</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>1012</v>
+        <v>226</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>1006</v>
+        <v>225</v>
       </c>
       <c r="I100" s="3">
         <v>1</v>
@@ -8789,14 +8813,11 @@
       <c r="J100" s="7">
         <v>0</v>
       </c>
-      <c r="K100" s="7">
-        <v>0</v>
-      </c>
       <c r="M100" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="N100" s="1" t="s">
-        <v>1091</v>
+        <v>247</v>
+      </c>
+      <c r="N100" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
@@ -8804,19 +8825,13 @@
         <v>1008</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>1014</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>1008</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>1015</v>
+        <v>1004</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>1012</v>
@@ -8837,27 +8852,33 @@
         <v>457</v>
       </c>
       <c r="N101" s="1" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>738</v>
+        <v>1008</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>739</v>
+        <v>1013</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>623</v>
+        <v>1014</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>1011</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>521</v>
+        <v>1015</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>527</v>
+        <v>1012</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>523</v>
+        <v>1006</v>
       </c>
       <c r="I102" s="3">
         <v>1</v>
@@ -8865,52 +8886,46 @@
       <c r="J102" s="7">
         <v>0</v>
       </c>
+      <c r="K102" s="7">
+        <v>0</v>
+      </c>
       <c r="M102" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="N102" t="s">
-        <v>82</v>
+        <v>457</v>
+      </c>
+      <c r="N102" s="1" t="s">
+        <v>1090</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>221</v>
+        <v>738</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>1017</v>
+        <v>739</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>1016</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>1020</v>
+        <v>623</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>224</v>
+        <v>521</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>235</v>
+        <v>527</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>225</v>
+        <v>523</v>
       </c>
       <c r="I103" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" s="7">
         <v>0</v>
       </c>
-      <c r="K103" s="7">
-        <v>0</v>
-      </c>
-      <c r="M103" t="s">
-        <v>417</v>
-      </c>
-      <c r="N103" s="1" t="s">
-        <v>1019</v>
+      <c r="M103" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="N103" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
@@ -8918,13 +8933,19 @@
         <v>221</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>1020</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>235</v>
@@ -8939,32 +8960,30 @@
         <v>0</v>
       </c>
       <c r="K104" s="7">
-        <v>1</v>
-      </c>
-      <c r="M104" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M104" t="s">
         <v>417</v>
       </c>
       <c r="N104" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>221</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>624</v>
+        <v>1018</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
+        <v>242</v>
+      </c>
       <c r="F105" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>73</v>
+        <v>235</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>225</v>
@@ -8976,43 +8995,38 @@
         <v>0</v>
       </c>
       <c r="K105" s="7">
-        <v>0</v>
-      </c>
-      <c r="L105" s="7"/>
+        <v>1</v>
+      </c>
       <c r="M105" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="N105" t="s">
+        <v>417</v>
+      </c>
+      <c r="N105" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>1021</v>
+        <v>624</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>1023</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>1025</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
       <c r="F106" s="1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>226</v>
+        <v>73</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>225</v>
       </c>
       <c r="I106" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" s="7">
         <v>0</v>
@@ -9020,11 +9034,12 @@
       <c r="K106" s="7">
         <v>0</v>
       </c>
+      <c r="L106" s="7"/>
       <c r="M106" s="1" t="s">
-        <v>1070</v>
-      </c>
-      <c r="N106" s="1" t="s">
-        <v>1092</v>
+        <v>247</v>
+      </c>
+      <c r="N106" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.2">
@@ -9032,19 +9047,19 @@
         <v>222</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>226</v>
@@ -9056,7 +9071,7 @@
         <v>1</v>
       </c>
       <c r="J107" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K107" s="7">
         <v>0</v>
@@ -9065,7 +9080,7 @@
         <v>1070</v>
       </c>
       <c r="N107" s="1" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.2">
@@ -9073,16 +9088,22 @@
         <v>222</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>627</v>
+        <v>1022</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>1026</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>225</v>
@@ -9091,36 +9112,36 @@
         <v>1</v>
       </c>
       <c r="J108" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K108" s="7">
         <v>0</v>
       </c>
       <c r="M108" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="N108" t="s">
-        <v>82</v>
+        <v>1070</v>
+      </c>
+      <c r="N108" s="1" t="s">
+        <v>1093</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>1071</v>
+        <v>222</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>1072</v>
+        <v>627</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>1073</v>
+        <v>249</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>1074</v>
+        <v>228</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>1075</v>
+        <v>238</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>1076</v>
+        <v>225</v>
       </c>
       <c r="I109" s="3">
         <v>1</v>
@@ -9132,30 +9153,30 @@
         <v>0</v>
       </c>
       <c r="M109" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="N109" s="1" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+      <c r="N109" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>223</v>
+        <v>1071</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>628</v>
+        <v>1072</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>246</v>
+        <v>1073</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>228</v>
+        <v>1074</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>238</v>
+        <v>1075</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>225</v>
+        <v>1076</v>
       </c>
       <c r="I110" s="3">
         <v>1</v>
@@ -9167,36 +9188,30 @@
         <v>0</v>
       </c>
       <c r="M110" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="N110" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="N110" s="1" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>29</v>
+        <v>223</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>297</v>
+        <v>628</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>927</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>928</v>
+        <v>246</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>112</v>
+        <v>228</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>37</v>
+        <v>238</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>117</v>
+        <v>225</v>
       </c>
       <c r="I111" s="3">
         <v>1</v>
@@ -9208,33 +9223,39 @@
         <v>0</v>
       </c>
       <c r="M111" s="1" t="s">
-        <v>278</v>
+        <v>247</v>
       </c>
       <c r="N111" t="s">
-        <v>402</v>
+        <v>82</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>273</v>
+        <v>29</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>274</v>
+        <v>46</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>928</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>275</v>
+        <v>112</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>276</v>
+        <v>37</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>277</v>
+        <v>117</v>
       </c>
       <c r="I112" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" s="7">
         <v>0</v>
@@ -9246,30 +9267,30 @@
         <v>278</v>
       </c>
       <c r="N112" t="s">
-        <v>325</v>
+        <v>402</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>177</v>
+        <v>273</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>337</v>
+        <v>298</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>178</v>
+        <v>274</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>153</v>
+        <v>275</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>179</v>
+        <v>276</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>155</v>
+        <v>277</v>
       </c>
       <c r="I113" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" s="7">
         <v>0</v>
@@ -9278,30 +9299,30 @@
         <v>0</v>
       </c>
       <c r="M113" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="N113" s="1" t="s">
-        <v>453</v>
+        <v>278</v>
+      </c>
+      <c r="N113" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>30</v>
+        <v>177</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>299</v>
+        <v>337</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>47</v>
+        <v>178</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>112</v>
+        <v>153</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>64</v>
+        <v>179</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="I114" s="3">
         <v>1</v>
@@ -9313,33 +9334,27 @@
         <v>0</v>
       </c>
       <c r="M114" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="N114" t="s">
-        <v>352</v>
+        <v>247</v>
+      </c>
+      <c r="N114" s="1" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>251</v>
+        <v>30</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>929</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>930</v>
+        <v>47</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>253</v>
+        <v>112</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>254</v>
+        <v>64</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>117</v>
@@ -9348,7 +9363,7 @@
         <v>1</v>
       </c>
       <c r="J115" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K115" s="7">
         <v>0</v>
@@ -9357,68 +9372,68 @@
         <v>257</v>
       </c>
       <c r="N115" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>180</v>
+        <v>251</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>338</v>
+        <v>300</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>181</v>
+        <v>252</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>930</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>153</v>
+        <v>253</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>182</v>
+        <v>254</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>155</v>
+        <v>117</v>
       </c>
       <c r="I116" s="3">
         <v>1</v>
       </c>
       <c r="J116" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K116" s="7">
         <v>0</v>
       </c>
       <c r="M116" s="1" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="N116" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>31</v>
+        <v>180</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>931</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>932</v>
+        <v>181</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>112</v>
+        <v>153</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>36</v>
+        <v>182</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="I117" s="3">
         <v>1</v>
@@ -9430,30 +9445,36 @@
         <v>0</v>
       </c>
       <c r="M117" s="1" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="N117" t="s">
-        <v>326</v>
+        <v>349</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>696</v>
+        <v>31</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>697</v>
+        <v>301</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>698</v>
+        <v>49</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>932</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>692</v>
+        <v>112</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>693</v>
+        <v>36</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>694</v>
+        <v>117</v>
       </c>
       <c r="I118" s="3">
         <v>1</v>
@@ -9465,36 +9486,30 @@
         <v>0</v>
       </c>
       <c r="M118" s="1" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="N118" t="s">
-        <v>695</v>
+        <v>326</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>32</v>
+        <v>696</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>302</v>
+        <v>697</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>933</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>934</v>
+        <v>698</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>112</v>
+        <v>692</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>37</v>
+        <v>693</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>117</v>
+        <v>694</v>
       </c>
       <c r="I119" s="3">
         <v>1</v>
@@ -9506,33 +9521,39 @@
         <v>0</v>
       </c>
       <c r="M119" s="1" t="s">
-        <v>278</v>
+        <v>247</v>
       </c>
       <c r="N119" t="s">
-        <v>327</v>
+        <v>695</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>288</v>
+        <v>32</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>289</v>
+        <v>50</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>934</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>285</v>
+        <v>112</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>286</v>
+        <v>37</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>277</v>
+        <v>117</v>
       </c>
       <c r="I120" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" s="7">
         <v>0</v>
@@ -9544,30 +9565,30 @@
         <v>278</v>
       </c>
       <c r="N120" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>183</v>
+        <v>288</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>339</v>
+        <v>303</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>184</v>
+        <v>289</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>153</v>
+        <v>285</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>185</v>
+        <v>286</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>155</v>
+        <v>277</v>
       </c>
       <c r="I121" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" s="7">
         <v>0</v>
@@ -9576,106 +9597,106 @@
         <v>0</v>
       </c>
       <c r="M121" s="1" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="N121" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>491</v>
+        <v>183</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>496</v>
+        <v>339</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>497</v>
+        <v>184</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>492</v>
+        <v>153</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>493</v>
+        <v>185</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>494</v>
+        <v>155</v>
       </c>
       <c r="I122" s="3">
         <v>1</v>
       </c>
       <c r="J122" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K122" s="7">
         <v>0</v>
       </c>
       <c r="M122" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="N122" s="1" t="s">
-        <v>82</v>
+        <v>247</v>
+      </c>
+      <c r="N122" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>90</v>
+        <v>491</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>304</v>
+        <v>496</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>935</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>936</v>
+        <v>497</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>112</v>
+        <v>492</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>37</v>
+        <v>493</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>117</v>
+        <v>494</v>
       </c>
       <c r="I123" s="3">
         <v>1</v>
       </c>
       <c r="J123" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K123" s="7">
         <v>0</v>
       </c>
       <c r="M123" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="N123" t="s">
-        <v>329</v>
+        <v>495</v>
+      </c>
+      <c r="N123" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>186</v>
+        <v>90</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>340</v>
+        <v>304</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>187</v>
+        <v>51</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>936</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>153</v>
+        <v>112</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>179</v>
+        <v>37</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>155</v>
+        <v>117</v>
       </c>
       <c r="I124" s="3">
         <v>1</v>
@@ -9687,199 +9708,193 @@
         <v>0</v>
       </c>
       <c r="M124" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="N124" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I125" s="3">
+        <v>1</v>
+      </c>
+      <c r="J125" s="7">
+        <v>0</v>
+      </c>
+      <c r="K125" s="7">
+        <v>0</v>
+      </c>
+      <c r="M125" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="N124" t="s">
+      <c r="N125" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A125" s="4" t="s">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A126" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B125" s="4" t="s">
+      <c r="B126" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="C125" s="4" t="s">
+      <c r="C126" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D125" s="4"/>
-      <c r="E125" s="4"/>
-      <c r="F125" s="4" t="s">
+      <c r="D126" s="4"/>
+      <c r="E126" s="4"/>
+      <c r="F126" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="G125" s="4" t="s">
+      <c r="G126" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H125" s="4" t="s">
+      <c r="H126" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="I125" s="5">
+      <c r="I126" s="5">
         <v>1</v>
       </c>
-      <c r="J125" s="8">
-        <v>0</v>
-      </c>
-      <c r="K125" s="8">
-        <v>0</v>
-      </c>
-      <c r="L125" s="8" t="s">
+      <c r="J126" s="8">
+        <v>0</v>
+      </c>
+      <c r="K126" s="8">
+        <v>0</v>
+      </c>
+      <c r="L126" s="8" t="s">
         <v>678</v>
       </c>
-      <c r="M125" s="4" t="s">
+      <c r="M126" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="N125" t="s">
+      <c r="N126" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A126" s="1" t="s">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="B127" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="C127" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D126" s="1" t="s">
+      <c r="D127" s="1" t="s">
         <v>937</v>
       </c>
-      <c r="E126" s="1" t="s">
+      <c r="E127" s="1" t="s">
         <v>938</v>
       </c>
-      <c r="F126" s="1" t="s">
+      <c r="F127" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G126" s="1" t="s">
+      <c r="G127" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H126" s="1" t="s">
+      <c r="H127" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="I126" s="3">
-        <v>0</v>
-      </c>
-      <c r="J126" s="7">
-        <v>0</v>
-      </c>
-      <c r="K126" s="7">
-        <v>0</v>
-      </c>
-      <c r="L126" s="7" t="s">
+      <c r="I127" s="3">
+        <v>0</v>
+      </c>
+      <c r="J127" s="7">
+        <v>0</v>
+      </c>
+      <c r="K127" s="7">
+        <v>0</v>
+      </c>
+      <c r="L127" s="7" t="s">
         <v>679</v>
       </c>
-      <c r="M126" s="1" t="s">
+      <c r="M127" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="N126" t="s">
+      <c r="N127" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A127" s="4" t="s">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A128" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B127" s="4" t="s">
+      <c r="B128" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="C127" s="4" t="s">
+      <c r="C128" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D127" s="4" t="s">
+      <c r="D128" s="4" t="s">
         <v>939</v>
       </c>
-      <c r="E127" s="4" t="s">
+      <c r="E128" s="4" t="s">
         <v>940</v>
       </c>
-      <c r="F127" s="4" t="s">
+      <c r="F128" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="G127" s="4" t="s">
+      <c r="G128" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H127" s="4" t="s">
+      <c r="H128" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="I127" s="5">
+      <c r="I128" s="5">
         <v>1</v>
       </c>
-      <c r="J127" s="8">
+      <c r="J128" s="8">
         <v>1</v>
       </c>
-      <c r="K127" s="8">
-        <v>0</v>
-      </c>
-      <c r="L127" s="8" t="s">
+      <c r="K128" s="8">
+        <v>0</v>
+      </c>
+      <c r="L128" s="8" t="s">
         <v>678</v>
       </c>
-      <c r="M127" s="4" t="s">
+      <c r="M128" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="N127" t="s">
+      <c r="N128" t="s">
         <v>463</v>
-      </c>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A128" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G128" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="H128" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="I128" s="3">
-        <v>1</v>
-      </c>
-      <c r="J128" s="7">
-        <v>0</v>
-      </c>
-      <c r="K128" s="7">
-        <v>0</v>
-      </c>
-      <c r="M128" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="N128" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>91</v>
+        <v>188</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>309</v>
+        <v>341</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>942</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>943</v>
+        <v>189</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>112</v>
+        <v>153</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>36</v>
+        <v>154</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="I129" s="3">
         <v>1</v>
@@ -9890,14 +9905,11 @@
       <c r="K129" s="7">
         <v>0</v>
       </c>
-      <c r="L129" s="7" t="s">
-        <v>683</v>
-      </c>
       <c r="M129" s="1" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="N129" t="s">
-        <v>330</v>
+        <v>349</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.2">
@@ -9905,16 +9917,22 @@
         <v>91</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>943</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>112</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H130" s="1" t="s">
         <v>117</v>
@@ -9929,45 +9947,39 @@
         <v>0</v>
       </c>
       <c r="L130" s="7" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="M130" s="1" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="N130" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>290</v>
+        <v>91</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>346</v>
+        <v>310</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>941</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>944</v>
+        <v>55</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>285</v>
+        <v>112</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>286</v>
+        <v>37</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>287</v>
+        <v>117</v>
       </c>
       <c r="I131" s="3">
         <v>1</v>
       </c>
       <c r="J131" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K131" s="7">
         <v>0</v>
@@ -9979,71 +9991,77 @@
         <v>278</v>
       </c>
       <c r="N131" t="s">
-        <v>351</v>
+        <v>331</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>855</v>
+        <v>290</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>860</v>
+        <v>346</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>862</v>
+        <v>311</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>1065</v>
+        <v>941</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>1066</v>
+        <v>944</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>856</v>
+        <v>285</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>857</v>
+        <v>286</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>858</v>
+        <v>287</v>
       </c>
       <c r="I132" s="3">
         <v>1</v>
       </c>
       <c r="J132" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K132" s="7">
         <v>0</v>
       </c>
       <c r="L132" s="7" t="s">
-        <v>861</v>
+        <v>682</v>
       </c>
       <c r="M132" s="1" t="s">
-        <v>859</v>
+        <v>278</v>
       </c>
       <c r="N132" t="s">
-        <v>1202</v>
+        <v>351</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>190</v>
+        <v>855</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>342</v>
+        <v>860</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>191</v>
+        <v>862</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>1066</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>153</v>
+        <v>856</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>179</v>
+        <v>857</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>155</v>
+        <v>858</v>
       </c>
       <c r="I133" s="3">
         <v>1</v>
@@ -10054,81 +10072,77 @@
       <c r="K133" s="7">
         <v>0</v>
       </c>
+      <c r="L133" s="7" t="s">
+        <v>861</v>
+      </c>
       <c r="M133" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="N133" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I134" s="3">
+        <v>1</v>
+      </c>
+      <c r="J134" s="7">
+        <v>0</v>
+      </c>
+      <c r="K134" s="7">
+        <v>0</v>
+      </c>
+      <c r="M134" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="N133" t="s">
+      <c r="N134" t="s">
         <v>349</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A134" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B134" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="C134" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D134" s="4"/>
-      <c r="E134" s="4"/>
-      <c r="F134" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="G134" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H134" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="I134" s="5">
-        <v>1</v>
-      </c>
-      <c r="J134" s="8">
-        <v>0</v>
-      </c>
-      <c r="K134" s="8">
-        <v>0</v>
-      </c>
-      <c r="L134" s="8"/>
-      <c r="M134" s="4" t="s">
-        <v>516</v>
-      </c>
-      <c r="N134" s="1" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
-        <v>279</v>
+        <v>92</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="D135" s="4" t="s">
-        <v>945</v>
-      </c>
-      <c r="E135" s="4" t="s">
-        <v>946</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="D135" s="4"/>
+      <c r="E135" s="4"/>
       <c r="F135" s="4" t="s">
-        <v>275</v>
+        <v>112</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>281</v>
+        <v>58</v>
       </c>
       <c r="H135" s="4" t="s">
-        <v>269</v>
+        <v>117</v>
       </c>
       <c r="I135" s="5">
         <v>1</v>
       </c>
       <c r="J135" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K135" s="8">
         <v>0</v>
@@ -10137,72 +10151,79 @@
       <c r="M135" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="N135" t="s">
+      <c r="N135" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A136" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>945</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>946</v>
+      </c>
+      <c r="F136" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="G136" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="H136" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="I136" s="5">
+        <v>1</v>
+      </c>
+      <c r="J136" s="8">
+        <v>1</v>
+      </c>
+      <c r="K136" s="8">
+        <v>0</v>
+      </c>
+      <c r="L136" s="8"/>
+      <c r="M136" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="N136" t="s">
         <v>1201</v>
-      </c>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A136" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>947</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>948</v>
-      </c>
-      <c r="F136" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G136" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H136" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I136" s="3">
-        <v>1</v>
-      </c>
-      <c r="J136" s="7">
-        <v>0</v>
-      </c>
-      <c r="K136" s="7">
-        <v>0</v>
-      </c>
-      <c r="M136" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="N136" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>282</v>
+        <v>85</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>283</v>
+        <v>60</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>948</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>275</v>
+        <v>112</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>276</v>
+        <v>37</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>277</v>
+        <v>117</v>
       </c>
       <c r="I137" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J137" s="7">
         <v>0</v>
@@ -10211,33 +10232,33 @@
         <v>0</v>
       </c>
       <c r="M137" s="1" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="N137" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>194</v>
+        <v>282</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>344</v>
+        <v>315</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>195</v>
+        <v>283</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>153</v>
+        <v>275</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>179</v>
+        <v>276</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>155</v>
+        <v>277</v>
       </c>
       <c r="I138" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138" s="7">
         <v>0</v>
@@ -10246,27 +10267,27 @@
         <v>0</v>
       </c>
       <c r="M138" s="1" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="N138" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>153</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="H139" s="1" t="s">
         <v>155</v>
@@ -10289,25 +10310,25 @@
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>365</v>
+        <v>192</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>366</v>
+        <v>343</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>367</v>
+        <v>193</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>368</v>
+        <v>153</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>369</v>
+        <v>163</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>373</v>
+        <v>155</v>
       </c>
       <c r="I140" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140" s="7">
         <v>0</v>
@@ -10316,10 +10337,10 @@
         <v>0</v>
       </c>
       <c r="M140" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="N140" s="1" t="s">
-        <v>386</v>
+        <v>247</v>
+      </c>
+      <c r="N140" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.2">
@@ -10327,137 +10348,137 @@
         <v>365</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>949</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>950</v>
+        <v>367</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>368</v>
       </c>
       <c r="G141" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I141" s="3">
+        <v>0</v>
+      </c>
+      <c r="J141" s="7">
+        <v>0</v>
+      </c>
+      <c r="K141" s="7">
+        <v>0</v>
+      </c>
+      <c r="M141" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="N141" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A142" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="G142" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="H141" s="1" t="s">
+      <c r="H142" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="I141" s="3">
+      <c r="I142" s="3">
         <v>1</v>
       </c>
-      <c r="J141" s="7">
-        <v>0</v>
-      </c>
-      <c r="K141" s="7">
-        <v>0</v>
-      </c>
-      <c r="M141" s="1" t="s">
+      <c r="J142" s="7">
+        <v>0</v>
+      </c>
+      <c r="K142" s="7">
+        <v>0</v>
+      </c>
+      <c r="M142" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="N141" s="1" t="s">
+      <c r="N142" s="1" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A142" s="4" t="s">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A143" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="B142" s="4" t="s">
+      <c r="B143" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="C142" s="4" t="s">
+      <c r="C143" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="D142" s="4" t="s">
+      <c r="D143" s="4" t="s">
         <v>951</v>
       </c>
-      <c r="E142" s="4" t="s">
+      <c r="E143" s="4" t="s">
         <v>952</v>
       </c>
-      <c r="F142" s="4" t="s">
+      <c r="F143" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="G142" s="4" t="s">
+      <c r="G143" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="H142" s="4" t="s">
+      <c r="H143" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="I142" s="5">
-        <v>0</v>
-      </c>
-      <c r="J142" s="8">
-        <v>0</v>
-      </c>
-      <c r="K142" s="8">
-        <v>0</v>
-      </c>
-      <c r="L142" s="8"/>
-      <c r="M142" s="4" t="s">
+      <c r="I143" s="5">
+        <v>0</v>
+      </c>
+      <c r="J143" s="8">
+        <v>0</v>
+      </c>
+      <c r="K143" s="8">
+        <v>0</v>
+      </c>
+      <c r="L143" s="8"/>
+      <c r="M143" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="N142" s="4" t="s">
+      <c r="N143" s="4" t="s">
         <v>388</v>
-      </c>
-    </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A143" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="F143" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="G143" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="H143" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="I143" s="3">
-        <v>1</v>
-      </c>
-      <c r="J143" s="7">
-        <v>0</v>
-      </c>
-      <c r="K143" s="7">
-        <v>0</v>
-      </c>
-      <c r="M143" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="N143" s="1" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>93</v>
+        <v>377</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>316</v>
+        <v>382</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>104</v>
+        <v>383</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>112</v>
+        <v>384</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>64</v>
+        <v>385</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>116</v>
+        <v>378</v>
       </c>
       <c r="I144" s="3">
         <v>1</v>
@@ -10468,14 +10489,11 @@
       <c r="K144" s="7">
         <v>0</v>
       </c>
-      <c r="L144" s="7" t="s">
-        <v>684</v>
-      </c>
       <c r="M144" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="N144" t="s">
-        <v>354</v>
+        <v>247</v>
+      </c>
+      <c r="N144" s="1" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.2">
@@ -10483,25 +10501,19 @@
         <v>93</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>954</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>956</v>
+        <v>104</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>112</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I145" s="3">
         <v>1</v>
@@ -10513,13 +10525,13 @@
         <v>0</v>
       </c>
       <c r="L145" s="7" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="M145" s="1" t="s">
-        <v>871</v>
+        <v>257</v>
       </c>
       <c r="N145" t="s">
-        <v>881</v>
+        <v>354</v>
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.2">
@@ -10527,22 +10539,22 @@
         <v>93</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="H146" s="1" t="s">
         <v>117</v>
@@ -10551,103 +10563,115 @@
         <v>1</v>
       </c>
       <c r="J146" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K146" s="7">
         <v>0</v>
       </c>
       <c r="L146" s="7" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="M146" s="1" t="s">
-        <v>257</v>
+        <v>871</v>
       </c>
       <c r="N146" t="s">
-        <v>355</v>
+        <v>881</v>
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>689</v>
+        <v>93</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>690</v>
+        <v>318</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>691</v>
+        <v>61</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>955</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>692</v>
+        <v>113</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>693</v>
+        <v>64</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>694</v>
+        <v>117</v>
       </c>
       <c r="I147" s="3">
         <v>1</v>
       </c>
       <c r="J147" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K147" s="7">
         <v>0</v>
       </c>
+      <c r="L147" s="7" t="s">
+        <v>684</v>
+      </c>
       <c r="M147" s="1" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="N147" t="s">
-        <v>695</v>
+        <v>355</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>33</v>
+        <v>689</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>319</v>
+        <v>690</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>63</v>
+        <v>691</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>112</v>
+        <v>692</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>59</v>
+        <v>693</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>117</v>
+        <v>694</v>
       </c>
       <c r="I148" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J148" s="7">
         <v>0</v>
       </c>
+      <c r="K148" s="7">
+        <v>0</v>
+      </c>
       <c r="M148" s="1" t="s">
-        <v>296</v>
+        <v>247</v>
       </c>
       <c r="N148" t="s">
-        <v>348</v>
+        <v>695</v>
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>292</v>
+        <v>33</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>293</v>
+        <v>63</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>285</v>
+        <v>112</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>294</v>
+        <v>59</v>
       </c>
       <c r="H149" s="1" t="s">
         <v>117</v>
@@ -10659,74 +10683,68 @@
         <v>0</v>
       </c>
       <c r="M149" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="N149" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A150" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I150" s="3">
+        <v>0</v>
+      </c>
+      <c r="J150" s="7">
+        <v>0</v>
+      </c>
+      <c r="M150" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="N149" s="1" t="s">
+      <c r="N150" s="1" t="s">
         <v>350</v>
-      </c>
-    </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A150" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="B150" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="C150" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="D150" s="4" t="s">
-        <v>957</v>
-      </c>
-      <c r="E150" s="4" t="s">
-        <v>958</v>
-      </c>
-      <c r="F150" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="G150" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="H150" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="I150" s="5">
-        <v>1</v>
-      </c>
-      <c r="J150" s="8">
-        <v>0</v>
-      </c>
-      <c r="K150" s="8">
-        <v>0</v>
-      </c>
-      <c r="L150" s="8"/>
-      <c r="M150" s="4" t="s">
-        <v>871</v>
-      </c>
-      <c r="N150" s="6" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
-        <v>482</v>
+        <v>356</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>483</v>
+        <v>361</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>484</v>
-      </c>
-      <c r="D151" s="4"/>
-      <c r="E151" s="4"/>
+        <v>357</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>957</v>
+      </c>
+      <c r="E151" s="4" t="s">
+        <v>958</v>
+      </c>
       <c r="F151" s="4" t="s">
-        <v>485</v>
+        <v>358</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>486</v>
+        <v>359</v>
       </c>
       <c r="H151" s="4" t="s">
-        <v>487</v>
+        <v>360</v>
       </c>
       <c r="I151" s="5">
         <v>1</v>
@@ -10739,89 +10757,86 @@
       </c>
       <c r="L151" s="8"/>
       <c r="M151" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="N151" t="s">
-        <v>82</v>
+        <v>871</v>
+      </c>
+      <c r="N151" s="6" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
-        <v>356</v>
+        <v>482</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>390</v>
+        <v>483</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>389</v>
+        <v>484</v>
       </c>
       <c r="D152" s="4"/>
       <c r="E152" s="4"/>
       <c r="F152" s="4" t="s">
-        <v>362</v>
+        <v>485</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>35</v>
+        <v>486</v>
       </c>
       <c r="H152" s="4" t="s">
-        <v>360</v>
+        <v>487</v>
       </c>
       <c r="I152" s="5">
         <v>1</v>
       </c>
       <c r="J152" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K152" s="8">
         <v>0</v>
       </c>
       <c r="L152" s="8"/>
       <c r="M152" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="N152" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A153" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="D153" s="4"/>
+      <c r="E153" s="4"/>
+      <c r="F153" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="G153" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H153" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="I153" s="5">
+        <v>1</v>
+      </c>
+      <c r="J153" s="8">
+        <v>1</v>
+      </c>
+      <c r="K153" s="8">
+        <v>0</v>
+      </c>
+      <c r="L153" s="8"/>
+      <c r="M153" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="N152" s="4" t="s">
+      <c r="N153" s="4" t="s">
         <v>363</v>
-      </c>
-    </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A153" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>959</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>960</v>
-      </c>
-      <c r="F153" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="G153" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="H153" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="I153" s="3">
-        <v>1</v>
-      </c>
-      <c r="J153" s="7">
-        <v>0</v>
-      </c>
-      <c r="K153" s="7">
-        <v>0</v>
-      </c>
-      <c r="M153" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="N153" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.2">
@@ -10829,16 +10844,22 @@
         <v>265</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>345</v>
+        <v>321</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>960</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="H154" s="1" t="s">
         <v>269</v>
@@ -10853,30 +10874,30 @@
         <v>0</v>
       </c>
       <c r="M154" s="1" t="s">
-        <v>247</v>
+        <v>291</v>
       </c>
       <c r="N154" t="s">
-        <v>82</v>
+        <v>879</v>
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>197</v>
+        <v>265</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>699</v>
+        <v>345</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>198</v>
+        <v>270</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>153</v>
+        <v>271</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>199</v>
+        <v>272</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>155</v>
+        <v>269</v>
       </c>
       <c r="I155" s="3">
         <v>1</v>
@@ -10896,28 +10917,22 @@
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>94</v>
+        <v>197</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>866</v>
+        <v>699</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>868</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>883</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>889</v>
+        <v>198</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>112</v>
+        <v>153</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>114</v>
+        <v>199</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="I156" s="3">
         <v>1</v>
@@ -10929,33 +10944,33 @@
         <v>0</v>
       </c>
       <c r="M156" s="1" t="s">
-        <v>867</v>
-      </c>
-      <c r="N156" s="1" t="s">
-        <v>880</v>
+        <v>247</v>
+      </c>
+      <c r="N156" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>408</v>
+        <v>866</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>105</v>
+        <v>868</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>112</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="H157" s="1" t="s">
         <v>117</v>
@@ -10970,10 +10985,10 @@
         <v>0</v>
       </c>
       <c r="M157" s="1" t="s">
-        <v>255</v>
+        <v>867</v>
       </c>
       <c r="N157" s="1" t="s">
-        <v>465</v>
+        <v>880</v>
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.2">
@@ -10981,19 +10996,19 @@
         <v>95</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G158" s="1" t="s">
         <v>53</v>
@@ -11011,30 +11026,36 @@
         <v>0</v>
       </c>
       <c r="M158" s="1" t="s">
-        <v>411</v>
+        <v>255</v>
       </c>
       <c r="N158" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>196</v>
+        <v>95</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>200</v>
+        <v>106</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>891</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>157</v>
+        <v>53</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>155</v>
+        <v>117</v>
       </c>
       <c r="I159" s="3">
         <v>1</v>
@@ -11045,14 +11066,11 @@
       <c r="K159" s="7">
         <v>0</v>
       </c>
-      <c r="L159" s="7" t="s">
-        <v>680</v>
-      </c>
       <c r="M159" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="N159" t="s">
-        <v>82</v>
+        <v>411</v>
+      </c>
+      <c r="N159" s="1" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.2">
@@ -11060,16 +11078,16 @@
         <v>196</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>454</v>
+        <v>410</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>153</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="H160" s="1" t="s">
         <v>155</v>
@@ -11084,7 +11102,7 @@
         <v>0</v>
       </c>
       <c r="L160" s="7" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="M160" s="1" t="s">
         <v>247</v>
@@ -11095,28 +11113,22 @@
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>26</v>
+        <v>196</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>415</v>
+        <v>454</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>892</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>893</v>
+        <v>201</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>112</v>
+        <v>153</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>69</v>
+        <v>202</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="I161" s="3">
         <v>1</v>
@@ -11127,34 +11139,37 @@
       <c r="K161" s="7">
         <v>0</v>
       </c>
+      <c r="L161" s="7" t="s">
+        <v>681</v>
+      </c>
       <c r="M161" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="N161" s="1" t="s">
-        <v>876</v>
+        <v>247</v>
+      </c>
+      <c r="N161" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>412</v>
+        <v>26</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>456</v>
+        <v>415</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>455</v>
+        <v>28</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>413</v>
+        <v>112</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>414</v>
+        <v>69</v>
       </c>
       <c r="H162" s="1" t="s">
         <v>117</v>
@@ -11172,27 +11187,33 @@
         <v>417</v>
       </c>
       <c r="N162" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>203</v>
+        <v>412</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>416</v>
+        <v>456</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>204</v>
+        <v>455</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>895</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>153</v>
+        <v>413</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>179</v>
+        <v>414</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>155</v>
+        <v>117</v>
       </c>
       <c r="I163" s="3">
         <v>1</v>
@@ -11204,36 +11225,30 @@
         <v>0</v>
       </c>
       <c r="M163" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="N163" t="s">
-        <v>82</v>
+        <v>417</v>
+      </c>
+      <c r="N163" s="1" t="s">
+        <v>877</v>
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>96</v>
+        <v>203</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>896</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>897</v>
+        <v>204</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>112</v>
+        <v>153</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>277</v>
+        <v>155</v>
       </c>
       <c r="I164" s="3">
         <v>1</v>
@@ -11245,30 +11260,36 @@
         <v>0</v>
       </c>
       <c r="M164" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="N164" s="1" t="s">
-        <v>796</v>
+        <v>247</v>
+      </c>
+      <c r="N164" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>205</v>
+        <v>96</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>206</v>
+        <v>107</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>897</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>153</v>
+        <v>112</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>179</v>
+        <v>37</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>155</v>
+        <v>277</v>
       </c>
       <c r="I165" s="3">
         <v>1</v>
@@ -11280,36 +11301,30 @@
         <v>0</v>
       </c>
       <c r="M165" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="N165" t="s">
-        <v>82</v>
+        <v>278</v>
+      </c>
+      <c r="N165" s="1" t="s">
+        <v>796</v>
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>97</v>
+        <v>205</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>898</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>899</v>
+        <v>206</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>112</v>
+        <v>153</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="I166" s="3">
         <v>1</v>
@@ -11321,30 +11336,36 @@
         <v>0</v>
       </c>
       <c r="M166" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="N166" s="1" t="s">
-        <v>878</v>
+        <v>247</v>
+      </c>
+      <c r="N166" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>207</v>
+        <v>97</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>208</v>
+        <v>108</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>899</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>153</v>
+        <v>112</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>163</v>
+        <v>37</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>155</v>
+        <v>117</v>
       </c>
       <c r="I167" s="3">
         <v>1</v>
@@ -11356,36 +11377,30 @@
         <v>0</v>
       </c>
       <c r="M167" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="N167" t="s">
-        <v>82</v>
+        <v>457</v>
+      </c>
+      <c r="N167" s="1" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>27</v>
+        <v>207</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>900</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>901</v>
+        <v>208</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>112</v>
+        <v>153</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>115</v>
+        <v>163</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="I168" s="3">
         <v>1</v>
@@ -11396,34 +11411,37 @@
       <c r="K168" s="7">
         <v>0</v>
       </c>
-      <c r="L168" s="7" t="s">
-        <v>686</v>
-      </c>
       <c r="M168" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="N168" s="1" t="s">
-        <v>447</v>
+        <v>247</v>
+      </c>
+      <c r="N168" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>209</v>
+        <v>27</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>210</v>
+        <v>109</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>901</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>153</v>
+        <v>112</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>163</v>
+        <v>115</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>155</v>
+        <v>117</v>
       </c>
       <c r="I169" s="3">
         <v>1</v>
@@ -11434,37 +11452,34 @@
       <c r="K169" s="7">
         <v>0</v>
       </c>
+      <c r="L169" s="7" t="s">
+        <v>686</v>
+      </c>
       <c r="M169" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="N169" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="170" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>446</v>
+      </c>
+      <c r="N169" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>98</v>
+        <v>209</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>902</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>903</v>
+        <v>210</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>112</v>
+        <v>153</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>53</v>
+        <v>163</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="I170" s="3">
         <v>1</v>
@@ -11475,37 +11490,34 @@
       <c r="K170" s="7">
         <v>0</v>
       </c>
-      <c r="L170" s="7" t="s">
-        <v>687</v>
-      </c>
       <c r="M170" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="N170" s="1" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+      <c r="N170" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>112</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="H171" s="1" t="s">
         <v>117</v>
@@ -11520,33 +11532,39 @@
         <v>0</v>
       </c>
       <c r="L171" s="7" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="M171" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N171" s="1" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>211</v>
+        <v>98</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>212</v>
+        <v>111</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>905</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>153</v>
+        <v>112</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>213</v>
+        <v>36</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>155</v>
+        <v>117</v>
       </c>
       <c r="I172" s="3">
         <v>1</v>
@@ -11557,15 +11575,53 @@
       <c r="K172" s="7">
         <v>0</v>
       </c>
+      <c r="L172" s="7" t="s">
+        <v>688</v>
+      </c>
       <c r="M172" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="N172" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A173" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H173" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I173" s="3">
+        <v>1</v>
+      </c>
+      <c r="J173" s="7">
+        <v>0</v>
+      </c>
+      <c r="K173" s="7">
+        <v>0</v>
+      </c>
+      <c r="M173" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="N172" t="s">
+      <c r="N173" t="s">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N154">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N155">
     <sortCondition ref="I1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -11578,11 +11634,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E5BCC1-FCE5-4A72-87FB-8DCCEFEE3C6B}">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E23" sqref="E23"/>
+      <selection pane="bottomRight" activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12109,7 +12165,7 @@
         <v>1056</v>
       </c>
       <c r="I19">
-        <v>0.9</v>
+        <v>0.89100000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">

--- a/data/basic_info.xlsx
+++ b/data/basic_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\trading_plan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D5DF470-78B0-409E-9D75-02DC8CF69699}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85B1A59-48DA-4F0B-95E0-52A649983F78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28590" tabRatio="733" activeTab="1" xr2:uid="{855E00D3-25C3-4BB2-A61F-0D95BB1AF006}"/>
+    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28590" tabRatio="733" xr2:uid="{855E00D3-25C3-4BB2-A61F-0D95BB1AF006}"/>
   </bookViews>
   <sheets>
     <sheet name="acctinfo" sheetId="8" r:id="rId1"/>
@@ -5230,11 +5230,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E89EC7F-6807-4E54-B5E1-E4E4E9C6C1B6}">
   <dimension ref="A1:O173"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K63" sqref="K63"/>
+      <selection pane="bottomRight" activeCell="I2" sqref="I2:I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11634,11 +11634,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E5BCC1-FCE5-4A72-87FB-8DCCEFEE3C6B}">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H59" sqref="H59"/>
+      <selection pane="bottomRight" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/data/basic_info.xlsx
+++ b/data/basic_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\trading_plan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E732EB-A0DC-41B4-9DC0-86373C6673F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B753E2E5-5977-408A-9664-80A970BE1A3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28590" tabRatio="733" xr2:uid="{855E00D3-25C3-4BB2-A61F-0D95BB1AF006}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28590" tabRatio="733" activeTab="1" xr2:uid="{855E00D3-25C3-4BB2-A61F-0D95BB1AF006}"/>
   </bookViews>
   <sheets>
     <sheet name="acctinfo" sheetId="8" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1990" uniqueCount="1252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2031" uniqueCount="1262">
   <si>
     <t>鸣石量化投资2期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4000,10 +4000,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{'security':{'wk_0810': 0.0540,'zhaos_5868':0.9460},'future':{'xy_0808':0.6,'zhaos_0468':0.4}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>xy_0808</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4927,10 +4923,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(D:\data\trddata_from_datagrp\10hao\holding_pt.xls,D:\data\trddata_from_datagrp\10hao\holding_pt.xls,)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>912</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5012,6 +5004,53 @@
   </si>
   <si>
     <t>mskm8ht6470</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>703</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸣石傲华3号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0930</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msah3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'security':{'wk_0810':0,'zhaos_5868':1},'future':{'xy_0808':0.6,'zhaos_0468':0.4}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500增强</t>
+  </si>
+  <si>
+    <t>500增强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000增强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(10_c_wk_0388.xls,10_c_wk_0388.xls,)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5407,14 +5446,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E89EC7F-6807-4E54-B5E1-E4E4E9C6C1B6}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:P160"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M6" sqref="M6"/>
+      <selection pane="bottomRight" activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5447,7 +5485,7 @@
         <v>293</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>803</v>
@@ -5495,7 +5533,7 @@
         <v>565</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>450</v>
@@ -5507,7 +5545,7 @@
         <v>452</v>
       </c>
       <c r="J2" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" s="7">
         <v>0</v>
@@ -5530,7 +5568,7 @@
         <v>566</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>450</v>
@@ -5542,7 +5580,7 @@
         <v>452</v>
       </c>
       <c r="J3" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" s="7">
         <v>0</v>
@@ -5565,7 +5603,7 @@
         <v>567</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>450</v>
@@ -5577,7 +5615,7 @@
         <v>452</v>
       </c>
       <c r="J4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="7">
         <v>0</v>
@@ -5600,7 +5638,7 @@
         <v>568</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>450</v>
@@ -5612,7 +5650,7 @@
         <v>452</v>
       </c>
       <c r="J5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" s="7">
         <v>0</v>
@@ -5635,7 +5673,7 @@
         <v>569</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>450</v>
@@ -5647,7 +5685,7 @@
         <v>452</v>
       </c>
       <c r="J6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="7">
         <v>0</v>
@@ -5670,7 +5708,7 @@
         <v>570</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>450</v>
@@ -5682,7 +5720,7 @@
         <v>452</v>
       </c>
       <c r="J7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="7">
         <v>0</v>
@@ -5705,7 +5743,7 @@
         <v>571</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>450</v>
@@ -5717,7 +5755,7 @@
         <v>452</v>
       </c>
       <c r="J8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="7">
         <v>0</v>
@@ -5740,7 +5778,7 @@
         <v>572</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>450</v>
@@ -5752,7 +5790,7 @@
         <v>452</v>
       </c>
       <c r="J9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="7">
         <v>0</v>
@@ -5775,7 +5813,7 @@
         <v>573</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>450</v>
@@ -5787,7 +5825,7 @@
         <v>452</v>
       </c>
       <c r="J10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" s="7">
         <v>0</v>
@@ -5810,7 +5848,7 @@
         <v>574</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>450</v>
@@ -5822,7 +5860,7 @@
         <v>452</v>
       </c>
       <c r="J11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" s="7">
         <v>0</v>
@@ -5845,7 +5883,7 @@
         <v>575</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>450</v>
@@ -5857,7 +5895,7 @@
         <v>452</v>
       </c>
       <c r="J12" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" s="7">
         <v>0</v>
@@ -5880,7 +5918,7 @@
         <v>576</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>450</v>
@@ -5892,7 +5930,7 @@
         <v>452</v>
       </c>
       <c r="J13" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" s="7">
         <v>0</v>
@@ -5915,7 +5953,7 @@
         <v>581</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>450</v>
@@ -5927,7 +5965,7 @@
         <v>452</v>
       </c>
       <c r="J14" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="7">
         <v>0</v>
@@ -5950,7 +5988,7 @@
         <v>582</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>450</v>
@@ -5962,7 +6000,7 @@
         <v>452</v>
       </c>
       <c r="J15" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" s="7">
         <v>0</v>
@@ -5985,7 +6023,7 @@
         <v>583</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>450</v>
@@ -5997,7 +6035,7 @@
         <v>452</v>
       </c>
       <c r="J16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="7">
         <v>0</v>
@@ -6020,7 +6058,7 @@
         <v>455</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>450</v>
@@ -6032,7 +6070,7 @@
         <v>452</v>
       </c>
       <c r="J17" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" s="7">
         <v>0</v>
@@ -6055,7 +6093,7 @@
         <v>458</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>450</v>
@@ -6067,7 +6105,7 @@
         <v>452</v>
       </c>
       <c r="J18" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" s="7">
         <v>0</v>
@@ -6090,7 +6128,7 @@
         <v>449</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>450</v>
@@ -6102,7 +6140,7 @@
         <v>452</v>
       </c>
       <c r="J19" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" s="7">
         <v>0</v>
@@ -6125,7 +6163,7 @@
         <v>462</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>450</v>
@@ -6137,7 +6175,7 @@
         <v>452</v>
       </c>
       <c r="J20" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" s="7">
         <v>0</v>
@@ -6160,7 +6198,7 @@
         <v>466</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>450</v>
@@ -6172,7 +6210,7 @@
         <v>452</v>
       </c>
       <c r="J21" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" s="7">
         <v>0</v>
@@ -6195,7 +6233,7 @@
         <v>623</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>624</v>
@@ -6207,13 +6245,13 @@
         <v>626</v>
       </c>
       <c r="J22" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" s="7">
         <v>0</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="O22" t="s">
         <v>75</v>
@@ -6221,28 +6259,28 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>1223</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>1224</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>1226</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>1227</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="I23" s="1" t="s">
         <v>1228</v>
       </c>
-      <c r="I23" s="1" t="s">
-        <v>1229</v>
-      </c>
       <c r="J23" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" s="7">
         <v>0</v>
@@ -6254,7 +6292,7 @@
         <v>231</v>
       </c>
       <c r="O23" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
@@ -6268,7 +6306,7 @@
         <v>469</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>450</v>
@@ -6280,7 +6318,7 @@
         <v>452</v>
       </c>
       <c r="J24" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" s="7">
         <v>0</v>
@@ -6303,7 +6341,7 @@
         <v>472</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>450</v>
@@ -6315,7 +6353,7 @@
         <v>452</v>
       </c>
       <c r="J25" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" s="7">
         <v>0</v>
@@ -6338,7 +6376,7 @@
         <v>481</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>450</v>
@@ -6350,7 +6388,7 @@
         <v>452</v>
       </c>
       <c r="J26" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" s="7">
         <v>0</v>
@@ -6373,7 +6411,7 @@
         <v>487</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>450</v>
@@ -6385,7 +6423,7 @@
         <v>452</v>
       </c>
       <c r="J27" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" s="7">
         <v>0</v>
@@ -6408,7 +6446,7 @@
         <v>503</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -6422,7 +6460,7 @@
         <v>452</v>
       </c>
       <c r="J28" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" s="7">
         <v>0</v>
@@ -6447,7 +6485,7 @@
         <v>534</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>450</v>
@@ -6459,7 +6497,7 @@
         <v>452</v>
       </c>
       <c r="J29" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" s="7">
         <v>0</v>
@@ -6482,7 +6520,7 @@
         <v>506</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>450</v>
@@ -6494,7 +6532,7 @@
         <v>452</v>
       </c>
       <c r="J30" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" s="7">
         <v>0</v>
@@ -6517,7 +6555,7 @@
         <v>510</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>450</v>
@@ -6529,7 +6567,7 @@
         <v>452</v>
       </c>
       <c r="J31" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" s="7">
         <v>0</v>
@@ -6552,7 +6590,7 @@
         <v>514</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>450</v>
@@ -6564,7 +6602,7 @@
         <v>452</v>
       </c>
       <c r="J32" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" s="7">
         <v>0</v>
@@ -6587,7 +6625,7 @@
         <v>517</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>450</v>
@@ -6599,7 +6637,7 @@
         <v>452</v>
       </c>
       <c r="J33" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" s="7">
         <v>0</v>
@@ -6616,13 +6654,13 @@
         <v>518</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>1197</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>1198</v>
-      </c>
       <c r="D34" s="1" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -6636,7 +6674,7 @@
         <v>452</v>
       </c>
       <c r="J34" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" s="7">
         <v>0</v>
@@ -6661,7 +6699,7 @@
         <v>521</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -6675,7 +6713,7 @@
         <v>452</v>
       </c>
       <c r="J35" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" s="7">
         <v>0</v>
@@ -6700,7 +6738,7 @@
         <v>525</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>450</v>
@@ -6712,7 +6750,7 @@
         <v>452</v>
       </c>
       <c r="J36" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" s="7">
         <v>0</v>
@@ -6735,7 +6773,7 @@
         <v>528</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>450</v>
@@ -6747,7 +6785,7 @@
         <v>452</v>
       </c>
       <c r="J37" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" s="7">
         <v>0</v>
@@ -6770,7 +6808,7 @@
         <v>532</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>450</v>
@@ -6782,7 +6820,7 @@
         <v>452</v>
       </c>
       <c r="J38" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" s="7">
         <v>0</v>
@@ -6805,7 +6843,7 @@
         <v>211</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>212</v>
@@ -6817,7 +6855,7 @@
         <v>209</v>
       </c>
       <c r="J39" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" s="7">
         <v>0</v>
@@ -6829,30 +6867,30 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>1005</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>1006</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>1007</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="F40" s="1" t="s">
         <v>1008</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="G40" s="1" t="s">
         <v>1009</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="H40" s="1" t="s">
         <v>1010</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="I40" s="1" t="s">
         <v>1011</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>1012</v>
       </c>
       <c r="J40" s="3">
         <v>0</v>
@@ -6870,30 +6908,30 @@
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>1013</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>1014</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="F41" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="G41" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="H41" s="1" t="s">
         <v>1016</v>
       </c>
-      <c r="G41" s="1" t="s">
-        <v>1010</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>1017</v>
-      </c>
       <c r="I41" s="1" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
@@ -6908,27 +6946,27 @@
         <v>231</v>
       </c>
       <c r="O41" s="1" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
         <v>1004</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>1005</v>
-      </c>
       <c r="B42" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>1018</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="G42" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="I42" s="1" t="s">
         <v>1019</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>1021</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>1011</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>1020</v>
       </c>
       <c r="J42" s="3">
         <v>0</v>
@@ -6943,33 +6981,33 @@
         <v>231</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>1022</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="D43" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>1023</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>1184</v>
-      </c>
-      <c r="G43" s="1" t="s">
+      <c r="H43" s="1" t="s">
         <v>1024</v>
       </c>
-      <c r="H43" s="1" t="s">
-        <v>1025</v>
-      </c>
       <c r="I43" s="1" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="J43" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" s="7">
         <v>0</v>
@@ -6984,30 +7022,30 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>1026</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>1027</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="E44" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>1028</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>1026</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>1029</v>
-      </c>
       <c r="G44" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="H44" s="1" t="s">
         <v>1010</v>
       </c>
-      <c r="H44" s="1" t="s">
+      <c r="I44" s="1" t="s">
         <v>1011</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>1012</v>
       </c>
       <c r="J44" s="3">
         <v>0</v>
@@ -7036,7 +7074,7 @@
         <v>477</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>450</v>
@@ -7048,7 +7086,7 @@
         <v>452</v>
       </c>
       <c r="J45" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" s="7">
         <v>0</v>
@@ -7063,31 +7101,31 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>1045</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>1046</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>1047</v>
-      </c>
       <c r="E46" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="F46" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="G46" s="1" t="s">
         <v>1049</v>
       </c>
-      <c r="G46" s="1" t="s">
-        <v>1050</v>
-      </c>
       <c r="H46" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I46" s="1" t="s">
         <v>1055</v>
       </c>
-      <c r="I46" s="1" t="s">
-        <v>1056</v>
-      </c>
       <c r="J46" s="3">
         <v>0</v>
       </c>
@@ -7098,7 +7136,7 @@
         <v>0</v>
       </c>
       <c r="M46" s="7" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="N46" s="1" t="s">
         <v>231</v>
@@ -7107,30 +7145,30 @@
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>1051</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="E47" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F47" s="1" t="s">
         <v>1052</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>1048</v>
-      </c>
-      <c r="F47" s="1" t="s">
+      <c r="G47" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H47" s="1" t="s">
         <v>1053</v>
       </c>
-      <c r="G47" s="1" t="s">
-        <v>1050</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>1054</v>
-      </c>
       <c r="I47" s="1" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="J47" s="3">
         <v>0</v>
@@ -7142,7 +7180,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="7" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="N47" s="1" t="s">
         <v>231</v>
@@ -7151,30 +7189,30 @@
         <v>75</v>
       </c>
     </row>
-    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>1039</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>1044</v>
-      </c>
-      <c r="C48" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>1040</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="F48" s="1" t="s">
         <v>1041</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="G48" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="H48" s="1" t="s">
         <v>1042</v>
       </c>
-      <c r="G48" s="1" t="s">
-        <v>1010</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>1043</v>
-      </c>
       <c r="I48" s="1" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="J48" s="3">
         <v>0</v>
@@ -7186,13 +7224,13 @@
         <v>0</v>
       </c>
       <c r="M48" s="7" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="N48" s="1" t="s">
         <v>231</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
@@ -7206,7 +7244,7 @@
         <v>483</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>450</v>
@@ -7218,7 +7256,7 @@
         <v>452</v>
       </c>
       <c r="J49" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" s="7">
         <v>0</v>
@@ -7233,30 +7271,30 @@
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>1072</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>1073</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="E50" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F50" s="1" t="s">
         <v>1074</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>1072</v>
-      </c>
-      <c r="F50" s="1" t="s">
+      <c r="G50" s="1" t="s">
         <v>1075</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="H50" s="1" t="s">
         <v>1076</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="I50" s="1" t="s">
         <v>1077</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>1078</v>
       </c>
       <c r="J50" s="3">
         <v>0</v>
@@ -7280,7 +7318,7 @@
         <v>490</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>450</v>
@@ -7292,7 +7330,7 @@
         <v>452</v>
       </c>
       <c r="J51" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51" s="7">
         <v>0</v>
@@ -7307,27 +7345,27 @@
         <v>75</v>
       </c>
     </row>
-    <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>1079</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>1080</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="E52" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>1081</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>1079</v>
-      </c>
-      <c r="F52" s="1" t="s">
+      <c r="G52" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="H52" s="1" t="s">
         <v>1082</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>1076</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>1083</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>106</v>
@@ -7343,30 +7381,30 @@
       </c>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F53" s="1" t="s">
         <v>1102</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>1080</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>1101</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>1102</v>
-      </c>
-      <c r="F53" s="1" t="s">
+      <c r="G53" s="1" t="s">
         <v>1103</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="H53" s="1" t="s">
         <v>1104</v>
       </c>
-      <c r="H53" s="1" t="s">
+      <c r="I53" s="1" t="s">
         <v>1105</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>1106</v>
       </c>
       <c r="J53" s="3">
         <v>0</v>
@@ -7390,7 +7428,7 @@
         <v>492</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>450</v>
@@ -7402,7 +7440,7 @@
         <v>106</v>
       </c>
       <c r="J54" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54" s="7">
         <v>0</v>
@@ -7417,30 +7455,30 @@
         <v>75</v>
       </c>
     </row>
-    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>1084</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>1085</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="E55" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>1086</v>
       </c>
-      <c r="E55" s="1" t="s">
-        <v>1084</v>
-      </c>
-      <c r="F55" s="1" t="s">
+      <c r="G55" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="H55" s="1" t="s">
         <v>1087</v>
       </c>
-      <c r="G55" s="1" t="s">
-        <v>1076</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>1088</v>
-      </c>
       <c r="I55" s="1" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="J55" s="3">
         <v>0</v>
@@ -7464,7 +7502,7 @@
         <v>496</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>450</v>
@@ -7476,7 +7514,7 @@
         <v>452</v>
       </c>
       <c r="J56" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56" s="7">
         <v>0</v>
@@ -7491,30 +7529,30 @@
         <v>75</v>
       </c>
     </row>
-    <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>1092</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>1093</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="E57" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="F57" s="1" t="s">
         <v>1094</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F57" s="1" t="s">
+      <c r="G57" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="H57" s="1" t="s">
         <v>1095</v>
       </c>
-      <c r="G57" s="1" t="s">
-        <v>1076</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>1096</v>
-      </c>
       <c r="I57" s="1" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="J57" s="3">
         <v>0</v>
@@ -7538,7 +7576,7 @@
         <v>500</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -7552,7 +7590,7 @@
         <v>452</v>
       </c>
       <c r="J58" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58" s="7">
         <v>0</v>
@@ -7568,7 +7606,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>335</v>
       </c>
@@ -7603,7 +7641,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>107</v>
       </c>
@@ -7641,7 +7679,7 @@
         <v>332</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.2">
@@ -7655,7 +7693,7 @@
         <v>140</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>141</v>
@@ -7693,7 +7731,7 @@
         <v>431</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>432</v>
@@ -7720,7 +7758,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="63" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>108</v>
       </c>
@@ -7758,7 +7796,7 @@
         <v>788</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>1230</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
@@ -7772,7 +7810,7 @@
         <v>234</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>141</v>
@@ -7799,7 +7837,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="65" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>347</v>
       </c>
@@ -7834,10 +7872,10 @@
         <v>0</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="66" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7851,7 +7889,7 @@
         <v>147</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>141</v>
@@ -7878,7 +7916,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="67" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>69</v>
       </c>
@@ -7913,10 +7951,10 @@
         <v>0</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.2">
@@ -7930,7 +7968,7 @@
         <v>150</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>141</v>
@@ -7957,7 +7995,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="69" spans="1:15" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>78</v>
       </c>
@@ -7994,10 +8032,10 @@
       </c>
       <c r="M69" s="7"/>
       <c r="N69" s="1" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.2">
@@ -8011,7 +8049,7 @@
         <v>153</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>141</v>
@@ -8038,7 +8076,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="71" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>71</v>
       </c>
@@ -8079,7 +8117,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="72" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>360</v>
       </c>
@@ -8125,7 +8163,7 @@
         <v>155</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>141</v>
@@ -8152,7 +8190,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="74" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>79</v>
       </c>
@@ -8187,10 +8225,10 @@
         <v>0</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="O74" s="1" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.2">
@@ -8204,7 +8242,7 @@
         <v>158</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>141</v>
@@ -8231,7 +8269,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="76" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>80</v>
       </c>
@@ -8266,30 +8304,30 @@
         <v>0</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="O76" s="1" t="s">
-        <v>1217</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G77" s="1" t="s">
         <v>1236</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="H77" s="1" t="s">
         <v>1237</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>1243</v>
-      </c>
-      <c r="G77" s="1" t="s">
+      <c r="I77" s="1" t="s">
         <v>1238</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>1239</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>1240</v>
       </c>
       <c r="J77" s="3">
         <v>0</v>
@@ -8301,10 +8339,10 @@
         <v>1</v>
       </c>
       <c r="N77" s="1" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="O77" s="1" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.2">
@@ -8318,7 +8356,7 @@
         <v>160</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>141</v>
@@ -8345,7 +8383,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="79" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>73</v>
       </c>
@@ -8380,10 +8418,10 @@
         <v>0</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.2">
@@ -8397,7 +8435,7 @@
         <v>162</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>141</v>
@@ -8424,7 +8462,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="81" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>435</v>
       </c>
@@ -8459,10 +8497,10 @@
         <v>0</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="O81" s="1" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.2">
@@ -8476,7 +8514,7 @@
         <v>442</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>443</v>
@@ -8503,7 +8541,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="83" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>81</v>
       </c>
@@ -8555,7 +8593,7 @@
         <v>164</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>141</v>
@@ -8582,7 +8620,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="85" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>866</v>
       </c>
@@ -8634,7 +8672,7 @@
         <v>214</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>212</v>
@@ -8661,7 +8699,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="87" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>875</v>
       </c>
@@ -8713,7 +8751,7 @@
         <v>216</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>212</v>
@@ -8740,7 +8778,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="89" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>883</v>
       </c>
@@ -8784,7 +8822,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="90" spans="1:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>883</v>
       </c>
@@ -8822,7 +8860,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>883</v>
       </c>
@@ -8863,7 +8901,7 @@
         <v>359</v>
       </c>
       <c r="O91" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="92" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -8877,7 +8915,7 @@
         <v>218</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
@@ -8920,7 +8958,7 @@
         <v>541</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>450</v>
@@ -8950,7 +8988,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="94" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>202</v>
       </c>
@@ -9002,7 +9040,7 @@
         <v>221</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>212</v>
@@ -9029,7 +9067,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="96" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>203</v>
       </c>
@@ -9040,7 +9078,7 @@
         <v>223</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>208</v>
@@ -9072,19 +9110,19 @@
         <v>203</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>224</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>212</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="I97" s="1" t="s">
         <v>209</v>
@@ -9105,7 +9143,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="98" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>901</v>
       </c>
@@ -9140,7 +9178,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="99" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>901</v>
       </c>
@@ -9192,7 +9230,7 @@
         <v>232</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>212</v>
@@ -9219,7 +9257,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="101" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>913</v>
       </c>
@@ -9254,7 +9292,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="102" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>913</v>
       </c>
@@ -9306,7 +9344,7 @@
         <v>546</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>450</v>
@@ -9333,7 +9371,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="104" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>205</v>
       </c>
@@ -9374,7 +9412,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="105" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>205</v>
       </c>
@@ -9420,7 +9458,7 @@
         <v>227</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
@@ -9450,7 +9488,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="107" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>206</v>
       </c>
@@ -9491,7 +9529,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="108" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>206</v>
       </c>
@@ -9543,7 +9581,7 @@
         <v>233</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>212</v>
@@ -9570,7 +9608,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="110" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>974</v>
       </c>
@@ -9616,7 +9654,7 @@
         <v>230</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>212</v>
@@ -9643,7 +9681,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="112" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>28</v>
       </c>
@@ -9681,10 +9719,10 @@
         <v>391</v>
       </c>
       <c r="O112" s="1" t="s">
-        <v>1208</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>256</v>
       </c>
@@ -9730,7 +9768,7 @@
         <v>166</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="G114" s="1" t="s">
         <v>141</v>
@@ -9757,7 +9795,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="115" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>29</v>
       </c>
@@ -9792,7 +9830,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="116" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>235</v>
       </c>
@@ -9844,7 +9882,7 @@
         <v>169</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="G117" s="1" t="s">
         <v>141</v>
@@ -9871,7 +9909,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="118" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>30</v>
       </c>
@@ -9906,10 +9944,10 @@
         <v>0</v>
       </c>
       <c r="N118" s="1" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="O118" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.2">
@@ -9923,7 +9961,7 @@
         <v>618</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="G119" s="1" t="s">
         <v>612</v>
@@ -9950,7 +9988,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="120" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>31</v>
       </c>
@@ -9988,10 +10026,10 @@
         <v>391</v>
       </c>
       <c r="O120" s="1" t="s">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>267</v>
       </c>
@@ -10037,7 +10075,7 @@
         <v>172</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="G122" s="1" t="s">
         <v>141</v>
@@ -10064,7 +10102,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="123" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>421</v>
       </c>
@@ -10099,7 +10137,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="124" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>82</v>
       </c>
@@ -10137,7 +10175,7 @@
         <v>391</v>
       </c>
       <c r="O124" s="1" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.2">
@@ -10151,7 +10189,7 @@
         <v>175</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="G125" s="1" t="s">
         <v>141</v>
@@ -10178,7 +10216,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="126" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
         <v>76</v>
       </c>
@@ -10219,7 +10257,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="127" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
         <v>76</v>
       </c>
@@ -10275,7 +10313,7 @@
         <v>177</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="G128" s="1" t="s">
         <v>141</v>
@@ -10302,7 +10340,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="129" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>83</v>
       </c>
@@ -10340,13 +10378,13 @@
         <v>604</v>
       </c>
       <c r="N129" s="1" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="O129" t="s">
-        <v>1205</v>
-      </c>
-    </row>
-    <row r="130" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>774</v>
       </c>
@@ -10387,7 +10425,7 @@
         <v>778</v>
       </c>
       <c r="O130" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.2">
@@ -10401,7 +10439,7 @@
         <v>179</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="G131" s="1" t="s">
         <v>141</v>
@@ -10428,7 +10466,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="132" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
         <v>84</v>
       </c>
@@ -10467,7 +10505,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="133" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
         <v>262</v>
       </c>
@@ -10507,7 +10545,7 @@
         <v>445</v>
       </c>
       <c r="O133" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.2">
@@ -10521,7 +10559,7 @@
         <v>181</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="G134" s="1" t="s">
         <v>141</v>
@@ -10548,7 +10586,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="135" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>318</v>
       </c>
@@ -10600,7 +10638,7 @@
         <v>328</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="G136" s="1" t="s">
         <v>329</v>
@@ -10627,7 +10665,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="137" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>85</v>
       </c>
@@ -10665,7 +10703,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="138" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>85</v>
       </c>
@@ -10709,7 +10747,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="139" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>85</v>
       </c>
@@ -10764,7 +10802,7 @@
         <v>611</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="G140" s="1" t="s">
         <v>612</v>
@@ -10791,7 +10829,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="141" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
         <v>309</v>
       </c>
@@ -10845,7 +10883,7 @@
         <v>414</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="E142" s="4"/>
       <c r="F142" s="4"/>
@@ -10875,7 +10913,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="143" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
         <v>309</v>
       </c>
@@ -10914,7 +10952,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="144" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>248</v>
       </c>
@@ -10966,7 +11004,7 @@
         <v>253</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="G145" s="1" t="s">
         <v>254</v>
@@ -11004,7 +11042,7 @@
         <v>184</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="G146" s="1" t="s">
         <v>141</v>
@@ -11031,7 +11069,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="147" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>86</v>
       </c>
@@ -11072,7 +11110,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="148" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>87</v>
       </c>
@@ -11113,7 +11151,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="149" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>87</v>
       </c>
@@ -11165,7 +11203,7 @@
         <v>186</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="G150" s="1" t="s">
         <v>141</v>
@@ -11206,7 +11244,7 @@
         <v>187</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="G151" s="1" t="s">
         <v>141</v>
@@ -11236,7 +11274,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="152" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>25</v>
       </c>
@@ -11277,7 +11315,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="153" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>354</v>
       </c>
@@ -11329,7 +11367,7 @@
         <v>190</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="G154" s="1" t="s">
         <v>141</v>
@@ -11356,7 +11394,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="155" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>88</v>
       </c>
@@ -11408,7 +11446,7 @@
         <v>192</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="G156" s="1" t="s">
         <v>141</v>
@@ -11435,7 +11473,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="157" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>26</v>
       </c>
@@ -11490,7 +11528,7 @@
         <v>194</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="G158" s="1" t="s">
         <v>141</v>
@@ -11517,7 +11555,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="159" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>89</v>
       </c>
@@ -11555,10 +11593,10 @@
         <v>608</v>
       </c>
       <c r="N159" s="1" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="O159" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.2">
@@ -11572,7 +11610,7 @@
         <v>196</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="G160" s="1" t="s">
         <v>141</v>
@@ -11600,13 +11638,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="G1:G160" xr:uid="{FB69F933-EFF4-4061-AFCA-467F2DCCC9E8}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="f"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="G1:G160" xr:uid="{FB69F933-EFF4-4061-AFCA-467F2DCCC9E8}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O145">
     <sortCondition ref="J1"/>
   </sortState>
@@ -11618,13 +11650,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E5BCC1-FCE5-4A72-87FB-8DCCEFEE3C6B}">
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I18" sqref="I18"/>
+      <selection pane="bottomRight" activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11636,12 +11668,12 @@
     <col min="5" max="5" width="25.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.125" customWidth="1"/>
+    <col min="8" max="8" width="68.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="26.625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>241</v>
       </c>
@@ -11672,8 +11704,11 @@
       <c r="J1" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>121</v>
       </c>
@@ -11696,10 +11731,13 @@
         <v>404</v>
       </c>
       <c r="I2">
-        <v>0.77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>108</v>
       </c>
@@ -11722,53 +11760,56 @@
         <v>406</v>
       </c>
       <c r="I3">
-        <v>0.53900000000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B4" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>1030</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>1031</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>1035</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>1032</v>
       </c>
-      <c r="F4" s="3">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>1033</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="I4">
         <v>0.77</v>
       </c>
     </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B5" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>1034</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>1031</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>1035</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>1036</v>
       </c>
       <c r="F5" s="3">
         <v>0</v>
@@ -11781,36 +11822,36 @@
         <v>0.89100000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B6" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>1057</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>1058</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>1059</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>1060</v>
       </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>1061</v>
-      </c>
       <c r="H6" s="1" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="I6">
         <v>0.89100000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>113</v>
       </c>
@@ -11833,10 +11874,13 @@
         <v>400</v>
       </c>
       <c r="I7">
-        <v>0.53900000000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0.27</v>
+      </c>
+      <c r="K7" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>114</v>
       </c>
@@ -11859,24 +11903,27 @@
         <v>400</v>
       </c>
       <c r="I8">
-        <v>0.53900000000000003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0.27</v>
+      </c>
+      <c r="K8" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>115</v>
+        <v>1250</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>1251</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>661</v>
+        <v>1252</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>671</v>
+        <v>1252</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>632</v>
+        <v>1253</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
@@ -11884,25 +11931,25 @@
       <c r="G9" t="s">
         <v>400</v>
       </c>
-      <c r="I9">
-        <v>0.53900000000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K9" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
@@ -11911,24 +11958,27 @@
         <v>400</v>
       </c>
       <c r="I10">
-        <v>0.53900000000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0.27</v>
+      </c>
+      <c r="K10" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F11" s="3">
         <v>0</v>
@@ -11937,15 +11987,18 @@
         <v>400</v>
       </c>
       <c r="I11">
-        <v>0.53900000000000003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0.27</v>
+      </c>
+      <c r="K11" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>661</v>
@@ -11954,128 +12007,143 @@
         <v>671</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>400</v>
+      </c>
+      <c r="I12">
+        <v>0.27</v>
+      </c>
+      <c r="K12" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
         <v>399</v>
-      </c>
-      <c r="I12">
-        <v>0.53900000000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="F13" s="3">
-        <v>0</v>
-      </c>
-      <c r="G13" t="s">
-        <v>400</v>
       </c>
       <c r="I13">
         <v>0.53900000000000003</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K13" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>401</v>
+        <v>119</v>
       </c>
       <c r="B14" t="s">
-        <v>402</v>
+        <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>669</v>
+        <v>768</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="F14" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="s">
         <v>400</v>
       </c>
       <c r="I14">
-        <v>0.53900000000000003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0.27</v>
+      </c>
+      <c r="K14" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>120</v>
+        <v>401</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>402</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F15" s="3">
         <v>1</v>
       </c>
       <c r="G15" t="s">
+        <v>400</v>
+      </c>
+      <c r="I15">
+        <v>0.27</v>
+      </c>
+      <c r="K15" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
         <v>405</v>
       </c>
-      <c r="I15">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="I16">
+        <v>0.27</v>
+      </c>
+      <c r="K16" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>932</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>933</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>934</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>935</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>936</v>
-      </c>
-      <c r="F16" s="3">
-        <v>0</v>
-      </c>
-      <c r="G16" t="s">
-        <v>406</v>
-      </c>
-      <c r="I16">
-        <v>0.53900000000000003</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>937</v>
-      </c>
-      <c r="B17" t="s">
-        <v>940</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>934</v>
@@ -12084,7 +12152,7 @@
         <v>935</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>952</v>
+        <v>936</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
@@ -12095,22 +12163,25 @@
       <c r="I17">
         <v>0.53900000000000003</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K17" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B18" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>946</v>
+        <v>934</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>949</v>
+        <v>935</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
@@ -12118,106 +12189,118 @@
       <c r="G18" t="s">
         <v>406</v>
       </c>
-      <c r="H18" t="s">
-        <v>998</v>
-      </c>
       <c r="I18">
         <v>0.53900000000000003</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K18" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>958</v>
+        <v>938</v>
       </c>
       <c r="B19" t="s">
-        <v>959</v>
+        <v>941</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>769</v>
+        <v>949</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="F19" s="3">
         <v>0</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>961</v>
+      <c r="G19" t="s">
+        <v>406</v>
+      </c>
+      <c r="H19" t="s">
+        <v>1254</v>
       </c>
       <c r="I19">
         <v>0.53900000000000003</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K19" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="B20" t="s">
+        <v>959</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="I20">
+        <v>0.54</v>
+      </c>
+      <c r="K20" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>980</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>981</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>982</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>983</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>984</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="1" t="s">
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>985</v>
-      </c>
-      <c r="I20">
-        <v>0.53900000000000003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>939</v>
-      </c>
-      <c r="B21" t="s">
-        <v>942</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>947</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>950</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>954</v>
-      </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
-      <c r="G21" t="s">
-        <v>406</v>
       </c>
       <c r="I21">
         <v>0.53900000000000003</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K21" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>913</v>
+        <v>939</v>
       </c>
       <c r="B22" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>934</v>
+        <v>947</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>935</v>
+        <v>950</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -12228,13 +12311,16 @@
       <c r="I22">
         <v>0.53900000000000003</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K22" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="B23" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>934</v>
@@ -12243,7 +12329,7 @@
         <v>935</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
@@ -12252,24 +12338,27 @@
         <v>406</v>
       </c>
       <c r="I23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="K23" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>928</v>
+        <v>921</v>
       </c>
       <c r="B24" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>948</v>
+        <v>934</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>951</v>
+        <v>935</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -12281,70 +12370,70 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="B25" t="s">
+        <v>945</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0</v>
+      </c>
+      <c r="G25" t="s">
+        <v>406</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>986</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>987</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>988</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>989</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F26" s="3">
         <v>1</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="I26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>641</v>
-      </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" t="s">
-        <v>399</v>
-      </c>
-      <c r="I26">
-        <v>0.53900000000000003</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>639</v>
       </c>
       <c r="F27" s="3">
         <v>0</v>
@@ -12355,120 +12444,129 @@
       <c r="I27">
         <v>0.53900000000000003</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K27" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0</v>
+      </c>
+      <c r="G28" t="s">
+        <v>399</v>
+      </c>
+      <c r="I28">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="K28" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B29" t="s">
         <v>1219</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C29" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>1220</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>1222</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>1222</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>1221</v>
-      </c>
-      <c r="F28" s="3">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" t="s">
+      <c r="F30" s="3">
+        <v>0</v>
+      </c>
+      <c r="G30" t="s">
         <v>406</v>
       </c>
-      <c r="I29">
+      <c r="I30">
         <v>0.53900000000000003</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+      <c r="K30" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>1231</v>
       </c>
-      <c r="B30" t="s">
+      <c r="D31" s="1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>1232</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>1233</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>1233</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>1234</v>
-      </c>
-      <c r="F30" s="3">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="F31" s="3">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>11</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="F31" s="3">
-        <v>0</v>
-      </c>
-      <c r="G31" t="s">
-        <v>406</v>
-      </c>
-      <c r="I31">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B32" t="s">
-        <v>12</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>661</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>769</v>
+        <v>671</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -12477,24 +12575,27 @@
         <v>406</v>
       </c>
       <c r="I32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="K32" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F33" s="3">
         <v>0</v>
@@ -12503,24 +12604,24 @@
         <v>406</v>
       </c>
       <c r="I33">
-        <v>0.53900000000000003</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F34" s="3">
         <v>0</v>
@@ -12528,28 +12629,28 @@
       <c r="G34" t="s">
         <v>406</v>
       </c>
-      <c r="H34" t="s">
-        <v>1235</v>
-      </c>
       <c r="I34">
         <v>0.53900000000000003</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K34" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>769</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
@@ -12557,16 +12658,22 @@
       <c r="G35" t="s">
         <v>406</v>
       </c>
+      <c r="H35" t="s">
+        <v>1233</v>
+      </c>
       <c r="I35">
         <v>0.53900000000000003</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K35" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>665</v>
@@ -12575,7 +12682,7 @@
         <v>769</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F36" s="3">
         <v>0</v>
@@ -12584,24 +12691,27 @@
         <v>406</v>
       </c>
       <c r="I36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="K36" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>671</v>
+        <v>769</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>692</v>
+        <v>647</v>
       </c>
       <c r="F37" s="3">
         <v>0</v>
@@ -12610,24 +12720,24 @@
         <v>406</v>
       </c>
       <c r="I37">
-        <v>0.53900000000000003</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>648</v>
+        <v>692</v>
       </c>
       <c r="F38" s="3">
         <v>0</v>
@@ -12635,126 +12745,136 @@
       <c r="G38" t="s">
         <v>406</v>
       </c>
-      <c r="H38" t="s">
-        <v>773</v>
-      </c>
       <c r="I38">
         <v>0.53900000000000003</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K38" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="F39" s="3">
+        <v>0</v>
+      </c>
+      <c r="G39" t="s">
+        <v>406</v>
+      </c>
+      <c r="H39" t="s">
+        <v>773</v>
+      </c>
+      <c r="I39">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="K39" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B40" t="s">
         <v>1199</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C40" s="1" t="s">
         <v>1200</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>1201</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>1202</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>1203</v>
-      </c>
-      <c r="F39" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+      <c r="F40" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>403</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="F40" s="3">
-        <v>0</v>
-      </c>
-      <c r="G40" t="s">
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" t="s">
         <v>409</v>
       </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+      <c r="I41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>408</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" t="s">
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" t="s">
         <v>410</v>
       </c>
-      <c r="I41">
-        <v>0.53900000000000003</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
+      <c r="I42">
+        <f>0.7*0.539 + 0.3*0.9*0.3</f>
+        <v>0.45830000000000004</v>
+      </c>
+      <c r="K42" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>769</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>651</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" t="s">
-        <v>406</v>
-      </c>
-      <c r="I42">
-        <v>0.53900000000000003</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B43" t="s">
-        <v>20</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>782</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>783</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>652</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
@@ -12762,28 +12882,28 @@
       <c r="G43" t="s">
         <v>406</v>
       </c>
-      <c r="H43" t="s">
-        <v>668</v>
-      </c>
       <c r="I43">
         <v>0.53900000000000003</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K43" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>661</v>
+        <v>782</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>671</v>
+        <v>783</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F44" s="3">
         <v>0</v>
@@ -12791,16 +12911,22 @@
       <c r="G44" t="s">
         <v>406</v>
       </c>
+      <c r="H44" t="s">
+        <v>668</v>
+      </c>
       <c r="I44">
         <v>0.53900000000000003</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K44" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>661</v>
@@ -12809,24 +12935,27 @@
         <v>671</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F45" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="I45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="K45" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B46" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>661</v>
@@ -12835,34 +12964,33 @@
         <v>671</v>
       </c>
       <c r="E46" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="F46" s="3">
+        <v>1</v>
+      </c>
+      <c r="G46" t="s">
+        <v>400</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B47" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>655</v>
-      </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
-      <c r="G46" t="s">
-        <v>406</v>
-      </c>
-      <c r="H46" s="1"/>
-      <c r="I46">
-        <v>0.53900000000000003</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B47" t="s">
-        <v>24</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>656</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
@@ -12870,8 +12998,41 @@
       <c r="G47" t="s">
         <v>406</v>
       </c>
+      <c r="H47" s="1"/>
       <c r="I47">
-        <v>0.53900000000000003</v>
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="K47" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" t="s">
+        <v>406</v>
+      </c>
+      <c r="I48">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="K48" t="s">
+        <v>1256</v>
       </c>
     </row>
   </sheetData>
@@ -12886,7 +13047,7 @@
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13123,16 +13284,16 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B17" t="s">
         <v>1193</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>1194</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>1195</v>
-      </c>
-      <c r="D17" t="s">
-        <v>1196</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -13529,72 +13690,72 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B46" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C46" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D46" t="s">
         <v>1037</v>
-      </c>
-      <c r="D46" t="s">
-        <v>1038</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B47" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C47" t="s">
         <v>1066</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>1067</v>
-      </c>
-      <c r="D47" t="s">
-        <v>1068</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B48" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C48" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D48" t="s">
         <v>1069</v>
-      </c>
-      <c r="D48" t="s">
-        <v>1070</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B49" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C49" t="s">
         <v>1089</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>1090</v>
-      </c>
-      <c r="D49" t="s">
-        <v>1091</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C50" t="s">
         <v>1247</v>
       </c>
-      <c r="B50" t="s">
+      <c r="D50" t="s">
         <v>1248</v>
-      </c>
-      <c r="C50" t="s">
-        <v>1249</v>
-      </c>
-      <c r="D50" t="s">
-        <v>1250</v>
       </c>
     </row>
   </sheetData>
@@ -13647,18 +13808,18 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>998</v>
+      </c>
+      <c r="B4" t="s">
         <v>999</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1000</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B5" t="s">
         <v>1001</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1002</v>
       </c>
     </row>
   </sheetData>

--- a/data/basic_info.xlsx
+++ b/data/basic_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\trading_plan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B753E2E5-5977-408A-9664-80A970BE1A3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66BF110-9E2A-43CA-B044-53B6EA3F84B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28590" tabRatio="733" activeTab="1" xr2:uid="{855E00D3-25C3-4BB2-A61F-0D95BB1AF006}"/>
+    <workbookView xWindow="-16200" yWindow="6720" windowWidth="18945" windowHeight="12435" tabRatio="733" activeTab="1" xr2:uid="{855E00D3-25C3-4BB2-A61F-0D95BB1AF006}"/>
   </bookViews>
   <sheets>
     <sheet name="acctinfo" sheetId="8" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="trdplan_expression" sheetId="12" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">acctinfo!$G$1:$G$160</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">acctinfo!$G$1:$G$159</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2031" uniqueCount="1262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="1255">
   <si>
     <t>鸣石量化投资2期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3545,14 +3545,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>805_c_wk_0810</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>26000000810</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>805_c_zhaos_5868</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3561,26 +3553,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>mskm5wk0810</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wk_0810</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wk_tdx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(805_c_wk_0810.xls,805_c_wk_0810.xls,)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>80501</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5023,10 +4995,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{'security':{'wk_0810':0,'zhaos_5868':1},'future':{'xy_0808':0.6,'zhaos_0468':0.4}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Note</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5051,6 +5019,10 @@
   </si>
   <si>
     <t>(10_c_wk_0388.xls,10_c_wk_0388.xls,)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'future':{'xy_0808':0.6,'zhaos_0468':0.4}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5446,13 +5418,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E89EC7F-6807-4E54-B5E1-E4E4E9C6C1B6}">
-  <dimension ref="A1:P160"/>
+  <dimension ref="A1:P159"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B63" sqref="B63"/>
+      <selection pane="bottomRight" activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5485,7 +5457,7 @@
         <v>293</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1106</v>
+        <v>1099</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>803</v>
@@ -5533,7 +5505,7 @@
         <v>565</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>450</v>
@@ -5568,7 +5540,7 @@
         <v>566</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1148</v>
+        <v>1141</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>450</v>
@@ -5603,7 +5575,7 @@
         <v>567</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>450</v>
@@ -5638,7 +5610,7 @@
         <v>568</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>450</v>
@@ -5673,7 +5645,7 @@
         <v>569</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>450</v>
@@ -5708,7 +5680,7 @@
         <v>570</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>450</v>
@@ -5743,7 +5715,7 @@
         <v>571</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>450</v>
@@ -5778,7 +5750,7 @@
         <v>572</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1154</v>
+        <v>1147</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>450</v>
@@ -5813,7 +5785,7 @@
         <v>573</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>1155</v>
+        <v>1148</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>450</v>
@@ -5848,7 +5820,7 @@
         <v>574</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>1156</v>
+        <v>1149</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>450</v>
@@ -5883,7 +5855,7 @@
         <v>575</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>1157</v>
+        <v>1150</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>450</v>
@@ -5918,7 +5890,7 @@
         <v>576</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>1158</v>
+        <v>1151</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>450</v>
@@ -5953,7 +5925,7 @@
         <v>581</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>1159</v>
+        <v>1152</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>450</v>
@@ -5988,7 +5960,7 @@
         <v>582</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1160</v>
+        <v>1153</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>450</v>
@@ -6023,7 +5995,7 @@
         <v>583</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>1161</v>
+        <v>1154</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>450</v>
@@ -6058,7 +6030,7 @@
         <v>455</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>450</v>
@@ -6093,7 +6065,7 @@
         <v>458</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>1163</v>
+        <v>1156</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>450</v>
@@ -6128,7 +6100,7 @@
         <v>449</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>1164</v>
+        <v>1157</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>450</v>
@@ -6163,7 +6135,7 @@
         <v>462</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>1165</v>
+        <v>1158</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>450</v>
@@ -6198,7 +6170,7 @@
         <v>466</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>1166</v>
+        <v>1159</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>450</v>
@@ -6233,7 +6205,7 @@
         <v>623</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>1167</v>
+        <v>1160</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>624</v>
@@ -6251,7 +6223,7 @@
         <v>0</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>1002</v>
+        <v>995</v>
       </c>
       <c r="O22" t="s">
         <v>75</v>
@@ -6259,25 +6231,25 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>1222</v>
+        <v>1215</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1223</v>
+        <v>1216</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1224</v>
+        <v>1217</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>1225</v>
+        <v>1218</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>1226</v>
+        <v>1219</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>1227</v>
+        <v>1220</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>1228</v>
+        <v>1221</v>
       </c>
       <c r="J23" s="3">
         <v>0</v>
@@ -6292,7 +6264,7 @@
         <v>231</v>
       </c>
       <c r="O23" t="s">
-        <v>1003</v>
+        <v>996</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
@@ -6306,7 +6278,7 @@
         <v>469</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>1168</v>
+        <v>1161</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>450</v>
@@ -6341,7 +6313,7 @@
         <v>472</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>450</v>
@@ -6376,7 +6348,7 @@
         <v>481</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>1170</v>
+        <v>1163</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>450</v>
@@ -6411,7 +6383,7 @@
         <v>487</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>450</v>
@@ -6446,7 +6418,7 @@
         <v>503</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>1172</v>
+        <v>1165</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -6485,7 +6457,7 @@
         <v>534</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>450</v>
@@ -6520,7 +6492,7 @@
         <v>506</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>1174</v>
+        <v>1167</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>450</v>
@@ -6555,7 +6527,7 @@
         <v>510</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>1175</v>
+        <v>1168</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>450</v>
@@ -6590,7 +6562,7 @@
         <v>514</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>1176</v>
+        <v>1169</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>450</v>
@@ -6625,7 +6597,7 @@
         <v>517</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>1177</v>
+        <v>1170</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>450</v>
@@ -6654,13 +6626,13 @@
         <v>518</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1196</v>
+        <v>1189</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>1197</v>
+        <v>1190</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>1191</v>
+        <v>1184</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -6699,7 +6671,7 @@
         <v>521</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>1178</v>
+        <v>1171</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -6738,7 +6710,7 @@
         <v>525</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>1179</v>
+        <v>1172</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>450</v>
@@ -6773,7 +6745,7 @@
         <v>528</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>1180</v>
+        <v>1173</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>450</v>
@@ -6808,7 +6780,7 @@
         <v>532</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>1181</v>
+        <v>1174</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>450</v>
@@ -6843,7 +6815,7 @@
         <v>211</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>1182</v>
+        <v>1175</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>212</v>
@@ -6869,28 +6841,28 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="I40" s="1" t="s">
         <v>1004</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>1006</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>1007</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>1008</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>1009</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>1010</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>1011</v>
       </c>
       <c r="J40" s="3">
         <v>0</v>
@@ -6910,28 +6882,28 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="I41" s="1" t="s">
         <v>1004</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>1012</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>1013</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>1014</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>1015</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>1009</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>1016</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>1011</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
@@ -6946,27 +6918,27 @@
         <v>231</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>1003</v>
+        <v>996</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>1004</v>
+        <v>997</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>1017</v>
+        <v>1010</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1018</v>
+        <v>1011</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>1020</v>
+        <v>1013</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>1010</v>
+        <v>1003</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>1019</v>
+        <v>1012</v>
       </c>
       <c r="J42" s="3">
         <v>0</v>
@@ -6981,30 +6953,30 @@
         <v>231</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>1003</v>
+        <v>996</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>1004</v>
+        <v>997</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>1021</v>
+        <v>1014</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1022</v>
+        <v>1015</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>1183</v>
+        <v>1176</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>1023</v>
+        <v>1016</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>1024</v>
+        <v>1017</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>1019</v>
+        <v>1012</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
@@ -7024,28 +6996,28 @@
     </row>
     <row r="44" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>1025</v>
+        <v>1018</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>1026</v>
+        <v>1019</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>1027</v>
+        <v>1020</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>1025</v>
+        <v>1018</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>1028</v>
+        <v>1021</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>1009</v>
+        <v>1002</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>1010</v>
+        <v>1003</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>1011</v>
+        <v>1004</v>
       </c>
       <c r="J44" s="3">
         <v>0</v>
@@ -7074,7 +7046,7 @@
         <v>477</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>450</v>
@@ -7103,40 +7075,40 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>1044</v>
+        <v>1037</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>1045</v>
+        <v>1038</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1046</v>
+        <v>1039</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>1044</v>
+        <v>1037</v>
       </c>
       <c r="F46" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="I46" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="G46" s="1" t="s">
-        <v>1049</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>1054</v>
-      </c>
-      <c r="I46" s="1" t="s">
+      <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="7">
+        <v>0</v>
+      </c>
+      <c r="L46" s="7">
+        <v>0</v>
+      </c>
+      <c r="M46" s="7" t="s">
         <v>1055</v>
-      </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
-      <c r="K46" s="7">
-        <v>0</v>
-      </c>
-      <c r="L46" s="7">
-        <v>0</v>
-      </c>
-      <c r="M46" s="7" t="s">
-        <v>1062</v>
       </c>
       <c r="N46" s="1" t="s">
         <v>231</v>
@@ -7147,28 +7119,28 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>1044</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>1051</v>
-      </c>
       <c r="E47" s="1" t="s">
-        <v>1047</v>
+        <v>1040</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>1052</v>
+        <v>1045</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>1049</v>
+        <v>1042</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>1053</v>
+        <v>1046</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>1055</v>
+        <v>1048</v>
       </c>
       <c r="J47" s="3">
         <v>0</v>
@@ -7180,7 +7152,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="7" t="s">
-        <v>1063</v>
+        <v>1056</v>
       </c>
       <c r="N47" s="1" t="s">
         <v>231</v>
@@ -7191,28 +7163,28 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>1038</v>
+        <v>1031</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>1043</v>
+        <v>1036</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1039</v>
+        <v>1032</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>1040</v>
+        <v>1033</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>1041</v>
+        <v>1034</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>1009</v>
+        <v>1002</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>1042</v>
+        <v>1035</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>1011</v>
+        <v>1004</v>
       </c>
       <c r="J48" s="3">
         <v>0</v>
@@ -7224,13 +7196,13 @@
         <v>0</v>
       </c>
       <c r="M48" s="7" t="s">
-        <v>1064</v>
+        <v>1057</v>
       </c>
       <c r="N48" s="1" t="s">
         <v>231</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>1003</v>
+        <v>996</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
@@ -7244,7 +7216,7 @@
         <v>483</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>1185</v>
+        <v>1178</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>450</v>
@@ -7273,28 +7245,28 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>1071</v>
+        <v>1064</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>1072</v>
+        <v>1065</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1073</v>
+        <v>1066</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>1071</v>
+        <v>1064</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>1074</v>
+        <v>1067</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>1075</v>
+        <v>1068</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>1076</v>
+        <v>1069</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>1077</v>
+        <v>1070</v>
       </c>
       <c r="J50" s="3">
         <v>0</v>
@@ -7318,7 +7290,7 @@
         <v>490</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>450</v>
@@ -7347,25 +7319,25 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>1079</v>
+        <v>1072</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="G52" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="H52" s="1" t="s">
         <v>1075</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>1082</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>106</v>
@@ -7383,28 +7355,28 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>1101</v>
+        <v>1094</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1079</v>
+        <v>1072</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>1100</v>
+        <v>1093</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>1101</v>
+        <v>1094</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>1102</v>
+        <v>1095</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>1103</v>
+        <v>1096</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>1104</v>
+        <v>1097</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>1105</v>
+        <v>1098</v>
       </c>
       <c r="J53" s="3">
         <v>0</v>
@@ -7428,7 +7400,7 @@
         <v>492</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>450</v>
@@ -7457,28 +7429,28 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>1083</v>
+        <v>1076</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>1083</v>
+        <v>1076</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>1075</v>
+        <v>1068</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>1077</v>
+        <v>1070</v>
       </c>
       <c r="J55" s="3">
         <v>0</v>
@@ -7502,7 +7474,7 @@
         <v>496</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>1188</v>
+        <v>1181</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>450</v>
@@ -7531,28 +7503,28 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>1091</v>
+        <v>1084</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>1092</v>
+        <v>1085</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1093</v>
+        <v>1086</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>1091</v>
+        <v>1084</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>1094</v>
+        <v>1087</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>1075</v>
+        <v>1068</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>1095</v>
+        <v>1088</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>1077</v>
+        <v>1070</v>
       </c>
       <c r="J57" s="3">
         <v>0</v>
@@ -7576,7 +7548,7 @@
         <v>500</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>1189</v>
+        <v>1182</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -7679,7 +7651,7 @@
         <v>332</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>1097</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.2">
@@ -7693,7 +7665,7 @@
         <v>140</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>141</v>
@@ -7731,7 +7703,7 @@
         <v>431</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>1145</v>
+        <v>1138</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>432</v>
@@ -7796,7 +7768,7 @@
         <v>788</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
@@ -7810,7 +7782,7 @@
         <v>234</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>1107</v>
+        <v>1100</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>141</v>
@@ -7872,10 +7844,10 @@
         <v>0</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>1217</v>
+        <v>1210</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>1210</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="66" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7889,7 +7861,7 @@
         <v>147</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>1144</v>
+        <v>1137</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>141</v>
@@ -7951,10 +7923,10 @@
         <v>0</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>1217</v>
+        <v>1210</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>1211</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.2">
@@ -7968,7 +7940,7 @@
         <v>150</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>1143</v>
+        <v>1136</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>141</v>
@@ -8032,10 +8004,10 @@
       </c>
       <c r="M69" s="7"/>
       <c r="N69" s="1" t="s">
-        <v>1217</v>
+        <v>1210</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>1212</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.2">
@@ -8049,7 +8021,7 @@
         <v>153</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>1142</v>
+        <v>1135</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>141</v>
@@ -8163,7 +8135,7 @@
         <v>155</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>1141</v>
+        <v>1134</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>141</v>
@@ -8225,10 +8197,10 @@
         <v>0</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>1217</v>
+        <v>1210</v>
       </c>
       <c r="O74" s="1" t="s">
-        <v>1213</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.2">
@@ -8242,7 +8214,7 @@
         <v>158</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>1140</v>
+        <v>1133</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>141</v>
@@ -8304,30 +8276,30 @@
         <v>0</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>1217</v>
+        <v>1210</v>
       </c>
       <c r="O76" s="1" t="s">
-        <v>1216</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>1234</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>1241</v>
-      </c>
       <c r="G77" s="1" t="s">
-        <v>1236</v>
+        <v>1229</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>1237</v>
+        <v>1230</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>1238</v>
+        <v>1231</v>
       </c>
       <c r="J77" s="3">
         <v>0</v>
@@ -8339,10 +8311,10 @@
         <v>1</v>
       </c>
       <c r="N77" s="1" t="s">
-        <v>1239</v>
+        <v>1232</v>
       </c>
       <c r="O77" s="1" t="s">
-        <v>1240</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.2">
@@ -8356,7 +8328,7 @@
         <v>160</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>1139</v>
+        <v>1132</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>141</v>
@@ -8418,10 +8390,10 @@
         <v>0</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>1217</v>
+        <v>1210</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>1215</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.2">
@@ -8435,7 +8407,7 @@
         <v>162</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>1138</v>
+        <v>1131</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>141</v>
@@ -8497,10 +8469,10 @@
         <v>0</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>1217</v>
+        <v>1210</v>
       </c>
       <c r="O81" s="1" t="s">
-        <v>1214</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.2">
@@ -8514,7 +8486,7 @@
         <v>442</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>1137</v>
+        <v>1130</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>443</v>
@@ -8593,7 +8565,7 @@
         <v>164</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>1136</v>
+        <v>1129</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>141</v>
@@ -8672,7 +8644,7 @@
         <v>214</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>1135</v>
+        <v>1128</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>212</v>
@@ -8751,7 +8723,7 @@
         <v>216</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>1134</v>
+        <v>1127</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>212</v>
@@ -8778,7 +8750,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>883</v>
       </c>
@@ -8788,17 +8760,11 @@
       <c r="C89" s="1" t="s">
         <v>885</v>
       </c>
-      <c r="E89" s="1" t="s">
-        <v>883</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>888</v>
-      </c>
       <c r="G89" s="1" t="s">
         <v>870</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="I89" s="1" t="s">
         <v>872</v>
@@ -8813,13 +8779,13 @@
         <v>0</v>
       </c>
       <c r="M89" s="7" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>891</v>
-      </c>
-      <c r="O89" s="1" t="s">
-        <v>892</v>
+        <v>359</v>
+      </c>
+      <c r="O89" t="s">
+        <v>889</v>
       </c>
     </row>
     <row r="90" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8827,16 +8793,22 @@
         <v>883</v>
       </c>
       <c r="B90" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="E90" s="1" t="s">
         <v>886</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="F90" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="H90" s="1" t="s">
         <v>887</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>870</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>894</v>
       </c>
       <c r="I90" s="1" t="s">
         <v>872</v>
@@ -8845,88 +8817,85 @@
         <v>1</v>
       </c>
       <c r="K90" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L90" s="7">
         <v>0</v>
       </c>
       <c r="M90" s="7" t="s">
-        <v>895</v>
+        <v>888</v>
       </c>
       <c r="N90" s="1" t="s">
         <v>359</v>
       </c>
       <c r="O90" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>883</v>
+        <v>201</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>897</v>
+        <v>552</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>898</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>893</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>899</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
       <c r="G91" s="1" t="s">
-        <v>900</v>
+        <v>141</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>894</v>
+        <v>62</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>872</v>
+        <v>209</v>
       </c>
       <c r="J91" s="3">
         <v>1</v>
       </c>
       <c r="K91" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L91" s="7">
         <v>0</v>
       </c>
       <c r="M91" s="7" t="s">
-        <v>895</v>
+        <v>955</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>359</v>
+        <v>231</v>
       </c>
       <c r="O91" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>201</v>
+        <v>539</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>218</v>
+        <v>541</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>1133</v>
-      </c>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
+        <v>1125</v>
+      </c>
       <c r="G92" s="1" t="s">
-        <v>141</v>
+        <v>450</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>62</v>
+        <v>511</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>209</v>
+        <v>452</v>
       </c>
       <c r="J92" s="3">
         <v>1</v>
@@ -8938,7 +8907,7 @@
         <v>0</v>
       </c>
       <c r="M92" s="7" t="s">
-        <v>962</v>
+        <v>956</v>
       </c>
       <c r="N92" s="1" t="s">
         <v>231</v>
@@ -8949,25 +8918,28 @@
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>539</v>
+        <v>202</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>540</v>
+        <v>957</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>1132</v>
+        <v>220</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>958</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>450</v>
+        <v>208</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>511</v>
+        <v>210</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>452</v>
+        <v>209</v>
       </c>
       <c r="J93" s="3">
         <v>1</v>
@@ -8978,14 +8950,11 @@
       <c r="L93" s="7">
         <v>0</v>
       </c>
-      <c r="M93" s="7" t="s">
-        <v>963</v>
-      </c>
       <c r="N93" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="O93" t="s">
-        <v>75</v>
+        <v>391</v>
+      </c>
+      <c r="O93" s="1" t="s">
+        <v>983</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.2">
@@ -8993,22 +8962,19 @@
         <v>202</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>964</v>
+        <v>542</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>958</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>965</v>
+        <v>221</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>1124</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="I94" s="1" t="s">
         <v>209</v>
@@ -9023,30 +8989,30 @@
         <v>0</v>
       </c>
       <c r="N94" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="O94" s="1" t="s">
-        <v>990</v>
+        <v>231</v>
+      </c>
+      <c r="O94" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>542</v>
+        <v>965</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>1131</v>
+        <v>223</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>1242</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="I95" s="1" t="s">
         <v>209</v>
@@ -9061,10 +9027,10 @@
         <v>0</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="O95" t="s">
-        <v>75</v>
+        <v>391</v>
+      </c>
+      <c r="O95" s="1" t="s">
+        <v>984</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.2">
@@ -9072,19 +9038,19 @@
         <v>203</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>972</v>
+        <v>1235</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>1249</v>
+        <v>224</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>1236</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>210</v>
+        <v>1237</v>
       </c>
       <c r="I96" s="1" t="s">
         <v>209</v>
@@ -9099,33 +9065,30 @@
         <v>0</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="O96" s="1" t="s">
-        <v>991</v>
+        <v>231</v>
+      </c>
+      <c r="O96" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>203</v>
+        <v>894</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>1242</v>
+        <v>895</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>1243</v>
+        <v>896</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>212</v>
+        <v>902</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>1244</v>
+        <v>903</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>209</v>
+        <v>904</v>
       </c>
       <c r="J97" s="3">
         <v>1</v>
@@ -9137,109 +9100,109 @@
         <v>0</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="O97" t="s">
-        <v>75</v>
+        <v>332</v>
+      </c>
+      <c r="O97" s="1" t="s">
+        <v>905</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>901</v>
+        <v>894</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>903</v>
+        <v>898</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>899</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>909</v>
+        <v>893</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>910</v>
+        <v>900</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>911</v>
+        <v>872</v>
       </c>
       <c r="J98" s="3">
         <v>1</v>
       </c>
       <c r="K98" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L98" s="7">
         <v>0</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>332</v>
+        <v>901</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>912</v>
+        <v>985</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>901</v>
+        <v>204</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>904</v>
+        <v>543</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>905</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>901</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>906</v>
+        <v>232</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>1123</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>900</v>
+        <v>212</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>907</v>
+        <v>210</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>872</v>
+        <v>209</v>
       </c>
       <c r="J99" s="3">
         <v>1</v>
       </c>
       <c r="K99" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L99" s="7">
         <v>0</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>908</v>
-      </c>
-      <c r="O99" s="1" t="s">
-        <v>992</v>
+        <v>231</v>
+      </c>
+      <c r="O99" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>204</v>
+        <v>906</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>543</v>
+        <v>907</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>1130</v>
+        <v>908</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>212</v>
+        <v>902</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>210</v>
+        <v>910</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>209</v>
+        <v>904</v>
       </c>
       <c r="J100" s="3">
         <v>1</v>
@@ -9251,30 +9214,36 @@
         <v>0</v>
       </c>
       <c r="N100" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="O100" t="s">
-        <v>75</v>
+        <v>391</v>
+      </c>
+      <c r="O100" s="1" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="G101" s="1" t="s">
         <v>913</v>
       </c>
-      <c r="B101" s="1" t="s">
-        <v>914</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>915</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>909</v>
-      </c>
       <c r="H101" s="1" t="s">
-        <v>917</v>
+        <v>910</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>911</v>
+        <v>904</v>
       </c>
       <c r="J101" s="3">
         <v>1</v>
@@ -9289,33 +9258,30 @@
         <v>391</v>
       </c>
       <c r="O101" s="1" t="s">
-        <v>994</v>
+        <v>986</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>913</v>
+        <v>657</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>918</v>
+        <v>658</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>919</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>913</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>916</v>
+        <v>546</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>1122</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>920</v>
+        <v>450</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>917</v>
+        <v>456</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>911</v>
+        <v>452</v>
       </c>
       <c r="J102" s="3">
         <v>1</v>
@@ -9327,36 +9293,39 @@
         <v>0</v>
       </c>
       <c r="N102" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="O102" s="1" t="s">
-        <v>993</v>
+        <v>231</v>
+      </c>
+      <c r="O102" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>657</v>
+        <v>205</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>658</v>
+        <v>915</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>1129</v>
+        <v>225</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>918</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>450</v>
+        <v>208</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>456</v>
+        <v>219</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>452</v>
+        <v>209</v>
       </c>
       <c r="J103" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K103" s="7">
         <v>0</v>
@@ -9364,11 +9333,11 @@
       <c r="L103" s="7">
         <v>0</v>
       </c>
-      <c r="N103" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="O103" t="s">
-        <v>75</v>
+      <c r="N103" t="s">
+        <v>359</v>
+      </c>
+      <c r="O103" s="1" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.2">
@@ -9376,19 +9345,13 @@
         <v>205</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>921</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>925</v>
+        <v>226</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>219</v>
@@ -9403,30 +9366,35 @@
         <v>0</v>
       </c>
       <c r="L104" s="7">
-        <v>0</v>
-      </c>
-      <c r="N104" t="s">
+        <v>1</v>
+      </c>
+      <c r="N104" s="1" t="s">
         <v>359</v>
       </c>
       <c r="O104" s="1" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>205</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>923</v>
+        <v>547</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>226</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
       <c r="G105" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>219</v>
+        <v>66</v>
       </c>
       <c r="I105" s="1" t="s">
         <v>209</v>
@@ -9438,54 +9406,55 @@
         <v>0</v>
       </c>
       <c r="L105" s="7">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M105" s="7"/>
       <c r="N105" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="O105" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="O105" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="106" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>547</v>
+        <v>919</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>1128</v>
-      </c>
-      <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
+        <v>228</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>923</v>
+      </c>
       <c r="G106" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>66</v>
+        <v>210</v>
       </c>
       <c r="I106" s="1" t="s">
         <v>209</v>
       </c>
       <c r="J106" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K106" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L106" s="7">
         <v>0</v>
       </c>
-      <c r="M106" s="7"/>
       <c r="N106" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="O106" t="s">
-        <v>75</v>
+        <v>966</v>
+      </c>
+      <c r="O106" s="1" t="s">
+        <v>988</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.2">
@@ -9493,19 +9462,19 @@
         <v>206</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>210</v>
@@ -9523,10 +9492,10 @@
         <v>0</v>
       </c>
       <c r="N107" s="1" t="s">
-        <v>973</v>
+        <v>966</v>
       </c>
       <c r="O107" s="1" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.2">
@@ -9534,22 +9503,19 @@
         <v>206</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>927</v>
+        <v>550</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>929</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>931</v>
+        <v>233</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>1120</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="I108" s="1" t="s">
         <v>209</v>
@@ -9558,116 +9524,119 @@
         <v>1</v>
       </c>
       <c r="K108" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L108" s="7">
         <v>0</v>
       </c>
       <c r="N108" s="1" t="s">
-        <v>973</v>
-      </c>
-      <c r="O108" s="1" t="s">
-        <v>996</v>
+        <v>231</v>
+      </c>
+      <c r="O108" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>206</v>
+        <v>967</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>550</v>
+        <v>968</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>1127</v>
+        <v>969</v>
       </c>
       <c r="G109" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="J109" s="3">
+        <v>0</v>
+      </c>
+      <c r="K109" s="7">
+        <v>0</v>
+      </c>
+      <c r="L109" s="7">
+        <v>0</v>
+      </c>
+      <c r="N109" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="O109" s="1" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="G110" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="H109" s="1" t="s">
+      <c r="H110" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="I109" s="1" t="s">
+      <c r="I110" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="J109" s="3">
+      <c r="J110" s="3">
+        <v>0</v>
+      </c>
+      <c r="K110" s="7">
+        <v>0</v>
+      </c>
+      <c r="L110" s="7">
+        <v>0</v>
+      </c>
+      <c r="N110" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="O110" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J111" s="3">
         <v>1</v>
       </c>
-      <c r="K109" s="7">
-        <v>0</v>
-      </c>
-      <c r="L109" s="7">
-        <v>0</v>
-      </c>
-      <c r="N109" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="O109" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A110" s="1" t="s">
-        <v>974</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>975</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>976</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>977</v>
-      </c>
-      <c r="H110" s="1" t="s">
-        <v>978</v>
-      </c>
-      <c r="I110" s="1" t="s">
-        <v>979</v>
-      </c>
-      <c r="J110" s="3">
-        <v>0</v>
-      </c>
-      <c r="K110" s="7">
-        <v>0</v>
-      </c>
-      <c r="L110" s="7">
-        <v>0</v>
-      </c>
-      <c r="N110" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="O110" s="1" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>1126</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="H111" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="I111" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="J111" s="3">
-        <v>0</v>
-      </c>
       <c r="K111" s="7">
         <v>0</v>
       </c>
@@ -9675,39 +9644,33 @@
         <v>0</v>
       </c>
       <c r="N111" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="O111" t="s">
-        <v>75</v>
+        <v>391</v>
+      </c>
+      <c r="O111" s="1" t="s">
+        <v>1200</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>28</v>
+        <v>256</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>840</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>841</v>
+        <v>257</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>101</v>
+        <v>258</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>35</v>
+        <v>259</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>106</v>
+        <v>260</v>
       </c>
       <c r="J112" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K112" s="7">
         <v>0</v>
@@ -9716,33 +9679,36 @@
         <v>0</v>
       </c>
       <c r="N112" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="O112" s="1" t="s">
-        <v>1207</v>
+        <v>261</v>
+      </c>
+      <c r="O112" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>256</v>
+        <v>165</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>257</v>
+        <v>166</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>1118</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>258</v>
+        <v>141</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>259</v>
+        <v>167</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>260</v>
+        <v>143</v>
       </c>
       <c r="J113" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K113" s="7">
         <v>0</v>
@@ -9751,33 +9717,30 @@
         <v>0</v>
       </c>
       <c r="N113" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="O113" t="s">
-        <v>291</v>
+        <v>231</v>
+      </c>
+      <c r="O113" s="1" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>165</v>
+        <v>29</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>1125</v>
+        <v>45</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>167</v>
+        <v>57</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="J114" s="3">
         <v>1</v>
@@ -9789,27 +9752,33 @@
         <v>0</v>
       </c>
       <c r="N114" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="O114" s="1" t="s">
-        <v>387</v>
+        <v>240</v>
+      </c>
+      <c r="O114" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>29</v>
+        <v>235</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>45</v>
+        <v>236</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>843</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>101</v>
+        <v>237</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>57</v>
+        <v>238</v>
       </c>
       <c r="I115" s="1" t="s">
         <v>106</v>
@@ -9818,7 +9787,7 @@
         <v>1</v>
       </c>
       <c r="K115" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L115" s="7">
         <v>0</v>
@@ -9827,71 +9796,71 @@
         <v>240</v>
       </c>
       <c r="O115" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>235</v>
+        <v>168</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>842</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>843</v>
+        <v>169</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>1117</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>237</v>
+        <v>141</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>238</v>
+        <v>170</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="J116" s="3">
         <v>1</v>
       </c>
       <c r="K116" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L116" s="7">
         <v>0</v>
       </c>
       <c r="N116" s="1" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="O116" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>168</v>
+        <v>30</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>297</v>
+        <v>274</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>1124</v>
+        <v>47</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>845</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>170</v>
+        <v>34</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="J117" s="3">
         <v>1</v>
@@ -9903,36 +9872,33 @@
         <v>0</v>
       </c>
       <c r="N117" s="1" t="s">
-        <v>231</v>
+        <v>1199</v>
       </c>
       <c r="O117" t="s">
-        <v>304</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>30</v>
+        <v>616</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>274</v>
+        <v>617</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>844</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>845</v>
+        <v>618</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>1116</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>101</v>
+        <v>612</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>34</v>
+        <v>613</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>106</v>
+        <v>614</v>
       </c>
       <c r="J118" s="3">
         <v>1</v>
@@ -9944,33 +9910,36 @@
         <v>0</v>
       </c>
       <c r="N118" s="1" t="s">
-        <v>1206</v>
+        <v>231</v>
       </c>
       <c r="O118" t="s">
-        <v>1203</v>
+        <v>615</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>616</v>
+        <v>31</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>617</v>
+        <v>275</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>1123</v>
+        <v>48</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>847</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>612</v>
+        <v>101</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>613</v>
+        <v>35</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>614</v>
+        <v>106</v>
       </c>
       <c r="J119" s="3">
         <v>1</v>
@@ -9982,39 +9951,33 @@
         <v>0</v>
       </c>
       <c r="N119" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="O119" t="s">
-        <v>615</v>
+        <v>391</v>
+      </c>
+      <c r="O119" s="1" t="s">
+        <v>1201</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>31</v>
+        <v>267</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>846</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>847</v>
+        <v>268</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>101</v>
+        <v>265</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>35</v>
+        <v>266</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>106</v>
+        <v>260</v>
       </c>
       <c r="J120" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K120" s="7">
         <v>0</v>
@@ -10023,33 +9986,36 @@
         <v>0</v>
       </c>
       <c r="N120" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="O120" s="1" t="s">
-        <v>1208</v>
+        <v>261</v>
+      </c>
+      <c r="O120" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>267</v>
+        <v>171</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>268</v>
+        <v>172</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>1101</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>265</v>
+        <v>141</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>266</v>
+        <v>173</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>260</v>
+        <v>143</v>
       </c>
       <c r="J121" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K121" s="7">
         <v>0</v>
@@ -10058,109 +10024,109 @@
         <v>0</v>
       </c>
       <c r="N121" s="1" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
       <c r="O121" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>171</v>
+        <v>421</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>298</v>
+        <v>426</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>1108</v>
+        <v>427</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>141</v>
+        <v>422</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>173</v>
+        <v>423</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>143</v>
+        <v>424</v>
       </c>
       <c r="J122" s="3">
         <v>1</v>
       </c>
       <c r="K122" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L122" s="7">
         <v>0</v>
       </c>
       <c r="N122" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="O122" t="s">
-        <v>304</v>
+        <v>425</v>
+      </c>
+      <c r="O122" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>421</v>
+        <v>82</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>426</v>
+        <v>277</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>427</v>
+        <v>49</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>849</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>422</v>
+        <v>101</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>423</v>
+        <v>35</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>424</v>
+        <v>106</v>
       </c>
       <c r="J123" s="3">
         <v>1</v>
       </c>
       <c r="K123" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L123" s="7">
         <v>0</v>
       </c>
       <c r="N123" s="1" t="s">
-        <v>425</v>
+        <v>391</v>
       </c>
       <c r="O123" s="1" t="s">
-        <v>75</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>82</v>
+        <v>174</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>848</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>849</v>
+        <v>175</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>1102</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>35</v>
+        <v>167</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="J124" s="3">
         <v>1</v>
@@ -10172,48 +10138,51 @@
         <v>0</v>
       </c>
       <c r="N124" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="O124" s="1" t="s">
-        <v>1209</v>
+        <v>231</v>
+      </c>
+      <c r="O124" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A125" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>1109</v>
-      </c>
-      <c r="G125" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H125" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="I125" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J125" s="3">
+      <c r="A125" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D125" s="4"/>
+      <c r="E125" s="4"/>
+      <c r="F125" s="4"/>
+      <c r="G125" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H125" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I125" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J125" s="5">
         <v>1</v>
       </c>
-      <c r="K125" s="7">
-        <v>0</v>
-      </c>
-      <c r="L125" s="7">
-        <v>0</v>
-      </c>
-      <c r="N125" s="1" t="s">
-        <v>231</v>
+      <c r="K125" s="8">
+        <v>0</v>
+      </c>
+      <c r="L125" s="8">
+        <v>0</v>
+      </c>
+      <c r="M125" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="N125" s="4" t="s">
+        <v>239</v>
       </c>
       <c r="O125" t="s">
-        <v>304</v>
+        <v>394</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.2">
@@ -10221,16 +10190,20 @@
         <v>76</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="D126" s="4"/>
-      <c r="E126" s="4"/>
-      <c r="F126" s="4"/>
+      <c r="E126" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>851</v>
+      </c>
       <c r="G126" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H126" s="4" t="s">
         <v>50</v>
@@ -10242,7 +10215,7 @@
         <v>1</v>
       </c>
       <c r="K126" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L126" s="8">
         <v>0</v>
@@ -10254,75 +10227,71 @@
         <v>239</v>
       </c>
       <c r="O126" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A127" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B127" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="C127" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D127" s="4"/>
-      <c r="E127" s="4" t="s">
-        <v>850</v>
-      </c>
-      <c r="F127" s="4" t="s">
-        <v>851</v>
-      </c>
-      <c r="G127" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="H127" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I127" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="J127" s="5">
+      <c r="A127" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J127" s="3">
         <v>1</v>
       </c>
-      <c r="K127" s="8">
-        <v>1</v>
-      </c>
-      <c r="L127" s="8">
-        <v>0</v>
-      </c>
-      <c r="M127" s="8" t="s">
-        <v>601</v>
-      </c>
-      <c r="N127" s="4" t="s">
-        <v>239</v>
+      <c r="K127" s="7">
+        <v>0</v>
+      </c>
+      <c r="L127" s="7">
+        <v>0</v>
+      </c>
+      <c r="N127" s="1" t="s">
+        <v>231</v>
       </c>
       <c r="O127" t="s">
-        <v>395</v>
+        <v>304</v>
       </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>176</v>
+        <v>83</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>1110</v>
+        <v>52</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>853</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>142</v>
+        <v>34</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="J128" s="3">
         <v>1</v>
@@ -10333,37 +10302,40 @@
       <c r="L128" s="7">
         <v>0</v>
       </c>
+      <c r="M128" s="7" t="s">
+        <v>604</v>
+      </c>
       <c r="N128" s="1" t="s">
-        <v>231</v>
+        <v>1199</v>
       </c>
       <c r="O128" t="s">
-        <v>304</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>83</v>
+        <v>774</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>281</v>
+        <v>779</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>52</v>
+        <v>781</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>852</v>
+        <v>963</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>853</v>
+        <v>964</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>101</v>
+        <v>775</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>34</v>
+        <v>776</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>106</v>
+        <v>777</v>
       </c>
       <c r="J129" s="3">
         <v>1</v>
@@ -10375,39 +10347,36 @@
         <v>0</v>
       </c>
       <c r="M129" s="7" t="s">
-        <v>604</v>
+        <v>780</v>
       </c>
       <c r="N129" s="1" t="s">
-        <v>1206</v>
+        <v>778</v>
       </c>
       <c r="O129" t="s">
-        <v>1204</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>774</v>
+        <v>178</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>779</v>
+        <v>301</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>970</v>
-      </c>
-      <c r="F130" s="1" t="s">
-        <v>971</v>
+        <v>179</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>1104</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>775</v>
+        <v>141</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>776</v>
+        <v>167</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>777</v>
+        <v>143</v>
       </c>
       <c r="J130" s="3">
         <v>1</v>
@@ -10418,81 +10387,83 @@
       <c r="L130" s="7">
         <v>0</v>
       </c>
-      <c r="M130" s="7" t="s">
-        <v>780</v>
-      </c>
       <c r="N130" s="1" t="s">
-        <v>778</v>
+        <v>231</v>
       </c>
       <c r="O130" t="s">
-        <v>1099</v>
+        <v>304</v>
       </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A131" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>1111</v>
-      </c>
-      <c r="G131" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H131" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="I131" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J131" s="3">
+      <c r="A131" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D131" s="4"/>
+      <c r="E131" s="4"/>
+      <c r="F131" s="4"/>
+      <c r="G131" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H131" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I131" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J131" s="5">
         <v>1</v>
       </c>
-      <c r="K131" s="7">
-        <v>0</v>
-      </c>
-      <c r="L131" s="7">
-        <v>0</v>
-      </c>
-      <c r="N131" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="O131" t="s">
-        <v>304</v>
+      <c r="K131" s="8">
+        <v>0</v>
+      </c>
+      <c r="L131" s="8">
+        <v>0</v>
+      </c>
+      <c r="M131" s="8"/>
+      <c r="N131" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="O131" s="1" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
-        <v>84</v>
+        <v>262</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>53</v>
+        <v>263</v>
       </c>
       <c r="D132" s="4"/>
-      <c r="E132" s="4"/>
-      <c r="F132" s="4"/>
+      <c r="E132" s="4" t="s">
+        <v>854</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>855</v>
+      </c>
       <c r="G132" s="4" t="s">
-        <v>101</v>
+        <v>258</v>
       </c>
       <c r="H132" s="4" t="s">
-        <v>54</v>
+        <v>264</v>
       </c>
       <c r="I132" s="4" t="s">
-        <v>106</v>
+        <v>252</v>
       </c>
       <c r="J132" s="5">
         <v>1</v>
       </c>
       <c r="K132" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L132" s="8">
         <v>0</v>
@@ -10501,74 +10472,72 @@
       <c r="N132" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="O132" s="1" t="s">
-        <v>446</v>
+      <c r="O132" t="s">
+        <v>1091</v>
       </c>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A133" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="B133" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="C133" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="D133" s="4"/>
-      <c r="E133" s="4" t="s">
-        <v>854</v>
-      </c>
-      <c r="F133" s="4" t="s">
-        <v>855</v>
-      </c>
-      <c r="G133" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="H133" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="I133" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="J133" s="5">
+      <c r="A133" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J133" s="3">
         <v>1</v>
       </c>
-      <c r="K133" s="8">
-        <v>1</v>
-      </c>
-      <c r="L133" s="8">
-        <v>0</v>
-      </c>
-      <c r="M133" s="8"/>
-      <c r="N133" s="4" t="s">
-        <v>445</v>
+      <c r="K133" s="7">
+        <v>0</v>
+      </c>
+      <c r="L133" s="7">
+        <v>0</v>
+      </c>
+      <c r="N133" s="1" t="s">
+        <v>231</v>
       </c>
       <c r="O133" t="s">
-        <v>1098</v>
+        <v>304</v>
       </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>180</v>
+        <v>318</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>302</v>
+        <v>324</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>1112</v>
+        <v>320</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>857</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>141</v>
+        <v>319</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>151</v>
+        <v>321</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>143</v>
+        <v>323</v>
       </c>
       <c r="J134" s="3">
         <v>1</v>
@@ -10580,33 +10549,30 @@
         <v>0</v>
       </c>
       <c r="N134" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="O134" t="s">
-        <v>304</v>
+        <v>325</v>
+      </c>
+      <c r="O134" s="1" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>856</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>857</v>
+        <v>328</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>1106</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="I135" s="1" t="s">
         <v>323</v>
@@ -10621,33 +10587,30 @@
         <v>0</v>
       </c>
       <c r="N135" s="1" t="s">
-        <v>325</v>
+        <v>231</v>
       </c>
       <c r="O135" s="1" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>322</v>
+        <v>85</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>327</v>
+        <v>284</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>1113</v>
+        <v>95</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>329</v>
+        <v>101</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>330</v>
+        <v>57</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>323</v>
+        <v>105</v>
       </c>
       <c r="J136" s="3">
         <v>1</v>
@@ -10658,11 +10621,14 @@
       <c r="L136" s="7">
         <v>0</v>
       </c>
+      <c r="M136" s="7" t="s">
+        <v>605</v>
+      </c>
       <c r="N136" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="O136" s="1" t="s">
-        <v>331</v>
+        <v>240</v>
+      </c>
+      <c r="O136" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.2">
@@ -10670,19 +10636,25 @@
         <v>85</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>95</v>
+        <v>56</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>861</v>
       </c>
       <c r="G137" s="1" t="s">
         <v>101</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J137" s="3">
         <v>1</v>
@@ -10694,13 +10666,13 @@
         <v>0</v>
       </c>
       <c r="M137" s="7" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="N137" s="1" t="s">
-        <v>240</v>
+        <v>789</v>
       </c>
       <c r="O137" t="s">
-        <v>307</v>
+        <v>798</v>
       </c>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.2">
@@ -10708,22 +10680,22 @@
         <v>85</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="I138" s="1" t="s">
         <v>106</v>
@@ -10732,128 +10704,125 @@
         <v>1</v>
       </c>
       <c r="K138" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L138" s="7">
         <v>0</v>
       </c>
       <c r="M138" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="N138" s="1" t="s">
-        <v>789</v>
+        <v>240</v>
       </c>
       <c r="O138" t="s">
-        <v>798</v>
+        <v>308</v>
       </c>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>85</v>
+        <v>609</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>286</v>
+        <v>610</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>858</v>
-      </c>
-      <c r="F139" s="1" t="s">
-        <v>860</v>
+        <v>611</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>1107</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>102</v>
+        <v>612</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>57</v>
+        <v>613</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>106</v>
+        <v>614</v>
       </c>
       <c r="J139" s="3">
         <v>1</v>
       </c>
       <c r="K139" s="7">
+        <v>0</v>
+      </c>
+      <c r="L139" s="7">
+        <v>0</v>
+      </c>
+      <c r="N139" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="O139" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A140" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="D140" s="4"/>
+      <c r="E140" s="4" t="s">
+        <v>862</v>
+      </c>
+      <c r="F140" s="4" t="s">
+        <v>863</v>
+      </c>
+      <c r="G140" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="H140" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="I140" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="J140" s="5">
         <v>1</v>
       </c>
-      <c r="L139" s="7">
-        <v>0</v>
-      </c>
-      <c r="M139" s="7" t="s">
-        <v>605</v>
-      </c>
-      <c r="N139" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="O139" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A140" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>1114</v>
-      </c>
-      <c r="G140" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="H140" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="I140" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="J140" s="3">
-        <v>1</v>
-      </c>
-      <c r="K140" s="7">
-        <v>0</v>
-      </c>
-      <c r="L140" s="7">
-        <v>0</v>
-      </c>
-      <c r="N140" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="O140" t="s">
-        <v>615</v>
+      <c r="K140" s="8">
+        <v>0</v>
+      </c>
+      <c r="L140" s="8">
+        <v>0</v>
+      </c>
+      <c r="M140" s="8"/>
+      <c r="N140" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="O140" s="6" t="s">
+        <v>798</v>
       </c>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
-        <v>309</v>
+        <v>412</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>314</v>
+        <v>413</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="D141" s="4"/>
-      <c r="E141" s="4" t="s">
-        <v>862</v>
-      </c>
-      <c r="F141" s="4" t="s">
-        <v>863</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E141" s="4"/>
+      <c r="F141" s="4"/>
       <c r="G141" s="4" t="s">
-        <v>311</v>
+        <v>415</v>
       </c>
       <c r="H141" s="4" t="s">
-        <v>312</v>
+        <v>416</v>
       </c>
       <c r="I141" s="4" t="s">
-        <v>313</v>
+        <v>417</v>
       </c>
       <c r="J141" s="5">
         <v>1</v>
@@ -10866,90 +10835,90 @@
       </c>
       <c r="M141" s="8"/>
       <c r="N141" s="4" t="s">
-        <v>789</v>
-      </c>
-      <c r="O141" s="6" t="s">
-        <v>798</v>
+        <v>231</v>
+      </c>
+      <c r="O141" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
-        <v>412</v>
+        <v>309</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>413</v>
+        <v>334</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="D142" s="4" t="s">
-        <v>1115</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="D142" s="4"/>
       <c r="E142" s="4"/>
       <c r="F142" s="4"/>
       <c r="G142" s="4" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="H142" s="4" t="s">
-        <v>416</v>
+        <v>33</v>
       </c>
       <c r="I142" s="4" t="s">
-        <v>417</v>
+        <v>313</v>
       </c>
       <c r="J142" s="5">
         <v>1</v>
       </c>
       <c r="K142" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L142" s="8">
         <v>0</v>
       </c>
       <c r="M142" s="8"/>
       <c r="N142" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="O142" t="s">
-        <v>75</v>
+        <v>317</v>
+      </c>
+      <c r="O142" s="4" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A143" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="B143" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="C143" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="D143" s="4"/>
-      <c r="E143" s="4"/>
-      <c r="F143" s="4"/>
-      <c r="G143" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="H143" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I143" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="J143" s="5">
+      <c r="A143" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="I143" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="J143" s="3">
         <v>1</v>
       </c>
-      <c r="K143" s="8">
-        <v>1</v>
-      </c>
-      <c r="L143" s="8">
-        <v>0</v>
-      </c>
-      <c r="M143" s="8"/>
-      <c r="N143" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="O143" s="4" t="s">
-        <v>316</v>
+      <c r="K143" s="7">
+        <v>0</v>
+      </c>
+      <c r="L143" s="7">
+        <v>0</v>
+      </c>
+      <c r="N143" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="O143" t="s">
+        <v>796</v>
       </c>
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.2">
@@ -10957,22 +10926,19 @@
         <v>248</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>864</v>
-      </c>
-      <c r="F144" s="1" t="s">
-        <v>865</v>
+        <v>253</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>1109</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="I144" s="1" t="s">
         <v>252</v>
@@ -10987,33 +10953,33 @@
         <v>0</v>
       </c>
       <c r="N144" s="1" t="s">
-        <v>269</v>
+        <v>231</v>
       </c>
       <c r="O144" t="s">
-        <v>796</v>
+        <v>75</v>
       </c>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>248</v>
+        <v>183</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>303</v>
+        <v>619</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>253</v>
+        <v>184</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>1116</v>
+        <v>1110</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>254</v>
+        <v>141</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>255</v>
+        <v>185</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>252</v>
+        <v>143</v>
       </c>
       <c r="J145" s="3">
         <v>1</v>
@@ -11033,25 +10999,28 @@
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>183</v>
+        <v>86</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>619</v>
+        <v>785</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>1117</v>
+        <v>787</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>806</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>185</v>
+        <v>103</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="J146" s="3">
         <v>1</v>
@@ -11063,33 +11032,33 @@
         <v>0</v>
       </c>
       <c r="N146" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="O146" t="s">
-        <v>75</v>
+        <v>786</v>
+      </c>
+      <c r="O146" s="1" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>785</v>
+        <v>350</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>787</v>
+        <v>96</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="G147" s="1" t="s">
         <v>101</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="I147" s="1" t="s">
         <v>106</v>
@@ -11104,10 +11073,10 @@
         <v>0</v>
       </c>
       <c r="N147" s="1" t="s">
-        <v>786</v>
+        <v>239</v>
       </c>
       <c r="O147" s="1" t="s">
-        <v>797</v>
+        <v>396</v>
       </c>
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.2">
@@ -11115,19 +11084,19 @@
         <v>87</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H148" s="1" t="s">
         <v>50</v>
@@ -11145,36 +11114,33 @@
         <v>0</v>
       </c>
       <c r="N148" s="1" t="s">
-        <v>239</v>
+        <v>353</v>
       </c>
       <c r="O148" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>87</v>
+        <v>182</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>802</v>
-      </c>
-      <c r="F149" s="1" t="s">
-        <v>808</v>
+        <v>186</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>1112</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>50</v>
+        <v>145</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="J149" s="3">
         <v>1</v>
@@ -11185,11 +11151,14 @@
       <c r="L149" s="7">
         <v>0</v>
       </c>
+      <c r="M149" s="7" t="s">
+        <v>602</v>
+      </c>
       <c r="N149" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="O149" s="1" t="s">
-        <v>397</v>
+        <v>231</v>
+      </c>
+      <c r="O149" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.2">
@@ -11197,19 +11166,19 @@
         <v>182</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>352</v>
+        <v>388</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>1119</v>
+        <v>1111</v>
       </c>
       <c r="G150" s="1" t="s">
         <v>141</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>145</v>
+        <v>188</v>
       </c>
       <c r="I150" s="1" t="s">
         <v>143</v>
@@ -11224,7 +11193,7 @@
         <v>0</v>
       </c>
       <c r="M150" s="7" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="N150" s="1" t="s">
         <v>231</v>
@@ -11235,25 +11204,28 @@
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>182</v>
+        <v>25</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>388</v>
+        <v>357</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>1118</v>
+        <v>27</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>810</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>188</v>
+        <v>62</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="J151" s="3">
         <v>1</v>
@@ -11264,37 +11236,34 @@
       <c r="L151" s="7">
         <v>0</v>
       </c>
-      <c r="M151" s="7" t="s">
-        <v>603</v>
-      </c>
       <c r="N151" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="O151" t="s">
-        <v>75</v>
+        <v>359</v>
+      </c>
+      <c r="O151" s="1" t="s">
+        <v>794</v>
       </c>
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>25</v>
+        <v>354</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>357</v>
+        <v>390</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>27</v>
+        <v>389</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>101</v>
+        <v>355</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>62</v>
+        <v>356</v>
       </c>
       <c r="I152" s="1" t="s">
         <v>106</v>
@@ -11312,33 +11281,30 @@
         <v>359</v>
       </c>
       <c r="O152" s="1" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>354</v>
+        <v>189</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>390</v>
+        <v>358</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>811</v>
-      </c>
-      <c r="F153" s="1" t="s">
-        <v>812</v>
+        <v>190</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>1113</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>355</v>
+        <v>141</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>356</v>
+        <v>167</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="J153" s="3">
         <v>1</v>
@@ -11350,36 +11316,39 @@
         <v>0</v>
       </c>
       <c r="N153" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="O153" s="1" t="s">
-        <v>795</v>
+        <v>231</v>
+      </c>
+      <c r="O153" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>189</v>
+        <v>88</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>1120</v>
+        <v>98</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>814</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>167</v>
+        <v>35</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>143</v>
+        <v>260</v>
       </c>
       <c r="J154" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K154" s="7">
         <v>0</v>
@@ -11388,36 +11357,33 @@
         <v>0</v>
       </c>
       <c r="N154" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="O154" t="s">
-        <v>75</v>
+        <v>261</v>
+      </c>
+      <c r="O154" s="1" t="s">
+        <v>715</v>
       </c>
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>88</v>
+        <v>191</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>813</v>
-      </c>
-      <c r="F155" s="1" t="s">
-        <v>814</v>
+        <v>192</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>1114</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>35</v>
+        <v>167</v>
       </c>
       <c r="I155" s="1" t="s">
-        <v>260</v>
+        <v>143</v>
       </c>
       <c r="J155" s="3">
         <v>0</v>
@@ -11429,36 +11395,39 @@
         <v>0</v>
       </c>
       <c r="N155" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="O155" s="1" t="s">
-        <v>715</v>
+        <v>231</v>
+      </c>
+      <c r="O155" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>191</v>
+        <v>26</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>1121</v>
+        <v>99</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>816</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>167</v>
+        <v>104</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="J156" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K156" s="7">
         <v>0</v>
@@ -11466,37 +11435,37 @@
       <c r="L156" s="7">
         <v>0</v>
       </c>
+      <c r="M156" s="7" t="s">
+        <v>607</v>
+      </c>
       <c r="N156" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="O156" t="s">
-        <v>75</v>
+        <v>384</v>
+      </c>
+      <c r="O156" s="1" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>26</v>
+        <v>193</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>815</v>
-      </c>
-      <c r="F157" s="1" t="s">
-        <v>816</v>
+        <v>194</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>1115</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>104</v>
+        <v>151</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="J157" s="3">
         <v>1</v>
@@ -11507,37 +11476,37 @@
       <c r="L157" s="7">
         <v>0</v>
       </c>
-      <c r="M157" s="7" t="s">
-        <v>607</v>
-      </c>
       <c r="N157" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="O157" s="1" t="s">
-        <v>385</v>
+        <v>231</v>
+      </c>
+      <c r="O157" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>193</v>
+        <v>89</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>1122</v>
+        <v>100</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>818</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="I158" s="1" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="J158" s="3">
         <v>1</v>
@@ -11548,37 +11517,37 @@
       <c r="L158" s="7">
         <v>0</v>
       </c>
+      <c r="M158" s="7" t="s">
+        <v>608</v>
+      </c>
       <c r="N158" s="1" t="s">
-        <v>231</v>
+        <v>1199</v>
       </c>
       <c r="O158" t="s">
-        <v>75</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>89</v>
+        <v>195</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>817</v>
-      </c>
-      <c r="F159" s="1" t="s">
-        <v>818</v>
+        <v>196</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>1183</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>34</v>
+        <v>197</v>
       </c>
       <c r="I159" s="1" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="J159" s="3">
         <v>1</v>
@@ -11589,57 +11558,16 @@
       <c r="L159" s="7">
         <v>0</v>
       </c>
-      <c r="M159" s="7" t="s">
-        <v>608</v>
-      </c>
       <c r="N159" s="1" t="s">
-        <v>1206</v>
+        <v>231</v>
       </c>
       <c r="O159" t="s">
-        <v>1205</v>
-      </c>
-    </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A160" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>1190</v>
-      </c>
-      <c r="G160" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H160" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="I160" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J160" s="3">
-        <v>1</v>
-      </c>
-      <c r="K160" s="7">
-        <v>0</v>
-      </c>
-      <c r="L160" s="7">
-        <v>0</v>
-      </c>
-      <c r="N160" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="O160" t="s">
         <v>75</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="G1:G160" xr:uid="{FB69F933-EFF4-4061-AFCA-467F2DCCC9E8}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O145">
+  <autoFilter ref="G1:G159" xr:uid="{FB69F933-EFF4-4061-AFCA-467F2DCCC9E8}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O144">
     <sortCondition ref="J1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -11653,10 +11581,10 @@
   <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K16" sqref="K16"/>
+      <selection pane="bottomRight" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11705,7 +11633,7 @@
         <v>420</v>
       </c>
       <c r="K1" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -11734,7 +11662,7 @@
         <v>0.53900000000000003</v>
       </c>
       <c r="K2" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -11763,33 +11691,33 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>1004</v>
+        <v>997</v>
       </c>
       <c r="B4" t="s">
-        <v>1029</v>
+        <v>1022</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1030</v>
+        <v>1023</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1034</v>
+        <v>1027</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>1031</v>
+        <v>1024</v>
       </c>
       <c r="F4" s="3">
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>1032</v>
+        <v>1025</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>1061</v>
+        <v>1054</v>
       </c>
       <c r="I4">
         <v>0.77</v>
@@ -11797,19 +11725,19 @@
     </row>
     <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>1025</v>
+        <v>1018</v>
       </c>
       <c r="B5" t="s">
-        <v>1033</v>
+        <v>1026</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1030</v>
+        <v>1023</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1034</v>
+        <v>1027</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>1035</v>
+        <v>1028</v>
       </c>
       <c r="F5" s="3">
         <v>0</v>
@@ -11824,28 +11752,28 @@
     </row>
     <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>1044</v>
+        <v>1037</v>
       </c>
       <c r="B6" t="s">
-        <v>1056</v>
+        <v>1049</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1057</v>
+        <v>1050</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1058</v>
+        <v>1051</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>1059</v>
+        <v>1052</v>
       </c>
       <c r="F6" s="3">
         <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>1060</v>
+        <v>1053</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>1070</v>
+        <v>1063</v>
       </c>
       <c r="I6">
         <v>0.89100000000000001</v>
@@ -11877,7 +11805,7 @@
         <v>0.27</v>
       </c>
       <c r="K7" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -11906,24 +11834,24 @@
         <v>0.27</v>
       </c>
       <c r="K8" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>1250</v>
+        <v>1243</v>
       </c>
       <c r="B9" t="s">
-        <v>1251</v>
+        <v>1244</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1252</v>
+        <v>1245</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1252</v>
+        <v>1245</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>1253</v>
+        <v>1246</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
@@ -11932,7 +11860,7 @@
         <v>400</v>
       </c>
       <c r="K9" t="s">
-        <v>1259</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -11961,7 +11889,7 @@
         <v>0.27</v>
       </c>
       <c r="K10" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -11990,7 +11918,7 @@
         <v>0.27</v>
       </c>
       <c r="K11" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -12019,7 +11947,7 @@
         <v>0.27</v>
       </c>
       <c r="K12" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -12048,7 +11976,7 @@
         <v>0.53900000000000003</v>
       </c>
       <c r="K13" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -12077,7 +12005,7 @@
         <v>0.27</v>
       </c>
       <c r="K14" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -12106,7 +12034,7 @@
         <v>0.27</v>
       </c>
       <c r="K15" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -12135,24 +12063,24 @@
         <v>0.27</v>
       </c>
       <c r="K16" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>932</v>
+        <v>925</v>
       </c>
       <c r="B17" t="s">
-        <v>933</v>
+        <v>926</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>934</v>
+        <v>927</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>935</v>
+        <v>928</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>936</v>
+        <v>929</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
@@ -12164,24 +12092,24 @@
         <v>0.53900000000000003</v>
       </c>
       <c r="K17" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>937</v>
+        <v>930</v>
       </c>
       <c r="B18" t="s">
-        <v>940</v>
+        <v>933</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>934</v>
+        <v>927</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>935</v>
+        <v>928</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>952</v>
+        <v>945</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
@@ -12193,24 +12121,24 @@
         <v>0.53900000000000003</v>
       </c>
       <c r="K18" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>938</v>
+        <v>931</v>
       </c>
       <c r="B19" t="s">
-        <v>941</v>
+        <v>934</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>946</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>949</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>953</v>
       </c>
       <c r="F19" s="3">
         <v>0</v>
@@ -12225,82 +12153,82 @@
         <v>0.53900000000000003</v>
       </c>
       <c r="K19" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>958</v>
+        <v>951</v>
       </c>
       <c r="B20" t="s">
-        <v>959</v>
+        <v>952</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>948</v>
+        <v>941</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>769</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>961</v>
+        <v>954</v>
       </c>
       <c r="I20">
         <v>0.54</v>
       </c>
       <c r="K20" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>980</v>
+        <v>973</v>
       </c>
       <c r="B21" t="s">
-        <v>981</v>
+        <v>974</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>982</v>
+        <v>975</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>984</v>
+        <v>977</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>985</v>
+        <v>978</v>
       </c>
       <c r="I21">
         <v>0.53900000000000003</v>
       </c>
       <c r="K21" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>939</v>
+        <v>932</v>
       </c>
       <c r="B22" t="s">
-        <v>942</v>
+        <v>935</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>947</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>950</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>954</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -12312,24 +12240,24 @@
         <v>0.53900000000000003</v>
       </c>
       <c r="K22" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
       <c r="B23" t="s">
-        <v>943</v>
+        <v>936</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>934</v>
+        <v>927</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>935</v>
+        <v>928</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>955</v>
+        <v>948</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
@@ -12341,24 +12269,24 @@
         <v>0.53900000000000003</v>
       </c>
       <c r="K23" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="B24" t="s">
-        <v>944</v>
+        <v>937</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>934</v>
+        <v>927</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>935</v>
+        <v>928</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>956</v>
+        <v>949</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -12372,19 +12300,19 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>928</v>
+        <v>921</v>
       </c>
       <c r="B25" t="s">
-        <v>945</v>
+        <v>938</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>948</v>
+        <v>941</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>951</v>
+        <v>944</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>957</v>
+        <v>950</v>
       </c>
       <c r="F25" s="3">
         <v>0</v>
@@ -12398,16 +12326,16 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>986</v>
+        <v>979</v>
       </c>
       <c r="B26" t="s">
-        <v>987</v>
+        <v>980</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>988</v>
+        <v>981</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>989</v>
+        <v>982</v>
       </c>
       <c r="F26" s="3">
         <v>1</v>
@@ -12445,7 +12373,7 @@
         <v>0.53900000000000003</v>
       </c>
       <c r="K27" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -12474,24 +12402,24 @@
         <v>0.53900000000000003</v>
       </c>
       <c r="K28" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>1218</v>
+        <v>1211</v>
       </c>
       <c r="B29" t="s">
-        <v>1219</v>
+        <v>1212</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>1221</v>
+        <v>1214</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>1221</v>
+        <v>1214</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>1220</v>
+        <v>1213</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -12526,24 +12454,24 @@
         <v>0.53900000000000003</v>
       </c>
       <c r="K30" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>1229</v>
+        <v>1222</v>
       </c>
       <c r="B31" t="s">
-        <v>1230</v>
+        <v>1223</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>1231</v>
+        <v>1224</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>1231</v>
+        <v>1224</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>1232</v>
+        <v>1225</v>
       </c>
       <c r="F31" s="3">
         <v>0</v>
@@ -12578,7 +12506,7 @@
         <v>9</v>
       </c>
       <c r="K32" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
@@ -12633,7 +12561,7 @@
         <v>0.53900000000000003</v>
       </c>
       <c r="K34" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
@@ -12659,13 +12587,13 @@
         <v>406</v>
       </c>
       <c r="H35" t="s">
-        <v>1233</v>
+        <v>1226</v>
       </c>
       <c r="I35">
         <v>0.53900000000000003</v>
       </c>
       <c r="K35" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
@@ -12694,7 +12622,7 @@
         <v>0.53900000000000003</v>
       </c>
       <c r="K36" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
@@ -12749,7 +12677,7 @@
         <v>0.53900000000000003</v>
       </c>
       <c r="K38" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
@@ -12781,24 +12709,24 @@
         <v>0.53900000000000003</v>
       </c>
       <c r="K39" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>1198</v>
+        <v>1191</v>
       </c>
       <c r="B40" t="s">
-        <v>1199</v>
+        <v>1192</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>1200</v>
+        <v>1193</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>1201</v>
+        <v>1194</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>1202</v>
+        <v>1195</v>
       </c>
       <c r="F40" s="3">
         <v>0</v>
@@ -12857,7 +12785,7 @@
         <v>0.45830000000000004</v>
       </c>
       <c r="K42" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
@@ -12886,7 +12814,7 @@
         <v>0.53900000000000003</v>
       </c>
       <c r="K43" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
@@ -12918,7 +12846,7 @@
         <v>0.53900000000000003</v>
       </c>
       <c r="K44" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
@@ -12947,7 +12875,7 @@
         <v>0.53900000000000003</v>
       </c>
       <c r="K45" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
@@ -13003,7 +12931,7 @@
         <v>0.23100000000000001</v>
       </c>
       <c r="K47" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
@@ -13032,7 +12960,7 @@
         <v>0.38500000000000001</v>
       </c>
       <c r="K48" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
     </row>
   </sheetData>
@@ -13284,16 +13212,16 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1192</v>
+        <v>1185</v>
       </c>
       <c r="B17" t="s">
-        <v>1193</v>
+        <v>1186</v>
       </c>
       <c r="C17" t="s">
-        <v>1194</v>
+        <v>1187</v>
       </c>
       <c r="D17" t="s">
-        <v>1195</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -13676,86 +13604,86 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>966</v>
+        <v>959</v>
       </c>
       <c r="B45" t="s">
-        <v>967</v>
+        <v>960</v>
       </c>
       <c r="C45" t="s">
-        <v>968</v>
+        <v>961</v>
       </c>
       <c r="D45" t="s">
-        <v>969</v>
+        <v>962</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>1024</v>
+        <v>1017</v>
       </c>
       <c r="B46" t="s">
-        <v>1023</v>
+        <v>1016</v>
       </c>
       <c r="C46" t="s">
-        <v>1036</v>
+        <v>1029</v>
       </c>
       <c r="D46" t="s">
-        <v>1037</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>1054</v>
+        <v>1047</v>
       </c>
       <c r="B47" t="s">
-        <v>1065</v>
+        <v>1058</v>
       </c>
       <c r="C47" t="s">
-        <v>1066</v>
+        <v>1059</v>
       </c>
       <c r="D47" t="s">
-        <v>1067</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>1053</v>
+        <v>1046</v>
       </c>
       <c r="B48" t="s">
-        <v>1065</v>
+        <v>1058</v>
       </c>
       <c r="C48" t="s">
-        <v>1068</v>
+        <v>1061</v>
       </c>
       <c r="D48" t="s">
-        <v>1069</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>1076</v>
+        <v>1069</v>
       </c>
       <c r="B49" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
       <c r="C49" t="s">
-        <v>1089</v>
+        <v>1082</v>
       </c>
       <c r="D49" t="s">
-        <v>1090</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
       <c r="B50" t="s">
-        <v>1246</v>
+        <v>1239</v>
       </c>
       <c r="C50" t="s">
-        <v>1247</v>
+        <v>1240</v>
       </c>
       <c r="D50" t="s">
-        <v>1248</v>
+        <v>1241</v>
       </c>
     </row>
   </sheetData>
@@ -13808,18 +13736,18 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>998</v>
+        <v>991</v>
       </c>
       <c r="B4" t="s">
-        <v>999</v>
+        <v>992</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1000</v>
+        <v>993</v>
       </c>
       <c r="B5" t="s">
-        <v>1001</v>
+        <v>994</v>
       </c>
     </row>
   </sheetData>
